--- a/simulationResults_b.xlsx
+++ b/simulationResults_b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/PESGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E28AACE-0E9E-4073-936E-4C89D7ABDF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09222FCA-F87B-B546-BBA3-C984CC9029EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="26550" windowHeight="15480" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="400" yWindow="500" windowWidth="26560" windowHeight="15480" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Distributions" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -449,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -492,10 +492,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -507,41 +519,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,261 +865,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
-  <dimension ref="B2:CI129"/>
+  <dimension ref="B2:AJ131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122:R122"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:XFD131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11" style="23"/>
     <col min="3" max="3" width="17.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11" style="23"/>
+    <col min="4" max="15" width="11" style="23"/>
+    <col min="16" max="18" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="23"/>
+    <col min="20" max="20" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="33" width="11" style="23"/>
+    <col min="34" max="36" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="11" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:87" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:36" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:87" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="38"/>
-    </row>
-    <row r="4" spans="2:87" x14ac:dyDescent="0.25">
-      <c r="B4" s="39" t="s">
+    <row r="3" spans="2:36" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="28"/>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="30">
+      <c r="C4" s="49"/>
+      <c r="D4" s="42">
         <v>0.25</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="30">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="42">
         <v>0.5</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="30">
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="42">
         <v>0.75</v>
       </c>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="32"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="44"/>
       <c r="T4" s="23">
-        <v>2004.1510000000001</v>
+        <v>13422.005064201699</v>
       </c>
       <c r="V4" s="23" cm="1">
-        <f t="array" ref="V4:CI4">TRANSPOSE(T4:T69)</f>
-        <v>2004.1510000000001</v>
+        <f t="array" ref="V4:AJ4">TRANSPOSE(T4:T18)</f>
+        <v>13422.005064201699</v>
       </c>
       <c r="W4" s="23">
-        <v>3572.32599999999</v>
+        <v>24420.3874804394</v>
       </c>
       <c r="X4" s="23">
-        <v>6377.9550000000099</v>
+        <v>44355.147017769501</v>
       </c>
       <c r="Y4" s="23">
-        <v>7921.6209999999901</v>
+        <v>54600.642451596599</v>
       </c>
       <c r="Z4" s="23">
-        <v>10040.457</v>
+        <v>69483.700392940998</v>
       </c>
       <c r="AA4" s="23">
-        <v>3572.32599999999</v>
+        <v>11147.0110809664</v>
       </c>
       <c r="AB4" s="23">
-        <v>7921.6209999999901</v>
+        <v>29476.334140168201</v>
       </c>
       <c r="AC4" s="23">
-        <v>11989.241</v>
+        <v>42372.623106654697</v>
       </c>
       <c r="AD4" s="23">
-        <v>16579.73</v>
+        <v>58804.504638791797</v>
       </c>
       <c r="AE4" s="23">
-        <v>20478.616000000002</v>
+        <v>70942.959742109495</v>
       </c>
       <c r="AF4" s="23">
-        <v>0</v>
+        <v>16020.7393217671</v>
       </c>
       <c r="AG4" s="23">
-        <v>0</v>
+        <v>23707.5195693239</v>
       </c>
       <c r="AH4" s="23">
-        <v>0</v>
+        <v>34506.974429385104</v>
       </c>
       <c r="AI4" s="23">
-        <v>0</v>
+        <v>46598.020789553899</v>
       </c>
       <c r="AJ4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BK4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="23">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="23">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="23">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="23">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="23">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="23">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="23">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="23">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="23">
-        <v>18230.887000000101</v>
-      </c>
-      <c r="CH4" s="23">
-        <v>24501.680000000099</v>
-      </c>
-      <c r="CI4" s="23">
-        <v>30062.030999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="2:87" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+        <v>53521.155633401097</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B5" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="41"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="10">
         <v>40</v>
       </c>
@@ -1157,59 +1019,14 @@
         <v>200</v>
       </c>
       <c r="T5" s="23">
-        <v>3572.32599999999</v>
-      </c>
-      <c r="V5" s="23">
-        <v>0</v>
-      </c>
-      <c r="W5" s="23">
-        <v>0</v>
-      </c>
-      <c r="X5" s="23">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="23">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="23">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:87" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+        <v>24420.3874804394</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="24">
@@ -1258,122 +1075,122 @@
         <v>143.09599999999901</v>
       </c>
       <c r="T6" s="23">
-        <v>6377.9550000000099</v>
-      </c>
-    </row>
-    <row r="7" spans="2:87" x14ac:dyDescent="0.25">
-      <c r="B7" s="44"/>
-      <c r="C7" s="43" t="s">
+        <v>44355.147017769501</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B7" s="41"/>
+      <c r="C7" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="32">
         <v>90.058999999999997</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="33">
         <v>189.91899999999899</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="33">
         <v>250.551999999999</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="33">
         <v>333.44899999999899</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="33">
         <v>439.83199999999999</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="32">
         <v>59.173000000000002</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="33">
         <v>118.097999999999</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="33">
         <v>177.28799999999899</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="33">
         <v>217.009999999999</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="33">
         <v>253.658999999999</v>
       </c>
-      <c r="N7" s="45">
+      <c r="N7" s="32">
         <v>31.5259999999999</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="33">
         <v>57.628999999999998</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="33">
         <v>81.817999999999998</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="33">
         <v>115.97099999999899</v>
       </c>
-      <c r="R7" s="47">
+      <c r="R7" s="34">
         <v>139.35499999999999</v>
       </c>
       <c r="T7" s="23">
-        <v>7921.6209999999901</v>
-      </c>
-    </row>
-    <row r="8" spans="2:87" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
+        <v>54600.642451596599</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B8" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50">
+      <c r="C8" s="48"/>
+      <c r="D8" s="35">
         <v>55.4166666666666</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="36">
         <v>62.5</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="36">
         <v>61.3888888888888</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="36">
         <v>59.8958333333333</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="37">
         <v>58.8333333333333</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="35">
         <v>62.5</v>
       </c>
-      <c r="J8" s="51">
+      <c r="J8" s="36">
         <v>59.8958333333333</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="36">
         <v>59.1666666666666</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="36">
         <v>58.6458333333333</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="37">
         <v>57.999999999999901</v>
       </c>
-      <c r="N8" s="50">
+      <c r="N8" s="35">
         <v>61.3888888888888</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="36">
         <v>59.1666666666666</v>
       </c>
-      <c r="P8" s="51">
+      <c r="P8" s="36">
         <v>58.3333333333333</v>
       </c>
-      <c r="Q8" s="51">
+      <c r="Q8" s="36">
         <v>59.062499999999901</v>
       </c>
-      <c r="R8" s="52">
+      <c r="R8" s="37">
         <v>60.0555555555555</v>
       </c>
       <c r="T8" s="23">
-        <v>10040.457</v>
-      </c>
-    </row>
-    <row r="9" spans="2:87" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+        <v>69483.700392940998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B9" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="24">
@@ -1422,68 +1239,68 @@
         <v>143.096</v>
       </c>
       <c r="T9" s="23">
-        <v>3572.32599999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:87" x14ac:dyDescent="0.25">
-      <c r="B10" s="44"/>
-      <c r="C10" s="43" t="s">
+        <v>11147.0110809664</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B10" s="41"/>
+      <c r="C10" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="32">
         <v>195.36699999999999</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="33">
         <v>381.154</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="33">
         <v>579.78699999999901</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="33">
         <v>762.29899999999895</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="33">
         <v>945.03800000000001</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="32">
         <v>485.387</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="33">
         <v>945.11899999999901</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="33">
         <v>1417.0039999999899</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="33">
         <v>1892.183</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="33">
         <v>2384.942</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="32">
         <v>761.87199999999905</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="33">
         <v>1532.3239999999901</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="33">
         <v>2299.84</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="33">
         <v>3068.0509999999999</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="34">
         <v>3867.1559999999899</v>
       </c>
       <c r="T10" s="23">
-        <v>7921.6209999999901</v>
-      </c>
-    </row>
-    <row r="11" spans="2:87" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
+        <v>29476.334140168201</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B11" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="24">
@@ -1532,108 +1349,122 @@
         <v>16.777999999999899</v>
       </c>
       <c r="T11" s="23">
-        <v>11989.241</v>
-      </c>
-    </row>
-    <row r="12" spans="2:87" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="53" t="s">
+        <v>42372.623106654697</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B12" s="41"/>
+      <c r="C12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="32">
         <v>23.068999999999999</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="33">
         <v>38.18</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="33">
         <v>70.010999999999996</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="33">
         <v>102.063</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="33">
         <v>132.15499999999901</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="32">
         <v>38.18</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="33">
         <v>102.063</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="33">
         <v>152.11500000000001</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="33">
         <v>210.26499999999999</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="33">
         <v>263.291</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="32">
         <v>70.010999999999996</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12" s="33">
         <v>152.11500000000001</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="33">
         <v>231.09</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="33">
         <v>313.68599999999998</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="34">
         <v>380.47500000000002</v>
       </c>
       <c r="T12" s="23">
-        <v>16579.73</v>
-      </c>
-    </row>
-    <row r="13" spans="2:87" x14ac:dyDescent="0.25">
+        <v>58804.504638791797</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T13" s="23">
-        <v>20478.616000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="2:87" ht="18" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
+        <v>70942.959742109495</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="T14" s="23">
+        <v>16020.7393217671</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="28" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="2:87" ht="18" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="39" t="s">
+      <c r="T15" s="23">
+        <v>23707.5195693239</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="28"/>
+      <c r="T16" s="23">
+        <v>34506.974429385104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="30">
+      <c r="C17" s="49"/>
+      <c r="D17" s="42">
         <v>0.25</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="30">
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="42">
         <v>0.5</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="30">
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="42">
         <v>0.75</v>
       </c>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="32"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="44"/>
+      <c r="T17" s="23">
+        <v>46598.020789553899</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="41"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="10">
         <v>40</v>
       </c>
@@ -1679,12 +1510,15 @@
       <c r="R18" s="11">
         <v>200</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
+      <c r="T18" s="23">
+        <v>53521.155633401097</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="24">
@@ -1733,113 +1567,113 @@
         <v>30.446999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="44"/>
-      <c r="C20" s="43" t="s">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="41"/>
+      <c r="C20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="32">
         <v>221.73400000000001</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="33">
         <v>516.07500000000005</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="33">
         <v>751.58199999999999</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="33">
         <v>1002.05699999999</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="33">
         <v>1333.7239999999899</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="32">
         <v>161.07</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="33">
         <v>372.03</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="33">
         <v>505.45800000000003</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="33">
         <v>676.41599999999903</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="33">
         <v>824.81899999999996</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="32">
         <v>87.516000000000005</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20" s="33">
         <v>150.453</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P20" s="33">
         <v>203.19900000000001</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="33">
         <v>357.82</v>
       </c>
-      <c r="R20" s="47">
+      <c r="R20" s="34">
         <v>416.897999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="48" t="s">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="50">
+      <c r="C21" s="48"/>
+      <c r="D21" s="35">
         <v>10</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="36">
         <v>9.5833333333333304</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="36">
         <v>12.2222222222222</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="36">
         <v>16.5625</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="37">
         <v>14.9166666666666</v>
       </c>
-      <c r="I21" s="50">
+      <c r="I21" s="35">
         <v>9.5833333333333304</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="36">
         <v>16.5625</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="36">
         <v>13.8194444444444</v>
       </c>
-      <c r="L21" s="51">
+      <c r="L21" s="36">
         <v>13.1770833333333</v>
       </c>
-      <c r="M21" s="52">
+      <c r="M21" s="37">
         <v>13.2916666666666</v>
       </c>
-      <c r="N21" s="50">
+      <c r="N21" s="35">
         <v>12.2222222222222</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O21" s="36">
         <v>13.8194444444444</v>
       </c>
-      <c r="P21" s="51">
+      <c r="P21" s="36">
         <v>13.009259259259199</v>
       </c>
-      <c r="Q21" s="51">
+      <c r="Q21" s="36">
         <v>12.7430555555555</v>
       </c>
-      <c r="R21" s="52">
+      <c r="R21" s="37">
         <v>12.4166666666666</v>
       </c>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="42" t="s">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="24">
@@ -1888,12 +1722,12 @@
         <v>30.446999999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="44"/>
-      <c r="C23" s="53" t="s">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="41"/>
+      <c r="C23" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="38">
         <v>0</v>
       </c>
       <c r="E23" s="23">
@@ -1905,7 +1739,7 @@
       <c r="G23" s="23">
         <v>0</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="39">
         <v>0</v>
       </c>
       <c r="I23" s="23">
@@ -1920,7 +1754,7 @@
       <c r="L23" s="23">
         <v>0</v>
       </c>
-      <c r="M23" s="55">
+      <c r="M23" s="39">
         <v>0</v>
       </c>
       <c r="N23" s="23">
@@ -1935,18 +1769,18 @@
       <c r="Q23" s="23">
         <v>0</v>
       </c>
-      <c r="R23" s="55">
+      <c r="R23" s="39">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="43" t="s">
+      <c r="C24" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="54">
+      <c r="D24" s="38">
         <v>4.1120000000000001</v>
       </c>
       <c r="E24" s="23">
@@ -1958,10 +1792,10 @@
       <c r="G24" s="23">
         <v>16.477</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="39">
         <v>22.358000000000001</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="38">
         <v>9.0299999999999905</v>
       </c>
       <c r="J24" s="23">
@@ -1973,10 +1807,10 @@
       <c r="L24" s="23">
         <v>38.7779999999998</v>
       </c>
-      <c r="M24" s="55">
+      <c r="M24" s="39">
         <v>46.946999999999797</v>
       </c>
-      <c r="N24" s="54">
+      <c r="N24" s="38">
         <v>12.780999999999899</v>
       </c>
       <c r="O24" s="23">
@@ -1988,101 +1822,101 @@
       <c r="Q24" s="23">
         <v>60.550999999999803</v>
       </c>
-      <c r="R24" s="55">
+      <c r="R24" s="39">
         <v>73.428000000000296</v>
       </c>
     </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="44"/>
-      <c r="C25" s="53" t="s">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="41"/>
+      <c r="C25" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="32">
         <v>99.1039999999999</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="33">
         <v>168.33099999999999</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="33">
         <v>293.64800000000002</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="33">
         <v>347.63200000000001</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="33">
         <v>431.16699999999997</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="32">
         <v>168.33099999999999</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="33">
         <v>347.63200000000001</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="33">
         <v>516.73800000000006</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="33">
         <v>724.62499999999795</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="33">
         <v>903.57199999999705</v>
       </c>
-      <c r="N25" s="45">
+      <c r="N25" s="32">
         <v>293.64800000000002</v>
       </c>
-      <c r="O25" s="46">
+      <c r="O25" s="33">
         <v>516.73800000000006</v>
       </c>
-      <c r="P25" s="46">
+      <c r="P25" s="33">
         <v>799.92199999999696</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="Q25" s="33">
         <v>1065.77699999999</v>
       </c>
-      <c r="R25" s="47">
+      <c r="R25" s="34">
         <v>1324.3039999999901</v>
       </c>
     </row>
-    <row r="28" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B28" s="38" t="s">
+    <row r="28" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="28" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="39" t="s">
+    <row r="29" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="28"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="30">
+      <c r="C30" s="49"/>
+      <c r="D30" s="42">
         <v>0.25</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="30">
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="42">
         <v>0.5</v>
       </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="30">
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="42">
         <v>0.75</v>
       </c>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="32"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="44"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="41"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="10">
         <v>40</v>
       </c>
@@ -2129,11 +1963,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="s">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="24">
@@ -2182,113 +2016,113 @@
         <v>6354.0019999999904</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="44"/>
-      <c r="C33" s="43" t="s">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B33" s="41"/>
+      <c r="C33" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D33" s="32">
         <v>3962.0720000000001</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="33">
         <v>8124.8789999999899</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="33">
         <v>11716.35</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="33">
         <v>15742.833000000001</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="33">
         <v>20326.177999999902</v>
       </c>
-      <c r="I33" s="45">
+      <c r="I33" s="32">
         <v>2297.0259999999898</v>
       </c>
-      <c r="J33" s="46">
+      <c r="J33" s="33">
         <v>5013.4430000000002</v>
       </c>
-      <c r="K33" s="46">
+      <c r="K33" s="33">
         <v>7156.5720000000001</v>
       </c>
-      <c r="L33" s="46">
+      <c r="L33" s="33">
         <v>9472.7380000000103</v>
       </c>
-      <c r="M33" s="46">
+      <c r="M33" s="33">
         <v>11543.5999999999</v>
       </c>
-      <c r="N33" s="45">
+      <c r="N33" s="32">
         <v>1215.5719999999999</v>
       </c>
-      <c r="O33" s="46">
+      <c r="O33" s="33">
         <v>2120.0809999999901</v>
       </c>
-      <c r="P33" s="46">
+      <c r="P33" s="33">
         <v>3240.2179999999998</v>
       </c>
-      <c r="Q33" s="46">
+      <c r="Q33" s="33">
         <v>4690.9759999999997</v>
       </c>
-      <c r="R33" s="47">
+      <c r="R33" s="34">
         <v>5716.29</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="48" t="s">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50">
+      <c r="C34" s="48"/>
+      <c r="D34" s="35">
         <v>45.470430107526802</v>
       </c>
-      <c r="E34" s="51">
+      <c r="E34" s="36">
         <v>45.8400537634408</v>
       </c>
-      <c r="F34" s="51">
+      <c r="F34" s="36">
         <v>44.659498207885299</v>
       </c>
-      <c r="G34" s="51">
+      <c r="G34" s="36">
         <v>46.592741935483801</v>
       </c>
-      <c r="H34" s="52">
+      <c r="H34" s="37">
         <v>46.803763440860202</v>
       </c>
-      <c r="I34" s="50">
+      <c r="I34" s="35">
         <v>45.8400537634408</v>
       </c>
-      <c r="J34" s="51">
+      <c r="J34" s="36">
         <v>46.592741935483801</v>
       </c>
-      <c r="K34" s="51">
+      <c r="K34" s="36">
         <v>47.327508960573397</v>
       </c>
-      <c r="L34" s="51">
+      <c r="L34" s="36">
         <v>47.281586021505298</v>
       </c>
-      <c r="M34" s="52">
+      <c r="M34" s="37">
         <v>47.227150537634401</v>
       </c>
-      <c r="N34" s="50">
+      <c r="N34" s="35">
         <v>44.659498207885299</v>
       </c>
-      <c r="O34" s="51">
+      <c r="O34" s="36">
         <v>47.327508960573397</v>
       </c>
-      <c r="P34" s="51">
+      <c r="P34" s="36">
         <v>47.519414575866101</v>
       </c>
-      <c r="Q34" s="51">
+      <c r="Q34" s="36">
         <v>47.001568100358398</v>
       </c>
-      <c r="R34" s="52">
+      <c r="R34" s="37">
         <v>47.6272401433691</v>
       </c>
     </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="42" t="s">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B35" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="24">
@@ -2337,62 +2171,62 @@
         <v>6354.0019999999904</v>
       </c>
     </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="44"/>
-      <c r="C36" s="43" t="s">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B36" s="41"/>
+      <c r="C36" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="32">
         <v>1996.89399999999</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="33">
         <v>4187.6409999999896</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="33">
         <v>6057.6900000000096</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="33">
         <v>8282.9299999999894</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H36" s="33">
         <v>10395.513999999999</v>
       </c>
-      <c r="I36" s="45">
+      <c r="I36" s="32">
         <v>7893.8299999999899</v>
       </c>
-      <c r="J36" s="46">
+      <c r="J36" s="33">
         <v>15255.625</v>
       </c>
-      <c r="K36" s="46">
+      <c r="K36" s="33">
         <v>23387.566999999999</v>
       </c>
-      <c r="L36" s="46">
+      <c r="L36" s="33">
         <v>30907.7239999999</v>
       </c>
-      <c r="M36" s="46">
+      <c r="M36" s="33">
         <v>39006.135000000002</v>
       </c>
-      <c r="N36" s="45">
+      <c r="N36" s="32">
         <v>13392.458000000001</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="33">
         <v>27885.117999999999</v>
       </c>
-      <c r="P36" s="46">
+      <c r="P36" s="33">
         <v>41847.157999999901</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="33">
         <v>55185.131999999903</v>
       </c>
-      <c r="R36" s="47">
+      <c r="R36" s="34">
         <v>69848.159999999902</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="42" t="s">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B37" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="24">
@@ -2441,97 +2275,97 @@
         <v>2562.0309999999699</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="44"/>
-      <c r="C38" s="53" t="s">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B38" s="41"/>
+      <c r="C38" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="32">
         <v>1051.4369999999999</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="33">
         <v>2031.627</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="33">
         <v>3580.2909999999802</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="33">
         <v>4401.9659999999903</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="33">
         <v>5513.1819999999698</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I38" s="32">
         <v>2031.627</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="33">
         <v>4401.9659999999903</v>
       </c>
-      <c r="K38" s="46">
+      <c r="K38" s="33">
         <v>6553.7069999999403</v>
       </c>
-      <c r="L38" s="46">
+      <c r="L38" s="33">
         <v>8969.5239999999794</v>
       </c>
-      <c r="M38" s="46">
+      <c r="M38" s="33">
         <v>11215.2600000001</v>
       </c>
-      <c r="N38" s="45">
+      <c r="N38" s="32">
         <v>3580.2909999999802</v>
       </c>
-      <c r="O38" s="46">
+      <c r="O38" s="33">
         <v>6553.7069999999403</v>
       </c>
-      <c r="P38" s="46">
+      <c r="P38" s="33">
         <v>9945.9360000000197</v>
       </c>
-      <c r="Q38" s="46">
+      <c r="Q38" s="33">
         <v>13579.2340000001</v>
       </c>
-      <c r="R38" s="47">
+      <c r="R38" s="34">
         <v>16573.290000000201</v>
       </c>
     </row>
-    <row r="41" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B41" s="38" t="s">
+    <row r="41" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B41" s="28" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="39" t="s">
+    <row r="42" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B42" s="28"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B43" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="40"/>
-      <c r="D43" s="30">
+      <c r="C43" s="49"/>
+      <c r="D43" s="42">
         <v>0.25</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="30">
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="42">
         <v>0.5</v>
       </c>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="30">
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="42">
         <v>0.75</v>
       </c>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="32"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="39" t="s">
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="44"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B44" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="41"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="10">
         <v>40</v>
       </c>
@@ -2578,11 +2412,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="42" t="s">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B45" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="43" t="s">
+      <c r="C45" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D45" s="24">
@@ -2631,113 +2465,113 @@
         <v>4135.3130000000001</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="44"/>
-      <c r="C46" s="43" t="s">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B46" s="41"/>
+      <c r="C46" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D46" s="32">
         <v>6331.741</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="33">
         <v>13721.902</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="33">
         <v>20042.866000000002</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="33">
         <v>26758.088999999902</v>
       </c>
-      <c r="H46" s="46">
+      <c r="H46" s="33">
         <v>34377.582999999897</v>
       </c>
-      <c r="I46" s="45">
+      <c r="I46" s="32">
         <v>3908.163</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="33">
         <v>8725.8090000000193</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46" s="33">
         <v>12500.022000000001</v>
       </c>
-      <c r="L46" s="46">
+      <c r="L46" s="33">
         <v>16522.157999999999</v>
       </c>
-      <c r="M46" s="46">
+      <c r="M46" s="33">
         <v>20331.940999999999</v>
       </c>
-      <c r="N46" s="45">
+      <c r="N46" s="32">
         <v>2135.1309999999899</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="33">
         <v>3552.105</v>
       </c>
-      <c r="P46" s="46">
+      <c r="P46" s="33">
         <v>5231.0429999999997</v>
       </c>
-      <c r="Q46" s="46">
+      <c r="Q46" s="33">
         <v>7996.2030000000204</v>
       </c>
-      <c r="R46" s="47">
+      <c r="R46" s="34">
         <v>9693.7629999999899</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="48" t="s">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B47" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="50">
+      <c r="C47" s="48"/>
+      <c r="D47" s="35">
         <v>23.9919354838709</v>
       </c>
-      <c r="E47" s="51">
+      <c r="E47" s="36">
         <v>25.1747311827957</v>
       </c>
-      <c r="F47" s="51">
+      <c r="F47" s="36">
         <v>23.853046594982001</v>
       </c>
-      <c r="G47" s="51">
+      <c r="G47" s="36">
         <v>24.543010752688101</v>
       </c>
-      <c r="H47" s="52">
+      <c r="H47" s="37">
         <v>24.403225806451601</v>
       </c>
-      <c r="I47" s="50">
+      <c r="I47" s="35">
         <v>25.1747311827957</v>
       </c>
-      <c r="J47" s="51">
+      <c r="J47" s="36">
         <v>24.543010752688101</v>
       </c>
-      <c r="K47" s="51">
+      <c r="K47" s="36">
         <v>24.363799283154101</v>
       </c>
-      <c r="L47" s="51">
+      <c r="L47" s="36">
         <v>24.002016129032199</v>
       </c>
-      <c r="M47" s="52">
+      <c r="M47" s="37">
         <v>24.034946236559101</v>
       </c>
-      <c r="N47" s="50">
+      <c r="N47" s="35">
         <v>23.853046594982001</v>
       </c>
-      <c r="O47" s="51">
+      <c r="O47" s="36">
         <v>24.363799283154101</v>
       </c>
-      <c r="P47" s="51">
+      <c r="P47" s="36">
         <v>24.151732377538799</v>
       </c>
-      <c r="Q47" s="51">
+      <c r="Q47" s="36">
         <v>24.086021505376301</v>
       </c>
-      <c r="R47" s="52">
+      <c r="R47" s="37">
         <v>24.215949820788499</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="42" t="s">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B48" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="31" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="24">
@@ -2786,62 +2620,62 @@
         <v>4135.3130000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="44"/>
-      <c r="C49" s="43" t="s">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B49" s="41"/>
+      <c r="C49" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="45">
+      <c r="D49" s="32">
         <v>612.00800000000004</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="33">
         <v>1230.9449999999999</v>
       </c>
-      <c r="F49" s="46">
+      <c r="F49" s="33">
         <v>1679.9569999999901</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="33">
         <v>2330.3409999999999</v>
       </c>
-      <c r="H49" s="46">
+      <c r="H49" s="33">
         <v>2986.5859999999898</v>
       </c>
-      <c r="I49" s="45">
+      <c r="I49" s="32">
         <v>2584.8179999999902</v>
       </c>
-      <c r="J49" s="46">
+      <c r="J49" s="33">
         <v>4821.5010000000002</v>
       </c>
-      <c r="K49" s="46">
+      <c r="K49" s="33">
         <v>7360.8819999999896</v>
       </c>
-      <c r="L49" s="46">
+      <c r="L49" s="33">
         <v>9634.0409999999993</v>
       </c>
-      <c r="M49" s="46">
+      <c r="M49" s="33">
         <v>12171.7079999999</v>
       </c>
-      <c r="N49" s="45">
+      <c r="N49" s="32">
         <v>4493.5659999999898</v>
       </c>
-      <c r="O49" s="46">
+      <c r="O49" s="33">
         <v>9580.5769999999902</v>
       </c>
-      <c r="P49" s="46">
+      <c r="P49" s="33">
         <v>14392.8669999999</v>
       </c>
-      <c r="Q49" s="46">
+      <c r="Q49" s="33">
         <v>18823.526999999998</v>
       </c>
-      <c r="R49" s="47">
+      <c r="R49" s="34">
         <v>23899.341</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="42" t="s">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B50" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="43" t="s">
+      <c r="C50" s="31" t="s">
         <v>31</v>
       </c>
       <c r="D50" s="24">
@@ -2890,97 +2724,97 @@
         <v>3341.7869999999898</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="44"/>
-      <c r="C51" s="53" t="s">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B51" s="41"/>
+      <c r="C51" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D51" s="45">
+      <c r="D51" s="32">
         <v>2004.1510000000001</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="33">
         <v>3572.32599999999</v>
       </c>
-      <c r="F51" s="46">
+      <c r="F51" s="33">
         <v>6377.9550000000099</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="33">
         <v>7921.6209999999901</v>
       </c>
-      <c r="H51" s="46">
+      <c r="H51" s="33">
         <v>10040.457</v>
       </c>
-      <c r="I51" s="45">
+      <c r="I51" s="32">
         <v>3572.32599999999</v>
       </c>
-      <c r="J51" s="46">
+      <c r="J51" s="33">
         <v>7921.6209999999901</v>
       </c>
-      <c r="K51" s="46">
+      <c r="K51" s="33">
         <v>11989.241</v>
       </c>
-      <c r="L51" s="46">
+      <c r="L51" s="33">
         <v>16579.73</v>
       </c>
-      <c r="M51" s="46">
+      <c r="M51" s="33">
         <v>20478.616000000002</v>
       </c>
-      <c r="N51" s="45">
+      <c r="N51" s="32">
         <v>6377.9550000000099</v>
       </c>
-      <c r="O51" s="46">
+      <c r="O51" s="33">
         <v>11989.241</v>
       </c>
-      <c r="P51" s="46">
+      <c r="P51" s="33">
         <v>18230.887000000101</v>
       </c>
-      <c r="Q51" s="46">
+      <c r="Q51" s="33">
         <v>24501.680000000099</v>
       </c>
-      <c r="R51" s="47">
+      <c r="R51" s="34">
         <v>30062.030999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B54" s="38" t="s">
+    <row r="54" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B54" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="38"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B56" s="39" t="s">
+    <row r="55" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B55" s="28"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B56" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="40"/>
-      <c r="D56" s="30">
+      <c r="C56" s="49"/>
+      <c r="D56" s="42">
         <v>0.25</v>
       </c>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="30">
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="42">
         <v>0.5</v>
       </c>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="30">
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="43"/>
+      <c r="M56" s="43"/>
+      <c r="N56" s="42">
         <v>0.75</v>
       </c>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="32"/>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B57" s="39" t="s">
+      <c r="O56" s="43"/>
+      <c r="P56" s="43"/>
+      <c r="Q56" s="43"/>
+      <c r="R56" s="44"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B57" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="41"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="10">
         <v>40</v>
       </c>
@@ -3027,11 +2861,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B58" s="42" t="s">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B58" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D58" s="24">
@@ -3080,765 +2914,1103 @@
         <v>64892.758999999998</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B59" s="44"/>
-      <c r="C59" s="43" t="s">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B59" s="41"/>
+      <c r="C59" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D59" s="45">
+      <c r="D59" s="32">
         <v>56296.473000000296</v>
       </c>
-      <c r="E59" s="46">
+      <c r="E59" s="33">
         <v>120654.103999999</v>
       </c>
-      <c r="F59" s="46">
+      <c r="F59" s="33">
         <v>176162.95</v>
       </c>
-      <c r="G59" s="46">
+      <c r="G59" s="33">
         <v>235511.42499999999</v>
       </c>
-      <c r="H59" s="46">
+      <c r="H59" s="33">
         <v>305454.154999997</v>
       </c>
-      <c r="I59" s="45">
+      <c r="I59" s="32">
         <v>33110.817999999897</v>
       </c>
-      <c r="J59" s="46">
+      <c r="J59" s="33">
         <v>74059.871999999596</v>
       </c>
-      <c r="K59" s="46">
+      <c r="K59" s="33">
         <v>106312.841999999</v>
       </c>
-      <c r="L59" s="46">
+      <c r="L59" s="33">
         <v>140602.107999998</v>
       </c>
-      <c r="M59" s="46">
+      <c r="M59" s="33">
         <v>173752.788999999</v>
       </c>
-      <c r="N59" s="45">
+      <c r="N59" s="32">
         <v>18220.236000000001</v>
       </c>
-      <c r="O59" s="46">
+      <c r="O59" s="33">
         <v>30495.0969999999</v>
       </c>
-      <c r="P59" s="46">
+      <c r="P59" s="33">
         <v>45562.927000000403</v>
       </c>
-      <c r="Q59" s="46">
+      <c r="Q59" s="33">
         <v>68649.409999999596</v>
       </c>
-      <c r="R59" s="47">
+      <c r="R59" s="34">
         <v>83217.548999999795</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B60" s="48" t="s">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B60" s="60"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="32">
+        <f>SUM(D58:D59)</f>
+        <v>82420.451000000205</v>
+      </c>
+      <c r="E60" s="32">
+        <f t="shared" ref="E60:R60" si="0">SUM(E58:E59)</f>
+        <v>176000.418999999</v>
+      </c>
+      <c r="F60" s="32">
+        <f t="shared" si="0"/>
+        <v>255329.97499999992</v>
+      </c>
+      <c r="G60" s="32">
+        <f t="shared" si="0"/>
+        <v>343922.83899999899</v>
+      </c>
+      <c r="H60" s="32">
+        <f t="shared" si="0"/>
+        <v>440802.170999997</v>
+      </c>
+      <c r="I60" s="32">
+        <f t="shared" si="0"/>
+        <v>56378.244999999893</v>
+      </c>
+      <c r="J60" s="32">
+        <f t="shared" si="0"/>
+        <v>122188.1639999996</v>
+      </c>
+      <c r="K60" s="32">
+        <f t="shared" si="0"/>
+        <v>176000.41899999912</v>
+      </c>
+      <c r="L60" s="32">
+        <f t="shared" si="0"/>
+        <v>232066.24799999822</v>
+      </c>
+      <c r="M60" s="32">
+        <f t="shared" si="0"/>
+        <v>286755.05799999903</v>
+      </c>
+      <c r="N60" s="32">
+        <f t="shared" si="0"/>
+        <v>32775.702000000005</v>
+      </c>
+      <c r="O60" s="32">
+        <f t="shared" si="0"/>
+        <v>56378.244999999901</v>
+      </c>
+      <c r="P60" s="32">
+        <f t="shared" si="0"/>
+        <v>82420.451000000205</v>
+      </c>
+      <c r="Q60" s="32">
+        <f t="shared" si="0"/>
+        <v>122188.1639999997</v>
+      </c>
+      <c r="R60" s="32">
+        <f t="shared" si="0"/>
+        <v>148110.30799999979</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B61" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="50">
+      <c r="C61" s="48"/>
+      <c r="D61" s="35">
         <v>38.901411657559201</v>
       </c>
-      <c r="E60" s="51">
+      <c r="E61" s="36">
         <v>39.970969945355101</v>
       </c>
-      <c r="F60" s="51">
+      <c r="F61" s="36">
         <v>38.6741044323011</v>
       </c>
-      <c r="G60" s="51">
+      <c r="G61" s="36">
         <v>39.404883879781401</v>
       </c>
-      <c r="H60" s="52">
+      <c r="H61" s="37">
         <v>39.383652094717597</v>
       </c>
-      <c r="I60" s="50">
+      <c r="I61" s="35">
         <v>39.970969945355101</v>
       </c>
-      <c r="J60" s="51">
+      <c r="J61" s="36">
         <v>39.404883879781401</v>
       </c>
-      <c r="K60" s="51">
+      <c r="K61" s="36">
         <v>39.425091074681198</v>
       </c>
-      <c r="L60" s="51">
+      <c r="L61" s="36">
         <v>39.043858151183898</v>
       </c>
-      <c r="M60" s="52">
+      <c r="M61" s="37">
         <v>39.171903460837797</v>
       </c>
-      <c r="N60" s="50">
+      <c r="N61" s="35">
         <v>38.6741044323011</v>
       </c>
-      <c r="O60" s="51">
+      <c r="O61" s="36">
         <v>39.425091074681198</v>
       </c>
-      <c r="P60" s="51">
+      <c r="P61" s="36">
         <v>39.213595426027098</v>
       </c>
-      <c r="Q60" s="51">
+      <c r="Q61" s="36">
         <v>39.1953172434729</v>
       </c>
-      <c r="R60" s="52">
+      <c r="R61" s="37">
         <v>39.247115968427401</v>
       </c>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="42" t="s">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B62" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="43" t="s">
+      <c r="C62" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="24">
+      <c r="D62" s="24">
         <v>26123.977999999901</v>
       </c>
-      <c r="E61" s="25">
+      <c r="E62" s="25">
         <v>55346.315000000002</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F62" s="25">
         <v>79167.024999999907</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G62" s="25">
         <v>108411.413999999</v>
       </c>
-      <c r="H61" s="26">
+      <c r="H62" s="26">
         <v>135348.016</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I62" s="24">
         <v>23267.427</v>
       </c>
-      <c r="J61" s="25">
+      <c r="J62" s="25">
         <v>48128.292000000001</v>
       </c>
-      <c r="K61" s="25">
+      <c r="K62" s="25">
         <v>69687.577000000107</v>
       </c>
-      <c r="L61" s="25">
+      <c r="L62" s="25">
         <v>91464.140000000203</v>
       </c>
-      <c r="M61" s="26">
+      <c r="M62" s="26">
         <v>113002.269</v>
       </c>
-      <c r="N61" s="24">
+      <c r="N62" s="24">
         <v>14555.466</v>
       </c>
-      <c r="O61" s="25">
+      <c r="O62" s="25">
         <v>25883.148000000001</v>
       </c>
-      <c r="P61" s="25">
+      <c r="P62" s="25">
         <v>36857.523999999801</v>
       </c>
-      <c r="Q61" s="25">
+      <c r="Q62" s="25">
         <v>53538.754000000103</v>
       </c>
-      <c r="R61" s="26">
+      <c r="R62" s="26">
         <v>64892.758999999998</v>
       </c>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="44"/>
-      <c r="C62" s="43" t="s">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B63" s="41"/>
+      <c r="C63" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D62" s="45">
+      <c r="D63" s="32">
         <v>16398.6719999999</v>
       </c>
-      <c r="E62" s="46">
+      <c r="E63" s="33">
         <v>33072.267999999902</v>
       </c>
-      <c r="F62" s="46">
+      <c r="F63" s="33">
         <v>47429.379000000103</v>
       </c>
-      <c r="G62" s="46">
+      <c r="G63" s="33">
         <v>64222.389000000199</v>
       </c>
-      <c r="H62" s="46">
+      <c r="H63" s="33">
         <v>80558.0129999989</v>
       </c>
-      <c r="I62" s="45">
+      <c r="I63" s="32">
         <v>65151.155999999901</v>
       </c>
-      <c r="J62" s="46">
+      <c r="J63" s="33">
         <v>124505.51099999899</v>
       </c>
-      <c r="K62" s="46">
+      <c r="K63" s="33">
         <v>189702.80999999901</v>
       </c>
-      <c r="L62" s="46">
+      <c r="L63" s="33">
         <v>250159.80300000001</v>
       </c>
-      <c r="M62" s="46">
+      <c r="M63" s="33">
         <v>315182.012999998</v>
       </c>
-      <c r="N62" s="45">
+      <c r="N63" s="32">
         <v>112040.93799999999</v>
       </c>
-      <c r="O62" s="46">
+      <c r="O63" s="33">
         <v>233507.23899999901</v>
       </c>
-      <c r="P62" s="46">
+      <c r="P63" s="33">
         <v>349755.27900000103</v>
       </c>
-      <c r="Q62" s="46">
+      <c r="Q63" s="33">
         <v>460590.66800000001</v>
       </c>
-      <c r="R62" s="47">
+      <c r="R63" s="34">
         <v>582188.41700000002</v>
       </c>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B63" s="42" t="s">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B64" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C64" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D63" s="24">
+      <c r="D64" s="24">
         <v>2833.4379999999901</v>
       </c>
-      <c r="E63" s="25">
+      <c r="E64" s="25">
         <v>4199.1859999999997</v>
       </c>
-      <c r="F63" s="25">
+      <c r="F64" s="25">
         <v>9300.4200000001492</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G64" s="25">
         <v>10780.7570000003</v>
       </c>
-      <c r="H63" s="26">
+      <c r="H64" s="26">
         <v>13396.9970000005</v>
       </c>
-      <c r="I63" s="24">
+      <c r="I64" s="24">
         <v>4199.1859999999997</v>
       </c>
-      <c r="J63" s="25">
+      <c r="J64" s="25">
         <v>10780.7570000003</v>
       </c>
-      <c r="K63" s="25">
+      <c r="K64" s="25">
         <v>15392.861000000699</v>
       </c>
-      <c r="L63" s="25">
+      <c r="L64" s="25">
         <v>21692.105000000902</v>
       </c>
-      <c r="M63" s="26">
+      <c r="M64" s="26">
         <v>26358.3100000007</v>
       </c>
-      <c r="N63" s="24">
+      <c r="N64" s="24">
         <v>9300.4200000001492</v>
       </c>
-      <c r="O63" s="25">
+      <c r="O64" s="25">
         <v>15392.861000000699</v>
       </c>
-      <c r="P63" s="25">
+      <c r="P64" s="25">
         <v>23411.733000000699</v>
       </c>
-      <c r="Q63" s="25">
+      <c r="Q64" s="25">
         <v>31420.039000001001</v>
       </c>
-      <c r="R63" s="26">
+      <c r="R64" s="26">
         <v>37448.582999999897</v>
       </c>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="44"/>
-      <c r="C64" s="53" t="s">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B65" s="41"/>
+      <c r="C65" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D64" s="45">
+      <c r="D65" s="32">
         <v>16792.9820000004</v>
       </c>
-      <c r="E64" s="46">
+      <c r="E65" s="33">
         <v>30673.140000001302</v>
       </c>
-      <c r="F64" s="46">
+      <c r="F65" s="33">
         <v>54479.106999999502</v>
       </c>
-      <c r="G64" s="46">
+      <c r="G65" s="33">
         <v>67729.903999998001</v>
       </c>
-      <c r="H64" s="46">
+      <c r="H65" s="33">
         <v>85985.149999994799</v>
       </c>
-      <c r="I64" s="45">
+      <c r="I65" s="32">
         <v>30673.140000001302</v>
       </c>
-      <c r="J64" s="46">
+      <c r="J65" s="33">
         <v>67729.903999998001</v>
       </c>
-      <c r="K64" s="46">
+      <c r="K65" s="33">
         <v>102431.10699999399</v>
       </c>
-      <c r="L64" s="46">
+      <c r="L65" s="33">
         <v>141663.78999999099</v>
       </c>
-      <c r="M64" s="46">
+      <c r="M65" s="33">
         <v>174969.47799998501</v>
       </c>
-      <c r="N64" s="45">
+      <c r="N65" s="32">
         <v>54479.106999999502</v>
       </c>
-      <c r="O64" s="46">
+      <c r="O65" s="33">
         <v>102431.10699999399</v>
       </c>
-      <c r="P64" s="46">
+      <c r="P65" s="33">
         <v>156284.82199998901</v>
       </c>
-      <c r="Q64" s="46">
+      <c r="Q65" s="33">
         <v>209593.245999979</v>
       </c>
-      <c r="R64" s="47">
+      <c r="R65" s="34">
         <v>257734.99999998201</v>
       </c>
     </row>
-    <row r="67" spans="2:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B67" s="38" t="s">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B66" s="57"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="59">
+        <f>SUM(D62:D65)</f>
+        <v>62149.070000000196</v>
+      </c>
+      <c r="E66" s="59">
+        <f>SUM(E62:E65)</f>
+        <v>123290.90900000121</v>
+      </c>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
+      <c r="J66" s="59"/>
+      <c r="K66" s="59"/>
+      <c r="L66" s="59"/>
+      <c r="M66" s="59"/>
+      <c r="N66" s="59"/>
+      <c r="O66" s="59"/>
+      <c r="P66" s="59"/>
+      <c r="Q66" s="59"/>
+      <c r="R66" s="59"/>
+    </row>
+    <row r="68" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B68" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B69" s="28"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="49"/>
+      <c r="D70" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="42">
+        <v>0.5</v>
+      </c>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43"/>
+      <c r="N70" s="42">
+        <v>0.75</v>
+      </c>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="44"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B71" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="46"/>
+      <c r="D71" s="10">
+        <v>40</v>
+      </c>
+      <c r="E71" s="9">
+        <v>80</v>
+      </c>
+      <c r="F71" s="9">
+        <v>120</v>
+      </c>
+      <c r="G71" s="9">
+        <v>160</v>
+      </c>
+      <c r="H71" s="9">
+        <v>200</v>
+      </c>
+      <c r="I71" s="10">
+        <v>40</v>
+      </c>
+      <c r="J71" s="9">
+        <v>80</v>
+      </c>
+      <c r="K71" s="9">
+        <v>120</v>
+      </c>
+      <c r="L71" s="9">
+        <v>160</v>
+      </c>
+      <c r="M71" s="9">
+        <v>200</v>
+      </c>
+      <c r="N71" s="10">
+        <v>40</v>
+      </c>
+      <c r="O71" s="9">
+        <v>80</v>
+      </c>
+      <c r="P71" s="9">
+        <v>120</v>
+      </c>
+      <c r="Q71" s="9">
+        <v>160</v>
+      </c>
+      <c r="R71" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B72" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D72" s="24">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="E72" s="25">
+        <v>82019.877758255199</v>
+      </c>
+      <c r="F72" s="25">
+        <v>116218.580895627</v>
+      </c>
+      <c r="G72" s="25">
+        <v>159138.987787872</v>
+      </c>
+      <c r="H72" s="26">
+        <v>199051.54997373</v>
+      </c>
+      <c r="I72" s="24">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="J72" s="25">
+        <v>98926.584932192694</v>
+      </c>
+      <c r="K72" s="25">
+        <v>143445.815290161</v>
+      </c>
+      <c r="L72" s="25">
+        <v>187520.878512628</v>
+      </c>
+      <c r="M72" s="26">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="N72" s="24">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="O72" s="25">
+        <v>55318.520663591</v>
+      </c>
+      <c r="P72" s="25">
+        <v>80685.706887105494</v>
+      </c>
+      <c r="Q72" s="25">
+        <v>118353.559455394</v>
+      </c>
+      <c r="R72" s="26">
+        <v>143837.329561235</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B73" s="41"/>
+      <c r="C73" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" s="32">
+        <v>43331.404561845397</v>
+      </c>
+      <c r="E73" s="33">
+        <v>93980.541241744097</v>
+      </c>
+      <c r="F73" s="33">
+        <v>139111.39410437201</v>
+      </c>
+      <c r="G73" s="33">
+        <v>184783.85121212801</v>
+      </c>
+      <c r="H73" s="33">
+        <v>241750.62102626701</v>
+      </c>
+      <c r="I73" s="32">
+        <v>9044.2498304456894</v>
+      </c>
+      <c r="J73" s="33">
+        <v>23261.579067807001</v>
+      </c>
+      <c r="K73" s="33">
+        <v>32554.6037098382</v>
+      </c>
+      <c r="L73" s="33">
+        <v>44545.369487370503</v>
+      </c>
+      <c r="M73" s="33">
+        <v>54329.548304848198</v>
+      </c>
+      <c r="N73" s="32">
+        <v>1036.6022184242499</v>
+      </c>
+      <c r="O73" s="33">
+        <v>1059.7243364088899</v>
+      </c>
+      <c r="P73" s="33">
+        <v>1734.74411289472</v>
+      </c>
+      <c r="Q73" s="33">
+        <v>3834.6045446057501</v>
+      </c>
+      <c r="R73" s="34">
+        <v>4272.9784387647796</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B74" s="60"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="32">
+        <f>SUM(D72:D73)</f>
+        <v>82420.451000000205</v>
+      </c>
+      <c r="E74" s="32">
+        <f t="shared" ref="E74:R74" si="1">SUM(E72:E73)</f>
+        <v>176000.4189999993</v>
+      </c>
+      <c r="F74" s="32">
+        <f t="shared" si="1"/>
+        <v>255329.97499999902</v>
+      </c>
+      <c r="G74" s="32">
+        <f t="shared" si="1"/>
+        <v>343922.83900000004</v>
+      </c>
+      <c r="H74" s="32">
+        <f t="shared" si="1"/>
+        <v>440802.170999997</v>
+      </c>
+      <c r="I74" s="32">
+        <f t="shared" si="1"/>
+        <v>56378.244999999886</v>
+      </c>
+      <c r="J74" s="32">
+        <f t="shared" si="1"/>
+        <v>122188.1639999997</v>
+      </c>
+      <c r="K74" s="32">
+        <f t="shared" si="1"/>
+        <v>176000.41899999921</v>
+      </c>
+      <c r="L74" s="32">
+        <f t="shared" si="1"/>
+        <v>232066.24799999851</v>
+      </c>
+      <c r="M74" s="32">
+        <f t="shared" si="1"/>
+        <v>286755.0579999992</v>
+      </c>
+      <c r="N74" s="32">
+        <f t="shared" si="1"/>
+        <v>32775.702000000048</v>
+      </c>
+      <c r="O74" s="32">
+        <f t="shared" si="1"/>
+        <v>56378.244999999893</v>
+      </c>
+      <c r="P74" s="32">
+        <f t="shared" si="1"/>
+        <v>82420.451000000219</v>
+      </c>
+      <c r="Q74" s="32">
+        <f t="shared" si="1"/>
+        <v>122188.16399999976</v>
+      </c>
+      <c r="R74" s="32">
+        <f t="shared" si="1"/>
+        <v>148110.30799999979</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B75" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="48"/>
+      <c r="D75" s="35">
+        <v>48.226320582877896</v>
+      </c>
+      <c r="E75" s="36">
+        <v>49.067053734061901</v>
+      </c>
+      <c r="F75" s="36">
+        <v>47.177823315118303</v>
+      </c>
+      <c r="G75" s="36">
+        <v>48.129269125683003</v>
+      </c>
+      <c r="H75" s="37">
+        <v>47.6921675774134</v>
+      </c>
+      <c r="I75" s="35">
+        <v>80.862932604735803</v>
+      </c>
+      <c r="J75" s="36">
+        <v>76.719319216757697</v>
+      </c>
+      <c r="K75" s="36">
+        <v>77.591833636915595</v>
+      </c>
+      <c r="L75" s="36">
+        <v>76.813524590163894</v>
+      </c>
+      <c r="M75" s="37">
+        <v>77.205145719489906</v>
+      </c>
+      <c r="N75" s="35">
+        <v>88.366727383120804</v>
+      </c>
+      <c r="O75" s="36">
+        <v>90.818533697632006</v>
+      </c>
+      <c r="P75" s="36">
+        <v>90.725055656749603</v>
+      </c>
+      <c r="Q75" s="36">
+        <v>89.9584471766848</v>
+      </c>
+      <c r="R75" s="37">
+        <v>90.570582877959893</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B76" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D76" s="23">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="E76" s="23">
+        <v>82019.877758255199</v>
+      </c>
+      <c r="F76" s="23">
+        <v>116218.580895627</v>
+      </c>
+      <c r="G76" s="23">
+        <v>159138.987787872</v>
+      </c>
+      <c r="H76" s="23">
+        <v>199051.54997373</v>
+      </c>
+      <c r="I76" s="23">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="J76" s="23">
+        <v>98926.584932192694</v>
+      </c>
+      <c r="K76" s="23">
+        <v>143445.815290161</v>
+      </c>
+      <c r="L76" s="23">
+        <v>187520.878512628</v>
+      </c>
+      <c r="M76" s="23">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="N76" s="23">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="O76" s="23">
+        <v>55318.520663591</v>
+      </c>
+      <c r="P76" s="23">
+        <v>80685.706887105494</v>
+      </c>
+      <c r="Q76" s="23">
+        <v>118353.559455394</v>
+      </c>
+      <c r="R76" s="23">
+        <v>143837.329561235</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B77" s="41"/>
+      <c r="C77" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="24">
+        <v>62.6266260465326</v>
+      </c>
+      <c r="E77" s="25">
+        <v>145.95272218341199</v>
+      </c>
+      <c r="F77" s="25">
+        <v>253.86312214038699</v>
+      </c>
+      <c r="G77" s="25">
+        <v>365.55366372404802</v>
+      </c>
+      <c r="H77" s="26">
+        <v>353.02941921400998</v>
+      </c>
+      <c r="I77" s="24">
+        <v>21484.015108340998</v>
+      </c>
+      <c r="J77" s="25">
+        <v>35410.964109768698</v>
+      </c>
+      <c r="K77" s="25">
+        <v>55839.192232946101</v>
+      </c>
+      <c r="L77" s="25">
+        <v>71190.607977963198</v>
+      </c>
+      <c r="M77" s="26">
+        <v>91655.986653072396</v>
+      </c>
+      <c r="N77" s="24">
+        <v>56051.191862880602</v>
+      </c>
+      <c r="O77" s="25">
+        <v>124618.650763413</v>
+      </c>
+      <c r="P77" s="25">
+        <v>183089.578469145</v>
+      </c>
+      <c r="Q77" s="25">
+        <v>231445.718093773</v>
+      </c>
+      <c r="R77" s="26">
+        <v>297307.87253847002</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B78" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="24">
+        <v>2241.3779357984899</v>
+      </c>
+      <c r="E78" s="25">
+        <v>3460.6345195614399</v>
+      </c>
+      <c r="F78" s="25">
+        <v>7339.5509822314998</v>
+      </c>
+      <c r="G78" s="25">
+        <v>8594.5365484032409</v>
+      </c>
+      <c r="H78" s="26">
+        <v>10703.107607055899</v>
+      </c>
+      <c r="I78" s="24">
+        <v>2013.8119190336699</v>
+      </c>
+      <c r="J78" s="25">
+        <v>5579.4778598323801</v>
+      </c>
+      <c r="K78" s="25">
+        <v>7772.0188933449599</v>
+      </c>
+      <c r="L78" s="25">
+        <v>10875.388361207801</v>
+      </c>
+      <c r="M78" s="26">
+        <v>13047.2442578883</v>
+      </c>
+      <c r="N78" s="24">
+        <v>3520.0906782329498</v>
+      </c>
+      <c r="O78" s="25">
+        <v>4945.7284306758802</v>
+      </c>
+      <c r="P78" s="25">
+        <v>7318.7465706147595</v>
+      </c>
+      <c r="Q78" s="25">
+        <v>9816.8252104458206</v>
+      </c>
+      <c r="R78" s="26">
+        <v>11229.1503665984</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B79" s="41"/>
+      <c r="C79" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D79" s="32">
+        <v>13422.005064201699</v>
+      </c>
+      <c r="E79" s="33">
+        <v>24420.3874804394</v>
+      </c>
+      <c r="F79" s="33">
+        <v>44355.147017769501</v>
+      </c>
+      <c r="G79" s="33">
+        <v>54600.642451596599</v>
+      </c>
+      <c r="H79" s="33">
+        <v>69483.700392940998</v>
+      </c>
+      <c r="I79" s="32">
+        <v>11147.0110809664</v>
+      </c>
+      <c r="J79" s="33">
+        <v>29476.334140168201</v>
+      </c>
+      <c r="K79" s="33">
+        <v>42372.623106654697</v>
+      </c>
+      <c r="L79" s="33">
+        <v>58804.504638791797</v>
+      </c>
+      <c r="M79" s="33">
+        <v>70942.959742109495</v>
+      </c>
+      <c r="N79" s="32">
+        <v>16020.7393217671</v>
+      </c>
+      <c r="O79" s="33">
+        <v>23707.5195693239</v>
+      </c>
+      <c r="P79" s="33">
+        <v>34506.974429385104</v>
+      </c>
+      <c r="Q79" s="33">
+        <v>46598.020789553899</v>
+      </c>
+      <c r="R79" s="34">
+        <v>53521.155633401097</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B80" s="57"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="59"/>
+      <c r="I80" s="59"/>
+      <c r="J80" s="59"/>
+      <c r="K80" s="59"/>
+      <c r="L80" s="59"/>
+      <c r="M80" s="59"/>
+      <c r="N80" s="59"/>
+      <c r="O80" s="59"/>
+      <c r="P80" s="59"/>
+      <c r="Q80" s="59"/>
+      <c r="R80" s="59"/>
+    </row>
+    <row r="82" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B82" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="T67" s="23">
+      <c r="T82" s="23">
         <v>18230.887000000101</v>
       </c>
     </row>
-    <row r="68" spans="2:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B68" s="38"/>
-      <c r="T68" s="23">
+    <row r="83" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B83" s="28"/>
+      <c r="T83" s="23">
         <v>24501.680000000099</v>
       </c>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B69" s="39" t="s">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B84" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C69" s="40"/>
-      <c r="D69" s="30">
+      <c r="C84" s="49"/>
+      <c r="D84" s="42">
         <v>0.25</v>
       </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="30">
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="42">
         <v>0.5</v>
       </c>
-      <c r="J69" s="31"/>
-      <c r="K69" s="31"/>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="30">
+      <c r="J84" s="43"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
+      <c r="N84" s="42">
         <v>0.75</v>
       </c>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="32"/>
-      <c r="T69" s="23">
+      <c r="O84" s="43"/>
+      <c r="P84" s="43"/>
+      <c r="Q84" s="43"/>
+      <c r="R84" s="44"/>
+      <c r="T84" s="23">
         <v>30062.030999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B70" s="39" t="s">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B85" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="41"/>
-      <c r="D70" s="10">
+      <c r="C85" s="46"/>
+      <c r="D85" s="10">
         <v>40</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E85" s="9">
         <v>80</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F85" s="9">
         <v>120</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G85" s="9">
         <v>160</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H85" s="9">
         <v>200</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I85" s="10">
         <v>40</v>
       </c>
-      <c r="J70" s="9">
+      <c r="J85" s="9">
         <v>80</v>
       </c>
-      <c r="K70" s="9">
+      <c r="K85" s="9">
         <v>120</v>
       </c>
-      <c r="L70" s="9">
+      <c r="L85" s="9">
         <v>160</v>
       </c>
-      <c r="M70" s="9">
+      <c r="M85" s="9">
         <v>200</v>
       </c>
-      <c r="N70" s="10">
+      <c r="N85" s="10">
         <v>40</v>
       </c>
-      <c r="O70" s="9">
+      <c r="O85" s="9">
         <v>80</v>
       </c>
-      <c r="P70" s="9">
+      <c r="P85" s="9">
         <v>120</v>
       </c>
-      <c r="Q70" s="9">
+      <c r="Q85" s="9">
         <v>160</v>
       </c>
-      <c r="R70" s="11">
+      <c r="R85" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B71" s="42" t="s">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B86" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="43" t="s">
+      <c r="C86" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D71" s="24"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
-      <c r="L71" s="25"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="24"/>
-      <c r="O71" s="25"/>
-      <c r="P71" s="25"/>
-      <c r="Q71" s="25"/>
-      <c r="R71" s="26"/>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B72" s="44"/>
-      <c r="C72" s="43" t="s">
+      <c r="D86" s="24"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="26"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B87" s="41"/>
+      <c r="C87" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D72" s="45"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="46"/>
-      <c r="G72" s="46"/>
-      <c r="H72" s="46"/>
-      <c r="I72" s="45"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="46"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="45"/>
-      <c r="O72" s="46"/>
-      <c r="P72" s="46"/>
-      <c r="Q72" s="46"/>
-      <c r="R72" s="47"/>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B73" s="48" t="s">
+      <c r="D87" s="32"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="33"/>
+      <c r="L87" s="33"/>
+      <c r="M87" s="33"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="33"/>
+      <c r="P87" s="33"/>
+      <c r="Q87" s="33"/>
+      <c r="R87" s="34"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B88" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="50"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51"/>
-      <c r="G73" s="51"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="50"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="51"/>
-      <c r="L73" s="51"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="50"/>
-      <c r="O73" s="51"/>
-      <c r="P73" s="51"/>
-      <c r="Q73" s="51"/>
-      <c r="R73" s="52"/>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B74" s="42" t="s">
+      <c r="C88" s="48"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="36"/>
+      <c r="P88" s="36"/>
+      <c r="Q88" s="36"/>
+      <c r="R88" s="37"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B89" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C89" s="31" t="s">
         <v>29</v>
-      </c>
-      <c r="D74" s="24"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="25"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="25"/>
-      <c r="R74" s="26"/>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B75" s="44"/>
-      <c r="C75" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="45"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-      <c r="I75" s="45"/>
-      <c r="J75" s="46"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="46"/>
-      <c r="N75" s="45"/>
-      <c r="O75" s="46"/>
-      <c r="P75" s="46"/>
-      <c r="Q75" s="46"/>
-      <c r="R75" s="47"/>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B76" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
-      <c r="L76" s="25"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="25"/>
-      <c r="P76" s="25"/>
-      <c r="Q76" s="25"/>
-      <c r="R76" s="26"/>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B77" s="44"/>
-      <c r="C77" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="46"/>
-      <c r="H77" s="46"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="46"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="46"/>
-      <c r="P77" s="46"/>
-      <c r="Q77" s="46"/>
-      <c r="R77" s="47"/>
-    </row>
-    <row r="80" spans="2:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B80" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B81" s="38"/>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B82" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="40"/>
-      <c r="D82" s="30">
-        <v>0.25</v>
-      </c>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="30">
-        <v>0.5</v>
-      </c>
-      <c r="J82" s="31"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="O82" s="31"/>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="31"/>
-      <c r="R82" s="32"/>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B83" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="C83" s="41"/>
-      <c r="D83" s="10">
-        <v>40</v>
-      </c>
-      <c r="E83" s="9">
-        <v>80</v>
-      </c>
-      <c r="F83" s="9">
-        <v>120</v>
-      </c>
-      <c r="G83" s="9">
-        <v>160</v>
-      </c>
-      <c r="H83" s="9">
-        <v>200</v>
-      </c>
-      <c r="I83" s="10">
-        <v>40</v>
-      </c>
-      <c r="J83" s="9">
-        <v>80</v>
-      </c>
-      <c r="K83" s="9">
-        <v>120</v>
-      </c>
-      <c r="L83" s="9">
-        <v>160</v>
-      </c>
-      <c r="M83" s="9">
-        <v>200</v>
-      </c>
-      <c r="N83" s="10">
-        <v>40</v>
-      </c>
-      <c r="O83" s="9">
-        <v>80</v>
-      </c>
-      <c r="P83" s="9">
-        <v>120</v>
-      </c>
-      <c r="Q83" s="9">
-        <v>160</v>
-      </c>
-      <c r="R83" s="11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B84" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="D84" s="24"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="26"/>
-    </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="44"/>
-      <c r="C85" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="45"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="46"/>
-      <c r="G85" s="46"/>
-      <c r="H85" s="46"/>
-      <c r="I85" s="45"/>
-      <c r="J85" s="46"/>
-      <c r="K85" s="46"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="46"/>
-      <c r="N85" s="45"/>
-      <c r="O85" s="46"/>
-      <c r="P85" s="46"/>
-      <c r="Q85" s="46"/>
-      <c r="R85" s="47"/>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B86" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C86" s="49"/>
-      <c r="D86" s="50"/>
-      <c r="E86" s="51"/>
-      <c r="F86" s="51"/>
-      <c r="G86" s="51"/>
-      <c r="H86" s="52"/>
-      <c r="I86" s="50"/>
-      <c r="J86" s="51"/>
-      <c r="K86" s="51"/>
-      <c r="L86" s="51"/>
-      <c r="M86" s="52"/>
-      <c r="N86" s="50"/>
-      <c r="O86" s="51"/>
-      <c r="P86" s="51"/>
-      <c r="Q86" s="51"/>
-      <c r="R86" s="52"/>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B87" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="25"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="26"/>
-    </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B88" s="44"/>
-      <c r="C88" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" s="45"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="46"/>
-      <c r="G88" s="46"/>
-      <c r="H88" s="46"/>
-      <c r="I88" s="45"/>
-      <c r="J88" s="46"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="46"/>
-      <c r="M88" s="46"/>
-      <c r="N88" s="45"/>
-      <c r="O88" s="46"/>
-      <c r="P88" s="46"/>
-      <c r="Q88" s="46"/>
-      <c r="R88" s="47"/>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B89" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C89" s="43" t="s">
-        <v>31</v>
       </c>
       <c r="D89" s="24"/>
       <c r="E89" s="25"/>
@@ -3856,228 +4028,228 @@
       <c r="Q89" s="25"/>
       <c r="R89" s="26"/>
     </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B90" s="44"/>
-      <c r="C90" s="53" t="s">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B90" s="41"/>
+      <c r="C90" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D90" s="32"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="33"/>
+      <c r="L90" s="33"/>
+      <c r="M90" s="33"/>
+      <c r="N90" s="32"/>
+      <c r="O90" s="33"/>
+      <c r="P90" s="33"/>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="34"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B91" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D91" s="24"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="24"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="26"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B92" s="41"/>
+      <c r="C92" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="46"/>
-      <c r="I90" s="45"/>
-      <c r="J90" s="46"/>
-      <c r="K90" s="46"/>
-      <c r="L90" s="46"/>
-      <c r="M90" s="46"/>
-      <c r="N90" s="45"/>
-      <c r="O90" s="46"/>
-      <c r="P90" s="46"/>
-      <c r="Q90" s="46"/>
-      <c r="R90" s="47"/>
-    </row>
-    <row r="93" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B93" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B94" s="38"/>
-    </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B95" s="39" t="s">
+      <c r="D92" s="32"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="33"/>
+      <c r="L92" s="33"/>
+      <c r="M92" s="33"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="33"/>
+      <c r="P92" s="33"/>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="34"/>
+    </row>
+    <row r="95" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B95" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B96" s="28"/>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B97" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C95" s="40"/>
-      <c r="D95" s="30">
+      <c r="C97" s="49"/>
+      <c r="D97" s="42">
         <v>0.25</v>
       </c>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="30">
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="42">
         <v>0.5</v>
       </c>
-      <c r="J95" s="31"/>
-      <c r="K95" s="31"/>
-      <c r="L95" s="31"/>
-      <c r="M95" s="31"/>
-      <c r="N95" s="30">
+      <c r="J97" s="43"/>
+      <c r="K97" s="43"/>
+      <c r="L97" s="43"/>
+      <c r="M97" s="43"/>
+      <c r="N97" s="42">
         <v>0.75</v>
       </c>
-      <c r="O95" s="31"/>
-      <c r="P95" s="31"/>
-      <c r="Q95" s="31"/>
-      <c r="R95" s="32"/>
-    </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B96" s="39" t="s">
+      <c r="O97" s="43"/>
+      <c r="P97" s="43"/>
+      <c r="Q97" s="43"/>
+      <c r="R97" s="44"/>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B98" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="41"/>
-      <c r="D96" s="10">
+      <c r="C98" s="46"/>
+      <c r="D98" s="10">
         <v>40</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E98" s="9">
         <v>80</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F98" s="9">
         <v>120</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G98" s="9">
         <v>160</v>
       </c>
-      <c r="H96" s="9">
+      <c r="H98" s="9">
         <v>200</v>
       </c>
-      <c r="I96" s="10">
+      <c r="I98" s="10">
         <v>40</v>
       </c>
-      <c r="J96" s="9">
+      <c r="J98" s="9">
         <v>80</v>
       </c>
-      <c r="K96" s="9">
+      <c r="K98" s="9">
         <v>120</v>
       </c>
-      <c r="L96" s="9">
+      <c r="L98" s="9">
         <v>160</v>
       </c>
-      <c r="M96" s="9">
+      <c r="M98" s="9">
         <v>200</v>
       </c>
-      <c r="N96" s="10">
+      <c r="N98" s="10">
         <v>40</v>
       </c>
-      <c r="O96" s="9">
+      <c r="O98" s="9">
         <v>80</v>
       </c>
-      <c r="P96" s="9">
+      <c r="P98" s="9">
         <v>120</v>
       </c>
-      <c r="Q96" s="9">
+      <c r="Q98" s="9">
         <v>160</v>
       </c>
-      <c r="R96" s="11">
+      <c r="R98" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B97" s="42" t="s">
+    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B99" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C97" s="43" t="s">
+      <c r="C99" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D97" s="24"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="26"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="25"/>
-      <c r="K97" s="25"/>
-      <c r="L97" s="25"/>
-      <c r="M97" s="26"/>
-      <c r="N97" s="24"/>
-      <c r="O97" s="25"/>
-      <c r="P97" s="25"/>
-      <c r="Q97" s="25"/>
-      <c r="R97" s="26"/>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B98" s="44"/>
-      <c r="C98" s="43" t="s">
+      <c r="D99" s="24"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="26"/>
+      <c r="N99" s="24"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="25"/>
+      <c r="Q99" s="25"/>
+      <c r="R99" s="26"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B100" s="41"/>
+      <c r="C100" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D98" s="45"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="46"/>
-      <c r="G98" s="46"/>
-      <c r="H98" s="46"/>
-      <c r="I98" s="45"/>
-      <c r="J98" s="46"/>
-      <c r="K98" s="46"/>
-      <c r="L98" s="46"/>
-      <c r="M98" s="46"/>
-      <c r="N98" s="45"/>
-      <c r="O98" s="46"/>
-      <c r="P98" s="46"/>
-      <c r="Q98" s="46"/>
-      <c r="R98" s="47"/>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B99" s="48" t="s">
+      <c r="D100" s="32"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="33"/>
+      <c r="M100" s="33"/>
+      <c r="N100" s="32"/>
+      <c r="O100" s="33"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="34"/>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B101" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C99" s="49"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="51"/>
-      <c r="G99" s="51"/>
-      <c r="H99" s="52"/>
-      <c r="I99" s="50"/>
-      <c r="J99" s="51"/>
-      <c r="K99" s="51"/>
-      <c r="L99" s="51"/>
-      <c r="M99" s="52"/>
-      <c r="N99" s="50"/>
-      <c r="O99" s="51"/>
-      <c r="P99" s="51"/>
-      <c r="Q99" s="51"/>
-      <c r="R99" s="52"/>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B100" s="42" t="s">
+      <c r="C101" s="48"/>
+      <c r="D101" s="35"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="37"/>
+      <c r="N101" s="35"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="37"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B102" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C100" s="43" t="s">
+      <c r="C102" s="31" t="s">
         <v>29</v>
-      </c>
-      <c r="D100" s="24"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="25"/>
-      <c r="H100" s="26"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="25"/>
-      <c r="K100" s="25"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="26"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="25"/>
-      <c r="P100" s="25"/>
-      <c r="Q100" s="25"/>
-      <c r="R100" s="26"/>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B101" s="44"/>
-      <c r="C101" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D101" s="45"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="45"/>
-      <c r="J101" s="46"/>
-      <c r="K101" s="46"/>
-      <c r="L101" s="46"/>
-      <c r="M101" s="46"/>
-      <c r="N101" s="45"/>
-      <c r="O101" s="46"/>
-      <c r="P101" s="46"/>
-      <c r="Q101" s="46"/>
-      <c r="R101" s="47"/>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B102" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C102" s="43" t="s">
-        <v>31</v>
       </c>
       <c r="D102" s="24"/>
       <c r="E102" s="25"/>
@@ -4095,228 +4267,228 @@
       <c r="Q102" s="25"/>
       <c r="R102" s="26"/>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B103" s="44"/>
-      <c r="C103" s="53" t="s">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B103" s="41"/>
+      <c r="C103" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D103" s="32"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="33"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="33"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="32"/>
+      <c r="O103" s="33"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="34"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B104" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D104" s="24"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="26"/>
+      <c r="I104" s="24"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="26"/>
+      <c r="N104" s="24"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="25"/>
+      <c r="Q104" s="25"/>
+      <c r="R104" s="26"/>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B105" s="41"/>
+      <c r="C105" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="45"/>
-      <c r="E103" s="46"/>
-      <c r="F103" s="46"/>
-      <c r="G103" s="46"/>
-      <c r="H103" s="46"/>
-      <c r="I103" s="45"/>
-      <c r="J103" s="46"/>
-      <c r="K103" s="46"/>
-      <c r="L103" s="46"/>
-      <c r="M103" s="46"/>
-      <c r="N103" s="45"/>
-      <c r="O103" s="46"/>
-      <c r="P103" s="46"/>
-      <c r="Q103" s="46"/>
-      <c r="R103" s="47"/>
-    </row>
-    <row r="106" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B106" s="38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B107" s="38"/>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B108" s="39" t="s">
+      <c r="D105" s="32"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="33"/>
+      <c r="L105" s="33"/>
+      <c r="M105" s="33"/>
+      <c r="N105" s="32"/>
+      <c r="O105" s="33"/>
+      <c r="P105" s="33"/>
+      <c r="Q105" s="33"/>
+      <c r="R105" s="34"/>
+    </row>
+    <row r="108" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B108" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B109" s="28"/>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B110" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="40"/>
-      <c r="D108" s="30">
+      <c r="C110" s="49"/>
+      <c r="D110" s="42">
         <v>0.25</v>
       </c>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="30">
+      <c r="E110" s="43"/>
+      <c r="F110" s="43"/>
+      <c r="G110" s="43"/>
+      <c r="H110" s="43"/>
+      <c r="I110" s="42">
         <v>0.5</v>
       </c>
-      <c r="J108" s="31"/>
-      <c r="K108" s="31"/>
-      <c r="L108" s="31"/>
-      <c r="M108" s="31"/>
-      <c r="N108" s="30">
+      <c r="J110" s="43"/>
+      <c r="K110" s="43"/>
+      <c r="L110" s="43"/>
+      <c r="M110" s="43"/>
+      <c r="N110" s="42">
         <v>0.75</v>
       </c>
-      <c r="O108" s="31"/>
-      <c r="P108" s="31"/>
-      <c r="Q108" s="31"/>
-      <c r="R108" s="32"/>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B109" s="39" t="s">
+      <c r="O110" s="43"/>
+      <c r="P110" s="43"/>
+      <c r="Q110" s="43"/>
+      <c r="R110" s="44"/>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B111" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="41"/>
-      <c r="D109" s="10">
+      <c r="C111" s="46"/>
+      <c r="D111" s="10">
         <v>40</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E111" s="9">
         <v>80</v>
       </c>
-      <c r="F109" s="9">
+      <c r="F111" s="9">
         <v>120</v>
       </c>
-      <c r="G109" s="9">
+      <c r="G111" s="9">
         <v>160</v>
       </c>
-      <c r="H109" s="9">
+      <c r="H111" s="9">
         <v>200</v>
       </c>
-      <c r="I109" s="10">
+      <c r="I111" s="10">
         <v>40</v>
       </c>
-      <c r="J109" s="9">
+      <c r="J111" s="9">
         <v>80</v>
       </c>
-      <c r="K109" s="9">
+      <c r="K111" s="9">
         <v>120</v>
       </c>
-      <c r="L109" s="9">
+      <c r="L111" s="9">
         <v>160</v>
       </c>
-      <c r="M109" s="9">
+      <c r="M111" s="9">
         <v>200</v>
       </c>
-      <c r="N109" s="10">
+      <c r="N111" s="10">
         <v>40</v>
       </c>
-      <c r="O109" s="9">
+      <c r="O111" s="9">
         <v>80</v>
       </c>
-      <c r="P109" s="9">
+      <c r="P111" s="9">
         <v>120</v>
       </c>
-      <c r="Q109" s="9">
+      <c r="Q111" s="9">
         <v>160</v>
       </c>
-      <c r="R109" s="11">
+      <c r="R111" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B110" s="42" t="s">
+    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B112" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C110" s="43" t="s">
+      <c r="C112" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D110" s="24"/>
-      <c r="E110" s="25"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="25"/>
-      <c r="H110" s="26"/>
-      <c r="I110" s="24"/>
-      <c r="J110" s="25"/>
-      <c r="K110" s="25"/>
-      <c r="L110" s="25"/>
-      <c r="M110" s="26"/>
-      <c r="N110" s="24"/>
-      <c r="O110" s="25"/>
-      <c r="P110" s="25"/>
-      <c r="Q110" s="25"/>
-      <c r="R110" s="26"/>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B111" s="44"/>
-      <c r="C111" s="43" t="s">
+      <c r="D112" s="24"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="26"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="25"/>
+      <c r="K112" s="25"/>
+      <c r="L112" s="25"/>
+      <c r="M112" s="26"/>
+      <c r="N112" s="24"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="25"/>
+      <c r="Q112" s="25"/>
+      <c r="R112" s="26"/>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B113" s="41"/>
+      <c r="C113" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D111" s="45"/>
-      <c r="E111" s="46"/>
-      <c r="F111" s="46"/>
-      <c r="G111" s="46"/>
-      <c r="H111" s="46"/>
-      <c r="I111" s="45"/>
-      <c r="J111" s="46"/>
-      <c r="K111" s="46"/>
-      <c r="L111" s="46"/>
-      <c r="M111" s="46"/>
-      <c r="N111" s="45"/>
-      <c r="O111" s="46"/>
-      <c r="P111" s="46"/>
-      <c r="Q111" s="46"/>
-      <c r="R111" s="47"/>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B112" s="48" t="s">
+      <c r="D113" s="32"/>
+      <c r="E113" s="33"/>
+      <c r="F113" s="33"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="33"/>
+      <c r="L113" s="33"/>
+      <c r="M113" s="33"/>
+      <c r="N113" s="32"/>
+      <c r="O113" s="33"/>
+      <c r="P113" s="33"/>
+      <c r="Q113" s="33"/>
+      <c r="R113" s="34"/>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B114" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C112" s="49"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="51"/>
-      <c r="G112" s="51"/>
-      <c r="H112" s="52"/>
-      <c r="I112" s="50"/>
-      <c r="J112" s="51"/>
-      <c r="K112" s="51"/>
-      <c r="L112" s="51"/>
-      <c r="M112" s="52"/>
-      <c r="N112" s="50"/>
-      <c r="O112" s="51"/>
-      <c r="P112" s="51"/>
-      <c r="Q112" s="51"/>
-      <c r="R112" s="52"/>
-    </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B113" s="42" t="s">
+      <c r="C114" s="48"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="35"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
+      <c r="L114" s="36"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="35"/>
+      <c r="O114" s="36"/>
+      <c r="P114" s="36"/>
+      <c r="Q114" s="36"/>
+      <c r="R114" s="37"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B115" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C113" s="43" t="s">
+      <c r="C115" s="31" t="s">
         <v>29</v>
-      </c>
-      <c r="D113" s="24"/>
-      <c r="E113" s="25"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="25"/>
-      <c r="H113" s="26"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="25"/>
-      <c r="K113" s="25"/>
-      <c r="L113" s="25"/>
-      <c r="M113" s="26"/>
-      <c r="N113" s="24"/>
-      <c r="O113" s="25"/>
-      <c r="P113" s="25"/>
-      <c r="Q113" s="25"/>
-      <c r="R113" s="26"/>
-    </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B114" s="44"/>
-      <c r="C114" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D114" s="45"/>
-      <c r="E114" s="46"/>
-      <c r="F114" s="46"/>
-      <c r="G114" s="46"/>
-      <c r="H114" s="46"/>
-      <c r="I114" s="45"/>
-      <c r="J114" s="46"/>
-      <c r="K114" s="46"/>
-      <c r="L114" s="46"/>
-      <c r="M114" s="46"/>
-      <c r="N114" s="45"/>
-      <c r="O114" s="46"/>
-      <c r="P114" s="46"/>
-      <c r="Q114" s="46"/>
-      <c r="R114" s="47"/>
-    </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B115" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115" s="43" t="s">
-        <v>31</v>
       </c>
       <c r="D115" s="24"/>
       <c r="E115" s="25"/>
@@ -4334,228 +4506,228 @@
       <c r="Q115" s="25"/>
       <c r="R115" s="26"/>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B116" s="44"/>
-      <c r="C116" s="53" t="s">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B116" s="41"/>
+      <c r="C116" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D116" s="32"/>
+      <c r="E116" s="33"/>
+      <c r="F116" s="33"/>
+      <c r="G116" s="33"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="33"/>
+      <c r="L116" s="33"/>
+      <c r="M116" s="33"/>
+      <c r="N116" s="32"/>
+      <c r="O116" s="33"/>
+      <c r="P116" s="33"/>
+      <c r="Q116" s="33"/>
+      <c r="R116" s="34"/>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B117" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D117" s="24"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="26"/>
+      <c r="I117" s="24"/>
+      <c r="J117" s="25"/>
+      <c r="K117" s="25"/>
+      <c r="L117" s="25"/>
+      <c r="M117" s="26"/>
+      <c r="N117" s="24"/>
+      <c r="O117" s="25"/>
+      <c r="P117" s="25"/>
+      <c r="Q117" s="25"/>
+      <c r="R117" s="26"/>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B118" s="41"/>
+      <c r="C118" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D116" s="45"/>
-      <c r="E116" s="46"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="46"/>
-      <c r="I116" s="45"/>
-      <c r="J116" s="46"/>
-      <c r="K116" s="46"/>
-      <c r="L116" s="46"/>
-      <c r="M116" s="46"/>
-      <c r="N116" s="45"/>
-      <c r="O116" s="46"/>
-      <c r="P116" s="46"/>
-      <c r="Q116" s="46"/>
-      <c r="R116" s="47"/>
-    </row>
-    <row r="119" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B119" s="38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="2:18" ht="18" x14ac:dyDescent="0.25">
-      <c r="B120" s="38"/>
-    </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B121" s="39" t="s">
+      <c r="D118" s="32"/>
+      <c r="E118" s="33"/>
+      <c r="F118" s="33"/>
+      <c r="G118" s="33"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="33"/>
+      <c r="L118" s="33"/>
+      <c r="M118" s="33"/>
+      <c r="N118" s="32"/>
+      <c r="O118" s="33"/>
+      <c r="P118" s="33"/>
+      <c r="Q118" s="33"/>
+      <c r="R118" s="34"/>
+    </row>
+    <row r="121" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B121" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B122" s="28"/>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B123" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C121" s="40"/>
-      <c r="D121" s="30">
+      <c r="C123" s="49"/>
+      <c r="D123" s="42">
         <v>0.25</v>
       </c>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="30">
+      <c r="E123" s="43"/>
+      <c r="F123" s="43"/>
+      <c r="G123" s="43"/>
+      <c r="H123" s="43"/>
+      <c r="I123" s="42">
         <v>0.5</v>
       </c>
-      <c r="J121" s="31"/>
-      <c r="K121" s="31"/>
-      <c r="L121" s="31"/>
-      <c r="M121" s="31"/>
-      <c r="N121" s="30">
+      <c r="J123" s="43"/>
+      <c r="K123" s="43"/>
+      <c r="L123" s="43"/>
+      <c r="M123" s="43"/>
+      <c r="N123" s="42">
         <v>0.75</v>
       </c>
-      <c r="O121" s="31"/>
-      <c r="P121" s="31"/>
-      <c r="Q121" s="31"/>
-      <c r="R121" s="32"/>
-    </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B122" s="39" t="s">
+      <c r="O123" s="43"/>
+      <c r="P123" s="43"/>
+      <c r="Q123" s="43"/>
+      <c r="R123" s="44"/>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B124" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="41"/>
-      <c r="D122" s="10">
+      <c r="C124" s="46"/>
+      <c r="D124" s="10">
         <v>40</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E124" s="9">
         <v>80</v>
       </c>
-      <c r="F122" s="9">
+      <c r="F124" s="9">
         <v>120</v>
       </c>
-      <c r="G122" s="9">
+      <c r="G124" s="9">
         <v>160</v>
       </c>
-      <c r="H122" s="9">
+      <c r="H124" s="9">
         <v>200</v>
       </c>
-      <c r="I122" s="10">
+      <c r="I124" s="10">
         <v>40</v>
       </c>
-      <c r="J122" s="9">
+      <c r="J124" s="9">
         <v>80</v>
       </c>
-      <c r="K122" s="9">
+      <c r="K124" s="9">
         <v>120</v>
       </c>
-      <c r="L122" s="9">
+      <c r="L124" s="9">
         <v>160</v>
       </c>
-      <c r="M122" s="9">
+      <c r="M124" s="9">
         <v>200</v>
       </c>
-      <c r="N122" s="10">
+      <c r="N124" s="10">
         <v>40</v>
       </c>
-      <c r="O122" s="9">
+      <c r="O124" s="9">
         <v>80</v>
       </c>
-      <c r="P122" s="9">
+      <c r="P124" s="9">
         <v>120</v>
       </c>
-      <c r="Q122" s="9">
+      <c r="Q124" s="9">
         <v>160</v>
       </c>
-      <c r="R122" s="11">
+      <c r="R124" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B123" s="42" t="s">
+    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B125" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C123" s="43" t="s">
+      <c r="C125" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D123" s="24"/>
-      <c r="E123" s="25"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="25"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="24"/>
-      <c r="J123" s="25"/>
-      <c r="K123" s="25"/>
-      <c r="L123" s="25"/>
-      <c r="M123" s="26"/>
-      <c r="N123" s="24"/>
-      <c r="O123" s="25"/>
-      <c r="P123" s="25"/>
-      <c r="Q123" s="25"/>
-      <c r="R123" s="26"/>
-    </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B124" s="44"/>
-      <c r="C124" s="43" t="s">
+      <c r="D125" s="24"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="26"/>
+      <c r="I125" s="24"/>
+      <c r="J125" s="25"/>
+      <c r="K125" s="25"/>
+      <c r="L125" s="25"/>
+      <c r="M125" s="26"/>
+      <c r="N125" s="24"/>
+      <c r="O125" s="25"/>
+      <c r="P125" s="25"/>
+      <c r="Q125" s="25"/>
+      <c r="R125" s="26"/>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B126" s="41"/>
+      <c r="C126" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D124" s="45"/>
-      <c r="E124" s="46"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="45"/>
-      <c r="J124" s="46"/>
-      <c r="K124" s="46"/>
-      <c r="L124" s="46"/>
-      <c r="M124" s="46"/>
-      <c r="N124" s="45"/>
-      <c r="O124" s="46"/>
-      <c r="P124" s="46"/>
-      <c r="Q124" s="46"/>
-      <c r="R124" s="47"/>
-    </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B125" s="48" t="s">
+      <c r="D126" s="32"/>
+      <c r="E126" s="33"/>
+      <c r="F126" s="33"/>
+      <c r="G126" s="33"/>
+      <c r="H126" s="33"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="33"/>
+      <c r="K126" s="33"/>
+      <c r="L126" s="33"/>
+      <c r="M126" s="33"/>
+      <c r="N126" s="32"/>
+      <c r="O126" s="33"/>
+      <c r="P126" s="33"/>
+      <c r="Q126" s="33"/>
+      <c r="R126" s="34"/>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B127" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C125" s="49"/>
-      <c r="D125" s="50"/>
-      <c r="E125" s="51"/>
-      <c r="F125" s="51"/>
-      <c r="G125" s="51"/>
-      <c r="H125" s="52"/>
-      <c r="I125" s="50"/>
-      <c r="J125" s="51"/>
-      <c r="K125" s="51"/>
-      <c r="L125" s="51"/>
-      <c r="M125" s="52"/>
-      <c r="N125" s="50"/>
-      <c r="O125" s="51"/>
-      <c r="P125" s="51"/>
-      <c r="Q125" s="51"/>
-      <c r="R125" s="52"/>
-    </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B126" s="42" t="s">
+      <c r="C127" s="48"/>
+      <c r="D127" s="35"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="36"/>
+      <c r="G127" s="36"/>
+      <c r="H127" s="37"/>
+      <c r="I127" s="35"/>
+      <c r="J127" s="36"/>
+      <c r="K127" s="36"/>
+      <c r="L127" s="36"/>
+      <c r="M127" s="37"/>
+      <c r="N127" s="35"/>
+      <c r="O127" s="36"/>
+      <c r="P127" s="36"/>
+      <c r="Q127" s="36"/>
+      <c r="R127" s="37"/>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B128" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C126" s="43" t="s">
+      <c r="C128" s="31" t="s">
         <v>29</v>
-      </c>
-      <c r="D126" s="24"/>
-      <c r="E126" s="25"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="25"/>
-      <c r="H126" s="26"/>
-      <c r="I126" s="24"/>
-      <c r="J126" s="25"/>
-      <c r="K126" s="25"/>
-      <c r="L126" s="25"/>
-      <c r="M126" s="26"/>
-      <c r="N126" s="24"/>
-      <c r="O126" s="25"/>
-      <c r="P126" s="25"/>
-      <c r="Q126" s="25"/>
-      <c r="R126" s="26"/>
-    </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B127" s="44"/>
-      <c r="C127" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D127" s="45"/>
-      <c r="E127" s="46"/>
-      <c r="F127" s="46"/>
-      <c r="G127" s="46"/>
-      <c r="H127" s="46"/>
-      <c r="I127" s="45"/>
-      <c r="J127" s="46"/>
-      <c r="K127" s="46"/>
-      <c r="L127" s="46"/>
-      <c r="M127" s="46"/>
-      <c r="N127" s="45"/>
-      <c r="O127" s="46"/>
-      <c r="P127" s="46"/>
-      <c r="Q127" s="46"/>
-      <c r="R127" s="47"/>
-    </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B128" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="C128" s="43" t="s">
-        <v>31</v>
       </c>
       <c r="D128" s="24"/>
       <c r="E128" s="25"/>
@@ -4573,97 +4745,79 @@
       <c r="Q128" s="25"/>
       <c r="R128" s="26"/>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B129" s="44"/>
-      <c r="C129" s="53" t="s">
+    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B129" s="41"/>
+      <c r="C129" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D129" s="32"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="33"/>
+      <c r="L129" s="33"/>
+      <c r="M129" s="33"/>
+      <c r="N129" s="32"/>
+      <c r="O129" s="33"/>
+      <c r="P129" s="33"/>
+      <c r="Q129" s="33"/>
+      <c r="R129" s="34"/>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B130" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D130" s="24"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="26"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="25"/>
+      <c r="K130" s="25"/>
+      <c r="L130" s="25"/>
+      <c r="M130" s="26"/>
+      <c r="N130" s="24"/>
+      <c r="O130" s="25"/>
+      <c r="P130" s="25"/>
+      <c r="Q130" s="25"/>
+      <c r="R130" s="26"/>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B131" s="41"/>
+      <c r="C131" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D129" s="45"/>
-      <c r="E129" s="46"/>
-      <c r="F129" s="46"/>
-      <c r="G129" s="46"/>
-      <c r="H129" s="46"/>
-      <c r="I129" s="45"/>
-      <c r="J129" s="46"/>
-      <c r="K129" s="46"/>
-      <c r="L129" s="46"/>
-      <c r="M129" s="46"/>
-      <c r="N129" s="45"/>
-      <c r="O129" s="46"/>
-      <c r="P129" s="46"/>
-      <c r="Q129" s="46"/>
-      <c r="R129" s="47"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33"/>
+      <c r="I131" s="32"/>
+      <c r="J131" s="33"/>
+      <c r="K131" s="33"/>
+      <c r="L131" s="33"/>
+      <c r="M131" s="33"/>
+      <c r="N131" s="32"/>
+      <c r="O131" s="33"/>
+      <c r="P131" s="33"/>
+      <c r="Q131" s="33"/>
+      <c r="R131" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="D121:H121"/>
-    <mergeCell ref="I121:M121"/>
-    <mergeCell ref="N121:R121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B113:B114"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="N56:R56"/>
-    <mergeCell ref="D108:H108"/>
-    <mergeCell ref="I108:M108"/>
-    <mergeCell ref="N108:R108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="I95:M95"/>
-    <mergeCell ref="N95:R95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:B98"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="D82:H82"/>
-    <mergeCell ref="I82:M82"/>
-    <mergeCell ref="N82:R82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="I84:M84"/>
+    <mergeCell ref="N84:R84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B84:C84"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="N4:R4"/>
@@ -4677,15 +4831,77 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="D97:H97"/>
+    <mergeCell ref="I97:M97"/>
+    <mergeCell ref="N97:R97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="I110:M110"/>
+    <mergeCell ref="N110:R110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="N56:R56"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="I123:M123"/>
+    <mergeCell ref="N123:R123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="B130:B131"/>
     <mergeCell ref="B76:B77"/>
-    <mergeCell ref="D69:H69"/>
-    <mergeCell ref="I69:M69"/>
-    <mergeCell ref="N69:R69"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="D70:H70"/>
+    <mergeCell ref="I70:M70"/>
+    <mergeCell ref="N70:R70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:B75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4699,12 +4915,12 @@
       <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
@@ -4731,7 +4947,7 @@
       <c r="R2" s="14"/>
       <c r="S2" s="15"/>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
@@ -4782,8 +4998,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="28" t="s">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C4" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -4805,8 +5021,8 @@
       <c r="R4" s="2"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C5" s="29"/>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C5" s="51"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
@@ -4826,8 +5042,8 @@
       <c r="R5" s="6"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C6" s="50" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -4879,8 +5095,8 @@
         <v>1.01059770490547</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="29"/>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C7" s="51"/>
       <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
@@ -4900,8 +5116,8 @@
       <c r="R7" s="6"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="28" t="s">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C8" s="50" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -4923,8 +5139,8 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="29"/>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C9" s="51"/>
       <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
@@ -4944,12 +5160,12 @@
       <c r="R9" s="6"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C13" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C15" s="12" t="s">
         <v>4</v>
       </c>
@@ -4976,7 +5192,7 @@
       <c r="R15" s="14"/>
       <c r="S15" s="15"/>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C16" s="12" t="s">
         <v>2</v>
       </c>
@@ -5027,8 +5243,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C17" s="28" t="s">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C17" s="50" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -5050,8 +5266,8 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C18" s="29"/>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C18" s="51"/>
       <c r="D18" s="8" t="s">
         <v>3</v>
       </c>
@@ -5071,8 +5287,8 @@
       <c r="R18" s="6"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C19" s="28" t="s">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C19" s="50" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -5124,8 +5340,8 @@
         <v>4802.4634537894499</v>
       </c>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C20" s="29"/>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C20" s="51"/>
       <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
@@ -5145,8 +5361,8 @@
       <c r="R20" s="6"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C21" s="28" t="s">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C21" s="50" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -5168,8 +5384,8 @@
       <c r="R21" s="2"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C22" s="29"/>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C22" s="51"/>
       <c r="D22" s="8" t="s">
         <v>3</v>
       </c>
@@ -5189,7 +5405,7 @@
       <c r="R22" s="6"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="18" t="s">
         <v>17</v>
       </c>
@@ -5197,17 +5413,17 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="L29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23"/>
@@ -5246,47 +5462,47 @@
       <selection activeCell="C62" sqref="C62:S86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="6.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.125" hidden="1" customWidth="1"/>
-    <col min="12" max="19" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" hidden="1" customWidth="1"/>
+    <col min="12" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C2" s="33" t="s">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="30">
+      <c r="D2" s="53"/>
+      <c r="E2" s="42">
         <v>0.25</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="30">
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="42">
         <v>0.5</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="30">
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="42">
         <v>0.75</v>
       </c>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="32"/>
-    </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C3" s="33" t="s">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="44"/>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="10">
         <v>40</v>
       </c>
@@ -5333,8 +5549,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="3:20" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="28" t="s">
+    <row r="4" spans="3:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="50" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -5386,8 +5602,8 @@
         <v>52.4340589274927</v>
       </c>
     </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C5" s="29"/>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C5" s="51"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
@@ -5452,11 +5668,11 @@
         <v>47.5659410725073</v>
       </c>
     </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C6" s="36" t="s">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C6" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="19">
         <v>48.75</v>
       </c>
@@ -5503,8 +5719,8 @@
         <v>47.75</v>
       </c>
     </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C7" s="28" t="s">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C7" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -5556,8 +5772,8 @@
         <v>12.797417560660501</v>
       </c>
     </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="29"/>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C8" s="51"/>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
@@ -5623,60 +5839,60 @@
       </c>
       <c r="T8" s="4"/>
     </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C9" s="27"/>
       <c r="D9" s="18"/>
     </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C10" s="27"/>
       <c r="D10" s="18"/>
     </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C11" s="27"/>
       <c r="D11" s="18"/>
     </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C14" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C16" s="33" t="s">
+    <row r="16" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C16" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="30">
+      <c r="D16" s="53"/>
+      <c r="E16" s="42">
         <v>0.25</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="30">
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="42">
         <v>0.5</v>
       </c>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="30">
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="42">
         <v>0.75</v>
       </c>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="32"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C17" s="33" t="s">
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="44"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C17" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="10">
         <v>40</v>
       </c>
@@ -5723,8 +5939,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C18" s="28" t="s">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C18" s="50" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -5776,8 +5992,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C19" s="29"/>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C19" s="51"/>
       <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
@@ -5842,11 +6058,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C20" s="36" t="s">
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C20" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="22">
         <v>9.5833333333333304</v>
       </c>
@@ -5893,8 +6109,8 @@
         <v>1.13888888888888</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C21" s="28" t="s">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C21" s="50" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -5946,8 +6162,8 @@
         <v>57.474110862417398</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C22" s="29"/>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C22" s="51"/>
       <c r="D22" s="12" t="s">
         <v>11</v>
       </c>
@@ -6012,63 +6228,63 @@
         <v>42.525889137582602</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="33" t="s">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C37" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="30">
+      <c r="D37" s="53"/>
+      <c r="E37" s="42">
         <v>0.25</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="30">
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="42">
         <v>0.5</v>
       </c>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="30">
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="42">
         <v>0.75</v>
       </c>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="32"/>
-    </row>
-    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="33" t="s">
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="44"/>
+    </row>
+    <row r="38" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C38" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="34"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="10">
         <v>40</v>
       </c>
@@ -6115,8 +6331,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C39" s="28" t="s">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C39" s="50" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -6138,8 +6354,8 @@
       <c r="R39" s="2"/>
       <c r="S39" s="3"/>
     </row>
-    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C40" s="29"/>
+    <row r="40" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C40" s="51"/>
       <c r="D40" s="8" t="s">
         <v>26</v>
       </c>
@@ -6159,11 +6375,11 @@
       <c r="R40" s="6"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C41" s="36" t="s">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C41" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="37"/>
+      <c r="D41" s="56"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
@@ -6180,8 +6396,8 @@
       <c r="R41" s="20"/>
       <c r="S41" s="21"/>
     </row>
-    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C42" s="28" t="s">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C42" s="50" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -6203,8 +6419,8 @@
       <c r="R42" s="2"/>
       <c r="S42" s="3"/>
     </row>
-    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C43" s="29"/>
+    <row r="43" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C43" s="51"/>
       <c r="D43" s="8" t="s">
         <v>30</v>
       </c>
@@ -6224,8 +6440,8 @@
       <c r="R43" s="6"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C44" s="28" t="s">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C44" s="50" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -6247,8 +6463,8 @@
       <c r="R44" s="2"/>
       <c r="S44" s="3"/>
     </row>
-    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C45" s="29"/>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C45" s="51"/>
       <c r="D45" s="12" t="s">
         <v>26</v>
       </c>
@@ -6268,52 +6484,52 @@
       <c r="R45" s="6"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C46" s="27"/>
       <c r="D46" s="18"/>
     </row>
-    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C51" s="33" t="s">
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C51" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="30">
+      <c r="D51" s="53"/>
+      <c r="E51" s="42">
         <v>0.25</v>
       </c>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="30">
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="42">
         <v>0.5</v>
       </c>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="30">
+      <c r="K51" s="43"/>
+      <c r="L51" s="43"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
+      <c r="O51" s="42">
         <v>0.75</v>
       </c>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="32"/>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C52" s="33" t="s">
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="44"/>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C52" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="34"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="10">
         <v>40</v>
       </c>
@@ -6360,8 +6576,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C53" s="28" t="s">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C53" s="50" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -6383,8 +6599,8 @@
       <c r="R53" s="2"/>
       <c r="S53" s="3"/>
     </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C54" s="29"/>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C54" s="51"/>
       <c r="D54" s="8" t="s">
         <v>26</v>
       </c>
@@ -6404,11 +6620,11 @@
       <c r="R54" s="6"/>
       <c r="S54" s="7"/>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C55" s="36" t="s">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C55" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="37"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="22">
         <v>90.4166666666667</v>
       </c>
@@ -6455,8 +6671,8 @@
         <v>98.861111111111114</v>
       </c>
     </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C56" s="28" t="s">
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C56" s="50" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -6478,8 +6694,8 @@
       <c r="R56" s="2"/>
       <c r="S56" s="3"/>
     </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C57" s="29"/>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C57" s="51"/>
       <c r="D57" s="8" t="s">
         <v>30</v>
       </c>
@@ -6499,8 +6715,8 @@
       <c r="R57" s="6"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C58" s="28" t="s">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C58" s="50" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -6522,8 +6738,8 @@
       <c r="R58" s="2"/>
       <c r="S58" s="3"/>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C59" s="29"/>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C59" s="51"/>
       <c r="D59" s="12" t="s">
         <v>26</v>
       </c>
@@ -6545,22 +6761,12 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="C2:D2"/>
@@ -6573,12 +6779,22 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="O37:S37"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6592,12 +6808,12 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>70.011999999999901</v>
       </c>
@@ -6605,7 +6821,7 @@
         <v>70.011999999999901</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>90.058999999999997</v>
       </c>
@@ -6613,7 +6829,7 @@
         <v>90.058999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>44.5833333333333</v>
       </c>
@@ -6621,7 +6837,7 @@
         <v>44.5833333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>70.011999999999901</v>
       </c>
@@ -6629,7 +6845,7 @@
         <v>70.011999999999901</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>195.36699999999999</v>
       </c>
@@ -6637,7 +6853,7 @@
         <v>195.36699999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.69</v>
       </c>
@@ -6645,7 +6861,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -6653,7 +6869,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>162.74799999999999</v>
       </c>
@@ -6661,7 +6877,7 @@
         <v>162.74799999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>189.91899999999899</v>
       </c>
@@ -6669,7 +6885,7 @@
         <v>189.91899999999899</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>37.5</v>
       </c>
@@ -6677,7 +6893,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>162.74799999999999</v>
       </c>
@@ -6685,7 +6901,7 @@
         <v>162.74799999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>381.154</v>
       </c>
@@ -6693,7 +6909,7 @@
         <v>381.154</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.855</v>
       </c>
@@ -6701,7 +6917,7 @@
         <v>1.855</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -6709,7 +6925,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>216.59799999999899</v>
       </c>
@@ -6717,7 +6933,7 @@
         <v>216.59799999999899</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>250.551999999999</v>
       </c>
@@ -6725,7 +6941,7 @@
         <v>250.551999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>38.6111111111111</v>
       </c>
@@ -6733,7 +6949,7 @@
         <v>38.6111111111111</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>216.59799999999899</v>
       </c>
@@ -6741,7 +6957,7 @@
         <v>216.59799999999899</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>579.78699999999901</v>
       </c>
@@ -6749,7 +6965,7 @@
         <v>579.78699999999901</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.2349999999999999</v>
       </c>
@@ -6757,7 +6973,7 @@
         <v>3.2349999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -6765,7 +6981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>294.63400000000001</v>
       </c>
@@ -6773,7 +6989,7 @@
         <v>294.63400000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>333.44899999999899</v>
       </c>
@@ -6781,7 +6997,7 @@
         <v>333.44899999999899</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>40.1041666666666</v>
       </c>
@@ -6789,7 +7005,7 @@
         <v>40.1041666666666</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>294.63400000000001</v>
       </c>
@@ -6797,7 +7013,7 @@
         <v>294.63400000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>762.29899999999895</v>
       </c>
@@ -6805,7 +7021,7 @@
         <v>762.29899999999895</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4.8819999999999997</v>
       </c>
@@ -6813,7 +7029,7 @@
         <v>4.8819999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>48</v>
       </c>
@@ -6821,7 +7037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>378.77199999999999</v>
       </c>
@@ -6829,7 +7045,7 @@
         <v>378.77199999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>439.83199999999999</v>
       </c>
@@ -6837,7 +7053,7 @@
         <v>439.83199999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>41.1666666666666</v>
       </c>
@@ -6845,7 +7061,7 @@
         <v>41.1666666666666</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>378.77199999999903</v>
       </c>
@@ -6853,7 +7069,7 @@
         <v>378.77199999999903</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>945.03800000000001</v>
       </c>
@@ -6861,7 +7077,7 @@
         <v>945.03800000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6.5509999999999904</v>
       </c>
@@ -6869,7 +7085,7 @@
         <v>6.5509999999999904</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -6877,7 +7093,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>58.515000000000001</v>
       </c>
@@ -6885,7 +7101,7 @@
         <v>58.515000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>59.173000000000002</v>
       </c>
@@ -6893,7 +7109,7 @@
         <v>59.173000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37.5</v>
       </c>
@@ -6901,7 +7117,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>58.514999999999901</v>
       </c>
@@ -6909,7 +7125,7 @@
         <v>58.514999999999901</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>485.387</v>
       </c>
@@ -6917,7 +7133,7 @@
         <v>485.387</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1.855</v>
       </c>
@@ -6925,7 +7141,7 @@
         <v>1.855</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -6933,7 +7149,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>111.81399999999999</v>
       </c>
@@ -6941,7 +7157,7 @@
         <v>111.81399999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>118.097999999999</v>
       </c>
@@ -6949,7 +7165,7 @@
         <v>118.097999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>40.1041666666666</v>
       </c>
@@ -6957,7 +7173,7 @@
         <v>40.1041666666666</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>111.81399999999999</v>
       </c>
@@ -6965,7 +7181,7 @@
         <v>111.81399999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>945.11899999999901</v>
       </c>
@@ -6973,7 +7189,7 @@
         <v>945.11899999999901</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4.8819999999999997</v>
       </c>
@@ -6981,7 +7197,7 @@
         <v>4.8819999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -6989,7 +7205,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>175.37899999999999</v>
       </c>
@@ -6997,7 +7213,7 @@
         <v>175.37899999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>177.28799999999899</v>
       </c>
@@ -7005,7 +7221,7 @@
         <v>177.28799999999899</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>40.8333333333333</v>
       </c>
@@ -7013,7 +7229,7 @@
         <v>40.8333333333333</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>175.37899999999999</v>
       </c>
@@ -7021,7 +7237,7 @@
         <v>175.37899999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1417.0039999999899</v>
       </c>
@@ -7029,7 +7245,7 @@
         <v>1417.0039999999899</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7.4279999999999902</v>
       </c>
@@ -7037,7 +7253,7 @@
         <v>7.4279999999999902</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -7045,7 +7261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>214.83699999999999</v>
       </c>
@@ -7053,7 +7269,7 @@
         <v>214.83699999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>217.009999999999</v>
       </c>
@@ -7061,7 +7277,7 @@
         <v>217.009999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>41.3541666666666</v>
       </c>
@@ -7069,7 +7285,7 @@
         <v>41.3541666666666</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>214.83699999999899</v>
       </c>
@@ -7077,7 +7293,7 @@
         <v>214.83699999999899</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1892.183</v>
       </c>
@@ -7085,7 +7301,7 @@
         <v>1892.183</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>9.3650000000000002</v>
       </c>
@@ -7093,7 +7309,7 @@
         <v>9.3650000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -7101,7 +7317,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>256.06799999999998</v>
       </c>
@@ -7109,7 +7325,7 @@
         <v>256.06799999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>253.658999999999</v>
       </c>
@@ -7117,7 +7333,7 @@
         <v>253.658999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>42</v>
       </c>
@@ -7125,7 +7341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>256.06799999999998</v>
       </c>
@@ -7133,7 +7349,7 @@
         <v>256.06799999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2384.942</v>
       </c>
@@ -7141,7 +7357,7 @@
         <v>2384.942</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>11.442</v>
       </c>
@@ -7149,7 +7365,7 @@
         <v>11.442</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>52</v>
       </c>
@@ -7157,7 +7373,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>34.512999999999998</v>
       </c>
@@ -7165,7 +7381,7 @@
         <v>34.512999999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>31.5259999999999</v>
       </c>
@@ -7173,7 +7389,7 @@
         <v>31.5259999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>38.6111111111111</v>
       </c>
@@ -7181,7 +7397,7 @@
         <v>38.6111111111111</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>34.512999999999998</v>
       </c>
@@ -7189,7 +7405,7 @@
         <v>34.512999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>761.87199999999905</v>
       </c>
@@ -7197,7 +7413,7 @@
         <v>761.87199999999905</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3.2349999999999999</v>
       </c>
@@ -7205,7 +7421,7 @@
         <v>3.2349999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>47</v>
       </c>
@@ -7213,7 +7429,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>60.058999999999898</v>
       </c>
@@ -7221,7 +7437,7 @@
         <v>60.058999999999898</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>57.628999999999998</v>
       </c>
@@ -7229,7 +7445,7 @@
         <v>57.628999999999998</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>40.8333333333333</v>
       </c>
@@ -7237,7 +7453,7 @@
         <v>40.8333333333333</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>60.058999999999898</v>
       </c>
@@ -7245,7 +7461,7 @@
         <v>60.058999999999898</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1532.3239999999901</v>
       </c>
@@ -7253,7 +7469,7 @@
         <v>1532.3239999999901</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>7.4279999999999902</v>
       </c>
@@ -7261,7 +7477,7 @@
         <v>7.4279999999999902</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>50</v>
       </c>
@@ -7269,7 +7485,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>78.252999999999901</v>
       </c>
@@ -7277,7 +7493,7 @@
         <v>78.252999999999901</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>81.817999999999998</v>
       </c>
@@ -7285,7 +7501,7 @@
         <v>81.817999999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>41.6666666666666</v>
       </c>
@@ -7293,7 +7509,7 @@
         <v>41.6666666666666</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>78.252999999999901</v>
       </c>
@@ -7301,7 +7517,7 @@
         <v>78.252999999999901</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>2299.84</v>
       </c>
@@ -7309,7 +7525,7 @@
         <v>2299.84</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>10.285</v>
       </c>
@@ -7317,7 +7533,7 @@
         <v>10.285</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>53</v>
       </c>
@@ -7325,7 +7541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>113.94099999999899</v>
       </c>
@@ -7333,7 +7549,7 @@
         <v>113.94099999999899</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>115.97099999999899</v>
       </c>
@@ -7341,7 +7557,7 @@
         <v>115.97099999999899</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>40.9375</v>
       </c>
@@ -7349,7 +7565,7 @@
         <v>40.9375</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>113.941</v>
       </c>
@@ -7357,7 +7573,7 @@
         <v>113.941</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3068.0509999999999</v>
       </c>
@@ -7365,7 +7581,7 @@
         <v>3068.0509999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>14.750999999999999</v>
       </c>
@@ -7373,7 +7589,7 @@
         <v>14.750999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>54</v>
       </c>
@@ -7381,7 +7597,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>143.09599999999901</v>
       </c>
@@ -7389,7 +7605,7 @@
         <v>143.09599999999901</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>139.35499999999999</v>
       </c>
@@ -7397,7 +7613,7 @@
         <v>139.35499999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>39.9444444444444</v>
       </c>
@@ -7405,7 +7621,7 @@
         <v>39.9444444444444</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>143.096</v>
       </c>
@@ -7413,7 +7629,7 @@
         <v>143.096</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3867.1559999999899</v>
       </c>
@@ -7421,7 +7637,7 @@
         <v>3867.1559999999899</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>16.777999999999899</v>
       </c>
@@ -7429,7 +7645,7 @@
         <v>16.777999999999899</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>55</v>
       </c>
@@ -7437,7 +7653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>56</v>
       </c>

--- a/simulationResults_b.xlsx
+++ b/simulationResults_b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/PESGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09222FCA-F87B-B546-BBA3-C984CC9029EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BA6F7A-8F16-414E-8572-991FDDA40826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="500" windowWidth="26560" windowHeight="15480" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -279,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -445,11 +445,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -504,10 +515,11 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,13 +533,19 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -535,7 +553,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,14 +560,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
-  <dimension ref="B2:AJ131"/>
+  <dimension ref="B2:AJ133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:XFD131"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L69" sqref="L69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -893,86 +907,86 @@
       <c r="B3" s="28"/>
     </row>
     <row r="4" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="42">
+      <c r="C4" s="50"/>
+      <c r="D4" s="43">
         <v>0.25</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="42">
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="43">
         <v>0.5</v>
       </c>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="42">
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="43">
         <v>0.75</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
       <c r="T4" s="23">
-        <v>13422.005064201699</v>
+        <v>8534.0769999999902</v>
       </c>
       <c r="V4" s="23" cm="1">
         <f t="array" ref="V4:AJ4">TRANSPOSE(T4:T18)</f>
-        <v>13422.005064201699</v>
+        <v>8534.0769999999902</v>
       </c>
       <c r="W4" s="23">
-        <v>24420.3874804394</v>
+        <v>15023.047000000201</v>
       </c>
       <c r="X4" s="23">
-        <v>44355.147017769501</v>
+        <v>25498.076000001602</v>
       </c>
       <c r="Y4" s="23">
-        <v>54600.642451596599</v>
+        <v>31785.759000001901</v>
       </c>
       <c r="Z4" s="23">
-        <v>69483.700392940998</v>
+        <v>39645.643000001801</v>
       </c>
       <c r="AA4" s="23">
-        <v>11147.0110809664</v>
+        <v>15023.047000000201</v>
       </c>
       <c r="AB4" s="23">
-        <v>29476.334140168201</v>
+        <v>31785.759000001901</v>
       </c>
       <c r="AC4" s="23">
-        <v>42372.623106654697</v>
+        <v>47868.672000000799</v>
       </c>
       <c r="AD4" s="23">
-        <v>58804.504638791797</v>
+        <v>67023.046000000497</v>
       </c>
       <c r="AE4" s="23">
-        <v>70942.959742109495</v>
+        <v>83264.587999997806</v>
       </c>
       <c r="AF4" s="23">
-        <v>16020.7393217671</v>
+        <v>25498.076000001602</v>
       </c>
       <c r="AG4" s="23">
-        <v>23707.5195693239</v>
+        <v>47868.672000000799</v>
       </c>
       <c r="AH4" s="23">
-        <v>34506.974429385104</v>
+        <v>74049.793999997695</v>
       </c>
       <c r="AI4" s="23">
-        <v>46598.020789553899</v>
+        <v>99770.900999995894</v>
       </c>
       <c r="AJ4" s="23">
-        <v>53521.155633401097</v>
+        <v>122088.448999985</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="10">
         <v>40</v>
       </c>
@@ -1019,11 +1033,11 @@
         <v>200</v>
       </c>
       <c r="T5" s="23">
-        <v>24420.3874804394</v>
+        <v>15023.047000000201</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="31" t="s">
@@ -1075,11 +1089,11 @@
         <v>143.09599999999901</v>
       </c>
       <c r="T6" s="23">
-        <v>44355.147017769501</v>
+        <v>25498.076000001602</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B7" s="41"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="31" t="s">
         <v>26</v>
       </c>
@@ -1129,14 +1143,14 @@
         <v>139.35499999999999</v>
       </c>
       <c r="T7" s="23">
-        <v>54600.642451596599</v>
+        <v>31785.759000001901</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="48"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="35">
         <v>55.4166666666666</v>
       </c>
@@ -1183,11 +1197,11 @@
         <v>60.0555555555555</v>
       </c>
       <c r="T8" s="23">
-        <v>69483.700392940998</v>
+        <v>39645.643000001801</v>
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -1239,11 +1253,11 @@
         <v>143.096</v>
       </c>
       <c r="T9" s="23">
-        <v>11147.0110809664</v>
+        <v>15023.047000000201</v>
       </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B10" s="41"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="31" t="s">
         <v>58</v>
       </c>
@@ -1293,11 +1307,11 @@
         <v>3867.1559999999899</v>
       </c>
       <c r="T10" s="23">
-        <v>29476.334140168201</v>
+        <v>31785.759000001901</v>
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="48" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -1349,11 +1363,11 @@
         <v>16.777999999999899</v>
       </c>
       <c r="T11" s="23">
-        <v>42372.623106654697</v>
+        <v>47868.672000000799</v>
       </c>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B12" s="41"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="29" t="s">
         <v>26</v>
       </c>
@@ -1403,17 +1417,17 @@
         <v>380.47500000000002</v>
       </c>
       <c r="T12" s="23">
-        <v>58804.504638791797</v>
+        <v>67023.046000000497</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T13" s="23">
-        <v>70942.959742109495</v>
+        <v>83264.587999997806</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T14" s="23">
-        <v>16020.7393217671</v>
+        <v>25498.076000001602</v>
       </c>
     </row>
     <row r="15" spans="2:36" ht="18" x14ac:dyDescent="0.2">
@@ -1421,50 +1435,50 @@
         <v>37</v>
       </c>
       <c r="T15" s="23">
-        <v>23707.5195693239</v>
+        <v>47868.672000000799</v>
       </c>
     </row>
     <row r="16" spans="2:36" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="28"/>
       <c r="T16" s="23">
-        <v>34506.974429385104</v>
+        <v>74049.793999997695</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="42">
+      <c r="C17" s="50"/>
+      <c r="D17" s="43">
         <v>0.25</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="42">
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="43">
         <v>0.5</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="42">
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="43">
         <v>0.75</v>
       </c>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="45"/>
       <c r="T17" s="23">
-        <v>46598.020789553899</v>
+        <v>99770.900999995894</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="10">
         <v>40</v>
       </c>
@@ -1511,11 +1525,11 @@
         <v>200</v>
       </c>
       <c r="T18" s="23">
-        <v>53521.155633401097</v>
+        <v>122088.448999985</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="31" t="s">
@@ -1568,7 +1582,7 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="41"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="31" t="s">
         <v>26</v>
       </c>
@@ -1619,10 +1633,10 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="48"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="35">
         <v>10</v>
       </c>
@@ -1670,7 +1684,7 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -1723,7 +1737,7 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="41"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="29" t="s">
         <v>30</v>
       </c>
@@ -1774,7 +1788,7 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="48" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="31" t="s">
@@ -1827,7 +1841,7 @@
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="41"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="29" t="s">
         <v>26</v>
       </c>
@@ -1886,37 +1900,37 @@
       <c r="B29" s="28"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="42">
+      <c r="C30" s="50"/>
+      <c r="D30" s="43">
         <v>0.25</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="42">
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="43">
         <v>0.5</v>
       </c>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="42">
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="43">
         <v>0.75</v>
       </c>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="44"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="45"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="46"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="10">
         <v>40</v>
       </c>
@@ -1964,7 +1978,7 @@
       </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="31" t="s">
@@ -2017,7 +2031,7 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="41"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="31" t="s">
         <v>26</v>
       </c>
@@ -2068,10 +2082,10 @@
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="48"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="35">
         <v>45.470430107526802</v>
       </c>
@@ -2119,7 +2133,7 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="31" t="s">
@@ -2172,7 +2186,7 @@
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="41"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="31" t="s">
         <v>30</v>
       </c>
@@ -2223,7 +2237,7 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="48" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="31" t="s">
@@ -2276,7 +2290,7 @@
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="41"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="29" t="s">
         <v>26</v>
       </c>
@@ -2335,37 +2349,37 @@
       <c r="B42" s="28"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="42">
+      <c r="C43" s="50"/>
+      <c r="D43" s="43">
         <v>0.25</v>
       </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="42">
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="43">
         <v>0.5</v>
       </c>
-      <c r="J43" s="43"/>
-      <c r="K43" s="43"/>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="42">
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="43">
         <v>0.75</v>
       </c>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="44"/>
+      <c r="O43" s="44"/>
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="45"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="46"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="10">
         <v>40</v>
       </c>
@@ -2413,7 +2427,7 @@
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="31" t="s">
@@ -2466,7 +2480,7 @@
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="41"/>
+      <c r="B46" s="49"/>
       <c r="C46" s="31" t="s">
         <v>26</v>
       </c>
@@ -2517,10 +2531,10 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="48"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="35">
         <v>23.9919354838709</v>
       </c>
@@ -2568,7 +2582,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C48" s="31" t="s">
@@ -2621,7 +2635,7 @@
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="41"/>
+      <c r="B49" s="49"/>
       <c r="C49" s="31" t="s">
         <v>30</v>
       </c>
@@ -2672,7 +2686,7 @@
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="48" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="31" t="s">
@@ -2725,7 +2739,7 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="41"/>
+      <c r="B51" s="49"/>
       <c r="C51" s="29" t="s">
         <v>26</v>
       </c>
@@ -2784,37 +2798,37 @@
       <c r="B55" s="28"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="42">
+      <c r="C56" s="50"/>
+      <c r="D56" s="43">
         <v>0.25</v>
       </c>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="42">
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="43">
         <v>0.5</v>
       </c>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="43"/>
-      <c r="M56" s="43"/>
-      <c r="N56" s="42">
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="43">
         <v>0.75</v>
       </c>
-      <c r="O56" s="43"/>
-      <c r="P56" s="43"/>
-      <c r="Q56" s="43"/>
-      <c r="R56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="45"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="46"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="10">
         <v>40</v>
       </c>
@@ -2862,7 +2876,7 @@
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="31" t="s">
@@ -2915,7 +2929,7 @@
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="41"/>
+      <c r="B59" s="49"/>
       <c r="C59" s="31" t="s">
         <v>26</v>
       </c>
@@ -2966,7 +2980,7 @@
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="60"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="30"/>
       <c r="D60" s="32">
         <f>SUM(D58:D59)</f>
@@ -3030,10 +3044,10 @@
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C61" s="48"/>
+      <c r="C61" s="52"/>
       <c r="D61" s="35">
         <v>38.901411657559201</v>
       </c>
@@ -3081,7 +3095,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="48" t="s">
         <v>34</v>
       </c>
       <c r="C62" s="31" t="s">
@@ -3134,7 +3148,7 @@
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="41"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="31" t="s">
         <v>30</v>
       </c>
@@ -3185,876 +3199,872 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="60"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="38">
+        <v>8534.0769999999902</v>
+      </c>
+      <c r="E64" s="61">
+        <v>15023.047000000201</v>
+      </c>
+      <c r="F64" s="61">
+        <v>25498.076000001602</v>
+      </c>
+      <c r="G64" s="61">
+        <v>31785.759000001901</v>
+      </c>
+      <c r="H64" s="61">
+        <v>39645.643000001801</v>
+      </c>
+      <c r="I64" s="38">
+        <v>15023.047000000201</v>
+      </c>
+      <c r="J64" s="61">
+        <v>31785.759000001901</v>
+      </c>
+      <c r="K64" s="61">
+        <v>47868.672000000799</v>
+      </c>
+      <c r="L64" s="61">
+        <v>67023.046000000497</v>
+      </c>
+      <c r="M64" s="61">
+        <v>83264.587999997806</v>
+      </c>
+      <c r="N64" s="38">
+        <v>25498.076000001602</v>
+      </c>
+      <c r="O64" s="61">
+        <v>47868.672000000799</v>
+      </c>
+      <c r="P64" s="61">
+        <v>74049.793999997695</v>
+      </c>
+      <c r="Q64" s="61">
+        <v>99770.900999995894</v>
+      </c>
+      <c r="R64" s="39">
+        <v>122088.448999985</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B65" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C65" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="24">
+      <c r="D65" s="24">
         <v>2833.4379999999901</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E65" s="25">
         <v>4199.1859999999997</v>
       </c>
-      <c r="F64" s="25">
+      <c r="F65" s="25">
         <v>9300.4200000001492</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G65" s="25">
         <v>10780.7570000003</v>
       </c>
-      <c r="H64" s="26">
+      <c r="H65" s="26">
         <v>13396.9970000005</v>
       </c>
-      <c r="I64" s="24">
+      <c r="I65" s="24">
         <v>4199.1859999999997</v>
       </c>
-      <c r="J64" s="25">
+      <c r="J65" s="25">
         <v>10780.7570000003</v>
       </c>
-      <c r="K64" s="25">
+      <c r="K65" s="25">
         <v>15392.861000000699</v>
       </c>
-      <c r="L64" s="25">
+      <c r="L65" s="25">
         <v>21692.105000000902</v>
       </c>
-      <c r="M64" s="26">
+      <c r="M65" s="26">
         <v>26358.3100000007</v>
       </c>
-      <c r="N64" s="24">
+      <c r="N65" s="24">
         <v>9300.4200000001492</v>
       </c>
-      <c r="O64" s="25">
+      <c r="O65" s="25">
         <v>15392.861000000699</v>
       </c>
-      <c r="P64" s="25">
+      <c r="P65" s="25">
         <v>23411.733000000699</v>
       </c>
-      <c r="Q64" s="25">
+      <c r="Q65" s="25">
         <v>31420.039000001001</v>
       </c>
-      <c r="R64" s="26">
+      <c r="R65" s="26">
         <v>37448.582999999897</v>
       </c>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="41"/>
-      <c r="C65" s="29" t="s">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B66" s="49"/>
+      <c r="C66" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="32">
+      <c r="D66" s="32">
         <v>16792.9820000004</v>
       </c>
-      <c r="E65" s="33">
+      <c r="E66" s="33">
         <v>30673.140000001302</v>
       </c>
-      <c r="F65" s="33">
+      <c r="F66" s="33">
         <v>54479.106999999502</v>
       </c>
-      <c r="G65" s="33">
+      <c r="G66" s="33">
         <v>67729.903999998001</v>
       </c>
-      <c r="H65" s="33">
+      <c r="H66" s="33">
         <v>85985.149999994799</v>
       </c>
-      <c r="I65" s="32">
+      <c r="I66" s="32">
         <v>30673.140000001302</v>
       </c>
-      <c r="J65" s="33">
+      <c r="J66" s="33">
         <v>67729.903999998001</v>
       </c>
-      <c r="K65" s="33">
+      <c r="K66" s="33">
         <v>102431.10699999399</v>
       </c>
-      <c r="L65" s="33">
+      <c r="L66" s="33">
         <v>141663.78999999099</v>
       </c>
-      <c r="M65" s="33">
+      <c r="M66" s="33">
         <v>174969.47799998501</v>
       </c>
-      <c r="N65" s="32">
+      <c r="N66" s="32">
         <v>54479.106999999502</v>
       </c>
-      <c r="O65" s="33">
+      <c r="O66" s="33">
         <v>102431.10699999399</v>
       </c>
-      <c r="P65" s="33">
+      <c r="P66" s="33">
         <v>156284.82199998901</v>
       </c>
-      <c r="Q65" s="33">
+      <c r="Q66" s="33">
         <v>209593.245999979</v>
       </c>
-      <c r="R65" s="34">
+      <c r="R66" s="34">
         <v>257734.99999998201</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="57"/>
-      <c r="C66" s="58"/>
-      <c r="D66" s="59">
-        <f>SUM(D62:D65)</f>
-        <v>62149.070000000196</v>
-      </c>
-      <c r="E66" s="59">
-        <f>SUM(E62:E65)</f>
-        <v>123290.90900000121</v>
-      </c>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-    </row>
-    <row r="68" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B68" s="28" t="s">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B67" s="40"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="23">
+        <f>SUM(D62:D66)</f>
+        <v>70683.147000000186</v>
+      </c>
+      <c r="E67" s="23">
+        <f>SUM(E62:E66)</f>
+        <v>138313.9560000014</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B69" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B69" s="28"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="45" t="s">
+    <row r="70" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B70" s="28"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B71" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="42">
+      <c r="C71" s="50"/>
+      <c r="D71" s="43">
         <v>0.25</v>
       </c>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="42">
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="43">
         <v>0.5</v>
       </c>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="42">
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="43">
         <v>0.75</v>
       </c>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="44"/>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="45" t="s">
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="45"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B72" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="46"/>
-      <c r="D71" s="10">
+      <c r="C72" s="47"/>
+      <c r="D72" s="10">
         <v>40</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E72" s="9">
         <v>80</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F72" s="9">
         <v>120</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G72" s="9">
         <v>160</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H72" s="9">
         <v>200</v>
       </c>
-      <c r="I71" s="10">
+      <c r="I72" s="10">
         <v>40</v>
       </c>
-      <c r="J71" s="9">
+      <c r="J72" s="9">
         <v>80</v>
       </c>
-      <c r="K71" s="9">
+      <c r="K72" s="9">
         <v>120</v>
       </c>
-      <c r="L71" s="9">
+      <c r="L72" s="9">
         <v>160</v>
       </c>
-      <c r="M71" s="9">
+      <c r="M72" s="9">
         <v>200</v>
       </c>
-      <c r="N71" s="10">
+      <c r="N72" s="10">
         <v>40</v>
       </c>
-      <c r="O71" s="9">
+      <c r="O72" s="9">
         <v>80</v>
       </c>
-      <c r="P71" s="9">
+      <c r="P72" s="9">
         <v>120</v>
       </c>
-      <c r="Q71" s="9">
+      <c r="Q72" s="9">
         <v>160</v>
       </c>
-      <c r="R71" s="11">
+      <c r="R72" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="40" t="s">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B73" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C73" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D73" s="24">
         <v>39089.046438154801</v>
       </c>
-      <c r="E72" s="25">
+      <c r="E73" s="25">
         <v>82019.877758255199</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F73" s="25">
         <v>116218.580895627</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G73" s="25">
         <v>159138.987787872</v>
       </c>
-      <c r="H72" s="26">
+      <c r="H73" s="26">
         <v>199051.54997373</v>
       </c>
-      <c r="I72" s="24">
+      <c r="I73" s="24">
         <v>47333.995169554197</v>
       </c>
-      <c r="J72" s="25">
+      <c r="J73" s="25">
         <v>98926.584932192694</v>
       </c>
-      <c r="K72" s="25">
+      <c r="K73" s="25">
         <v>143445.815290161</v>
       </c>
-      <c r="L72" s="25">
+      <c r="L73" s="25">
         <v>187520.878512628</v>
       </c>
-      <c r="M72" s="26">
+      <c r="M73" s="26">
         <v>232425.50969515101</v>
       </c>
-      <c r="N72" s="24">
+      <c r="N73" s="24">
         <v>31739.099781575798</v>
       </c>
-      <c r="O72" s="25">
+      <c r="O73" s="25">
         <v>55318.520663591</v>
       </c>
-      <c r="P72" s="25">
+      <c r="P73" s="25">
         <v>80685.706887105494</v>
       </c>
-      <c r="Q72" s="25">
+      <c r="Q73" s="25">
         <v>118353.559455394</v>
       </c>
-      <c r="R72" s="26">
+      <c r="R73" s="26">
         <v>143837.329561235</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="41"/>
-      <c r="C73" s="31" t="s">
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B74" s="49"/>
+      <c r="C74" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D73" s="32">
+      <c r="D74" s="32">
         <v>43331.404561845397</v>
       </c>
-      <c r="E73" s="33">
+      <c r="E74" s="33">
         <v>93980.541241744097</v>
       </c>
-      <c r="F73" s="33">
+      <c r="F74" s="33">
         <v>139111.39410437201</v>
       </c>
-      <c r="G73" s="33">
+      <c r="G74" s="33">
         <v>184783.85121212801</v>
       </c>
-      <c r="H73" s="33">
+      <c r="H74" s="33">
         <v>241750.62102626701</v>
       </c>
-      <c r="I73" s="32">
+      <c r="I74" s="32">
         <v>9044.2498304456894</v>
       </c>
-      <c r="J73" s="33">
+      <c r="J74" s="33">
         <v>23261.579067807001</v>
       </c>
-      <c r="K73" s="33">
+      <c r="K74" s="33">
         <v>32554.6037098382</v>
       </c>
-      <c r="L73" s="33">
+      <c r="L74" s="33">
         <v>44545.369487370503</v>
       </c>
-      <c r="M73" s="33">
+      <c r="M74" s="33">
         <v>54329.548304848198</v>
       </c>
-      <c r="N73" s="32">
+      <c r="N74" s="32">
         <v>1036.6022184242499</v>
       </c>
-      <c r="O73" s="33">
+      <c r="O74" s="33">
         <v>1059.7243364088899</v>
       </c>
-      <c r="P73" s="33">
+      <c r="P74" s="33">
         <v>1734.74411289472</v>
       </c>
-      <c r="Q73" s="33">
+      <c r="Q74" s="33">
         <v>3834.6045446057501</v>
       </c>
-      <c r="R73" s="34">
+      <c r="R74" s="34">
         <v>4272.9784387647796</v>
       </c>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="60"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="32">
-        <f>SUM(D72:D73)</f>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B75" s="42"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="32">
+        <f>SUM(D73:D74)</f>
         <v>82420.451000000205</v>
       </c>
-      <c r="E74" s="32">
-        <f t="shared" ref="E74:R74" si="1">SUM(E72:E73)</f>
+      <c r="E75" s="32">
+        <f t="shared" ref="E75:R75" si="1">SUM(E73:E74)</f>
         <v>176000.4189999993</v>
       </c>
-      <c r="F74" s="32">
+      <c r="F75" s="32">
         <f t="shared" si="1"/>
         <v>255329.97499999902</v>
       </c>
-      <c r="G74" s="32">
+      <c r="G75" s="32">
         <f t="shared" si="1"/>
         <v>343922.83900000004</v>
       </c>
-      <c r="H74" s="32">
+      <c r="H75" s="32">
         <f t="shared" si="1"/>
         <v>440802.170999997</v>
       </c>
-      <c r="I74" s="32">
+      <c r="I75" s="32">
         <f t="shared" si="1"/>
         <v>56378.244999999886</v>
       </c>
-      <c r="J74" s="32">
+      <c r="J75" s="32">
         <f t="shared" si="1"/>
         <v>122188.1639999997</v>
       </c>
-      <c r="K74" s="32">
+      <c r="K75" s="32">
         <f t="shared" si="1"/>
         <v>176000.41899999921</v>
       </c>
-      <c r="L74" s="32">
+      <c r="L75" s="32">
         <f t="shared" si="1"/>
         <v>232066.24799999851</v>
       </c>
-      <c r="M74" s="32">
+      <c r="M75" s="32">
         <f t="shared" si="1"/>
         <v>286755.0579999992</v>
       </c>
-      <c r="N74" s="32">
+      <c r="N75" s="32">
         <f t="shared" si="1"/>
         <v>32775.702000000048</v>
       </c>
-      <c r="O74" s="32">
+      <c r="O75" s="32">
         <f t="shared" si="1"/>
         <v>56378.244999999893</v>
       </c>
-      <c r="P74" s="32">
+      <c r="P75" s="32">
         <f t="shared" si="1"/>
         <v>82420.451000000219</v>
       </c>
-      <c r="Q74" s="32">
+      <c r="Q75" s="32">
         <f t="shared" si="1"/>
         <v>122188.16399999976</v>
       </c>
-      <c r="R74" s="32">
+      <c r="R75" s="32">
         <f t="shared" si="1"/>
         <v>148110.30799999979</v>
       </c>
     </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="47" t="s">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B76" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="35">
+      <c r="C76" s="52"/>
+      <c r="D76" s="35">
         <v>48.226320582877896</v>
       </c>
-      <c r="E75" s="36">
+      <c r="E76" s="36">
         <v>49.067053734061901</v>
       </c>
-      <c r="F75" s="36">
+      <c r="F76" s="36">
         <v>47.177823315118303</v>
       </c>
-      <c r="G75" s="36">
+      <c r="G76" s="36">
         <v>48.129269125683003</v>
       </c>
-      <c r="H75" s="37">
+      <c r="H76" s="37">
         <v>47.6921675774134</v>
       </c>
-      <c r="I75" s="35">
+      <c r="I76" s="35">
         <v>80.862932604735803</v>
       </c>
-      <c r="J75" s="36">
+      <c r="J76" s="36">
         <v>76.719319216757697</v>
       </c>
-      <c r="K75" s="36">
+      <c r="K76" s="36">
         <v>77.591833636915595</v>
       </c>
-      <c r="L75" s="36">
+      <c r="L76" s="36">
         <v>76.813524590163894</v>
       </c>
-      <c r="M75" s="37">
+      <c r="M76" s="37">
         <v>77.205145719489906</v>
       </c>
-      <c r="N75" s="35">
+      <c r="N76" s="35">
         <v>88.366727383120804</v>
       </c>
-      <c r="O75" s="36">
+      <c r="O76" s="36">
         <v>90.818533697632006</v>
       </c>
-      <c r="P75" s="36">
+      <c r="P76" s="36">
         <v>90.725055656749603</v>
       </c>
-      <c r="Q75" s="36">
+      <c r="Q76" s="36">
         <v>89.9584471766848</v>
       </c>
-      <c r="R75" s="37">
+      <c r="R76" s="37">
         <v>90.570582877959893</v>
       </c>
     </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="40" t="s">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B77" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C77" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D76" s="23">
+      <c r="D77" s="23">
         <v>39089.046438154801</v>
       </c>
-      <c r="E76" s="23">
+      <c r="E77" s="23">
         <v>82019.877758255199</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F77" s="23">
         <v>116218.580895627</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G77" s="23">
         <v>159138.987787872</v>
       </c>
-      <c r="H76" s="23">
+      <c r="H77" s="23">
         <v>199051.54997373</v>
       </c>
-      <c r="I76" s="23">
+      <c r="I77" s="23">
         <v>47333.995169554197</v>
       </c>
-      <c r="J76" s="23">
+      <c r="J77" s="23">
         <v>98926.584932192694</v>
       </c>
-      <c r="K76" s="23">
+      <c r="K77" s="23">
         <v>143445.815290161</v>
       </c>
-      <c r="L76" s="23">
+      <c r="L77" s="23">
         <v>187520.878512628</v>
       </c>
-      <c r="M76" s="23">
+      <c r="M77" s="23">
         <v>232425.50969515101</v>
       </c>
-      <c r="N76" s="23">
+      <c r="N77" s="23">
         <v>31739.099781575798</v>
       </c>
-      <c r="O76" s="23">
+      <c r="O77" s="23">
         <v>55318.520663591</v>
       </c>
-      <c r="P76" s="23">
+      <c r="P77" s="23">
         <v>80685.706887105494</v>
       </c>
-      <c r="Q76" s="23">
+      <c r="Q77" s="23">
         <v>118353.559455394</v>
       </c>
-      <c r="R76" s="23">
+      <c r="R77" s="23">
         <v>143837.329561235</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="41"/>
-      <c r="C77" s="31" t="s">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B78" s="49"/>
+      <c r="C78" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D77" s="24">
+      <c r="D78" s="24">
         <v>62.6266260465326</v>
       </c>
-      <c r="E77" s="25">
+      <c r="E78" s="25">
         <v>145.95272218341199</v>
       </c>
-      <c r="F77" s="25">
+      <c r="F78" s="25">
         <v>253.86312214038699</v>
       </c>
-      <c r="G77" s="25">
+      <c r="G78" s="25">
         <v>365.55366372404802</v>
       </c>
-      <c r="H77" s="26">
+      <c r="H78" s="26">
         <v>353.02941921400998</v>
       </c>
-      <c r="I77" s="24">
+      <c r="I78" s="24">
         <v>21484.015108340998</v>
       </c>
-      <c r="J77" s="25">
+      <c r="J78" s="25">
         <v>35410.964109768698</v>
       </c>
-      <c r="K77" s="25">
+      <c r="K78" s="25">
         <v>55839.192232946101</v>
       </c>
-      <c r="L77" s="25">
+      <c r="L78" s="25">
         <v>71190.607977963198</v>
       </c>
-      <c r="M77" s="26">
+      <c r="M78" s="26">
         <v>91655.986653072396</v>
       </c>
-      <c r="N77" s="24">
+      <c r="N78" s="24">
         <v>56051.191862880602</v>
       </c>
-      <c r="O77" s="25">
+      <c r="O78" s="25">
         <v>124618.650763413</v>
       </c>
-      <c r="P77" s="25">
+      <c r="P78" s="25">
         <v>183089.578469145</v>
       </c>
-      <c r="Q77" s="25">
+      <c r="Q78" s="25">
         <v>231445.718093773</v>
       </c>
-      <c r="R77" s="26">
+      <c r="R78" s="26">
         <v>297307.87253847002</v>
       </c>
     </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="40" t="s">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B79" s="60"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="25"/>
+      <c r="K79" s="25"/>
+      <c r="L79" s="25"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="26"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B80" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C80" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D78" s="24">
+      <c r="D80" s="24">
         <v>2241.3779357984899</v>
       </c>
-      <c r="E78" s="25">
+      <c r="E80" s="25">
         <v>3460.6345195614399</v>
       </c>
-      <c r="F78" s="25">
+      <c r="F80" s="25">
         <v>7339.5509822314998</v>
       </c>
-      <c r="G78" s="25">
+      <c r="G80" s="25">
         <v>8594.5365484032409</v>
       </c>
-      <c r="H78" s="26">
+      <c r="H80" s="26">
         <v>10703.107607055899</v>
       </c>
-      <c r="I78" s="24">
+      <c r="I80" s="24">
         <v>2013.8119190336699</v>
       </c>
-      <c r="J78" s="25">
+      <c r="J80" s="25">
         <v>5579.4778598323801</v>
       </c>
-      <c r="K78" s="25">
+      <c r="K80" s="25">
         <v>7772.0188933449599</v>
       </c>
-      <c r="L78" s="25">
+      <c r="L80" s="25">
         <v>10875.388361207801</v>
       </c>
-      <c r="M78" s="26">
+      <c r="M80" s="26">
         <v>13047.2442578883</v>
       </c>
-      <c r="N78" s="24">
+      <c r="N80" s="24">
         <v>3520.0906782329498</v>
       </c>
-      <c r="O78" s="25">
+      <c r="O80" s="25">
         <v>4945.7284306758802</v>
       </c>
-      <c r="P78" s="25">
+      <c r="P80" s="25">
         <v>7318.7465706147595</v>
       </c>
-      <c r="Q78" s="25">
+      <c r="Q80" s="25">
         <v>9816.8252104458206</v>
       </c>
-      <c r="R78" s="26">
+      <c r="R80" s="26">
         <v>11229.1503665984</v>
       </c>
     </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="41"/>
-      <c r="C79" s="29" t="s">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B81" s="49"/>
+      <c r="C81" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D81" s="32">
         <v>13422.005064201699</v>
       </c>
-      <c r="E79" s="33">
+      <c r="E81" s="33">
         <v>24420.3874804394</v>
       </c>
-      <c r="F79" s="33">
+      <c r="F81" s="33">
         <v>44355.147017769501</v>
       </c>
-      <c r="G79" s="33">
+      <c r="G81" s="33">
         <v>54600.642451596599</v>
       </c>
-      <c r="H79" s="33">
+      <c r="H81" s="33">
         <v>69483.700392940998</v>
       </c>
-      <c r="I79" s="32">
+      <c r="I81" s="32">
         <v>11147.0110809664</v>
       </c>
-      <c r="J79" s="33">
+      <c r="J81" s="33">
         <v>29476.334140168201</v>
       </c>
-      <c r="K79" s="33">
+      <c r="K81" s="33">
         <v>42372.623106654697</v>
       </c>
-      <c r="L79" s="33">
+      <c r="L81" s="33">
         <v>58804.504638791797</v>
       </c>
-      <c r="M79" s="33">
+      <c r="M81" s="33">
         <v>70942.959742109495</v>
       </c>
-      <c r="N79" s="32">
+      <c r="N81" s="32">
         <v>16020.7393217671</v>
       </c>
-      <c r="O79" s="33">
+      <c r="O81" s="33">
         <v>23707.5195693239</v>
       </c>
-      <c r="P79" s="33">
+      <c r="P81" s="33">
         <v>34506.974429385104</v>
       </c>
-      <c r="Q79" s="33">
+      <c r="Q81" s="33">
         <v>46598.020789553899</v>
       </c>
-      <c r="R79" s="34">
+      <c r="R81" s="34">
         <v>53521.155633401097</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="57"/>
-      <c r="C80" s="58"/>
-      <c r="D80" s="59"/>
-      <c r="E80" s="59"/>
-      <c r="F80" s="59"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="59"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="59"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="59"/>
-      <c r="M80" s="59"/>
-      <c r="N80" s="59"/>
-      <c r="O80" s="59"/>
-      <c r="P80" s="59"/>
-      <c r="Q80" s="59"/>
-      <c r="R80" s="59"/>
-    </row>
-    <row r="82" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B82" s="28" t="s">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B82" s="40"/>
+      <c r="C82" s="41"/>
+    </row>
+    <row r="84" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B84" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="T82" s="23">
+      <c r="T84" s="23">
         <v>18230.887000000101</v>
       </c>
     </row>
-    <row r="83" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B83" s="28"/>
-      <c r="T83" s="23">
+    <row r="85" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+      <c r="B85" s="28"/>
+      <c r="T85" s="23">
         <v>24501.680000000099</v>
       </c>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B84" s="45" t="s">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B86" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="42">
+      <c r="C86" s="50"/>
+      <c r="D86" s="43">
         <v>0.25</v>
       </c>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="42">
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="43">
         <v>0.5</v>
       </c>
-      <c r="J84" s="43"/>
-      <c r="K84" s="43"/>
-      <c r="L84" s="43"/>
-      <c r="M84" s="43"/>
-      <c r="N84" s="42">
+      <c r="J86" s="44"/>
+      <c r="K86" s="44"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="44"/>
+      <c r="N86" s="43">
         <v>0.75</v>
       </c>
-      <c r="O84" s="43"/>
-      <c r="P84" s="43"/>
-      <c r="Q84" s="43"/>
-      <c r="R84" s="44"/>
-      <c r="T84" s="23">
+      <c r="O86" s="44"/>
+      <c r="P86" s="44"/>
+      <c r="Q86" s="44"/>
+      <c r="R86" s="45"/>
+      <c r="T86" s="23">
         <v>30062.030999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B85" s="45" t="s">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B87" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C85" s="46"/>
-      <c r="D85" s="10">
+      <c r="C87" s="47"/>
+      <c r="D87" s="10">
         <v>40</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E87" s="9">
         <v>80</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F87" s="9">
         <v>120</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G87" s="9">
         <v>160</v>
       </c>
-      <c r="H85" s="9">
+      <c r="H87" s="9">
         <v>200</v>
       </c>
-      <c r="I85" s="10">
+      <c r="I87" s="10">
         <v>40</v>
       </c>
-      <c r="J85" s="9">
+      <c r="J87" s="9">
         <v>80</v>
       </c>
-      <c r="K85" s="9">
+      <c r="K87" s="9">
         <v>120</v>
       </c>
-      <c r="L85" s="9">
+      <c r="L87" s="9">
         <v>160</v>
       </c>
-      <c r="M85" s="9">
+      <c r="M87" s="9">
         <v>200</v>
       </c>
-      <c r="N85" s="10">
+      <c r="N87" s="10">
         <v>40</v>
       </c>
-      <c r="O85" s="9">
+      <c r="O87" s="9">
         <v>80</v>
       </c>
-      <c r="P85" s="9">
+      <c r="P87" s="9">
         <v>120</v>
       </c>
-      <c r="Q85" s="9">
+      <c r="Q87" s="9">
         <v>160</v>
       </c>
-      <c r="R85" s="11">
+      <c r="R87" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B86" s="40" t="s">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B88" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C86" s="31" t="s">
+      <c r="C88" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="26"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="25"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="25"/>
-      <c r="R86" s="26"/>
-    </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B87" s="41"/>
-      <c r="C87" s="31" t="s">
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="26"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="26"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B89" s="49"/>
+      <c r="C89" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D87" s="32"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="32"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="32"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="33"/>
-      <c r="R87" s="34"/>
-    </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B88" s="47" t="s">
+      <c r="D89" s="32"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
+      <c r="R89" s="34"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B90" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C88" s="48"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="36"/>
-      <c r="G88" s="36"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="36"/>
-      <c r="P88" s="36"/>
-      <c r="Q88" s="36"/>
-      <c r="R88" s="37"/>
-    </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B89" s="40" t="s">
+      <c r="C90" s="52"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="36"/>
+      <c r="P90" s="36"/>
+      <c r="Q90" s="36"/>
+      <c r="R90" s="37"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B91" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C89" s="31" t="s">
+      <c r="C91" s="31" t="s">
         <v>29</v>
-      </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
-      <c r="L89" s="25"/>
-      <c r="M89" s="26"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="25"/>
-      <c r="P89" s="25"/>
-      <c r="Q89" s="25"/>
-      <c r="R89" s="26"/>
-    </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B90" s="41"/>
-      <c r="C90" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D90" s="32"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="32"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="33"/>
-      <c r="M90" s="33"/>
-      <c r="N90" s="32"/>
-      <c r="O90" s="33"/>
-      <c r="P90" s="33"/>
-      <c r="Q90" s="33"/>
-      <c r="R90" s="34"/>
-    </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B91" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C91" s="31" t="s">
-        <v>57</v>
       </c>
       <c r="D91" s="24"/>
       <c r="E91" s="25"/>
@@ -4073,9 +4083,9 @@
       <c r="R91" s="26"/>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B92" s="41"/>
-      <c r="C92" s="29" t="s">
-        <v>26</v>
+      <c r="B92" s="49"/>
+      <c r="C92" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="D92" s="32"/>
       <c r="E92" s="33"/>
@@ -4093,207 +4103,207 @@
       <c r="Q92" s="33"/>
       <c r="R92" s="34"/>
     </row>
-    <row r="95" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B95" s="28" t="s">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B93" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="24"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="26"/>
+      <c r="N93" s="24"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="26"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B94" s="49"/>
+      <c r="C94" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="32"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="33"/>
+      <c r="L94" s="33"/>
+      <c r="M94" s="33"/>
+      <c r="N94" s="32"/>
+      <c r="O94" s="33"/>
+      <c r="P94" s="33"/>
+      <c r="Q94" s="33"/>
+      <c r="R94" s="34"/>
+    </row>
+    <row r="97" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B97" s="28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="2:20" ht="18" x14ac:dyDescent="0.2">
-      <c r="B96" s="28"/>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="45" t="s">
+    <row r="98" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B98" s="28"/>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B99" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="42">
+      <c r="C99" s="50"/>
+      <c r="D99" s="43">
         <v>0.25</v>
       </c>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="42">
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="43">
         <v>0.5</v>
       </c>
-      <c r="J97" s="43"/>
-      <c r="K97" s="43"/>
-      <c r="L97" s="43"/>
-      <c r="M97" s="43"/>
-      <c r="N97" s="42">
+      <c r="J99" s="44"/>
+      <c r="K99" s="44"/>
+      <c r="L99" s="44"/>
+      <c r="M99" s="44"/>
+      <c r="N99" s="43">
         <v>0.75</v>
       </c>
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
-      <c r="Q97" s="43"/>
-      <c r="R97" s="44"/>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="45" t="s">
+      <c r="O99" s="44"/>
+      <c r="P99" s="44"/>
+      <c r="Q99" s="44"/>
+      <c r="R99" s="45"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B100" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C98" s="46"/>
-      <c r="D98" s="10">
+      <c r="C100" s="47"/>
+      <c r="D100" s="10">
         <v>40</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E100" s="9">
         <v>80</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F100" s="9">
         <v>120</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G100" s="9">
         <v>160</v>
       </c>
-      <c r="H98" s="9">
+      <c r="H100" s="9">
         <v>200</v>
       </c>
-      <c r="I98" s="10">
+      <c r="I100" s="10">
         <v>40</v>
       </c>
-      <c r="J98" s="9">
+      <c r="J100" s="9">
         <v>80</v>
       </c>
-      <c r="K98" s="9">
+      <c r="K100" s="9">
         <v>120</v>
       </c>
-      <c r="L98" s="9">
+      <c r="L100" s="9">
         <v>160</v>
       </c>
-      <c r="M98" s="9">
+      <c r="M100" s="9">
         <v>200</v>
       </c>
-      <c r="N98" s="10">
+      <c r="N100" s="10">
         <v>40</v>
       </c>
-      <c r="O98" s="9">
+      <c r="O100" s="9">
         <v>80</v>
       </c>
-      <c r="P98" s="9">
+      <c r="P100" s="9">
         <v>120</v>
       </c>
-      <c r="Q98" s="9">
+      <c r="Q100" s="9">
         <v>160</v>
       </c>
-      <c r="R98" s="11">
+      <c r="R100" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="40" t="s">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B101" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="31" t="s">
+      <c r="C101" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="25"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="25"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
-      <c r="L99" s="25"/>
-      <c r="M99" s="26"/>
-      <c r="N99" s="24"/>
-      <c r="O99" s="25"/>
-      <c r="P99" s="25"/>
-      <c r="Q99" s="25"/>
-      <c r="R99" s="26"/>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="41"/>
-      <c r="C100" s="31" t="s">
+      <c r="D101" s="24"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="26"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="26"/>
+      <c r="N101" s="24"/>
+      <c r="O101" s="25"/>
+      <c r="P101" s="25"/>
+      <c r="Q101" s="25"/>
+      <c r="R101" s="26"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B102" s="49"/>
+      <c r="C102" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D100" s="32"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33"/>
-      <c r="I100" s="32"/>
-      <c r="J100" s="33"/>
-      <c r="K100" s="33"/>
-      <c r="L100" s="33"/>
-      <c r="M100" s="33"/>
-      <c r="N100" s="32"/>
-      <c r="O100" s="33"/>
-      <c r="P100" s="33"/>
-      <c r="Q100" s="33"/>
-      <c r="R100" s="34"/>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B101" s="47" t="s">
+      <c r="D102" s="32"/>
+      <c r="E102" s="33"/>
+      <c r="F102" s="33"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="33"/>
+      <c r="L102" s="33"/>
+      <c r="M102" s="33"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="33"/>
+      <c r="P102" s="33"/>
+      <c r="Q102" s="33"/>
+      <c r="R102" s="34"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B103" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C101" s="48"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="36"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="35"/>
-      <c r="O101" s="36"/>
-      <c r="P101" s="36"/>
-      <c r="Q101" s="36"/>
-      <c r="R101" s="37"/>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="40" t="s">
+      <c r="C103" s="52"/>
+      <c r="D103" s="35"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="37"/>
+      <c r="N103" s="35"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="37"/>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B104" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C102" s="31" t="s">
+      <c r="C104" s="31" t="s">
         <v>29</v>
-      </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="25"/>
-      <c r="H102" s="26"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="25"/>
-      <c r="K102" s="25"/>
-      <c r="L102" s="25"/>
-      <c r="M102" s="26"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="25"/>
-      <c r="P102" s="25"/>
-      <c r="Q102" s="25"/>
-      <c r="R102" s="26"/>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="41"/>
-      <c r="C103" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D103" s="32"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="33"/>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="33"/>
-      <c r="K103" s="33"/>
-      <c r="L103" s="33"/>
-      <c r="M103" s="33"/>
-      <c r="N103" s="32"/>
-      <c r="O103" s="33"/>
-      <c r="P103" s="33"/>
-      <c r="Q103" s="33"/>
-      <c r="R103" s="34"/>
-    </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C104" s="31" t="s">
-        <v>31</v>
       </c>
       <c r="D104" s="24"/>
       <c r="E104" s="25"/>
@@ -4312,9 +4322,9 @@
       <c r="R104" s="26"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="41"/>
-      <c r="C105" s="29" t="s">
-        <v>26</v>
+      <c r="B105" s="49"/>
+      <c r="C105" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="D105" s="32"/>
       <c r="E105" s="33"/>
@@ -4332,207 +4342,207 @@
       <c r="Q105" s="33"/>
       <c r="R105" s="34"/>
     </row>
-    <row r="108" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B108" s="28" t="s">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B106" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D106" s="24"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="26"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="25"/>
+      <c r="K106" s="25"/>
+      <c r="L106" s="25"/>
+      <c r="M106" s="26"/>
+      <c r="N106" s="24"/>
+      <c r="O106" s="25"/>
+      <c r="P106" s="25"/>
+      <c r="Q106" s="25"/>
+      <c r="R106" s="26"/>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B107" s="49"/>
+      <c r="C107" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="32"/>
+      <c r="E107" s="33"/>
+      <c r="F107" s="33"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="33"/>
+      <c r="L107" s="33"/>
+      <c r="M107" s="33"/>
+      <c r="N107" s="32"/>
+      <c r="O107" s="33"/>
+      <c r="P107" s="33"/>
+      <c r="Q107" s="33"/>
+      <c r="R107" s="34"/>
+    </row>
+    <row r="110" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B110" s="28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B109" s="28"/>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="45" t="s">
+    <row r="111" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B111" s="28"/>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B112" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C110" s="49"/>
-      <c r="D110" s="42">
+      <c r="C112" s="50"/>
+      <c r="D112" s="43">
         <v>0.25</v>
       </c>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="42">
+      <c r="E112" s="44"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="44"/>
+      <c r="I112" s="43">
         <v>0.5</v>
       </c>
-      <c r="J110" s="43"/>
-      <c r="K110" s="43"/>
-      <c r="L110" s="43"/>
-      <c r="M110" s="43"/>
-      <c r="N110" s="42">
+      <c r="J112" s="44"/>
+      <c r="K112" s="44"/>
+      <c r="L112" s="44"/>
+      <c r="M112" s="44"/>
+      <c r="N112" s="43">
         <v>0.75</v>
       </c>
-      <c r="O110" s="43"/>
-      <c r="P110" s="43"/>
-      <c r="Q110" s="43"/>
-      <c r="R110" s="44"/>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="45" t="s">
+      <c r="O112" s="44"/>
+      <c r="P112" s="44"/>
+      <c r="Q112" s="44"/>
+      <c r="R112" s="45"/>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B113" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C111" s="46"/>
-      <c r="D111" s="10">
+      <c r="C113" s="47"/>
+      <c r="D113" s="10">
         <v>40</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E113" s="9">
         <v>80</v>
       </c>
-      <c r="F111" s="9">
+      <c r="F113" s="9">
         <v>120</v>
       </c>
-      <c r="G111" s="9">
+      <c r="G113" s="9">
         <v>160</v>
       </c>
-      <c r="H111" s="9">
+      <c r="H113" s="9">
         <v>200</v>
       </c>
-      <c r="I111" s="10">
+      <c r="I113" s="10">
         <v>40</v>
       </c>
-      <c r="J111" s="9">
+      <c r="J113" s="9">
         <v>80</v>
       </c>
-      <c r="K111" s="9">
+      <c r="K113" s="9">
         <v>120</v>
       </c>
-      <c r="L111" s="9">
+      <c r="L113" s="9">
         <v>160</v>
       </c>
-      <c r="M111" s="9">
+      <c r="M113" s="9">
         <v>200</v>
       </c>
-      <c r="N111" s="10">
+      <c r="N113" s="10">
         <v>40</v>
       </c>
-      <c r="O111" s="9">
+      <c r="O113" s="9">
         <v>80</v>
       </c>
-      <c r="P111" s="9">
+      <c r="P113" s="9">
         <v>120</v>
       </c>
-      <c r="Q111" s="9">
+      <c r="Q113" s="9">
         <v>160</v>
       </c>
-      <c r="R111" s="11">
+      <c r="R113" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="40" t="s">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B114" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="31" t="s">
+      <c r="C114" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D112" s="24"/>
-      <c r="E112" s="25"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="25"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="25"/>
-      <c r="K112" s="25"/>
-      <c r="L112" s="25"/>
-      <c r="M112" s="26"/>
-      <c r="N112" s="24"/>
-      <c r="O112" s="25"/>
-      <c r="P112" s="25"/>
-      <c r="Q112" s="25"/>
-      <c r="R112" s="26"/>
-    </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="41"/>
-      <c r="C113" s="31" t="s">
+      <c r="D114" s="24"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="26"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="25"/>
+      <c r="K114" s="25"/>
+      <c r="L114" s="25"/>
+      <c r="M114" s="26"/>
+      <c r="N114" s="24"/>
+      <c r="O114" s="25"/>
+      <c r="P114" s="25"/>
+      <c r="Q114" s="25"/>
+      <c r="R114" s="26"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B115" s="49"/>
+      <c r="C115" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D113" s="32"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="32"/>
-      <c r="J113" s="33"/>
-      <c r="K113" s="33"/>
-      <c r="L113" s="33"/>
-      <c r="M113" s="33"/>
-      <c r="N113" s="32"/>
-      <c r="O113" s="33"/>
-      <c r="P113" s="33"/>
-      <c r="Q113" s="33"/>
-      <c r="R113" s="34"/>
-    </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="47" t="s">
+      <c r="D115" s="32"/>
+      <c r="E115" s="33"/>
+      <c r="F115" s="33"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="33"/>
+      <c r="K115" s="33"/>
+      <c r="L115" s="33"/>
+      <c r="M115" s="33"/>
+      <c r="N115" s="32"/>
+      <c r="O115" s="33"/>
+      <c r="P115" s="33"/>
+      <c r="Q115" s="33"/>
+      <c r="R115" s="34"/>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B116" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="48"/>
-      <c r="D114" s="35"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="37"/>
-      <c r="I114" s="35"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="36"/>
-      <c r="L114" s="36"/>
-      <c r="M114" s="37"/>
-      <c r="N114" s="35"/>
-      <c r="O114" s="36"/>
-      <c r="P114" s="36"/>
-      <c r="Q114" s="36"/>
-      <c r="R114" s="37"/>
-    </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="40" t="s">
+      <c r="C116" s="52"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="35"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="36"/>
+      <c r="L116" s="36"/>
+      <c r="M116" s="37"/>
+      <c r="N116" s="35"/>
+      <c r="O116" s="36"/>
+      <c r="P116" s="36"/>
+      <c r="Q116" s="36"/>
+      <c r="R116" s="37"/>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B117" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C115" s="31" t="s">
+      <c r="C117" s="31" t="s">
         <v>29</v>
-      </c>
-      <c r="D115" s="24"/>
-      <c r="E115" s="25"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="25"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="25"/>
-      <c r="M115" s="26"/>
-      <c r="N115" s="24"/>
-      <c r="O115" s="25"/>
-      <c r="P115" s="25"/>
-      <c r="Q115" s="25"/>
-      <c r="R115" s="26"/>
-    </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="41"/>
-      <c r="C116" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D116" s="32"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33"/>
-      <c r="I116" s="32"/>
-      <c r="J116" s="33"/>
-      <c r="K116" s="33"/>
-      <c r="L116" s="33"/>
-      <c r="M116" s="33"/>
-      <c r="N116" s="32"/>
-      <c r="O116" s="33"/>
-      <c r="P116" s="33"/>
-      <c r="Q116" s="33"/>
-      <c r="R116" s="34"/>
-    </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C117" s="31" t="s">
-        <v>31</v>
       </c>
       <c r="D117" s="24"/>
       <c r="E117" s="25"/>
@@ -4551,9 +4561,9 @@
       <c r="R117" s="26"/>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="41"/>
-      <c r="C118" s="29" t="s">
-        <v>26</v>
+      <c r="B118" s="49"/>
+      <c r="C118" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="D118" s="32"/>
       <c r="E118" s="33"/>
@@ -4571,207 +4581,207 @@
       <c r="Q118" s="33"/>
       <c r="R118" s="34"/>
     </row>
-    <row r="121" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B121" s="28" t="s">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B119" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" s="24"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="26"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="25"/>
+      <c r="M119" s="26"/>
+      <c r="N119" s="24"/>
+      <c r="O119" s="25"/>
+      <c r="P119" s="25"/>
+      <c r="Q119" s="25"/>
+      <c r="R119" s="26"/>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B120" s="49"/>
+      <c r="C120" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="32"/>
+      <c r="E120" s="33"/>
+      <c r="F120" s="33"/>
+      <c r="G120" s="33"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="33"/>
+      <c r="L120" s="33"/>
+      <c r="M120" s="33"/>
+      <c r="N120" s="32"/>
+      <c r="O120" s="33"/>
+      <c r="P120" s="33"/>
+      <c r="Q120" s="33"/>
+      <c r="R120" s="34"/>
+    </row>
+    <row r="123" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B123" s="28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B122" s="28"/>
-    </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="45" t="s">
+    <row r="124" spans="2:18" ht="18" x14ac:dyDescent="0.2">
+      <c r="B124" s="28"/>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B125" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C123" s="49"/>
-      <c r="D123" s="42">
+      <c r="C125" s="50"/>
+      <c r="D125" s="43">
         <v>0.25</v>
       </c>
-      <c r="E123" s="43"/>
-      <c r="F123" s="43"/>
-      <c r="G123" s="43"/>
-      <c r="H123" s="43"/>
-      <c r="I123" s="42">
+      <c r="E125" s="44"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="44"/>
+      <c r="I125" s="43">
         <v>0.5</v>
       </c>
-      <c r="J123" s="43"/>
-      <c r="K123" s="43"/>
-      <c r="L123" s="43"/>
-      <c r="M123" s="43"/>
-      <c r="N123" s="42">
+      <c r="J125" s="44"/>
+      <c r="K125" s="44"/>
+      <c r="L125" s="44"/>
+      <c r="M125" s="44"/>
+      <c r="N125" s="43">
         <v>0.75</v>
       </c>
-      <c r="O123" s="43"/>
-      <c r="P123" s="43"/>
-      <c r="Q123" s="43"/>
-      <c r="R123" s="44"/>
-    </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="45" t="s">
+      <c r="O125" s="44"/>
+      <c r="P125" s="44"/>
+      <c r="Q125" s="44"/>
+      <c r="R125" s="45"/>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B126" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="46"/>
-      <c r="D124" s="10">
+      <c r="C126" s="47"/>
+      <c r="D126" s="10">
         <v>40</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E126" s="9">
         <v>80</v>
       </c>
-      <c r="F124" s="9">
+      <c r="F126" s="9">
         <v>120</v>
       </c>
-      <c r="G124" s="9">
+      <c r="G126" s="9">
         <v>160</v>
       </c>
-      <c r="H124" s="9">
+      <c r="H126" s="9">
         <v>200</v>
       </c>
-      <c r="I124" s="10">
+      <c r="I126" s="10">
         <v>40</v>
       </c>
-      <c r="J124" s="9">
+      <c r="J126" s="9">
         <v>80</v>
       </c>
-      <c r="K124" s="9">
+      <c r="K126" s="9">
         <v>120</v>
       </c>
-      <c r="L124" s="9">
+      <c r="L126" s="9">
         <v>160</v>
       </c>
-      <c r="M124" s="9">
+      <c r="M126" s="9">
         <v>200</v>
       </c>
-      <c r="N124" s="10">
+      <c r="N126" s="10">
         <v>40</v>
       </c>
-      <c r="O124" s="9">
+      <c r="O126" s="9">
         <v>80</v>
       </c>
-      <c r="P124" s="9">
+      <c r="P126" s="9">
         <v>120</v>
       </c>
-      <c r="Q124" s="9">
+      <c r="Q126" s="9">
         <v>160</v>
       </c>
-      <c r="R124" s="11">
+      <c r="R126" s="11">
         <v>200</v>
       </c>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="40" t="s">
+    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B127" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="C127" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="24"/>
-      <c r="E125" s="25"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="25"/>
-      <c r="H125" s="26"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="25"/>
-      <c r="K125" s="25"/>
-      <c r="L125" s="25"/>
-      <c r="M125" s="26"/>
-      <c r="N125" s="24"/>
-      <c r="O125" s="25"/>
-      <c r="P125" s="25"/>
-      <c r="Q125" s="25"/>
-      <c r="R125" s="26"/>
-    </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="41"/>
-      <c r="C126" s="31" t="s">
+      <c r="D127" s="24"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="26"/>
+      <c r="I127" s="24"/>
+      <c r="J127" s="25"/>
+      <c r="K127" s="25"/>
+      <c r="L127" s="25"/>
+      <c r="M127" s="26"/>
+      <c r="N127" s="24"/>
+      <c r="O127" s="25"/>
+      <c r="P127" s="25"/>
+      <c r="Q127" s="25"/>
+      <c r="R127" s="26"/>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B128" s="49"/>
+      <c r="C128" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D126" s="32"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="33"/>
-      <c r="G126" s="33"/>
-      <c r="H126" s="33"/>
-      <c r="I126" s="32"/>
-      <c r="J126" s="33"/>
-      <c r="K126" s="33"/>
-      <c r="L126" s="33"/>
-      <c r="M126" s="33"/>
-      <c r="N126" s="32"/>
-      <c r="O126" s="33"/>
-      <c r="P126" s="33"/>
-      <c r="Q126" s="33"/>
-      <c r="R126" s="34"/>
-    </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="47" t="s">
+      <c r="D128" s="32"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="33"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="33"/>
+      <c r="L128" s="33"/>
+      <c r="M128" s="33"/>
+      <c r="N128" s="32"/>
+      <c r="O128" s="33"/>
+      <c r="P128" s="33"/>
+      <c r="Q128" s="33"/>
+      <c r="R128" s="34"/>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B129" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C127" s="48"/>
-      <c r="D127" s="35"/>
-      <c r="E127" s="36"/>
-      <c r="F127" s="36"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="35"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="36"/>
-      <c r="L127" s="36"/>
-      <c r="M127" s="37"/>
-      <c r="N127" s="35"/>
-      <c r="O127" s="36"/>
-      <c r="P127" s="36"/>
-      <c r="Q127" s="36"/>
-      <c r="R127" s="37"/>
-    </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="40" t="s">
+      <c r="C129" s="52"/>
+      <c r="D129" s="35"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="36"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="37"/>
+      <c r="I129" s="35"/>
+      <c r="J129" s="36"/>
+      <c r="K129" s="36"/>
+      <c r="L129" s="36"/>
+      <c r="M129" s="37"/>
+      <c r="N129" s="35"/>
+      <c r="O129" s="36"/>
+      <c r="P129" s="36"/>
+      <c r="Q129" s="36"/>
+      <c r="R129" s="37"/>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B130" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C128" s="31" t="s">
+      <c r="C130" s="31" t="s">
         <v>29</v>
-      </c>
-      <c r="D128" s="24"/>
-      <c r="E128" s="25"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="25"/>
-      <c r="H128" s="26"/>
-      <c r="I128" s="24"/>
-      <c r="J128" s="25"/>
-      <c r="K128" s="25"/>
-      <c r="L128" s="25"/>
-      <c r="M128" s="26"/>
-      <c r="N128" s="24"/>
-      <c r="O128" s="25"/>
-      <c r="P128" s="25"/>
-      <c r="Q128" s="25"/>
-      <c r="R128" s="26"/>
-    </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="41"/>
-      <c r="C129" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D129" s="32"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
-      <c r="I129" s="32"/>
-      <c r="J129" s="33"/>
-      <c r="K129" s="33"/>
-      <c r="L129" s="33"/>
-      <c r="M129" s="33"/>
-      <c r="N129" s="32"/>
-      <c r="O129" s="33"/>
-      <c r="P129" s="33"/>
-      <c r="Q129" s="33"/>
-      <c r="R129" s="34"/>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B130" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C130" s="31" t="s">
-        <v>31</v>
       </c>
       <c r="D130" s="24"/>
       <c r="E130" s="25"/>
@@ -4790,9 +4800,9 @@
       <c r="R130" s="26"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="41"/>
-      <c r="C131" s="29" t="s">
-        <v>26</v>
+      <c r="B131" s="49"/>
+      <c r="C131" s="31" t="s">
+        <v>30</v>
       </c>
       <c r="D131" s="32"/>
       <c r="E131" s="33"/>
@@ -4810,14 +4820,123 @@
       <c r="Q131" s="33"/>
       <c r="R131" s="34"/>
     </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B132" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132" s="24"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="25"/>
+      <c r="K132" s="25"/>
+      <c r="L132" s="25"/>
+      <c r="M132" s="26"/>
+      <c r="N132" s="24"/>
+      <c r="O132" s="25"/>
+      <c r="P132" s="25"/>
+      <c r="Q132" s="25"/>
+      <c r="R132" s="26"/>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B133" s="49"/>
+      <c r="C133" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="32"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="32"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="33"/>
+      <c r="L133" s="33"/>
+      <c r="M133" s="33"/>
+      <c r="N133" s="32"/>
+      <c r="O133" s="33"/>
+      <c r="P133" s="33"/>
+      <c r="Q133" s="33"/>
+      <c r="R133" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="I84:M84"/>
-    <mergeCell ref="N84:R84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="D71:H71"/>
+    <mergeCell ref="I71:M71"/>
+    <mergeCell ref="N71:R71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="N56:R56"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="I125:M125"/>
+    <mergeCell ref="N125:R125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="D112:H112"/>
+    <mergeCell ref="I112:M112"/>
+    <mergeCell ref="N112:R112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="I30:M30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="I43:M43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="N4:R4"/>
@@ -4831,77 +4950,12 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="D97:H97"/>
-    <mergeCell ref="I97:M97"/>
-    <mergeCell ref="N97:R97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:H30"/>
-    <mergeCell ref="I30:M30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="D43:H43"/>
-    <mergeCell ref="I43:M43"/>
-    <mergeCell ref="D110:H110"/>
-    <mergeCell ref="I110:M110"/>
-    <mergeCell ref="N110:R110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="N56:R56"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="I123:M123"/>
-    <mergeCell ref="N123:R123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="D70:H70"/>
-    <mergeCell ref="I70:M70"/>
-    <mergeCell ref="N70:R70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="I86:M86"/>
+    <mergeCell ref="N86:R86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B86:C86"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4999,7 +5053,7 @@
       </c>
     </row>
     <row r="4" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -5022,7 +5076,7 @@
       <c r="S4" s="3"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C5" s="51"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="8" t="s">
         <v>3</v>
       </c>
@@ -5043,7 +5097,7 @@
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="53" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -5096,7 +5150,7 @@
       </c>
     </row>
     <row r="7" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C7" s="51"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="8" t="s">
         <v>3</v>
       </c>
@@ -5117,7 +5171,7 @@
       <c r="S7" s="7"/>
     </row>
     <row r="8" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="53" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -5140,7 +5194,7 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C9" s="51"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
@@ -5244,7 +5298,7 @@
       </c>
     </row>
     <row r="17" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="53" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -5267,7 +5321,7 @@
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C18" s="51"/>
+      <c r="C18" s="54"/>
       <c r="D18" s="8" t="s">
         <v>3</v>
       </c>
@@ -5288,7 +5342,7 @@
       <c r="S18" s="7"/>
     </row>
     <row r="19" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="53" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -5341,7 +5395,7 @@
       </c>
     </row>
     <row r="20" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C20" s="51"/>
+      <c r="C20" s="54"/>
       <c r="D20" s="8" t="s">
         <v>3</v>
       </c>
@@ -5362,7 +5416,7 @@
       <c r="S20" s="7"/>
     </row>
     <row r="21" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="53" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -5385,7 +5439,7 @@
       <c r="S21" s="3"/>
     </row>
     <row r="22" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C22" s="51"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="8" t="s">
         <v>3</v>
       </c>
@@ -5472,37 +5526,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="42">
+      <c r="D2" s="59"/>
+      <c r="E2" s="43">
         <v>0.25</v>
       </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="42">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="43">
         <v>0.5</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="42">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="43">
         <v>0.75</v>
       </c>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="45"/>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="10">
         <v>40</v>
       </c>
@@ -5550,7 +5604,7 @@
       </c>
     </row>
     <row r="4" spans="3:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -5603,7 +5657,7 @@
       </c>
     </row>
     <row r="5" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C5" s="51"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
@@ -5669,10 +5723,10 @@
       </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="56"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="19">
         <v>48.75</v>
       </c>
@@ -5720,7 +5774,7 @@
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="53" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -5773,7 +5827,7 @@
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C8" s="51"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
@@ -5862,37 +5916,37 @@
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="42">
+      <c r="D16" s="59"/>
+      <c r="E16" s="43">
         <v>0.25</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="42">
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="43">
         <v>0.5</v>
       </c>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="42">
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="43">
         <v>0.75</v>
       </c>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="45"/>
     </row>
     <row r="17" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C17" s="52" t="s">
+      <c r="C17" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="54"/>
+      <c r="D17" s="56"/>
       <c r="E17" s="10">
         <v>40</v>
       </c>
@@ -5940,7 +5994,7 @@
       </c>
     </row>
     <row r="18" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -5993,7 +6047,7 @@
       </c>
     </row>
     <row r="19" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C19" s="51"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
@@ -6059,10 +6113,10 @@
       </c>
     </row>
     <row r="20" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="56"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="22">
         <v>9.5833333333333304</v>
       </c>
@@ -6110,7 +6164,7 @@
       </c>
     </row>
     <row r="21" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="53" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -6163,7 +6217,7 @@
       </c>
     </row>
     <row r="22" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C22" s="51"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="12" t="s">
         <v>11</v>
       </c>
@@ -6254,37 +6308,37 @@
       </c>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="42">
+      <c r="D37" s="59"/>
+      <c r="E37" s="43">
         <v>0.25</v>
       </c>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="42">
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="43">
         <v>0.5</v>
       </c>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="42">
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="43">
         <v>0.75</v>
       </c>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="45"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="54"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="10">
         <v>40</v>
       </c>
@@ -6332,7 +6386,7 @@
       </c>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C39" s="50" t="s">
+      <c r="C39" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -6355,7 +6409,7 @@
       <c r="S39" s="3"/>
     </row>
     <row r="40" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C40" s="51"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="8" t="s">
         <v>26</v>
       </c>
@@ -6376,10 +6430,10 @@
       <c r="S40" s="7"/>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="56"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="19"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
@@ -6397,7 +6451,7 @@
       <c r="S41" s="21"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -6420,7 +6474,7 @@
       <c r="S42" s="3"/>
     </row>
     <row r="43" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C43" s="51"/>
+      <c r="C43" s="54"/>
       <c r="D43" s="8" t="s">
         <v>30</v>
       </c>
@@ -6441,7 +6495,7 @@
       <c r="S43" s="7"/>
     </row>
     <row r="44" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="53" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -6464,7 +6518,7 @@
       <c r="S44" s="3"/>
     </row>
     <row r="45" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C45" s="51"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="12" t="s">
         <v>26</v>
       </c>
@@ -6499,37 +6553,37 @@
       </c>
     </row>
     <row r="51" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="53"/>
-      <c r="E51" s="42">
+      <c r="D51" s="59"/>
+      <c r="E51" s="43">
         <v>0.25</v>
       </c>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="42">
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="43">
         <v>0.5</v>
       </c>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="43"/>
-      <c r="O51" s="42">
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="43">
         <v>0.75</v>
       </c>
-      <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="45"/>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C52" s="52" t="s">
+      <c r="C52" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="54"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="10">
         <v>40</v>
       </c>
@@ -6577,7 +6631,7 @@
       </c>
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="53" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -6600,7 +6654,7 @@
       <c r="S53" s="3"/>
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C54" s="51"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="8" t="s">
         <v>26</v>
       </c>
@@ -6621,10 +6675,10 @@
       <c r="S54" s="7"/>
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="56"/>
+      <c r="D55" s="58"/>
       <c r="E55" s="22">
         <v>90.4166666666667</v>
       </c>
@@ -6672,7 +6726,7 @@
       </c>
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="53" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -6695,7 +6749,7 @@
       <c r="S56" s="3"/>
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C57" s="51"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="8" t="s">
         <v>30</v>
       </c>
@@ -6716,7 +6770,7 @@
       <c r="S57" s="7"/>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="53" t="s">
         <v>28</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -6739,7 +6793,7 @@
       <c r="S58" s="3"/>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C59" s="51"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="12" t="s">
         <v>26</v>
       </c>
@@ -6761,12 +6815,22 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J37:N37"/>
-    <mergeCell ref="O37:S37"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="O51:S51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="C2:D2"/>
@@ -6779,22 +6843,12 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="J2:N2"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="O51:S51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="J51:N51"/>
+    <mergeCell ref="J37:N37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/simulationResults_b.xlsx
+++ b/simulationResults_b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/PESGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BA6F7A-8F16-414E-8572-991FDDA40826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D623D9-7861-4949-A007-BC99625DFFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="26560" windowHeight="15480" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="400" yWindow="500" windowWidth="28240" windowHeight="16280" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Distributions" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
   <dimension ref="B2:AJ133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L69" sqref="L69"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,53 +933,53 @@
       <c r="Q4" s="44"/>
       <c r="R4" s="45"/>
       <c r="T4" s="23">
-        <v>8534.0769999999902</v>
+        <v>26123.977999999901</v>
       </c>
       <c r="V4" s="23" cm="1">
         <f t="array" ref="V4:AJ4">TRANSPOSE(T4:T18)</f>
-        <v>8534.0769999999902</v>
+        <v>26123.977999999901</v>
       </c>
       <c r="W4" s="23">
-        <v>15023.047000000201</v>
+        <v>55346.315000000002</v>
       </c>
       <c r="X4" s="23">
-        <v>25498.076000001602</v>
+        <v>79167.024999999907</v>
       </c>
       <c r="Y4" s="23">
-        <v>31785.759000001901</v>
+        <v>108411.413999999</v>
       </c>
       <c r="Z4" s="23">
-        <v>39645.643000001801</v>
+        <v>135348.016</v>
       </c>
       <c r="AA4" s="23">
-        <v>15023.047000000201</v>
+        <v>23267.427</v>
       </c>
       <c r="AB4" s="23">
-        <v>31785.759000001901</v>
+        <v>48128.292000000001</v>
       </c>
       <c r="AC4" s="23">
-        <v>47868.672000000799</v>
+        <v>69687.577000000107</v>
       </c>
       <c r="AD4" s="23">
-        <v>67023.046000000497</v>
+        <v>91464.140000000203</v>
       </c>
       <c r="AE4" s="23">
-        <v>83264.587999997806</v>
+        <v>113002.269</v>
       </c>
       <c r="AF4" s="23">
-        <v>25498.076000001602</v>
+        <v>14555.466</v>
       </c>
       <c r="AG4" s="23">
-        <v>47868.672000000799</v>
+        <v>25883.148000000001</v>
       </c>
       <c r="AH4" s="23">
-        <v>74049.793999997695</v>
+        <v>36857.523999999801</v>
       </c>
       <c r="AI4" s="23">
-        <v>99770.900999995894</v>
+        <v>53538.754000000103</v>
       </c>
       <c r="AJ4" s="23">
-        <v>122088.448999985</v>
+        <v>64892.758999999998</v>
       </c>
     </row>
     <row r="5" spans="2:36" x14ac:dyDescent="0.2">
@@ -1033,7 +1033,7 @@
         <v>200</v>
       </c>
       <c r="T5" s="23">
-        <v>15023.047000000201</v>
+        <v>55346.315000000002</v>
       </c>
     </row>
     <row r="6" spans="2:36" x14ac:dyDescent="0.2">
@@ -1089,7 +1089,7 @@
         <v>143.09599999999901</v>
       </c>
       <c r="T6" s="23">
-        <v>25498.076000001602</v>
+        <v>79167.024999999907</v>
       </c>
     </row>
     <row r="7" spans="2:36" x14ac:dyDescent="0.2">
@@ -1143,7 +1143,7 @@
         <v>139.35499999999999</v>
       </c>
       <c r="T7" s="23">
-        <v>31785.759000001901</v>
+        <v>108411.413999999</v>
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.2">
@@ -1197,7 +1197,7 @@
         <v>60.0555555555555</v>
       </c>
       <c r="T8" s="23">
-        <v>39645.643000001801</v>
+        <v>135348.016</v>
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.2">
@@ -1253,7 +1253,7 @@
         <v>143.096</v>
       </c>
       <c r="T9" s="23">
-        <v>15023.047000000201</v>
+        <v>23267.427</v>
       </c>
     </row>
     <row r="10" spans="2:36" x14ac:dyDescent="0.2">
@@ -1307,7 +1307,7 @@
         <v>3867.1559999999899</v>
       </c>
       <c r="T10" s="23">
-        <v>31785.759000001901</v>
+        <v>48128.292000000001</v>
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
@@ -1363,7 +1363,7 @@
         <v>16.777999999999899</v>
       </c>
       <c r="T11" s="23">
-        <v>47868.672000000799</v>
+        <v>69687.577000000107</v>
       </c>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.2">
@@ -1417,17 +1417,17 @@
         <v>380.47500000000002</v>
       </c>
       <c r="T12" s="23">
-        <v>67023.046000000497</v>
+        <v>91464.140000000203</v>
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T13" s="23">
-        <v>83264.587999997806</v>
+        <v>113002.269</v>
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
       <c r="T14" s="23">
-        <v>25498.076000001602</v>
+        <v>14555.466</v>
       </c>
     </row>
     <row r="15" spans="2:36" ht="18" x14ac:dyDescent="0.2">
@@ -1435,13 +1435,13 @@
         <v>37</v>
       </c>
       <c r="T15" s="23">
-        <v>47868.672000000799</v>
+        <v>25883.148000000001</v>
       </c>
     </row>
     <row r="16" spans="2:36" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="28"/>
       <c r="T16" s="23">
-        <v>74049.793999997695</v>
+        <v>36857.523999999801</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
@@ -1471,7 +1471,7 @@
       <c r="Q17" s="44"/>
       <c r="R17" s="45"/>
       <c r="T17" s="23">
-        <v>99770.900999995894</v>
+        <v>53538.754000000103</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
@@ -1525,7 +1525,7 @@
         <v>200</v>
       </c>
       <c r="T18" s="23">
-        <v>122088.448999985</v>
+        <v>64892.758999999998</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
@@ -3255,49 +3255,49 @@
         <v>31</v>
       </c>
       <c r="D65" s="24">
-        <v>2833.4379999999901</v>
+        <v>2839.3099999999899</v>
       </c>
       <c r="E65" s="25">
-        <v>4199.1859999999997</v>
+        <v>4209.1819999999998</v>
       </c>
       <c r="F65" s="25">
-        <v>9300.4200000001492</v>
+        <v>9317.8990000001595</v>
       </c>
       <c r="G65" s="25">
-        <v>10780.7570000003</v>
+        <v>10801.9660000003</v>
       </c>
       <c r="H65" s="26">
-        <v>13396.9970000005</v>
+        <v>13422.6080000005</v>
       </c>
       <c r="I65" s="24">
-        <v>4199.1859999999997</v>
+        <v>4209.1819999999998</v>
       </c>
       <c r="J65" s="25">
-        <v>10780.7570000003</v>
+        <v>10801.9660000003</v>
       </c>
       <c r="K65" s="25">
-        <v>15392.861000000699</v>
+        <v>15422.8810000007</v>
       </c>
       <c r="L65" s="25">
-        <v>21692.105000000902</v>
+        <v>21735.230000000902</v>
       </c>
       <c r="M65" s="26">
-        <v>26358.3100000007</v>
+        <v>26410.886000000701</v>
       </c>
       <c r="N65" s="24">
-        <v>9300.4200000001492</v>
+        <v>9317.8990000001595</v>
       </c>
       <c r="O65" s="25">
-        <v>15392.861000000699</v>
+        <v>15422.8810000007</v>
       </c>
       <c r="P65" s="25">
-        <v>23411.733000000699</v>
+        <v>23458.593000000699</v>
       </c>
       <c r="Q65" s="25">
-        <v>31420.039000001001</v>
+        <v>31488.346000001002</v>
       </c>
       <c r="R65" s="26">
-        <v>37448.582999999897</v>
+        <v>37533.597000000103</v>
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
@@ -3355,12 +3355,70 @@
       <c r="B67" s="40"/>
       <c r="C67" s="41"/>
       <c r="D67" s="23">
-        <f>SUM(D62:D66)</f>
-        <v>70683.147000000186</v>
+        <f>SUM(D64:D66)</f>
+        <v>28166.369000000381</v>
       </c>
       <c r="E67" s="23">
-        <f>SUM(E62:E66)</f>
-        <v>138313.9560000014</v>
+        <f t="shared" ref="E67:R67" si="1">SUM(E64:E66)</f>
+        <v>49905.369000001505</v>
+      </c>
+      <c r="F67" s="23">
+        <f t="shared" si="1"/>
+        <v>89295.082000001261</v>
+      </c>
+      <c r="G67" s="23">
+        <f t="shared" si="1"/>
+        <v>110317.6290000002</v>
+      </c>
+      <c r="H67" s="23">
+        <f t="shared" si="1"/>
+        <v>139053.4009999971</v>
+      </c>
+      <c r="I67" s="23">
+        <f t="shared" si="1"/>
+        <v>49905.369000001505</v>
+      </c>
+      <c r="J67" s="23">
+        <f t="shared" si="1"/>
+        <v>110317.6290000002</v>
+      </c>
+      <c r="K67" s="23">
+        <f t="shared" si="1"/>
+        <v>165722.65999999549</v>
+      </c>
+      <c r="L67" s="23">
+        <f t="shared" si="1"/>
+        <v>230422.06599999237</v>
+      </c>
+      <c r="M67" s="23">
+        <f t="shared" si="1"/>
+        <v>284644.95199998352</v>
+      </c>
+      <c r="N67" s="23">
+        <f t="shared" si="1"/>
+        <v>89295.082000001261</v>
+      </c>
+      <c r="O67" s="23">
+        <f t="shared" si="1"/>
+        <v>165722.65999999549</v>
+      </c>
+      <c r="P67" s="23">
+        <f t="shared" si="1"/>
+        <v>253793.2089999874</v>
+      </c>
+      <c r="Q67" s="23">
+        <f t="shared" si="1"/>
+        <v>340852.49299997592</v>
+      </c>
+      <c r="R67" s="23">
+        <f t="shared" si="1"/>
+        <v>417357.04599996714</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D68" s="23">
+        <f>SUM(D62:D65)</f>
+        <v>53896.036999999786</v>
       </c>
     </row>
     <row r="69" spans="2:18" ht="18" x14ac:dyDescent="0.2">
@@ -3561,59 +3619,59 @@
         <v>82420.451000000205</v>
       </c>
       <c r="E75" s="32">
-        <f t="shared" ref="E75:R75" si="1">SUM(E73:E74)</f>
+        <f t="shared" ref="E75:R75" si="2">SUM(E73:E74)</f>
         <v>176000.4189999993</v>
       </c>
       <c r="F75" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>255329.97499999902</v>
       </c>
       <c r="G75" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>343922.83900000004</v>
       </c>
       <c r="H75" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>440802.170999997</v>
       </c>
       <c r="I75" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56378.244999999886</v>
       </c>
       <c r="J75" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122188.1639999997</v>
       </c>
       <c r="K75" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>176000.41899999921</v>
       </c>
       <c r="L75" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>232066.24799999851</v>
       </c>
       <c r="M75" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>286755.0579999992</v>
       </c>
       <c r="N75" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32775.702000000048</v>
       </c>
       <c r="O75" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>56378.244999999893</v>
       </c>
       <c r="P75" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>82420.451000000219</v>
       </c>
       <c r="Q75" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>122188.16399999976</v>
       </c>
       <c r="R75" s="32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>148110.30799999979</v>
       </c>
     </row>
@@ -3775,21 +3833,51 @@
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="60"/>
       <c r="C79" s="31"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="25"/>
-      <c r="Q79" s="25"/>
-      <c r="R79" s="26"/>
+      <c r="D79" s="24">
+        <v>12502.986000000101</v>
+      </c>
+      <c r="E79" s="25">
+        <v>22024.3470000009</v>
+      </c>
+      <c r="F79" s="25">
+        <v>37600.384000001803</v>
+      </c>
+      <c r="G79" s="25">
+        <v>47122.450000001103</v>
+      </c>
+      <c r="H79" s="26">
+        <v>58866.593000000299</v>
+      </c>
+      <c r="I79" s="24">
+        <v>36744.546000001501</v>
+      </c>
+      <c r="J79" s="25">
+        <v>75261.816999999995</v>
+      </c>
+      <c r="K79" s="25">
+        <v>115578.017999987</v>
+      </c>
+      <c r="L79" s="25">
+        <v>160742.17299998301</v>
+      </c>
+      <c r="M79" s="26">
+        <v>200654.74799998</v>
+      </c>
+      <c r="N79" s="24">
+        <v>69754.251999998101</v>
+      </c>
+      <c r="O79" s="25">
+        <v>137069.411999982</v>
+      </c>
+      <c r="P79" s="25">
+        <v>211967.487999982</v>
+      </c>
+      <c r="Q79" s="25">
+        <v>284437.64699999098</v>
+      </c>
+      <c r="R79" s="26">
+        <v>352606.74000000802</v>
+      </c>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" s="48" t="s">
@@ -3898,6 +3986,128 @@
     <row r="82" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B82" s="40"/>
       <c r="C82" s="41"/>
+      <c r="D82" s="23">
+        <f>SUM(D79:D81)</f>
+        <v>28166.36900000029</v>
+      </c>
+      <c r="E82" s="23">
+        <f t="shared" ref="E82:R82" si="3">SUM(E79:E81)</f>
+        <v>49905.369000001738</v>
+      </c>
+      <c r="F82" s="23">
+        <f t="shared" si="3"/>
+        <v>89295.082000002803</v>
+      </c>
+      <c r="G82" s="23">
+        <f t="shared" si="3"/>
+        <v>110317.62900000095</v>
+      </c>
+      <c r="H82" s="23">
+        <f t="shared" si="3"/>
+        <v>139053.40099999722</v>
+      </c>
+      <c r="I82" s="23">
+        <f t="shared" si="3"/>
+        <v>49905.369000001578</v>
+      </c>
+      <c r="J82" s="23">
+        <f t="shared" si="3"/>
+        <v>110317.62900000057</v>
+      </c>
+      <c r="K82" s="23">
+        <f t="shared" si="3"/>
+        <v>165722.65999998664</v>
+      </c>
+      <c r="L82" s="23">
+        <f t="shared" si="3"/>
+        <v>230422.06599998259</v>
+      </c>
+      <c r="M82" s="23">
+        <f t="shared" si="3"/>
+        <v>284644.95199997781</v>
+      </c>
+      <c r="N82" s="23">
+        <f t="shared" si="3"/>
+        <v>89295.081999998161</v>
+      </c>
+      <c r="O82" s="23">
+        <f t="shared" si="3"/>
+        <v>165722.65999998176</v>
+      </c>
+      <c r="P82" s="23">
+        <f t="shared" si="3"/>
+        <v>253793.20899998184</v>
+      </c>
+      <c r="Q82" s="23">
+        <f t="shared" si="3"/>
+        <v>340852.49299999065</v>
+      </c>
+      <c r="R82" s="23">
+        <f t="shared" si="3"/>
+        <v>417357.04600000754</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D83" s="23">
+        <f>SUM(D77:D80)</f>
+        <v>53896.036999999924</v>
+      </c>
+      <c r="E83" s="23">
+        <f t="shared" ref="E83:R83" si="4">SUM(E77:E80)</f>
+        <v>107650.81200000095</v>
+      </c>
+      <c r="F83" s="23">
+        <f t="shared" si="4"/>
+        <v>161412.37900000071</v>
+      </c>
+      <c r="G83" s="23">
+        <f t="shared" si="4"/>
+        <v>215221.52800000037</v>
+      </c>
+      <c r="H83" s="23">
+        <f t="shared" si="4"/>
+        <v>268974.2800000002</v>
+      </c>
+      <c r="I83" s="23">
+        <f t="shared" si="4"/>
+        <v>107576.36819693037</v>
+      </c>
+      <c r="J83" s="23">
+        <f t="shared" si="4"/>
+        <v>215178.84390179373</v>
+      </c>
+      <c r="K83" s="23">
+        <f t="shared" si="4"/>
+        <v>322635.04441643908</v>
+      </c>
+      <c r="L83" s="23">
+        <f t="shared" si="4"/>
+        <v>430329.047851782</v>
+      </c>
+      <c r="M83" s="23">
+        <f t="shared" si="4"/>
+        <v>537783.48860609171</v>
+      </c>
+      <c r="N83" s="23">
+        <f t="shared" si="4"/>
+        <v>161064.63432268746</v>
+      </c>
+      <c r="O83" s="23">
+        <f t="shared" si="4"/>
+        <v>321952.31185766187</v>
+      </c>
+      <c r="P83" s="23">
+        <f t="shared" si="4"/>
+        <v>483061.51992684719</v>
+      </c>
+      <c r="Q83" s="23">
+        <f t="shared" si="4"/>
+        <v>644053.74975960376</v>
+      </c>
+      <c r="R83" s="23">
+        <f t="shared" si="4"/>
+        <v>804981.09246631141</v>
+      </c>
     </row>
     <row r="84" spans="2:20" ht="18" x14ac:dyDescent="0.2">
       <c r="B84" s="28" t="s">

--- a/simulationResults_b.xlsx
+++ b/simulationResults_b.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kml/Desktop/GitHub/PESGM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E84924C-4EA3-3E4F-A236-FEA503A14F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9839169-31A5-4350-8D9A-E54310D48423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="28240" windowHeight="16280" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
+    <workbookView xWindow="120" yWindow="0" windowWidth="28785" windowHeight="15585" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Distributions" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="44">
   <si>
     <t>PP-LEM</t>
   </si>
@@ -198,12 +198,24 @@
   <si>
     <t>total unused batt.</t>
   </si>
+  <si>
+    <t>Distribution of energy within the P2P market on April 21st, 2016, when users are equipped battery - init value is the previous hour</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>initial batt</t>
+  </si>
+  <si>
+    <t>burdan devam</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,6 +242,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -484,6 +503,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -498,27 +520,24 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -833,114 +852,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
-  <dimension ref="B2:AJ149"/>
+  <dimension ref="B2:AJ171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D149" sqref="D149:R149"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11" style="18"/>
     <col min="3" max="3" width="17.5" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="15" width="11" style="18"/>
-    <col min="16" max="18" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="11.625" style="18" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="18"/>
-    <col min="20" max="20" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.625" style="18" bestFit="1" customWidth="1"/>
     <col min="21" max="33" width="11" style="18"/>
-    <col min="34" max="36" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="36" width="11.625" style="18" bestFit="1" customWidth="1"/>
     <col min="37" max="16384" width="11" style="18"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:36" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:36" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:36" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:36" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="22"/>
     </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B4" s="42" t="s">
+    <row r="4" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="39">
+      <c r="C4" s="45"/>
+      <c r="D4" s="40">
         <v>0.25</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="39">
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="40">
         <v>0.5</v>
       </c>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="39">
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="40">
         <v>0.75</v>
       </c>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="42"/>
       <c r="T4" s="18">
-        <v>0</v>
+        <v>35.838435363537101</v>
       </c>
       <c r="V4" s="18" cm="1">
         <f t="array" ref="V4:AJ4">TRANSPOSE(T4:T18)</f>
-        <v>0</v>
+        <v>35.838435363537101</v>
       </c>
       <c r="W4" s="18">
-        <v>0</v>
+        <v>108.91850169837799</v>
       </c>
       <c r="X4" s="18">
-        <v>0</v>
+        <v>155.90263569258801</v>
       </c>
       <c r="Y4" s="18">
-        <v>0</v>
+        <v>228.81473659865699</v>
       </c>
       <c r="Z4" s="18">
-        <v>0</v>
+        <v>252.89983228807199</v>
       </c>
       <c r="AA4" s="18">
-        <v>80.304803070971005</v>
+        <v>275.769500632914</v>
       </c>
       <c r="AB4" s="18">
-        <v>53.2870982060087</v>
+        <v>520.18770453546199</v>
       </c>
       <c r="AC4" s="18">
-        <v>62.1403223085928</v>
+        <v>816.71842837755298</v>
       </c>
       <c r="AD4" s="18">
-        <v>73.102643563524097</v>
+        <v>1094.32017069464</v>
       </c>
       <c r="AE4" s="18">
-        <v>101.85088597105</v>
+        <v>1381.74224425225</v>
       </c>
       <c r="AF4" s="18">
-        <v>353.61667731095002</v>
+        <v>455.522982135804</v>
       </c>
       <c r="AG4" s="18">
-        <v>740.50314231772802</v>
+        <v>950.63169744051504</v>
       </c>
       <c r="AH4" s="18">
-        <v>1076.0620731337499</v>
+        <v>1428.57732156211</v>
       </c>
       <c r="AI4" s="18">
-        <v>1357.5513728926401</v>
+        <v>1884.6553703575601</v>
       </c>
       <c r="AJ4" s="18">
-        <v>1749.3775336955</v>
-      </c>
-    </row>
-    <row r="5" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B5" s="42" t="s">
+        <v>2389.0948356489998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="9">
         <v>40</v>
       </c>
@@ -987,10 +1006,10 @@
         <v>200</v>
       </c>
       <c r="T5" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.2">
+        <v>108.91850169837799</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B6" s="37" t="s">
         <v>5</v>
       </c>
@@ -1043,11 +1062,11 @@
         <v>143.09599999999901</v>
       </c>
       <c r="T6" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B7" s="38"/>
+        <v>155.90263569258801</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B7" s="39"/>
       <c r="C7" s="25" t="s">
         <v>13</v>
       </c>
@@ -1097,14 +1116,14 @@
         <v>139.35499999999999</v>
       </c>
       <c r="T7" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B8" s="44" t="s">
+        <v>228.81473659865699</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="47"/>
       <c r="D8" s="29">
         <v>51.249999999999901</v>
       </c>
@@ -1151,10 +1170,10 @@
         <v>51.4722222222222</v>
       </c>
       <c r="T8" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.2">
+        <v>252.89983228807199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
@@ -1207,11 +1226,11 @@
         <v>143.096</v>
       </c>
       <c r="T9" s="18">
-        <v>80.304803070971005</v>
-      </c>
-    </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B10" s="50"/>
+        <v>275.769500632914</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
       <c r="C10" s="25" t="s">
         <v>29</v>
       </c>
@@ -1261,64 +1280,64 @@
         <v>3867.1559999999899</v>
       </c>
       <c r="T10" s="18">
-        <v>53.2870982060087</v>
-      </c>
-    </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B11" s="38"/>
+        <v>520.18770453546199</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B11" s="39"/>
       <c r="C11" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="32">
         <v>28.1739999999999</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="18">
         <v>42.725999999999999</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="18">
         <v>83.094999999999899</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="18">
         <v>109.47399999999899</v>
       </c>
-      <c r="H11" s="49">
+      <c r="H11" s="18">
         <v>132.29</v>
       </c>
       <c r="I11" s="32">
         <v>42.725999999999999</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="18">
         <v>109.47399999999899</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="18">
         <v>153.55799999999999</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="18">
         <v>221.29400000000001</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="18">
         <v>271.62799999999999</v>
       </c>
       <c r="N11" s="32">
         <v>83.094999999999899</v>
       </c>
-      <c r="O11" s="49">
+      <c r="O11" s="18">
         <v>153.55799999999999</v>
       </c>
-      <c r="P11" s="49">
+      <c r="P11" s="18">
         <v>241.18600000000001</v>
       </c>
-      <c r="Q11" s="49">
+      <c r="Q11" s="18">
         <v>310.85399999999998</v>
       </c>
       <c r="R11" s="33">
         <v>356.85400000000101</v>
       </c>
       <c r="T11" s="18">
-        <v>62.1403223085928</v>
-      </c>
-    </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.2">
+        <v>816.71842837755298</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
         <v>15</v>
       </c>
@@ -1371,11 +1390,11 @@
         <v>16.777999999999899</v>
       </c>
       <c r="T12" s="18">
-        <v>73.102643563524097</v>
-      </c>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B13" s="38"/>
+        <v>1094.32017069464</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B13" s="39"/>
       <c r="C13" s="23" t="s">
         <v>13</v>
       </c>
@@ -1425,79 +1444,79 @@
         <v>380.47500000000002</v>
       </c>
       <c r="T13" s="18">
-        <v>101.85088597105</v>
-      </c>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
+        <v>1381.74224425225</v>
+      </c>
+    </row>
+    <row r="14" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B14" s="34"/>
+      <c r="C14" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="18">
         <f>SUM(D11:D13)</f>
         <v>51.9329999999999</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="18">
         <f t="shared" ref="E14:R14" si="0">SUM(E11:E13)</f>
         <v>82.760999999999996</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="18">
         <f t="shared" si="0"/>
         <v>156.34099999999989</v>
       </c>
-      <c r="G14" s="49">
+      <c r="G14" s="18">
         <f t="shared" si="0"/>
         <v>216.41899999999902</v>
       </c>
-      <c r="H14" s="49">
+      <c r="H14" s="18">
         <f t="shared" si="0"/>
         <v>270.99599999999896</v>
       </c>
-      <c r="I14" s="49">
+      <c r="I14" s="18">
         <f t="shared" si="0"/>
         <v>82.760999999999996</v>
       </c>
-      <c r="J14" s="49">
+      <c r="J14" s="18">
         <f t="shared" si="0"/>
         <v>216.41899999999902</v>
       </c>
-      <c r="K14" s="49">
+      <c r="K14" s="18">
         <f t="shared" si="0"/>
         <v>313.101</v>
       </c>
-      <c r="L14" s="49">
+      <c r="L14" s="18">
         <f t="shared" si="0"/>
         <v>440.92399999999998</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="18">
         <f t="shared" si="0"/>
         <v>546.36099999999999</v>
       </c>
-      <c r="N14" s="49">
+      <c r="N14" s="18">
         <f t="shared" si="0"/>
         <v>156.34099999999989</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="18">
         <f t="shared" si="0"/>
         <v>313.101</v>
       </c>
-      <c r="P14" s="49">
+      <c r="P14" s="18">
         <f t="shared" si="0"/>
         <v>482.56100000000004</v>
       </c>
-      <c r="Q14" s="49">
+      <c r="Q14" s="18">
         <f t="shared" si="0"/>
         <v>639.29099999999994</v>
       </c>
-      <c r="R14" s="49">
+      <c r="R14" s="18">
         <f t="shared" si="0"/>
         <v>754.10700000000088</v>
       </c>
       <c r="T14" s="18">
-        <v>353.61667731095002</v>
-      </c>
-    </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.2">
+        <v>455.522982135804</v>
+      </c>
+    </row>
+    <row r="15" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C15" s="35" t="s">
         <v>34</v>
       </c>
@@ -1562,67 +1581,67 @@
         <v>4383.8839999999909</v>
       </c>
       <c r="T15" s="18">
-        <v>740.50314231772802</v>
-      </c>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.2">
+        <v>950.63169744051504</v>
+      </c>
+    </row>
+    <row r="16" spans="2:36" x14ac:dyDescent="0.25">
       <c r="C16" s="35"/>
       <c r="T16" s="18">
-        <v>1076.0620731337499</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+        <v>1428.57732156211</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C17" s="35"/>
       <c r="T17" s="18">
-        <v>1357.5513728926401</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+        <v>1884.6553703575601</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C18" s="35"/>
       <c r="T18" s="18">
-        <v>1749.3775336955</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+        <v>2389.0948356489998</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B19" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="2:20" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="42" t="s">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="39">
+      <c r="C21" s="45"/>
+      <c r="D21" s="40">
         <v>0.25</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="39">
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="40">
         <v>0.5</v>
       </c>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="39">
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="40">
         <v>0.75</v>
       </c>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="41"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="42" t="s">
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="42"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="9">
         <v>40</v>
       </c>
@@ -1669,7 +1688,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="37" t="s">
         <v>5</v>
       </c>
@@ -1722,8 +1741,8 @@
         <v>282.45100000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="38"/>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="39"/>
       <c r="C24" s="25" t="s">
         <v>13</v>
       </c>
@@ -1773,11 +1792,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="44" t="s">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="45"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="29">
         <v>79.1666666666666</v>
       </c>
@@ -1824,7 +1843,7 @@
         <v>79.5555555555555</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
         <v>19</v>
       </c>
@@ -1877,8 +1896,8 @@
         <v>265.137</v>
       </c>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="50"/>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="38"/>
       <c r="C27" s="25" t="s">
         <v>29</v>
       </c>
@@ -1928,58 +1947,58 @@
         <v>879.75662436382902</v>
       </c>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="38"/>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="39"/>
       <c r="C28" s="25" t="s">
         <v>32</v>
       </c>
       <c r="D28" s="32">
         <v>47.372999999999898</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="18">
         <v>75.120999999999995</v>
       </c>
-      <c r="F28" s="49">
+      <c r="F28" s="18">
         <v>142.66800000000001</v>
       </c>
-      <c r="G28" s="49">
+      <c r="G28" s="18">
         <v>199.43899999999999</v>
       </c>
-      <c r="H28" s="49">
+      <c r="H28" s="18">
         <v>249.46199999999999</v>
       </c>
       <c r="I28" s="32">
         <v>75.120999999999995</v>
       </c>
-      <c r="J28" s="49">
+      <c r="J28" s="18">
         <v>199.43899999999999</v>
       </c>
-      <c r="K28" s="49">
+      <c r="K28" s="18">
         <v>287.911</v>
       </c>
-      <c r="L28" s="49">
+      <c r="L28" s="18">
         <v>406.17</v>
       </c>
-      <c r="M28" s="49">
+      <c r="M28" s="18">
         <v>503.792000000001</v>
       </c>
       <c r="N28" s="32">
         <v>142.66800000000001</v>
       </c>
-      <c r="O28" s="49">
+      <c r="O28" s="18">
         <v>287.911</v>
       </c>
-      <c r="P28" s="49">
+      <c r="P28" s="18">
         <v>444.42700000000002</v>
       </c>
-      <c r="Q28" s="49">
+      <c r="Q28" s="18">
         <v>589.66999999999905</v>
       </c>
       <c r="R28" s="33">
         <v>697.49099999999896</v>
       </c>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
         <v>15</v>
       </c>
@@ -2032,8 +2051,8 @@
         <v>5.1779999999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="38"/>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B30" s="39"/>
       <c r="C30" s="23" t="s">
         <v>13</v>
       </c>
@@ -2083,73 +2102,73 @@
         <v>51.437999999999903</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="51"/>
-      <c r="C31" s="52" t="s">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="34"/>
+      <c r="C31" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="18">
         <f>SUM(D28:D30)</f>
         <v>51.932999999999886</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="18">
         <f t="shared" ref="E31:R31" si="2">SUM(E28:E30)</f>
         <v>82.760999999999981</v>
       </c>
-      <c r="F31" s="49">
+      <c r="F31" s="18">
         <f t="shared" si="2"/>
         <v>156.34099999999992</v>
       </c>
-      <c r="G31" s="49">
+      <c r="G31" s="18">
         <f t="shared" si="2"/>
         <v>216.41900000000001</v>
       </c>
-      <c r="H31" s="49">
+      <c r="H31" s="18">
         <f t="shared" si="2"/>
         <v>270.99599999999998</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="18">
         <f t="shared" si="2"/>
         <v>82.760999999999981</v>
       </c>
-      <c r="J31" s="49">
+      <c r="J31" s="18">
         <f t="shared" si="2"/>
         <v>216.41900000000001</v>
       </c>
-      <c r="K31" s="49">
+      <c r="K31" s="18">
         <f t="shared" si="2"/>
         <v>313.101</v>
       </c>
-      <c r="L31" s="49">
+      <c r="L31" s="18">
         <f t="shared" si="2"/>
         <v>440.92399999999992</v>
       </c>
-      <c r="M31" s="49">
+      <c r="M31" s="18">
         <f t="shared" si="2"/>
         <v>546.3610000000009</v>
       </c>
-      <c r="N31" s="49">
+      <c r="N31" s="18">
         <f t="shared" si="2"/>
         <v>156.34099999999992</v>
       </c>
-      <c r="O31" s="49">
+      <c r="O31" s="18">
         <f t="shared" si="2"/>
         <v>313.101</v>
       </c>
-      <c r="P31" s="49">
+      <c r="P31" s="18">
         <f t="shared" si="2"/>
         <v>482.56099999999992</v>
       </c>
-      <c r="Q31" s="49">
+      <c r="Q31" s="18">
         <f t="shared" si="2"/>
         <v>639.29099999999903</v>
       </c>
-      <c r="R31" s="49">
+      <c r="R31" s="18">
         <f t="shared" si="2"/>
         <v>754.10699999999883</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C32" s="35" t="s">
         <v>38</v>
       </c>
@@ -2214,7 +2233,7 @@
         <v>1847.5626243638283</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C33" s="35" t="s">
         <v>39</v>
       </c>
@@ -2264,7 +2283,7 @@
         <v>2536.3213756361702</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C34" s="35" t="s">
         <v>37</v>
       </c>
@@ -2329,4700 +2348,5516 @@
         <v>4383.8839999999982</v>
       </c>
     </row>
-    <row r="35" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B35" s="22" t="s">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C35" s="35"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C36" s="35"/>
+    </row>
+    <row r="37" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B37" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B38" s="22"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="45"/>
+      <c r="D39" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="42"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="44"/>
+      <c r="D40" s="9">
+        <v>40</v>
+      </c>
+      <c r="E40" s="8">
+        <v>80</v>
+      </c>
+      <c r="F40" s="8">
+        <v>120</v>
+      </c>
+      <c r="G40" s="8">
+        <v>160</v>
+      </c>
+      <c r="H40" s="8">
+        <v>200</v>
+      </c>
+      <c r="I40" s="9">
+        <v>40</v>
+      </c>
+      <c r="J40" s="8">
+        <v>80</v>
+      </c>
+      <c r="K40" s="8">
+        <v>120</v>
+      </c>
+      <c r="L40" s="8">
+        <v>160</v>
+      </c>
+      <c r="M40" s="8">
+        <v>200</v>
+      </c>
+      <c r="N40" s="9">
+        <v>40</v>
+      </c>
+      <c r="O40" s="8">
+        <v>80</v>
+      </c>
+      <c r="P40" s="8">
+        <v>120</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>160</v>
+      </c>
+      <c r="R40" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B41" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="19">
+        <v>160.071</v>
+      </c>
+      <c r="E41" s="20">
+        <v>352.66699999999901</v>
+      </c>
+      <c r="F41" s="20">
+        <v>467.14999999999901</v>
+      </c>
+      <c r="G41" s="20">
+        <v>628.08299999999997</v>
+      </c>
+      <c r="H41" s="21">
+        <v>818.60400000000004</v>
+      </c>
+      <c r="I41" s="19">
+        <v>117.688</v>
+      </c>
+      <c r="J41" s="20">
+        <v>229.91199999999901</v>
+      </c>
+      <c r="K41" s="20">
+        <v>352.66699999999901</v>
+      </c>
+      <c r="L41" s="20">
+        <v>431.84699999999901</v>
+      </c>
+      <c r="M41" s="21">
+        <v>509.72699999999998</v>
+      </c>
+      <c r="N41" s="19">
+        <v>66.038999999999902</v>
+      </c>
+      <c r="O41" s="20">
+        <v>117.688</v>
+      </c>
+      <c r="P41" s="20">
+        <v>160.071</v>
+      </c>
+      <c r="Q41" s="20">
+        <v>229.91199999999901</v>
+      </c>
+      <c r="R41" s="21">
+        <v>282.45100000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="39"/>
+      <c r="C42" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="32">
+        <v>0</v>
+      </c>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
+      <c r="F42" s="18">
+        <v>0</v>
+      </c>
+      <c r="G42" s="18">
+        <v>0</v>
+      </c>
+      <c r="H42" s="33">
+        <v>0</v>
+      </c>
+      <c r="I42" s="18">
+        <v>0</v>
+      </c>
+      <c r="J42" s="18">
+        <v>0</v>
+      </c>
+      <c r="K42" s="18">
+        <v>0</v>
+      </c>
+      <c r="L42" s="18">
+        <v>0</v>
+      </c>
+      <c r="M42" s="33">
+        <v>0</v>
+      </c>
+      <c r="N42" s="18">
+        <v>0</v>
+      </c>
+      <c r="O42" s="18">
+        <v>0</v>
+      </c>
+      <c r="P42" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="18">
+        <v>0</v>
+      </c>
+      <c r="R42" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B43" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="47"/>
+      <c r="D43" s="29">
+        <v>95.4166666666666</v>
+      </c>
+      <c r="E43" s="30">
+        <v>97.7083333333333</v>
+      </c>
+      <c r="F43" s="30">
+        <v>97.2222222222222</v>
+      </c>
+      <c r="G43" s="30">
+        <v>98.4375</v>
+      </c>
+      <c r="H43" s="31">
+        <v>97.75</v>
+      </c>
+      <c r="I43" s="29">
+        <v>100</v>
+      </c>
+      <c r="J43" s="30">
+        <v>100</v>
+      </c>
+      <c r="K43" s="30">
+        <v>100</v>
+      </c>
+      <c r="L43" s="30">
+        <v>100</v>
+      </c>
+      <c r="M43" s="31">
+        <v>100</v>
+      </c>
+      <c r="N43" s="29">
+        <v>100</v>
+      </c>
+      <c r="O43" s="30">
+        <v>100</v>
+      </c>
+      <c r="P43" s="30">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="30">
+        <v>100</v>
+      </c>
+      <c r="R43" s="31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B44" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="19">
+        <v>160.071</v>
+      </c>
+      <c r="E44" s="20">
+        <v>352.66699999999901</v>
+      </c>
+      <c r="F44" s="20">
+        <v>467.15</v>
+      </c>
+      <c r="G44" s="20">
+        <v>628.08299999999997</v>
+      </c>
+      <c r="H44" s="21">
+        <v>818.60400000000004</v>
+      </c>
+      <c r="I44" s="19">
+        <v>117.68799999999899</v>
+      </c>
+      <c r="J44" s="20">
+        <v>229.91199999999901</v>
+      </c>
+      <c r="K44" s="20">
+        <v>352.66699999999901</v>
+      </c>
+      <c r="L44" s="20">
+        <v>431.84699999999901</v>
+      </c>
+      <c r="M44" s="21">
+        <v>509.72699999999901</v>
+      </c>
+      <c r="N44" s="19">
+        <v>66.039000000000001</v>
+      </c>
+      <c r="O44" s="20">
+        <v>117.688</v>
+      </c>
+      <c r="P44" s="20">
+        <v>160.070999999999</v>
+      </c>
+      <c r="Q44" s="20">
+        <v>229.91200000000001</v>
+      </c>
+      <c r="R44" s="21">
+        <v>282.45100000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B45" s="38"/>
+      <c r="C45" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="26">
+        <v>24.692634216652799</v>
+      </c>
+      <c r="E45" s="27">
+        <v>69.321237313659495</v>
+      </c>
+      <c r="F45" s="27">
+        <v>112.497784911889</v>
+      </c>
+      <c r="G45" s="27">
+        <v>155.366865027773</v>
+      </c>
+      <c r="H45" s="27">
+        <v>152.58079298933299</v>
+      </c>
+      <c r="I45" s="26">
+        <v>347.30066310632299</v>
+      </c>
+      <c r="J45" s="27">
+        <v>637.98196169425398</v>
+      </c>
+      <c r="K45" s="27">
+        <v>990.16378983971003</v>
+      </c>
+      <c r="L45" s="27">
+        <v>1328.6212950000199</v>
+      </c>
+      <c r="M45" s="27">
+        <v>1698.13317421486</v>
+      </c>
+      <c r="N45" s="26">
+        <v>601.75019392147397</v>
+      </c>
+      <c r="O45" s="27">
+        <v>1254.25192497378</v>
+      </c>
+      <c r="P45" s="27">
+        <v>1885.6015084575199</v>
+      </c>
+      <c r="Q45" s="27">
+        <v>2496.0553921855699</v>
+      </c>
+      <c r="R45" s="28">
+        <v>3189.9958773902399</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="39"/>
+      <c r="C46" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="32">
+        <v>49.882999999999903</v>
+      </c>
+      <c r="E46" s="18">
+        <v>80.710999999999899</v>
+      </c>
+      <c r="F46" s="18">
+        <v>151.58199999999999</v>
+      </c>
+      <c r="G46" s="18">
+        <v>212.21299999999999</v>
+      </c>
+      <c r="H46" s="18">
+        <v>265.21800000000002</v>
+      </c>
+      <c r="I46" s="32">
+        <v>82.760999999999896</v>
+      </c>
+      <c r="J46" s="18">
+        <v>216.41900000000001</v>
+      </c>
+      <c r="K46" s="18">
+        <v>313.101</v>
+      </c>
+      <c r="L46" s="18">
+        <v>440.92399999999998</v>
+      </c>
+      <c r="M46" s="18">
+        <v>546.36099999999999</v>
+      </c>
+      <c r="N46" s="32">
+        <v>156.34100000000001</v>
+      </c>
+      <c r="O46" s="18">
+        <v>313.101</v>
+      </c>
+      <c r="P46" s="18">
+        <v>482.56099999999998</v>
+      </c>
+      <c r="Q46" s="18">
+        <v>639.29099999999903</v>
+      </c>
+      <c r="R46" s="33">
+        <v>754.10699999999804</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="19">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="E47" s="20">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="F47" s="20">
+        <v>1.18087423117313</v>
+      </c>
+      <c r="G47" s="20">
+        <v>1.28151835908988</v>
+      </c>
+      <c r="H47" s="21">
+        <v>1.3646316173867901</v>
+      </c>
+      <c r="I47" s="19">
+        <v>0</v>
+      </c>
+      <c r="J47" s="20">
+        <v>0</v>
+      </c>
+      <c r="K47" s="20">
+        <v>0</v>
+      </c>
+      <c r="L47" s="20">
+        <v>0</v>
+      </c>
+      <c r="M47" s="21">
+        <v>0</v>
+      </c>
+      <c r="N47" s="19">
+        <v>0</v>
+      </c>
+      <c r="O47" s="20">
+        <v>0</v>
+      </c>
+      <c r="P47" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="20">
+        <v>0</v>
+      </c>
+      <c r="R47" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B48" s="39"/>
+      <c r="C48" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="26">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="E48" s="27">
+        <v>1.6859999999999999</v>
+      </c>
+      <c r="F48" s="27">
+        <v>3.57812576882686</v>
+      </c>
+      <c r="G48" s="27">
+        <v>2.92448164091011</v>
+      </c>
+      <c r="H48" s="27">
+        <v>4.4133683826132</v>
+      </c>
+      <c r="I48" s="26">
+        <v>0</v>
+      </c>
+      <c r="J48" s="27">
+        <v>0</v>
+      </c>
+      <c r="K48" s="27">
+        <v>0</v>
+      </c>
+      <c r="L48" s="27">
+        <v>0</v>
+      </c>
+      <c r="M48" s="27">
+        <v>0</v>
+      </c>
+      <c r="N48" s="26">
+        <v>0</v>
+      </c>
+      <c r="O48" s="27">
+        <v>0</v>
+      </c>
+      <c r="P48" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="27">
+        <v>0</v>
+      </c>
+      <c r="R48" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="50"/>
+      <c r="C49" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="51">
+        <f>SUM(D46:D48)</f>
+        <v>51.9329999999999</v>
+      </c>
+      <c r="E49" s="51">
+        <f t="shared" ref="E49:R49" si="5">SUM(E46:E48)</f>
+        <v>82.76099999999991</v>
+      </c>
+      <c r="F49" s="51">
+        <f t="shared" si="5"/>
+        <v>156.34099999999998</v>
+      </c>
+      <c r="G49" s="51">
+        <f t="shared" si="5"/>
+        <v>216.41899999999998</v>
+      </c>
+      <c r="H49" s="51">
+        <f t="shared" si="5"/>
+        <v>270.99600000000004</v>
+      </c>
+      <c r="I49" s="51">
+        <f t="shared" si="5"/>
+        <v>82.760999999999896</v>
+      </c>
+      <c r="J49" s="51">
+        <f t="shared" si="5"/>
+        <v>216.41900000000001</v>
+      </c>
+      <c r="K49" s="51">
+        <f t="shared" si="5"/>
+        <v>313.101</v>
+      </c>
+      <c r="L49" s="51">
+        <f t="shared" si="5"/>
+        <v>440.92399999999998</v>
+      </c>
+      <c r="M49" s="51">
+        <f t="shared" si="5"/>
+        <v>546.36099999999999</v>
+      </c>
+      <c r="N49" s="51">
+        <f t="shared" si="5"/>
+        <v>156.34100000000001</v>
+      </c>
+      <c r="O49" s="51">
+        <f t="shared" si="5"/>
+        <v>313.101</v>
+      </c>
+      <c r="P49" s="51">
+        <f t="shared" si="5"/>
+        <v>482.56099999999998</v>
+      </c>
+      <c r="Q49" s="51">
+        <f t="shared" si="5"/>
+        <v>639.29099999999903</v>
+      </c>
+      <c r="R49" s="51">
+        <f t="shared" si="5"/>
+        <v>754.10699999999804</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="50"/>
+      <c r="C50" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" s="51">
+        <f>SUM(D44:D47)</f>
+        <v>235.0106342166527</v>
+      </c>
+      <c r="E50" s="51">
+        <f t="shared" ref="E50:R50" si="6">SUM(E44:E47)</f>
+        <v>503.06323731365836</v>
+      </c>
+      <c r="F50" s="51">
+        <f t="shared" si="6"/>
+        <v>732.41065914306205</v>
+      </c>
+      <c r="G50" s="51">
+        <f t="shared" si="6"/>
+        <v>996.9443833868628</v>
+      </c>
+      <c r="H50" s="51">
+        <f t="shared" si="6"/>
+        <v>1237.7674246067197</v>
+      </c>
+      <c r="I50" s="51">
+        <f t="shared" si="6"/>
+        <v>547.7496631063218</v>
+      </c>
+      <c r="J50" s="51">
+        <f t="shared" si="6"/>
+        <v>1084.3129616942531</v>
+      </c>
+      <c r="K50" s="51">
+        <f t="shared" si="6"/>
+        <v>1655.9317898397089</v>
+      </c>
+      <c r="L50" s="51">
+        <f t="shared" si="6"/>
+        <v>2201.3922950000187</v>
+      </c>
+      <c r="M50" s="51">
+        <f t="shared" si="6"/>
+        <v>2754.2211742148588</v>
+      </c>
+      <c r="N50" s="51">
+        <f t="shared" si="6"/>
+        <v>824.13019392147396</v>
+      </c>
+      <c r="O50" s="51">
+        <f t="shared" si="6"/>
+        <v>1685.04092497378</v>
+      </c>
+      <c r="P50" s="51">
+        <f t="shared" si="6"/>
+        <v>2528.2335084575188</v>
+      </c>
+      <c r="Q50" s="51">
+        <f t="shared" si="6"/>
+        <v>3365.2583921855685</v>
+      </c>
+      <c r="R50" s="51">
+        <f t="shared" si="6"/>
+        <v>4226.5538773902381</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="50"/>
+      <c r="C51" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="51">
+        <v>95.070801146884193</v>
+      </c>
+      <c r="E51" s="51">
+        <v>194.338264384719</v>
+      </c>
+      <c r="F51" s="51">
+        <v>306.20697654952602</v>
+      </c>
+      <c r="G51" s="51">
+        <v>403.15935321179398</v>
+      </c>
+      <c r="H51" s="51">
+        <v>477.783407681352</v>
+      </c>
+      <c r="I51" s="51">
+        <v>316.50283752659101</v>
+      </c>
+      <c r="J51" s="51">
+        <v>607.16374284120695</v>
+      </c>
+      <c r="K51" s="51">
+        <v>914.15563853784397</v>
+      </c>
+      <c r="L51" s="51">
+        <v>1230.6068756946099</v>
+      </c>
+      <c r="M51" s="51">
+        <v>1551.6010700373799</v>
+      </c>
+      <c r="N51" s="51">
+        <v>514.10778821432905</v>
+      </c>
+      <c r="O51" s="51">
+        <v>1018.95977246673</v>
+      </c>
+      <c r="P51" s="51">
+        <v>1529.9078131045901</v>
+      </c>
+      <c r="Q51" s="51">
+        <v>2026.99397817199</v>
+      </c>
+      <c r="R51" s="51">
+        <v>2546.4249582587499</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="50"/>
+      <c r="C52" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="51">
+        <f>SUM(D50:D51)</f>
+        <v>330.08143536353691</v>
+      </c>
+      <c r="E52" s="51">
+        <f t="shared" ref="E52:R52" si="7">SUM(E50:E51)</f>
+        <v>697.40150169837739</v>
+      </c>
+      <c r="F52" s="51">
+        <f t="shared" si="7"/>
+        <v>1038.617635692588</v>
+      </c>
+      <c r="G52" s="51">
+        <f t="shared" si="7"/>
+        <v>1400.1037365986567</v>
+      </c>
+      <c r="H52" s="51">
+        <f t="shared" si="7"/>
+        <v>1715.5508322880717</v>
+      </c>
+      <c r="I52" s="51">
+        <f t="shared" si="7"/>
+        <v>864.25250063291287</v>
+      </c>
+      <c r="J52" s="51">
+        <f t="shared" si="7"/>
+        <v>1691.4767045354602</v>
+      </c>
+      <c r="K52" s="51">
+        <f t="shared" si="7"/>
+        <v>2570.0874283775529</v>
+      </c>
+      <c r="L52" s="51">
+        <f t="shared" si="7"/>
+        <v>3431.9991706946284</v>
+      </c>
+      <c r="M52" s="51">
+        <f t="shared" si="7"/>
+        <v>4305.8222442522383</v>
+      </c>
+      <c r="N52" s="51">
+        <f t="shared" si="7"/>
+        <v>1338.2379821358031</v>
+      </c>
+      <c r="O52" s="51">
+        <f t="shared" si="7"/>
+        <v>2704.0006974405101</v>
+      </c>
+      <c r="P52" s="51">
+        <f t="shared" si="7"/>
+        <v>4058.1413215621087</v>
+      </c>
+      <c r="Q52" s="51">
+        <f t="shared" si="7"/>
+        <v>5392.2523703575589</v>
+      </c>
+      <c r="R52" s="51">
+        <f t="shared" si="7"/>
+        <v>6772.978835648988</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="50"/>
+      <c r="C53" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="51">
+        <v>35.838435363537101</v>
+      </c>
+      <c r="E53" s="51">
+        <v>108.91850169837799</v>
+      </c>
+      <c r="F53" s="51">
+        <v>155.90263569258801</v>
+      </c>
+      <c r="G53" s="51">
+        <v>228.81473659865699</v>
+      </c>
+      <c r="H53" s="51">
+        <v>252.89983228807199</v>
+      </c>
+      <c r="I53" s="51">
+        <v>275.769500632914</v>
+      </c>
+      <c r="J53" s="51">
+        <v>520.18770453546199</v>
+      </c>
+      <c r="K53" s="51">
+        <v>816.71842837755298</v>
+      </c>
+      <c r="L53" s="51">
+        <v>1094.32017069464</v>
+      </c>
+      <c r="M53" s="51">
+        <v>1381.74224425225</v>
+      </c>
+      <c r="N53" s="51">
+        <v>455.522982135804</v>
+      </c>
+      <c r="O53" s="51">
+        <v>950.63169744051504</v>
+      </c>
+      <c r="P53" s="51">
+        <v>1428.57732156211</v>
+      </c>
+      <c r="Q53" s="51">
+        <v>1884.6553703575601</v>
+      </c>
+      <c r="R53" s="51">
+        <v>2389.0948356489998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="50"/>
+      <c r="C54" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="51">
+        <f>D52-D53</f>
+        <v>294.24299999999982</v>
+      </c>
+      <c r="E54" s="51">
+        <f t="shared" ref="E54:R54" si="8">E52-E53</f>
+        <v>588.48299999999938</v>
+      </c>
+      <c r="F54" s="51">
+        <f t="shared" si="8"/>
+        <v>882.71500000000003</v>
+      </c>
+      <c r="G54" s="51">
+        <f t="shared" si="8"/>
+        <v>1171.2889999999998</v>
+      </c>
+      <c r="H54" s="51">
+        <f t="shared" si="8"/>
+        <v>1462.6509999999996</v>
+      </c>
+      <c r="I54" s="51">
+        <f t="shared" si="8"/>
+        <v>588.48299999999881</v>
+      </c>
+      <c r="J54" s="51">
+        <f t="shared" si="8"/>
+        <v>1171.2889999999982</v>
+      </c>
+      <c r="K54" s="51">
+        <f t="shared" si="8"/>
+        <v>1753.3689999999999</v>
+      </c>
+      <c r="L54" s="51">
+        <f t="shared" si="8"/>
+        <v>2337.6789999999883</v>
+      </c>
+      <c r="M54" s="51">
+        <f t="shared" si="8"/>
+        <v>2924.0799999999881</v>
+      </c>
+      <c r="N54" s="51">
+        <f t="shared" si="8"/>
+        <v>882.71499999999912</v>
+      </c>
+      <c r="O54" s="51">
+        <f t="shared" si="8"/>
+        <v>1753.3689999999951</v>
+      </c>
+      <c r="P54" s="51">
+        <f t="shared" si="8"/>
+        <v>2629.5639999999985</v>
+      </c>
+      <c r="Q54" s="51">
+        <f t="shared" si="8"/>
+        <v>3507.5969999999988</v>
+      </c>
+      <c r="R54" s="51">
+        <f t="shared" si="8"/>
+        <v>4383.8839999999882</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C55" s="35"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="35"/>
+    </row>
+    <row r="57" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B57" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B36" s="22"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="42" t="s">
+    <row r="58" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B58" s="22"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B59" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="39">
+      <c r="C59" s="45"/>
+      <c r="D59" s="40">
         <v>0.25</v>
       </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="39">
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="40">
         <v>0.5</v>
       </c>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="39">
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="40">
         <v>0.75</v>
       </c>
-      <c r="O37" s="40"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="41"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="42" t="s">
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="42"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="9">
+      <c r="C60" s="44"/>
+      <c r="D60" s="9">
         <v>40</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E60" s="8">
         <v>80</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F60" s="8">
         <v>120</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G60" s="8">
         <v>160</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H60" s="8">
         <v>200</v>
       </c>
-      <c r="I38" s="9">
+      <c r="I60" s="9">
         <v>40</v>
       </c>
-      <c r="J38" s="8">
+      <c r="J60" s="8">
         <v>80</v>
       </c>
-      <c r="K38" s="8">
+      <c r="K60" s="8">
         <v>120</v>
       </c>
-      <c r="L38" s="8">
+      <c r="L60" s="8">
         <v>160</v>
       </c>
-      <c r="M38" s="8">
+      <c r="M60" s="8">
         <v>200</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N60" s="9">
         <v>40</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O60" s="8">
         <v>80</v>
       </c>
-      <c r="P38" s="8">
+      <c r="P60" s="8">
         <v>120</v>
       </c>
-      <c r="Q38" s="8">
+      <c r="Q60" s="8">
         <v>160</v>
       </c>
-      <c r="R38" s="10">
+      <c r="R60" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="37" t="s">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="25" t="s">
+      <c r="C61" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D61" s="19">
         <v>1.7490000000000001</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E61" s="20">
         <v>3.56699999999999</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F61" s="20">
         <v>6.4039999999999901</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G61" s="20">
         <v>10.715999999999999</v>
       </c>
-      <c r="H39" s="21">
+      <c r="H61" s="21">
         <v>12.381</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I61" s="19">
         <v>3.56699999999999</v>
       </c>
-      <c r="J39" s="20">
+      <c r="J61" s="20">
         <v>10.715999999999999</v>
       </c>
-      <c r="K39" s="20">
+      <c r="K61" s="20">
         <v>14.183999999999999</v>
       </c>
-      <c r="L39" s="20">
+      <c r="L61" s="20">
         <v>17.478000000000002</v>
       </c>
-      <c r="M39" s="21">
+      <c r="M61" s="21">
         <v>22.334999999999901</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N61" s="19">
         <v>6.4039999999999901</v>
       </c>
-      <c r="O39" s="20">
+      <c r="O61" s="20">
         <v>14.183999999999999</v>
       </c>
-      <c r="P39" s="20">
+      <c r="P61" s="20">
         <v>20.283999999999999</v>
       </c>
-      <c r="Q39" s="20">
+      <c r="Q61" s="20">
         <v>24.925999999999998</v>
       </c>
-      <c r="R39" s="21">
+      <c r="R61" s="21">
         <v>30.446999999999999</v>
       </c>
     </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="38"/>
-      <c r="C40" s="25" t="s">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B62" s="39"/>
+      <c r="C62" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="26">
+      <c r="D62" s="26">
         <v>221.73400000000001</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E62" s="27">
         <v>516.07500000000005</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F62" s="27">
         <v>751.58199999999999</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G62" s="27">
         <v>1002.05699999999</v>
       </c>
-      <c r="H40" s="27">
+      <c r="H62" s="27">
         <v>1333.7239999999899</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I62" s="26">
         <v>161.07</v>
       </c>
-      <c r="J40" s="27">
+      <c r="J62" s="27">
         <v>372.03</v>
       </c>
-      <c r="K40" s="27">
+      <c r="K62" s="27">
         <v>505.45800000000003</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L62" s="27">
         <v>676.41599999999903</v>
       </c>
-      <c r="M40" s="27">
+      <c r="M62" s="27">
         <v>824.81899999999996</v>
       </c>
-      <c r="N40" s="26">
+      <c r="N62" s="26">
         <v>87.516000000000005</v>
       </c>
-      <c r="O40" s="27">
+      <c r="O62" s="27">
         <v>150.453</v>
       </c>
-      <c r="P40" s="27">
+      <c r="P62" s="27">
         <v>203.19900000000001</v>
       </c>
-      <c r="Q40" s="27">
+      <c r="Q62" s="27">
         <v>357.82</v>
       </c>
-      <c r="R40" s="28">
+      <c r="R62" s="28">
         <v>416.897999999999</v>
       </c>
     </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="44" t="s">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B63" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="29">
+      <c r="C63" s="47"/>
+      <c r="D63" s="29">
         <v>10</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E63" s="30">
         <v>9.5833333333333304</v>
       </c>
-      <c r="F41" s="30">
+      <c r="F63" s="30">
         <v>10.2777777777777</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G63" s="30">
         <v>11.9791666666666</v>
       </c>
-      <c r="H41" s="31">
+      <c r="H63" s="31">
         <v>11.25</v>
       </c>
-      <c r="I41" s="29">
+      <c r="I63" s="29">
         <v>9.5833333333333304</v>
       </c>
-      <c r="J41" s="30">
+      <c r="J63" s="30">
         <v>11.9791666666666</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K63" s="30">
         <v>10.7638888888888</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L63" s="30">
         <v>10.1041666666666</v>
       </c>
-      <c r="M41" s="31">
+      <c r="M63" s="31">
         <v>10.125</v>
       </c>
-      <c r="N41" s="29">
+      <c r="N63" s="29">
         <v>10.2777777777777</v>
       </c>
-      <c r="O41" s="30">
+      <c r="O63" s="30">
         <v>10.7638888888888</v>
       </c>
-      <c r="P41" s="30">
+      <c r="P63" s="30">
         <v>10.2777777777777</v>
       </c>
-      <c r="Q41" s="30">
+      <c r="Q63" s="30">
         <v>9.5833333333333304</v>
       </c>
-      <c r="R41" s="31">
+      <c r="R63" s="31">
         <v>9.4722222222222197</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="37" t="s">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B64" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="25" t="s">
+      <c r="C64" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D64" s="19">
         <v>1.7490000000000001</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E64" s="20">
         <v>3.56699999999999</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F64" s="20">
         <v>6.4039999999999901</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G64" s="20">
         <v>10.715999999999999</v>
       </c>
-      <c r="H42" s="21">
+      <c r="H64" s="21">
         <v>12.381</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I64" s="19">
         <v>3.56699999999999</v>
       </c>
-      <c r="J42" s="20">
+      <c r="J64" s="20">
         <v>10.715999999999999</v>
       </c>
-      <c r="K42" s="20">
+      <c r="K64" s="20">
         <v>14.183999999999999</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L64" s="20">
         <v>17.478000000000002</v>
       </c>
-      <c r="M42" s="21">
+      <c r="M64" s="21">
         <v>22.334999999999901</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N64" s="19">
         <v>6.4039999999999901</v>
       </c>
-      <c r="O42" s="20">
+      <c r="O64" s="20">
         <v>14.183999999999999</v>
       </c>
-      <c r="P42" s="20">
+      <c r="P64" s="20">
         <v>20.283999999999999</v>
       </c>
-      <c r="Q42" s="20">
+      <c r="Q64" s="20">
         <v>24.925999999999998</v>
       </c>
-      <c r="R42" s="21">
+      <c r="R64" s="21">
         <v>30.446999999999999</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="50"/>
-      <c r="C43" s="25" t="s">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B65" s="38"/>
+      <c r="C65" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="32">
-        <v>0</v>
-      </c>
-      <c r="E43" s="18">
-        <v>0</v>
-      </c>
-      <c r="F43" s="18">
-        <v>0</v>
-      </c>
-      <c r="G43" s="18">
-        <v>0</v>
-      </c>
-      <c r="H43" s="33">
-        <v>0</v>
-      </c>
-      <c r="I43" s="18">
-        <v>0</v>
-      </c>
-      <c r="J43" s="18">
-        <v>0</v>
-      </c>
-      <c r="K43" s="18">
-        <v>0</v>
-      </c>
-      <c r="L43" s="18">
-        <v>0</v>
-      </c>
-      <c r="M43" s="33">
-        <v>0</v>
-      </c>
-      <c r="N43" s="18">
-        <v>0</v>
-      </c>
-      <c r="O43" s="18">
-        <v>0</v>
-      </c>
-      <c r="P43" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="18">
-        <v>0</v>
-      </c>
-      <c r="R43" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="38"/>
-      <c r="C44" s="25" t="s">
+      <c r="D65" s="32">
+        <v>0</v>
+      </c>
+      <c r="E65" s="18">
+        <v>0</v>
+      </c>
+      <c r="F65" s="18">
+        <v>0</v>
+      </c>
+      <c r="G65" s="18">
+        <v>0</v>
+      </c>
+      <c r="H65" s="33">
+        <v>0</v>
+      </c>
+      <c r="I65" s="18">
+        <v>0</v>
+      </c>
+      <c r="J65" s="18">
+        <v>0</v>
+      </c>
+      <c r="K65" s="18">
+        <v>0</v>
+      </c>
+      <c r="L65" s="18">
+        <v>0</v>
+      </c>
+      <c r="M65" s="33">
+        <v>0</v>
+      </c>
+      <c r="N65" s="18">
+        <v>0</v>
+      </c>
+      <c r="O65" s="18">
+        <v>0</v>
+      </c>
+      <c r="P65" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="18">
+        <v>0</v>
+      </c>
+      <c r="R65" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B66" s="39"/>
+      <c r="C66" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D66" s="32">
         <v>2.214</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E66" s="18">
         <v>4.4209999999999896</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F66" s="18">
         <v>5.5010000000000003</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G66" s="18">
         <v>7.0799999999999903</v>
       </c>
-      <c r="H44" s="33">
+      <c r="H66" s="33">
         <v>8.1389999999999905</v>
       </c>
-      <c r="I44" s="18">
+      <c r="I66" s="18">
         <v>4.4209999999999896</v>
       </c>
-      <c r="J44" s="18">
+      <c r="J66" s="18">
         <v>7.0799999999999903</v>
       </c>
-      <c r="K44" s="18">
+      <c r="K66" s="18">
         <v>10.041</v>
       </c>
-      <c r="L44" s="18">
+      <c r="L66" s="18">
         <v>12.598000000000001</v>
       </c>
-      <c r="M44" s="33">
+      <c r="M66" s="33">
         <v>16.111999999999998</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N66" s="18">
         <v>5.5010000000000003</v>
       </c>
-      <c r="O44" s="18">
+      <c r="O66" s="18">
         <v>10.041</v>
       </c>
-      <c r="P44" s="18">
+      <c r="P66" s="18">
         <v>15.157</v>
       </c>
-      <c r="Q44" s="18">
+      <c r="Q66" s="18">
         <v>19.177</v>
       </c>
-      <c r="R44" s="33">
+      <c r="R66" s="33">
         <v>24.221</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="37" t="s">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B67" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C67" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D67" s="32">
         <v>4.1120000000000001</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E67" s="18">
         <v>9.0299999999999905</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F67" s="18">
         <v>12.780999999999899</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G67" s="18">
         <v>16.477</v>
       </c>
-      <c r="H45" s="33">
+      <c r="H67" s="33">
         <v>22.358000000000001</v>
       </c>
-      <c r="I45" s="32">
+      <c r="I67" s="32">
         <v>9.0299999999999905</v>
       </c>
-      <c r="J45" s="18">
+      <c r="J67" s="18">
         <v>16.477</v>
       </c>
-      <c r="K45" s="18">
+      <c r="K67" s="18">
         <v>27.227</v>
       </c>
-      <c r="L45" s="18">
+      <c r="L67" s="18">
         <v>38.7779999999998</v>
       </c>
-      <c r="M45" s="33">
+      <c r="M67" s="33">
         <v>46.946999999999797</v>
       </c>
-      <c r="N45" s="32">
+      <c r="N67" s="32">
         <v>12.780999999999899</v>
       </c>
-      <c r="O45" s="18">
+      <c r="O67" s="18">
         <v>27.227</v>
       </c>
-      <c r="P45" s="18">
+      <c r="P67" s="18">
         <v>41.9669999999998</v>
       </c>
-      <c r="Q45" s="18">
+      <c r="Q67" s="18">
         <v>60.550999999999803</v>
       </c>
-      <c r="R45" s="33">
+      <c r="R67" s="33">
         <v>73.428000000000296</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="38"/>
-      <c r="C46" s="23" t="s">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B68" s="39"/>
+      <c r="C68" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="26">
+      <c r="D68" s="26">
         <v>99.1039999999999</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E68" s="27">
         <v>168.33099999999999</v>
       </c>
-      <c r="F46" s="27">
+      <c r="F68" s="27">
         <v>293.64800000000002</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G68" s="27">
         <v>347.63200000000001</v>
       </c>
-      <c r="H46" s="27">
+      <c r="H68" s="27">
         <v>431.16699999999997</v>
       </c>
-      <c r="I46" s="26">
+      <c r="I68" s="26">
         <v>168.33099999999999</v>
       </c>
-      <c r="J46" s="27">
+      <c r="J68" s="27">
         <v>347.63200000000001</v>
       </c>
-      <c r="K46" s="27">
+      <c r="K68" s="27">
         <v>516.73800000000006</v>
       </c>
-      <c r="L46" s="27">
+      <c r="L68" s="27">
         <v>724.62499999999795</v>
       </c>
-      <c r="M46" s="27">
+      <c r="M68" s="27">
         <v>903.57199999999705</v>
       </c>
-      <c r="N46" s="26">
+      <c r="N68" s="26">
         <v>293.64800000000002</v>
       </c>
-      <c r="O46" s="27">
+      <c r="O68" s="27">
         <v>516.73800000000006</v>
       </c>
-      <c r="P46" s="27">
+      <c r="P68" s="27">
         <v>799.92199999999696</v>
       </c>
-      <c r="Q46" s="27">
+      <c r="Q68" s="27">
         <v>1065.77699999999</v>
       </c>
-      <c r="R46" s="28">
+      <c r="R68" s="28">
         <v>1324.3039999999901</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="51"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="49"/>
-      <c r="P47" s="49"/>
-      <c r="Q47" s="49"/>
-      <c r="R47" s="49"/>
-    </row>
-    <row r="49" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B49" s="22" t="s">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B69" s="34"/>
+      <c r="C69" s="35"/>
+    </row>
+    <row r="71" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B71" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B50" s="22"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="42" t="s">
+    <row r="72" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B72" s="22"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B73" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="39">
+      <c r="C73" s="45"/>
+      <c r="D73" s="40">
         <v>0.25</v>
       </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="39">
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="40">
         <v>0.5</v>
       </c>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="39">
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="40">
         <v>0.75</v>
       </c>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="41"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="42" t="s">
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="42"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B74" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="43"/>
-      <c r="D52" s="9">
+      <c r="C74" s="44"/>
+      <c r="D74" s="9">
         <v>40</v>
       </c>
-      <c r="E52" s="8">
+      <c r="E74" s="8">
         <v>80</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F74" s="8">
         <v>120</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G74" s="8">
         <v>160</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H74" s="8">
         <v>200</v>
       </c>
-      <c r="I52" s="9">
+      <c r="I74" s="9">
         <v>40</v>
       </c>
-      <c r="J52" s="8">
+      <c r="J74" s="8">
         <v>80</v>
       </c>
-      <c r="K52" s="8">
+      <c r="K74" s="8">
         <v>120</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L74" s="8">
         <v>160</v>
       </c>
-      <c r="M52" s="8">
+      <c r="M74" s="8">
         <v>200</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N74" s="9">
         <v>40</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O74" s="8">
         <v>80</v>
       </c>
-      <c r="P52" s="8">
+      <c r="P74" s="8">
         <v>120</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="Q74" s="8">
         <v>160</v>
       </c>
-      <c r="R52" s="10">
+      <c r="R74" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="37" t="s">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B75" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C75" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D75" s="19">
         <v>1.7490000000000001</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E75" s="20">
         <v>3.56699999999999</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F75" s="20">
         <v>6.4039999999999901</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G75" s="20">
         <v>10.715999999999999</v>
       </c>
-      <c r="H53" s="21">
+      <c r="H75" s="21">
         <v>12.381</v>
       </c>
-      <c r="I53" s="19">
+      <c r="I75" s="19">
         <v>19.103584330537</v>
       </c>
-      <c r="J53" s="20">
+      <c r="J75" s="20">
         <v>14.3829984784243</v>
       </c>
-      <c r="K53" s="20">
+      <c r="K75" s="20">
         <v>56.964458761560202</v>
       </c>
-      <c r="L53" s="20">
+      <c r="L75" s="20">
         <v>47.871017881518299</v>
       </c>
-      <c r="M53" s="21">
+      <c r="M75" s="21">
         <v>60.226328751667999</v>
       </c>
-      <c r="N53" s="19">
+      <c r="N75" s="19">
         <v>93.92</v>
       </c>
-      <c r="O53" s="20">
+      <c r="O75" s="20">
         <v>164.637</v>
       </c>
-      <c r="P53" s="20">
+      <c r="P75" s="20">
         <v>223.483</v>
       </c>
-      <c r="Q53" s="20">
+      <c r="Q75" s="20">
         <v>382.74599999999998</v>
       </c>
-      <c r="R53" s="21">
+      <c r="R75" s="21">
         <v>447.344999999999</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="38"/>
-      <c r="C54" s="25" t="s">
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B76" s="39"/>
+      <c r="C76" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="26">
+      <c r="D76" s="26">
         <v>221.73400000000001</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E76" s="27">
         <v>516.07500000000005</v>
       </c>
-      <c r="F54" s="27">
+      <c r="F76" s="27">
         <v>751.58199999999999</v>
       </c>
-      <c r="G54" s="27">
+      <c r="G76" s="27">
         <v>1002.05699999999</v>
       </c>
-      <c r="H54" s="27">
+      <c r="H76" s="27">
         <v>1333.7239999999899</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I76" s="26">
         <v>145.53341566946301</v>
       </c>
-      <c r="J54" s="27">
+      <c r="J76" s="27">
         <v>368.36300152157497</v>
       </c>
-      <c r="K54" s="27">
+      <c r="K76" s="27">
         <v>462.67754123843901</v>
       </c>
-      <c r="L54" s="27">
+      <c r="L76" s="27">
         <v>646.02298211848097</v>
       </c>
-      <c r="M54" s="27">
+      <c r="M76" s="27">
         <v>786.92767124833199</v>
       </c>
-      <c r="N54" s="26">
-        <v>0</v>
-      </c>
-      <c r="O54" s="27">
-        <v>0</v>
-      </c>
-      <c r="P54" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="27">
-        <v>0</v>
-      </c>
-      <c r="R54" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="44" t="s">
+      <c r="N76" s="26">
+        <v>0</v>
+      </c>
+      <c r="O76" s="27">
+        <v>0</v>
+      </c>
+      <c r="P76" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="27">
+        <v>0</v>
+      </c>
+      <c r="R76" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B77" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="29">
+      <c r="C77" s="47"/>
+      <c r="D77" s="29">
         <v>10</v>
       </c>
-      <c r="E55" s="30">
+      <c r="E77" s="30">
         <v>9.5833333333333304</v>
       </c>
-      <c r="F55" s="30">
+      <c r="F77" s="30">
         <v>10.2777777777777</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G77" s="30">
         <v>11.9791666666666</v>
       </c>
-      <c r="H55" s="31">
+      <c r="H77" s="31">
         <v>11.25</v>
       </c>
-      <c r="I55" s="29">
+      <c r="I77" s="29">
         <v>30</v>
       </c>
-      <c r="J55" s="30">
+      <c r="J77" s="30">
         <v>14.4791666666666</v>
       </c>
-      <c r="K55" s="30">
+      <c r="K77" s="30">
         <v>24.7222222222222</v>
       </c>
-      <c r="L55" s="30">
+      <c r="L77" s="30">
         <v>17.96875</v>
       </c>
-      <c r="M55" s="31">
+      <c r="M77" s="31">
         <v>18.25</v>
       </c>
-      <c r="N55" s="29">
+      <c r="N77" s="29">
         <v>77.0833333333333</v>
       </c>
-      <c r="O55" s="30">
+      <c r="O77" s="30">
         <v>78.8194444444444</v>
       </c>
-      <c r="P55" s="30">
+      <c r="P77" s="30">
         <v>80.324074074074005</v>
       </c>
-      <c r="Q55" s="30">
+      <c r="Q77" s="30">
         <v>76.6319444444444</v>
       </c>
-      <c r="R55" s="31">
+      <c r="R77" s="31">
         <v>77.2777777777777</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="37" t="s">
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B78" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C78" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="19">
+      <c r="D78" s="19">
         <v>1.7490000000000001</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E78" s="20">
         <v>3.56699999999999</v>
       </c>
-      <c r="F56" s="20">
+      <c r="F78" s="20">
         <v>6.4039999999999901</v>
       </c>
-      <c r="G56" s="20">
+      <c r="G78" s="20">
         <v>10.715999999999999</v>
       </c>
-      <c r="H56" s="21">
+      <c r="H78" s="21">
         <v>12.381</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I78" s="19">
         <v>19.103584330537</v>
       </c>
-      <c r="J56" s="20">
+      <c r="J78" s="20">
         <v>14.3829984784243</v>
       </c>
-      <c r="K56" s="20">
+      <c r="K78" s="20">
         <v>56.964458761560202</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L78" s="20">
         <v>47.871017881518299</v>
       </c>
-      <c r="M56" s="21">
+      <c r="M78" s="21">
         <v>60.226328751667999</v>
       </c>
-      <c r="N56" s="19">
+      <c r="N78" s="19">
         <v>93.92</v>
       </c>
-      <c r="O56" s="20">
+      <c r="O78" s="20">
         <v>164.637</v>
       </c>
-      <c r="P56" s="20">
+      <c r="P78" s="20">
         <v>223.483</v>
       </c>
-      <c r="Q56" s="20">
+      <c r="Q78" s="20">
         <v>382.74599999999998</v>
       </c>
-      <c r="R56" s="21">
+      <c r="R78" s="21">
         <v>447.344999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="50"/>
-      <c r="C57" s="25" t="s">
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B79" s="38"/>
+      <c r="C79" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="32">
-        <v>0</v>
-      </c>
-      <c r="E57" s="18">
-        <v>0</v>
-      </c>
-      <c r="F57" s="18">
-        <v>0</v>
-      </c>
-      <c r="G57" s="18">
-        <v>0</v>
-      </c>
-      <c r="H57" s="33">
-        <v>0</v>
-      </c>
-      <c r="I57" s="18">
-        <v>0</v>
-      </c>
-      <c r="J57" s="18">
-        <v>0</v>
-      </c>
-      <c r="K57" s="18">
-        <v>0</v>
-      </c>
-      <c r="L57" s="18">
-        <v>0</v>
-      </c>
-      <c r="M57" s="33">
-        <v>0</v>
-      </c>
-      <c r="N57" s="18">
-        <v>0</v>
-      </c>
-      <c r="O57" s="18">
-        <v>0</v>
-      </c>
-      <c r="P57" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="18">
-        <v>0</v>
-      </c>
-      <c r="R57" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="38"/>
-      <c r="C58" s="25" t="s">
+      <c r="D79" s="32">
+        <v>0</v>
+      </c>
+      <c r="E79" s="18">
+        <v>0</v>
+      </c>
+      <c r="F79" s="18">
+        <v>0</v>
+      </c>
+      <c r="G79" s="18">
+        <v>0</v>
+      </c>
+      <c r="H79" s="33">
+        <v>0</v>
+      </c>
+      <c r="I79" s="18">
+        <v>0</v>
+      </c>
+      <c r="J79" s="18">
+        <v>0</v>
+      </c>
+      <c r="K79" s="18">
+        <v>0</v>
+      </c>
+      <c r="L79" s="18">
+        <v>0</v>
+      </c>
+      <c r="M79" s="33">
+        <v>0</v>
+      </c>
+      <c r="N79" s="18">
+        <v>0</v>
+      </c>
+      <c r="O79" s="18">
+        <v>0</v>
+      </c>
+      <c r="P79" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q79" s="18">
+        <v>0</v>
+      </c>
+      <c r="R79" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B80" s="39"/>
+      <c r="C80" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D58" s="32">
+      <c r="D80" s="32">
         <v>2.214</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E80" s="18">
         <v>4.4209999999999896</v>
       </c>
-      <c r="F58" s="49">
+      <c r="F80" s="18">
         <v>5.5010000000000003</v>
       </c>
-      <c r="G58" s="49">
+      <c r="G80" s="18">
         <v>7.0799999999999903</v>
       </c>
-      <c r="H58" s="49">
+      <c r="H80" s="18">
         <v>8.1389999999999905</v>
       </c>
-      <c r="I58" s="32">
+      <c r="I80" s="32">
         <v>15.0899999999999</v>
       </c>
-      <c r="J58" s="49">
+      <c r="J80" s="18">
         <v>7.9999999999999902</v>
       </c>
-      <c r="K58" s="49">
+      <c r="K80" s="18">
         <v>25.02</v>
       </c>
-      <c r="L58" s="49">
+      <c r="L80" s="18">
         <v>21.771999999999998</v>
       </c>
-      <c r="M58" s="49">
+      <c r="M80" s="18">
         <v>28.196000000000002</v>
       </c>
-      <c r="N58" s="32">
+      <c r="N80" s="32">
         <v>138.71100000000001</v>
       </c>
-      <c r="O58" s="49">
+      <c r="O80" s="18">
         <v>273.73099999999999</v>
       </c>
-      <c r="P58" s="49">
+      <c r="P80" s="18">
         <v>467.86599999999902</v>
       </c>
-      <c r="Q58" s="49">
+      <c r="Q80" s="18">
         <v>579.83099999999797</v>
       </c>
-      <c r="R58" s="33">
+      <c r="R80" s="33">
         <v>733.05399999999804</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="37" t="s">
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B81" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C81" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="19">
+      <c r="D81" s="19">
         <v>4.1120000000000001</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E81" s="20">
         <v>9.0299999999999905</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F81" s="20">
         <v>12.780999999999899</v>
       </c>
-      <c r="G59" s="20">
+      <c r="G81" s="20">
         <v>16.477</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H81" s="21">
         <v>22.358000000000001</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I81" s="19">
         <v>9.0299999999999905</v>
       </c>
-      <c r="J59" s="20">
+      <c r="J81" s="20">
         <v>16.477</v>
       </c>
-      <c r="K59" s="20">
+      <c r="K81" s="20">
         <v>27.227</v>
       </c>
-      <c r="L59" s="20">
+      <c r="L81" s="20">
         <v>38.7779999999998</v>
       </c>
-      <c r="M59" s="21">
+      <c r="M81" s="21">
         <v>46.946999999999797</v>
       </c>
-      <c r="N59" s="19">
+      <c r="N81" s="19">
         <v>12.780999999999899</v>
       </c>
-      <c r="O59" s="20">
+      <c r="O81" s="20">
         <v>27.227</v>
       </c>
-      <c r="P59" s="20">
+      <c r="P81" s="20">
         <v>41.9669999999998</v>
       </c>
-      <c r="Q59" s="20">
+      <c r="Q81" s="20">
         <v>60.550999999999803</v>
       </c>
-      <c r="R59" s="21">
+      <c r="R81" s="21">
         <v>73.428000000000296</v>
       </c>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="38"/>
-      <c r="C60" s="23" t="s">
+    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B82" s="39"/>
+      <c r="C82" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="26">
+      <c r="D82" s="26">
         <v>99.1039999999999</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E82" s="27">
         <v>168.33099999999999</v>
       </c>
-      <c r="F60" s="27">
+      <c r="F82" s="27">
         <v>293.64800000000002</v>
       </c>
-      <c r="G60" s="27">
+      <c r="G82" s="27">
         <v>347.63200000000001</v>
       </c>
-      <c r="H60" s="27">
+      <c r="H82" s="27">
         <v>431.16699999999997</v>
       </c>
-      <c r="I60" s="26">
+      <c r="I82" s="26">
         <v>155.63681687514099</v>
       </c>
-      <c r="J60" s="27">
+      <c r="J82" s="27">
         <v>346.29825765486902</v>
       </c>
-      <c r="K60" s="27">
+      <c r="K82" s="27">
         <v>499.66858048131297</v>
       </c>
-      <c r="L60" s="27">
+      <c r="L82" s="27">
         <v>714.09191197796599</v>
       </c>
-      <c r="M60" s="27">
+      <c r="M82" s="27">
         <v>889.60333254948898</v>
       </c>
-      <c r="N60" s="26">
+      <c r="N82" s="26">
         <v>167.021689247745</v>
       </c>
-      <c r="O60" s="27">
+      <c r="O82" s="27">
         <v>264.35457227700499</v>
       </c>
-      <c r="P60" s="27">
+      <c r="P82" s="27">
         <v>362.45430710022401</v>
       </c>
-      <c r="Q60" s="27">
+      <c r="Q82" s="27">
         <v>525.11334178795403</v>
       </c>
-      <c r="R60" s="28">
+      <c r="R82" s="28">
         <v>635.58185538391797</v>
       </c>
     </row>
-    <row r="62" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B62" s="22" t="s">
+    <row r="84" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B84" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B63" s="22"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="42" t="s">
+    <row r="85" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B85" s="22"/>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B86" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="46"/>
-      <c r="D64" s="39">
+      <c r="C86" s="45"/>
+      <c r="D86" s="40">
         <v>0.25</v>
       </c>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="39">
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="40">
         <v>0.5</v>
       </c>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="39">
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="40">
         <v>0.75</v>
       </c>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="41"/>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="42" t="s">
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="42"/>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B87" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="9">
+      <c r="C87" s="44"/>
+      <c r="D87" s="9">
         <v>40</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E87" s="8">
         <v>80</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F87" s="8">
         <v>120</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G87" s="8">
         <v>160</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H87" s="8">
         <v>200</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I87" s="9">
         <v>40</v>
       </c>
-      <c r="J65" s="8">
+      <c r="J87" s="8">
         <v>80</v>
       </c>
-      <c r="K65" s="8">
+      <c r="K87" s="8">
         <v>120</v>
       </c>
-      <c r="L65" s="8">
+      <c r="L87" s="8">
         <v>160</v>
       </c>
-      <c r="M65" s="8">
+      <c r="M87" s="8">
         <v>200</v>
       </c>
-      <c r="N65" s="9">
+      <c r="N87" s="9">
         <v>40</v>
       </c>
-      <c r="O65" s="8">
+      <c r="O87" s="8">
         <v>80</v>
       </c>
-      <c r="P65" s="8">
+      <c r="P87" s="8">
         <v>120</v>
       </c>
-      <c r="Q65" s="8">
+      <c r="Q87" s="8">
         <v>160</v>
       </c>
-      <c r="R65" s="10">
+      <c r="R87" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="37" t="s">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B88" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C88" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D88" s="19">
         <v>3004.4209999999998</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E88" s="20">
         <v>6117.7249999999904</v>
       </c>
-      <c r="F66" s="20">
+      <c r="F88" s="20">
         <v>8760.58499999999</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G88" s="20">
         <v>11889.558000000001</v>
       </c>
-      <c r="H66" s="21">
+      <c r="H88" s="21">
         <v>14966.8029999999</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I88" s="19">
         <v>2411.5359999999901</v>
       </c>
-      <c r="J66" s="20">
+      <c r="J88" s="20">
         <v>4916.8629999999903</v>
       </c>
-      <c r="K66" s="20">
+      <c r="K88" s="20">
         <v>7086.0319999999901</v>
       </c>
-      <c r="L66" s="20">
+      <c r="L88" s="20">
         <v>9383.6909999999898</v>
       </c>
-      <c r="M66" s="21">
+      <c r="M88" s="21">
         <v>11421.428</v>
       </c>
-      <c r="N66" s="19">
+      <c r="N88" s="19">
         <v>1425.81699999999</v>
       </c>
-      <c r="O66" s="20">
+      <c r="O88" s="20">
         <v>2588.4809999999902</v>
       </c>
-      <c r="P66" s="20">
+      <c r="P88" s="20">
         <v>3726.2750000000001</v>
       </c>
-      <c r="Q66" s="20">
+      <c r="Q88" s="20">
         <v>5239.3299999999899</v>
       </c>
-      <c r="R66" s="21">
+      <c r="R88" s="21">
         <v>6354.0019999999904</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="38"/>
-      <c r="C67" s="25" t="s">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B89" s="39"/>
+      <c r="C89" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="26">
+      <c r="D89" s="26">
         <v>3958.4920000000002</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E89" s="27">
         <v>8117.5689999999904</v>
       </c>
-      <c r="F67" s="27">
+      <c r="F89" s="27">
         <v>11706.114</v>
       </c>
-      <c r="G67" s="27">
+      <c r="G89" s="27">
         <v>15729.368</v>
       </c>
-      <c r="H67" s="27">
+      <c r="H89" s="27">
         <v>20309.229999999901</v>
       </c>
-      <c r="I67" s="26">
+      <c r="I89" s="26">
         <v>2294.6169999999902</v>
       </c>
-      <c r="J67" s="27">
+      <c r="J89" s="27">
         <v>5008.4160000000002</v>
       </c>
-      <c r="K67" s="27">
+      <c r="K89" s="27">
         <v>7149.2619999999997</v>
       </c>
-      <c r="L67" s="27">
+      <c r="L89" s="27">
         <v>9463.3510000000097</v>
       </c>
-      <c r="M67" s="27">
+      <c r="M89" s="27">
         <v>11532.6619999999</v>
       </c>
-      <c r="N67" s="26">
+      <c r="N89" s="26">
         <v>1214.354</v>
       </c>
-      <c r="O67" s="27">
+      <c r="O89" s="27">
         <v>2117.67199999999</v>
       </c>
-      <c r="P67" s="27">
+      <c r="P89" s="27">
         <v>3236.6379999999999</v>
       </c>
-      <c r="Q67" s="27">
+      <c r="Q89" s="27">
         <v>4685.9489999999996</v>
       </c>
-      <c r="R67" s="28">
+      <c r="R89" s="28">
         <v>5710.0720000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="44" t="s">
+    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B90" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C68" s="45"/>
-      <c r="D68" s="29">
+      <c r="C90" s="47"/>
+      <c r="D90" s="29">
         <v>45.464333781965003</v>
       </c>
-      <c r="E68" s="30">
+      <c r="E90" s="30">
         <v>45.8613728129205</v>
       </c>
-      <c r="F68" s="30">
+      <c r="F90" s="30">
         <v>44.674742036787798</v>
       </c>
-      <c r="G68" s="30">
+      <c r="G90" s="30">
         <v>45.511440107671604</v>
       </c>
-      <c r="H68" s="31">
+      <c r="H90" s="31">
         <v>45.596231493943399</v>
       </c>
-      <c r="I68" s="29">
+      <c r="I90" s="29">
         <v>45.8613728129205</v>
       </c>
-      <c r="J68" s="30">
+      <c r="J90" s="30">
         <v>45.511440107671604</v>
       </c>
-      <c r="K68" s="30">
+      <c r="K90" s="30">
         <v>45.760430686406401</v>
       </c>
-      <c r="L68" s="30">
+      <c r="L90" s="30">
         <v>45.662853297442801</v>
       </c>
-      <c r="M68" s="31">
+      <c r="M90" s="31">
         <v>45.705248990578703</v>
       </c>
-      <c r="N68" s="29">
+      <c r="N90" s="29">
         <v>44.674742036787798</v>
       </c>
-      <c r="O68" s="30">
+      <c r="O90" s="30">
         <v>45.760430686406401</v>
       </c>
-      <c r="P68" s="30">
+      <c r="P90" s="30">
         <v>45.826229998504502</v>
       </c>
-      <c r="Q68" s="30">
+      <c r="Q90" s="30">
         <v>45.633692238671998</v>
       </c>
-      <c r="R68" s="31">
+      <c r="R90" s="31">
         <v>45.797218483624903</v>
       </c>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="37" t="s">
+    <row r="91" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B91" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C69" s="25" t="s">
+      <c r="C91" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="19">
+      <c r="D91" s="19">
         <v>3004.4209999999998</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E91" s="20">
         <v>6117.7249999999904</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F91" s="20">
         <v>8760.58499999999</v>
       </c>
-      <c r="G69" s="20">
+      <c r="G91" s="20">
         <v>11889.558000000001</v>
       </c>
-      <c r="H69" s="21">
+      <c r="H91" s="21">
         <v>14966.8029999999</v>
       </c>
-      <c r="I69" s="19">
+      <c r="I91" s="19">
         <v>2411.5359999999901</v>
       </c>
-      <c r="J69" s="20">
+      <c r="J91" s="20">
         <v>4916.8629999999903</v>
       </c>
-      <c r="K69" s="20">
+      <c r="K91" s="20">
         <v>7086.0319999999801</v>
       </c>
-      <c r="L69" s="20">
+      <c r="L91" s="20">
         <v>9383.6910000000007</v>
       </c>
-      <c r="M69" s="21">
+      <c r="M91" s="21">
         <v>11421.428</v>
       </c>
-      <c r="N69" s="19">
+      <c r="N91" s="19">
         <v>1425.817</v>
       </c>
-      <c r="O69" s="20">
+      <c r="O91" s="20">
         <v>2588.4809999999902</v>
       </c>
-      <c r="P69" s="20">
+      <c r="P91" s="20">
         <v>3726.2750000000001</v>
       </c>
-      <c r="Q69" s="20">
+      <c r="Q91" s="20">
         <v>5239.3299999999899</v>
       </c>
-      <c r="R69" s="21">
+      <c r="R91" s="21">
         <v>6354.0019999999904</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="50"/>
-      <c r="C70" s="25" t="s">
+    <row r="92" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B92" s="38"/>
+      <c r="C92" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D70" s="26">
+      <c r="D92" s="26">
         <v>1996.89399999999</v>
       </c>
-      <c r="E70" s="27">
+      <c r="E92" s="27">
         <v>4187.6409999999896</v>
       </c>
-      <c r="F70" s="27">
+      <c r="F92" s="27">
         <v>6057.6900000000096</v>
       </c>
-      <c r="G70" s="27">
+      <c r="G92" s="27">
         <v>8282.9299999999894</v>
       </c>
-      <c r="H70" s="27">
+      <c r="H92" s="27">
         <v>10395.513999999999</v>
       </c>
-      <c r="I70" s="26">
+      <c r="I92" s="26">
         <v>7893.8299999999899</v>
       </c>
-      <c r="J70" s="27">
+      <c r="J92" s="27">
         <v>15255.625</v>
       </c>
-      <c r="K70" s="27">
+      <c r="K92" s="27">
         <v>23387.566999999999</v>
       </c>
-      <c r="L70" s="27">
+      <c r="L92" s="27">
         <v>30907.7239999999</v>
       </c>
-      <c r="M70" s="27">
+      <c r="M92" s="27">
         <v>39006.135000000002</v>
       </c>
-      <c r="N70" s="26">
+      <c r="N92" s="26">
         <v>13392.458000000001</v>
       </c>
-      <c r="O70" s="27">
+      <c r="O92" s="27">
         <v>27885.117999999999</v>
       </c>
-      <c r="P70" s="27">
+      <c r="P92" s="27">
         <v>41847.157999999901</v>
       </c>
-      <c r="Q70" s="27">
+      <c r="Q92" s="27">
         <v>55185.131999999903</v>
       </c>
-      <c r="R70" s="28">
+      <c r="R92" s="28">
         <v>69848.159999999902</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="38"/>
-      <c r="C71" s="25" t="s">
+    <row r="93" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B93" s="39"/>
+      <c r="C93" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="32">
+      <c r="D93" s="32">
         <v>923.17700000000104</v>
       </c>
-      <c r="E71" s="49">
+      <c r="E93" s="18">
         <v>1632.8589999999899</v>
       </c>
-      <c r="F71" s="49">
+      <c r="F93" s="18">
         <v>2870.2179999999898</v>
       </c>
-      <c r="G71" s="49">
+      <c r="G93" s="18">
         <v>3503.6889999999898</v>
       </c>
-      <c r="H71" s="49">
+      <c r="H93" s="18">
         <v>4301.9760000000197</v>
       </c>
-      <c r="I71" s="32">
+      <c r="I93" s="32">
         <v>1632.8589999999899</v>
       </c>
-      <c r="J71" s="49">
+      <c r="J93" s="18">
         <v>3503.6889999999898</v>
       </c>
-      <c r="K71" s="49">
+      <c r="K93" s="18">
         <v>5205.1689999999999</v>
       </c>
-      <c r="L71" s="49">
+      <c r="L93" s="18">
         <v>7211.9930000000004</v>
       </c>
-      <c r="M71" s="49">
+      <c r="M93" s="18">
         <v>9027.8719999999394</v>
       </c>
-      <c r="N71" s="32">
+      <c r="N93" s="32">
         <v>2870.2179999999898</v>
       </c>
-      <c r="O71" s="49">
+      <c r="O93" s="18">
         <v>5205.1689999999999</v>
       </c>
-      <c r="P71" s="49">
+      <c r="P93" s="18">
         <v>7947.6309999999703</v>
       </c>
-      <c r="Q71" s="49">
+      <c r="Q93" s="18">
         <v>10841.788999999901</v>
       </c>
-      <c r="R71" s="33">
+      <c r="R93" s="33">
         <v>13189.684999999899</v>
       </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="37" t="s">
+    <row r="94" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B94" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C94" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D72" s="19">
+      <c r="D94" s="19">
         <v>197.34800000000001</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E94" s="20">
         <v>294.84099999999899</v>
       </c>
-      <c r="F72" s="20">
+      <c r="F94" s="20">
         <v>714.03799999999706</v>
       </c>
-      <c r="G72" s="20">
+      <c r="G94" s="20">
         <v>819.747999999998</v>
       </c>
-      <c r="H72" s="21">
+      <c r="H94" s="21">
         <v>973.98299999999904</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I94" s="19">
         <v>294.84099999999899</v>
       </c>
-      <c r="J72" s="20">
+      <c r="J94" s="20">
         <v>819.747999999998</v>
       </c>
-      <c r="K72" s="20">
+      <c r="K94" s="20">
         <v>1088.3499999999899</v>
       </c>
-      <c r="L72" s="20">
+      <c r="L94" s="20">
         <v>1498.3119999999999</v>
       </c>
-      <c r="M72" s="21">
+      <c r="M94" s="21">
         <v>1825.0059999999901</v>
       </c>
-      <c r="N72" s="19">
+      <c r="N94" s="19">
         <v>714.03799999999706</v>
       </c>
-      <c r="O72" s="20">
+      <c r="O94" s="20">
         <v>1088.3499999999899</v>
       </c>
-      <c r="P72" s="20">
+      <c r="P94" s="20">
         <v>1609.662</v>
       </c>
-      <c r="Q72" s="20">
+      <c r="Q94" s="20">
         <v>2215.8119999999899</v>
       </c>
-      <c r="R72" s="21">
+      <c r="R94" s="21">
         <v>2569.5189999999502</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="38"/>
-      <c r="C73" s="23" t="s">
+    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B95" s="39"/>
+      <c r="C95" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="26">
+      <c r="D95" s="26">
         <v>1050.328</v>
       </c>
-      <c r="E73" s="27">
+      <c r="E95" s="27">
         <v>2029.44</v>
       </c>
-      <c r="F73" s="27">
+      <c r="F95" s="27">
         <v>3577.0139999999801</v>
       </c>
-      <c r="G73" s="27">
+      <c r="G95" s="27">
         <v>4397.6309999999903</v>
       </c>
-      <c r="H73" s="27">
+      <c r="H95" s="27">
         <v>5507.3869999999697</v>
       </c>
-      <c r="I73" s="26">
+      <c r="I95" s="26">
         <v>2029.44</v>
       </c>
-      <c r="J73" s="27">
+      <c r="J95" s="27">
         <v>4397.6309999999903</v>
       </c>
-      <c r="K73" s="27">
+      <c r="K95" s="27">
         <v>6546.6169999999402</v>
       </c>
-      <c r="L73" s="27">
+      <c r="L95" s="27">
         <v>8959.9209999999803</v>
       </c>
-      <c r="M73" s="27">
+      <c r="M95" s="27">
         <v>11203.2920000001</v>
       </c>
-      <c r="N73" s="26">
+      <c r="N95" s="26">
         <v>3577.0139999999801</v>
       </c>
-      <c r="O73" s="27">
+      <c r="O95" s="27">
         <v>6546.6169999999402</v>
       </c>
-      <c r="P73" s="27">
+      <c r="P95" s="27">
         <v>9935.4920000000093</v>
       </c>
-      <c r="Q73" s="27">
+      <c r="Q95" s="27">
         <v>13564.1050000001</v>
       </c>
-      <c r="R73" s="28">
+      <c r="R95" s="28">
         <v>16554.8560000002</v>
       </c>
     </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="51"/>
-      <c r="C74" s="52"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="49"/>
-    </row>
-    <row r="76" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B76" s="22" t="s">
+    <row r="96" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B96" s="34"/>
+      <c r="C96" s="35"/>
+    </row>
+    <row r="98" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B98" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B77" s="22"/>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="42" t="s">
+    <row r="99" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B99" s="22"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B100" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="46"/>
-      <c r="D78" s="39">
+      <c r="C100" s="45"/>
+      <c r="D100" s="40">
         <v>0.25</v>
       </c>
-      <c r="E78" s="40"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="39">
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="40">
         <v>0.5</v>
       </c>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="40"/>
-      <c r="N78" s="39">
+      <c r="J100" s="41"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="41"/>
+      <c r="M100" s="41"/>
+      <c r="N100" s="40">
         <v>0.75</v>
       </c>
-      <c r="O78" s="40"/>
-      <c r="P78" s="40"/>
-      <c r="Q78" s="40"/>
-      <c r="R78" s="41"/>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="42" t="s">
+      <c r="O100" s="41"/>
+      <c r="P100" s="41"/>
+      <c r="Q100" s="41"/>
+      <c r="R100" s="42"/>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B101" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="43"/>
-      <c r="D79" s="9">
+      <c r="C101" s="44"/>
+      <c r="D101" s="9">
         <v>40</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E101" s="8">
         <v>80</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F101" s="8">
         <v>120</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G101" s="8">
         <v>160</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H101" s="8">
         <v>200</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I101" s="9">
         <v>40</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J101" s="8">
         <v>80</v>
       </c>
-      <c r="K79" s="8">
+      <c r="K101" s="8">
         <v>120</v>
       </c>
-      <c r="L79" s="8">
+      <c r="L101" s="8">
         <v>160</v>
       </c>
-      <c r="M79" s="8">
+      <c r="M101" s="8">
         <v>200</v>
       </c>
-      <c r="N79" s="9">
+      <c r="N101" s="9">
         <v>40</v>
       </c>
-      <c r="O79" s="8">
+      <c r="O101" s="8">
         <v>80</v>
       </c>
-      <c r="P79" s="8">
+      <c r="P101" s="8">
         <v>120</v>
       </c>
-      <c r="Q79" s="8">
+      <c r="Q101" s="8">
         <v>160</v>
       </c>
-      <c r="R79" s="10">
+      <c r="R101" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="37" t="s">
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B102" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="25" t="s">
+      <c r="C102" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="19">
+      <c r="D102" s="19">
         <v>4631.1040494006102</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E102" s="20">
         <v>9510.7632997789206</v>
       </c>
-      <c r="F80" s="20">
+      <c r="F102" s="20">
         <v>13529.718920310899</v>
       </c>
-      <c r="G80" s="20">
+      <c r="G102" s="20">
         <v>18495.4201824624</v>
       </c>
-      <c r="H80" s="21">
+      <c r="H102" s="21">
         <v>23268.885594821601</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I102" s="19">
         <v>4706.1529999999902</v>
       </c>
-      <c r="J80" s="20">
+      <c r="J102" s="20">
         <v>9925.2790000000005</v>
       </c>
-      <c r="K80" s="20">
+      <c r="K102" s="20">
         <v>14235.2939999999</v>
       </c>
-      <c r="L80" s="20">
+      <c r="L102" s="20">
         <v>18847.042000000001</v>
       </c>
-      <c r="M80" s="21">
+      <c r="M102" s="21">
         <v>22954.089999999898</v>
       </c>
-      <c r="N80" s="19">
+      <c r="N102" s="19">
         <v>2640.1709999999998</v>
       </c>
-      <c r="O80" s="20">
+      <c r="O102" s="20">
         <v>4706.1529999999902</v>
       </c>
-      <c r="P80" s="20">
+      <c r="P102" s="20">
         <v>6962.9129999999996</v>
       </c>
-      <c r="Q80" s="20">
+      <c r="Q102" s="20">
         <v>9925.2790000000005</v>
       </c>
-      <c r="R80" s="21">
+      <c r="R102" s="21">
         <v>12064.074000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B81" s="38"/>
-      <c r="C81" s="25" t="s">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B103" s="39"/>
+      <c r="C103" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="26">
+      <c r="D103" s="26">
         <v>2331.8089505993898</v>
       </c>
-      <c r="E81" s="27">
+      <c r="E103" s="27">
         <v>4724.5307002210602</v>
       </c>
-      <c r="F81" s="27">
+      <c r="F103" s="27">
         <v>6936.9800796890804</v>
       </c>
-      <c r="G81" s="27">
+      <c r="G103" s="27">
         <v>9123.5058175375398</v>
       </c>
-      <c r="H81" s="27">
+      <c r="H103" s="27">
         <v>12007.147405178301</v>
       </c>
-      <c r="I81" s="26">
-        <v>0</v>
-      </c>
-      <c r="J81" s="27">
-        <v>0</v>
-      </c>
-      <c r="K81" s="27">
-        <v>0</v>
-      </c>
-      <c r="L81" s="27">
-        <v>0</v>
-      </c>
-      <c r="M81" s="27">
-        <v>0</v>
-      </c>
-      <c r="N81" s="26">
-        <v>0</v>
-      </c>
-      <c r="O81" s="27">
-        <v>0</v>
-      </c>
-      <c r="P81" s="27">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="27">
-        <v>0</v>
-      </c>
-      <c r="R81" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="44" t="s">
+      <c r="I103" s="26">
+        <v>0</v>
+      </c>
+      <c r="J103" s="27">
+        <v>0</v>
+      </c>
+      <c r="K103" s="27">
+        <v>0</v>
+      </c>
+      <c r="L103" s="27">
+        <v>0</v>
+      </c>
+      <c r="M103" s="27">
+        <v>0</v>
+      </c>
+      <c r="N103" s="26">
+        <v>0</v>
+      </c>
+      <c r="O103" s="27">
+        <v>0</v>
+      </c>
+      <c r="P103" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="27">
+        <v>0</v>
+      </c>
+      <c r="R103" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B104" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C82" s="45"/>
-      <c r="D82" s="29">
+      <c r="C104" s="47"/>
+      <c r="D104" s="29">
         <v>60.363391655450798</v>
       </c>
-      <c r="E82" s="30">
+      <c r="E104" s="30">
         <v>61.520861372812902</v>
       </c>
-      <c r="F82" s="30">
+      <c r="F104" s="30">
         <v>59.721848362494299</v>
       </c>
-      <c r="G82" s="30">
+      <c r="G104" s="30">
         <v>61.117092866756302</v>
       </c>
-      <c r="H82" s="31">
+      <c r="H104" s="31">
         <v>60.659488559892303</v>
       </c>
-      <c r="I82" s="29">
+      <c r="I104" s="29">
         <v>98.479138627186998</v>
       </c>
-      <c r="J82" s="30">
+      <c r="J104" s="30">
         <v>97.382234185733495</v>
       </c>
-      <c r="K82" s="30">
+      <c r="K104" s="30">
         <v>98.005832211754097</v>
       </c>
-      <c r="L82" s="30">
+      <c r="L104" s="30">
         <v>97.947510094212603</v>
       </c>
-      <c r="M82" s="31">
+      <c r="M104" s="31">
         <v>98.084791386271803</v>
       </c>
-      <c r="N82" s="29">
+      <c r="N104" s="29">
         <v>97.851054284432394</v>
       </c>
-      <c r="O82" s="30">
+      <c r="O104" s="30">
         <v>98.855989232839804</v>
       </c>
-      <c r="P82" s="30">
+      <c r="P104" s="30">
         <v>98.9113204725587</v>
       </c>
-      <c r="Q82" s="30">
+      <c r="Q104" s="30">
         <v>99.064602960968998</v>
       </c>
-      <c r="R82" s="31">
+      <c r="R104" s="31">
         <v>99.201435621354804</v>
       </c>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="37" t="s">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B105" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="25" t="s">
+      <c r="C105" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="19">
+      <c r="D105" s="19">
         <v>4631.1040494006102</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E105" s="20">
         <v>9510.7632997789206</v>
       </c>
-      <c r="F83" s="20">
+      <c r="F105" s="20">
         <v>13529.718920310899</v>
       </c>
-      <c r="G83" s="20">
+      <c r="G105" s="20">
         <v>18495.4201824624</v>
       </c>
-      <c r="H83" s="21">
+      <c r="H105" s="21">
         <v>23268.885594821601</v>
       </c>
-      <c r="I83" s="19">
+      <c r="I105" s="19">
         <v>4706.1529999999902</v>
       </c>
-      <c r="J83" s="20">
+      <c r="J105" s="20">
         <v>9925.2790000000005</v>
       </c>
-      <c r="K83" s="20">
+      <c r="K105" s="20">
         <v>14235.2939999999</v>
       </c>
-      <c r="L83" s="20">
+      <c r="L105" s="20">
         <v>18847.042000000001</v>
       </c>
-      <c r="M83" s="21">
+      <c r="M105" s="21">
         <v>22954.09</v>
       </c>
-      <c r="N83" s="19">
+      <c r="N105" s="19">
         <v>2640.1709999999998</v>
       </c>
-      <c r="O83" s="20">
+      <c r="O105" s="20">
         <v>4706.1529999999902</v>
       </c>
-      <c r="P83" s="20">
+      <c r="P105" s="20">
         <v>6962.9129999999996</v>
       </c>
-      <c r="Q83" s="20">
+      <c r="Q105" s="20">
         <v>9925.2790000000005</v>
       </c>
-      <c r="R83" s="21">
+      <c r="R105" s="21">
         <v>12064.074000000001</v>
       </c>
     </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="50"/>
-      <c r="C84" s="25" t="s">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B106" s="38"/>
+      <c r="C106" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D84" s="26">
-        <v>0</v>
-      </c>
-      <c r="E84" s="27">
-        <v>0</v>
-      </c>
-      <c r="F84" s="27">
-        <v>0</v>
-      </c>
-      <c r="G84" s="27">
-        <v>0</v>
-      </c>
-      <c r="H84" s="27">
-        <v>0</v>
-      </c>
-      <c r="I84" s="26">
+      <c r="D106" s="26">
+        <v>0</v>
+      </c>
+      <c r="E106" s="27">
+        <v>0</v>
+      </c>
+      <c r="F106" s="27">
+        <v>0</v>
+      </c>
+      <c r="G106" s="27">
+        <v>0</v>
+      </c>
+      <c r="H106" s="27">
+        <v>0</v>
+      </c>
+      <c r="I106" s="26">
         <v>3598.55059499456</v>
       </c>
-      <c r="J84" s="27">
+      <c r="J106" s="27">
         <v>6029.8844262203802</v>
       </c>
-      <c r="K84" s="27">
+      <c r="K106" s="27">
         <v>9810.1000536523497</v>
       </c>
-      <c r="L84" s="27">
+      <c r="L106" s="27">
         <v>12599.7072907042</v>
       </c>
-      <c r="M84" s="27">
+      <c r="M106" s="27">
         <v>16337.5327318983</v>
       </c>
-      <c r="N84" s="26">
+      <c r="N106" s="26">
         <v>8824.0781863637294</v>
       </c>
-      <c r="O84" s="27">
+      <c r="O106" s="27">
         <v>19426.749812392802</v>
       </c>
-      <c r="P84" s="27">
+      <c r="P106" s="27">
         <v>28925.5832057894</v>
       </c>
-      <c r="Q84" s="27">
+      <c r="Q106" s="27">
         <v>37152.508563646501</v>
       </c>
-      <c r="R84" s="28">
+      <c r="R106" s="28">
         <v>47770.936721560698</v>
       </c>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="38"/>
-      <c r="C85" s="25" t="s">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B107" s="39"/>
+      <c r="C107" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D85" s="32">
+      <c r="D107" s="32">
         <v>1380.2659999999901</v>
       </c>
-      <c r="E85" s="49">
+      <c r="E107" s="18">
         <v>2538.8899999999899</v>
       </c>
-      <c r="F85" s="49">
+      <c r="F107" s="18">
         <v>4470.5259999999998</v>
       </c>
-      <c r="G85" s="49">
+      <c r="G107" s="18">
         <v>5540.50900000001</v>
       </c>
-      <c r="H85" s="49">
+      <c r="H107" s="18">
         <v>6798.10700000002</v>
       </c>
-      <c r="I85" s="32">
+      <c r="I107" s="32">
         <v>3771.4059999999799</v>
       </c>
-      <c r="J85" s="49">
+      <c r="J107" s="18">
         <v>8146.8899999999403</v>
       </c>
-      <c r="K85" s="49">
+      <c r="K107" s="18">
         <v>12205.888000000001</v>
       </c>
-      <c r="L85" s="49">
+      <c r="L107" s="18">
         <v>16804.514999999999</v>
       </c>
-      <c r="M85" s="49">
+      <c r="M107" s="18">
         <v>21094.610000000299</v>
       </c>
-      <c r="N85" s="32">
+      <c r="N107" s="32">
         <v>6782.38399999994</v>
       </c>
-      <c r="O85" s="49">
+      <c r="O107" s="18">
         <v>12441.807999999901</v>
       </c>
-      <c r="P85" s="49">
+      <c r="P107" s="18">
         <v>18940.532000000301</v>
       </c>
-      <c r="Q85" s="49">
+      <c r="Q107" s="18">
         <v>26023.4560000003</v>
       </c>
-      <c r="R85" s="33">
+      <c r="R107" s="33">
         <v>31697.600000000701</v>
       </c>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B86" s="37" t="s">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B108" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="25" t="s">
+      <c r="C108" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D108" s="19">
         <v>110.469950599383</v>
       </c>
-      <c r="E86" s="20">
+      <c r="E108" s="20">
         <v>183.41270022107099</v>
       </c>
-      <c r="F86" s="20">
+      <c r="F108" s="20">
         <v>402.28607968907801</v>
       </c>
-      <c r="G86" s="20">
+      <c r="G108" s="20">
         <v>459.99581753752898</v>
       </c>
-      <c r="H86" s="21">
+      <c r="H108" s="21">
         <v>571.28340517831998</v>
       </c>
-      <c r="I86" s="19">
+      <c r="I108" s="19">
         <v>55.043288273982697</v>
       </c>
-      <c r="J86" s="20">
+      <c r="J108" s="20">
         <v>151.465971485924</v>
       </c>
-      <c r="K86" s="20">
+      <c r="K108" s="20">
         <v>165.84378192937999</v>
       </c>
-      <c r="L86" s="20">
+      <c r="L108" s="20">
         <v>230.34631764509101</v>
       </c>
-      <c r="M86" s="21">
+      <c r="M108" s="21">
         <v>259.526816352759</v>
       </c>
-      <c r="N86" s="19">
+      <c r="N108" s="19">
         <v>94.460290388339899</v>
       </c>
-      <c r="O86" s="20">
+      <c r="O108" s="20">
         <v>99.436688554382101</v>
       </c>
-      <c r="P86" s="20">
+      <c r="P108" s="20">
         <v>134.97928478287699</v>
       </c>
-      <c r="Q86" s="20">
+      <c r="Q108" s="20">
         <v>143.61077641298701</v>
       </c>
-      <c r="R86" s="21">
+      <c r="R108" s="21">
         <v>144.37940356997399</v>
       </c>
     </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="38"/>
-      <c r="C87" s="23" t="s">
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B109" s="39"/>
+      <c r="C109" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="26">
+      <c r="D109" s="26">
         <v>680.11704940061702</v>
       </c>
-      <c r="E87" s="27">
+      <c r="E109" s="27">
         <v>1234.8372997789199</v>
       </c>
-      <c r="F87" s="27">
+      <c r="F109" s="27">
         <v>2288.4579203109201</v>
       </c>
-      <c r="G87" s="27">
+      <c r="G109" s="27">
         <v>2720.5631824624702</v>
       </c>
-      <c r="H87" s="27">
+      <c r="H109" s="27">
         <v>3413.9555948216698</v>
       </c>
-      <c r="I87" s="26">
+      <c r="I109" s="26">
         <v>130.69071172601701</v>
       </c>
-      <c r="J87" s="27">
+      <c r="J109" s="27">
         <v>422.71202851407497</v>
       </c>
-      <c r="K87" s="27">
+      <c r="K109" s="27">
         <v>468.40421807061801</v>
       </c>
-      <c r="L87" s="27">
+      <c r="L109" s="27">
         <v>635.36468235490804</v>
       </c>
-      <c r="M87" s="27">
+      <c r="M109" s="27">
         <v>702.03318364723998</v>
       </c>
-      <c r="N87" s="26">
+      <c r="N109" s="26">
         <v>284.42570961166001</v>
       </c>
-      <c r="O87" s="27">
+      <c r="O109" s="27">
         <v>298.89131144561702</v>
       </c>
-      <c r="P87" s="27">
+      <c r="P109" s="27">
         <v>417.273715217122</v>
       </c>
-      <c r="Q87" s="27">
+      <c r="Q109" s="27">
         <v>454.639223587012</v>
       </c>
-      <c r="R87" s="28">
+      <c r="R109" s="28">
         <v>472.08059643002503</v>
       </c>
     </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="51"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="49"/>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
-      <c r="I88" s="49"/>
-      <c r="J88" s="49"/>
-      <c r="K88" s="49"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="49"/>
-      <c r="N88" s="49"/>
-      <c r="O88" s="49"/>
-      <c r="P88" s="49"/>
-      <c r="Q88" s="49"/>
-      <c r="R88" s="49"/>
-    </row>
-    <row r="90" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B90" s="22" t="s">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B110" s="34"/>
+      <c r="C110" s="35"/>
+    </row>
+    <row r="112" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B112" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B91" s="22"/>
-    </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="42" t="s">
+    <row r="113" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B113" s="22"/>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B114" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="46"/>
-      <c r="D92" s="39">
+      <c r="C114" s="45"/>
+      <c r="D114" s="40">
         <v>0.25</v>
       </c>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40"/>
-      <c r="G92" s="40"/>
-      <c r="H92" s="40"/>
-      <c r="I92" s="39">
+      <c r="E114" s="41"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="40">
         <v>0.5</v>
       </c>
-      <c r="J92" s="40"/>
-      <c r="K92" s="40"/>
-      <c r="L92" s="40"/>
-      <c r="M92" s="40"/>
-      <c r="N92" s="39">
+      <c r="J114" s="41"/>
+      <c r="K114" s="41"/>
+      <c r="L114" s="41"/>
+      <c r="M114" s="41"/>
+      <c r="N114" s="40">
         <v>0.75</v>
       </c>
-      <c r="O92" s="40"/>
-      <c r="P92" s="40"/>
-      <c r="Q92" s="40"/>
-      <c r="R92" s="41"/>
-    </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="42" t="s">
+      <c r="O114" s="41"/>
+      <c r="P114" s="41"/>
+      <c r="Q114" s="41"/>
+      <c r="R114" s="42"/>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B115" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="43"/>
-      <c r="D93" s="9">
+      <c r="C115" s="44"/>
+      <c r="D115" s="9">
         <v>40</v>
       </c>
-      <c r="E93" s="8">
+      <c r="E115" s="8">
         <v>80</v>
       </c>
-      <c r="F93" s="8">
+      <c r="F115" s="8">
         <v>120</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G115" s="8">
         <v>160</v>
       </c>
-      <c r="H93" s="8">
+      <c r="H115" s="8">
         <v>200</v>
       </c>
-      <c r="I93" s="9">
+      <c r="I115" s="9">
         <v>40</v>
       </c>
-      <c r="J93" s="8">
+      <c r="J115" s="8">
         <v>80</v>
       </c>
-      <c r="K93" s="8">
+      <c r="K115" s="8">
         <v>120</v>
       </c>
-      <c r="L93" s="8">
+      <c r="L115" s="8">
         <v>160</v>
       </c>
-      <c r="M93" s="8">
+      <c r="M115" s="8">
         <v>200</v>
       </c>
-      <c r="N93" s="9">
+      <c r="N115" s="9">
         <v>40</v>
       </c>
-      <c r="O93" s="8">
+      <c r="O115" s="8">
         <v>80</v>
       </c>
-      <c r="P93" s="8">
+      <c r="P115" s="8">
         <v>120</v>
       </c>
-      <c r="Q93" s="8">
+      <c r="Q115" s="8">
         <v>160</v>
       </c>
-      <c r="R93" s="10">
+      <c r="R115" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="37" t="s">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B116" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C94" s="25" t="s">
+      <c r="C116" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="19">
+      <c r="D116" s="19">
         <v>1234.29</v>
       </c>
-      <c r="E94" s="20">
+      <c r="E116" s="20">
         <v>2666.1929999999902</v>
       </c>
-      <c r="F94" s="20">
+      <c r="F116" s="20">
         <v>3761.0539999999901</v>
       </c>
-      <c r="G94" s="20">
+      <c r="G116" s="20">
         <v>5166.6090000000004</v>
       </c>
-      <c r="H94" s="21">
+      <c r="H116" s="21">
         <v>6370.1729999999898</v>
       </c>
-      <c r="I94" s="19">
+      <c r="I116" s="19">
         <v>1312.32</v>
       </c>
-      <c r="J94" s="20">
+      <c r="J116" s="20">
         <v>2675.4489999999901</v>
       </c>
-      <c r="K94" s="20">
+      <c r="K116" s="20">
         <v>3888.0729999999999</v>
       </c>
-      <c r="L94" s="20">
+      <c r="L116" s="20">
         <v>5124.8299999999899</v>
       </c>
-      <c r="M94" s="21">
+      <c r="M116" s="21">
         <v>6322.4459999999899</v>
       </c>
-      <c r="N94" s="19">
+      <c r="N116" s="19">
         <v>947.44499999999903</v>
       </c>
-      <c r="O94" s="20">
+      <c r="O116" s="20">
         <v>1668.3779999999899</v>
       </c>
-      <c r="P94" s="20">
+      <c r="P116" s="20">
         <v>2334.9879999999998</v>
       </c>
-      <c r="Q94" s="20">
+      <c r="Q116" s="20">
         <v>3405.0549999999998</v>
       </c>
-      <c r="R94" s="21">
+      <c r="R116" s="21">
         <v>4135.3130000000001</v>
       </c>
     </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="38"/>
-      <c r="C95" s="25" t="s">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B117" s="39"/>
+      <c r="C117" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D95" s="26">
+      <c r="D117" s="26">
         <v>6327.5810000000001</v>
       </c>
-      <c r="E95" s="27">
+      <c r="E117" s="27">
         <v>13713.879000000001</v>
       </c>
-      <c r="F95" s="27">
+      <c r="F117" s="27">
         <v>20031.536</v>
       </c>
-      <c r="G95" s="27">
+      <c r="G117" s="27">
         <v>26743.0439999999</v>
       </c>
-      <c r="H95" s="27">
+      <c r="H117" s="27">
         <v>34358.354999999901</v>
       </c>
-      <c r="I95" s="26">
+      <c r="I117" s="26">
         <v>3905.1849999999999</v>
       </c>
-      <c r="J95" s="27">
+      <c r="J117" s="27">
         <v>8720.2170000000206</v>
       </c>
-      <c r="K95" s="27">
+      <c r="K117" s="27">
         <v>12491.999</v>
       </c>
-      <c r="L95" s="27">
+      <c r="L117" s="27">
         <v>16511.687000000002</v>
       </c>
-      <c r="M95" s="27">
+      <c r="M117" s="27">
         <v>20319.563999999998</v>
       </c>
-      <c r="N95" s="26">
+      <c r="N117" s="26">
         <v>2133.3679999999899</v>
       </c>
-      <c r="O95" s="27">
+      <c r="O117" s="27">
         <v>3549.127</v>
       </c>
-      <c r="P95" s="27">
+      <c r="P117" s="27">
         <v>5226.8829999999998</v>
       </c>
-      <c r="Q95" s="27">
+      <c r="Q117" s="27">
         <v>7990.6110000000199</v>
       </c>
-      <c r="R95" s="28">
+      <c r="R117" s="28">
         <v>9686.7509999999893</v>
       </c>
     </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="44" t="s">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B118" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C96" s="45"/>
-      <c r="D96" s="29">
+      <c r="C118" s="47"/>
+      <c r="D118" s="29">
         <v>24.024226110363301</v>
       </c>
-      <c r="E96" s="30">
+      <c r="E118" s="30">
         <v>25.1884253028263</v>
       </c>
-      <c r="F96" s="30">
+      <c r="F118" s="30">
         <v>23.853746074472799</v>
       </c>
-      <c r="G96" s="30">
+      <c r="G118" s="30">
         <v>24.542395693135902</v>
       </c>
-      <c r="H96" s="31">
+      <c r="H118" s="31">
         <v>24.403768506056501</v>
       </c>
-      <c r="I96" s="29">
+      <c r="I118" s="29">
         <v>25.1884253028263</v>
       </c>
-      <c r="J96" s="30">
+      <c r="J118" s="30">
         <v>24.542395693135902</v>
       </c>
-      <c r="K96" s="30">
+      <c r="K118" s="30">
         <v>24.369672498878401</v>
       </c>
-      <c r="L96" s="30">
+      <c r="L118" s="30">
         <v>24.012449528936699</v>
       </c>
-      <c r="M96" s="31">
+      <c r="M118" s="31">
         <v>24.048452220726698</v>
       </c>
-      <c r="N96" s="29">
+      <c r="N118" s="29">
         <v>23.853746074472799</v>
       </c>
-      <c r="O96" s="30">
+      <c r="O118" s="30">
         <v>24.369672498878401</v>
       </c>
-      <c r="P96" s="30">
+      <c r="P118" s="30">
         <v>24.163301929116098</v>
       </c>
-      <c r="Q96" s="30">
+      <c r="Q118" s="30">
         <v>24.096007178106699</v>
       </c>
-      <c r="R96" s="31">
+      <c r="R118" s="31">
         <v>24.224315836698</v>
       </c>
     </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="37" t="s">
+    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B119" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C97" s="25" t="s">
+      <c r="C119" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="19">
+      <c r="D119" s="19">
         <v>1234.29</v>
       </c>
-      <c r="E97" s="20">
+      <c r="E119" s="20">
         <v>2666.1929999999902</v>
       </c>
-      <c r="F97" s="20">
+      <c r="F119" s="20">
         <v>3761.0539999999901</v>
       </c>
-      <c r="G97" s="20">
+      <c r="G119" s="20">
         <v>5166.6090000000004</v>
       </c>
-      <c r="H97" s="21">
+      <c r="H119" s="21">
         <v>6370.1729999999898</v>
       </c>
-      <c r="I97" s="19">
+      <c r="I119" s="19">
         <v>1312.32</v>
       </c>
-      <c r="J97" s="20">
+      <c r="J119" s="20">
         <v>2675.4489999999901</v>
       </c>
-      <c r="K97" s="20">
+      <c r="K119" s="20">
         <v>3888.0729999999999</v>
       </c>
-      <c r="L97" s="20">
+      <c r="L119" s="20">
         <v>5124.8299999999899</v>
       </c>
-      <c r="M97" s="21">
+      <c r="M119" s="21">
         <v>6322.4459999999899</v>
       </c>
-      <c r="N97" s="19">
+      <c r="N119" s="19">
         <v>947.44499999999903</v>
       </c>
-      <c r="O97" s="20">
+      <c r="O119" s="20">
         <v>1668.3779999999899</v>
       </c>
-      <c r="P97" s="20">
+      <c r="P119" s="20">
         <v>2334.9879999999998</v>
       </c>
-      <c r="Q97" s="20">
+      <c r="Q119" s="20">
         <v>3405.0549999999998</v>
       </c>
-      <c r="R97" s="21">
+      <c r="R119" s="21">
         <v>4135.3130000000001</v>
       </c>
     </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="50"/>
-      <c r="C98" s="25" t="s">
+    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B120" s="38"/>
+      <c r="C120" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D98" s="26">
+      <c r="D120" s="26">
         <v>612.00800000000004</v>
       </c>
-      <c r="E98" s="27">
+      <c r="E120" s="27">
         <v>1230.9449999999999</v>
       </c>
-      <c r="F98" s="27">
+      <c r="F120" s="27">
         <v>1679.9569999999901</v>
       </c>
-      <c r="G98" s="27">
+      <c r="G120" s="27">
         <v>2330.3409999999999</v>
       </c>
-      <c r="H98" s="27">
+      <c r="H120" s="27">
         <v>2986.5859999999898</v>
       </c>
-      <c r="I98" s="26">
+      <c r="I120" s="26">
         <v>2584.8179999999902</v>
       </c>
-      <c r="J98" s="27">
+      <c r="J120" s="27">
         <v>4821.5010000000002</v>
       </c>
-      <c r="K98" s="27">
+      <c r="K120" s="27">
         <v>7360.8819999999896</v>
       </c>
-      <c r="L98" s="27">
+      <c r="L120" s="27">
         <v>9634.0409999999993</v>
       </c>
-      <c r="M98" s="27">
+      <c r="M120" s="27">
         <v>12171.7079999999</v>
       </c>
-      <c r="N98" s="26">
+      <c r="N120" s="26">
         <v>4493.5659999999898</v>
       </c>
-      <c r="O98" s="27">
+      <c r="O120" s="27">
         <v>9580.5769999999902</v>
       </c>
-      <c r="P98" s="27">
+      <c r="P120" s="27">
         <v>14392.8669999999</v>
       </c>
-      <c r="Q98" s="27">
+      <c r="Q120" s="27">
         <v>18823.526999999998</v>
       </c>
-      <c r="R98" s="28">
+      <c r="R120" s="28">
         <v>23899.341</v>
       </c>
     </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="38"/>
-      <c r="C99" s="25" t="s">
+    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B121" s="39"/>
+      <c r="C121" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D99" s="32">
+      <c r="D121" s="32">
         <v>422.82100000000003</v>
       </c>
-      <c r="E99" s="49">
+      <c r="E121" s="18">
         <v>754.21900000000005</v>
       </c>
-      <c r="F99" s="49">
+      <c r="F121" s="18">
         <v>1275.1389999999899</v>
       </c>
-      <c r="G99" s="49">
+      <c r="G121" s="18">
         <v>1608.3529999999901</v>
       </c>
-      <c r="H99" s="49">
+      <c r="H121" s="18">
         <v>1993.52799999999</v>
       </c>
-      <c r="I99" s="32">
+      <c r="I121" s="32">
         <v>754.21900000000005</v>
       </c>
-      <c r="J99" s="49">
+      <c r="J121" s="18">
         <v>1608.3529999999901</v>
       </c>
-      <c r="K99" s="49">
+      <c r="K121" s="18">
         <v>2395.3109999999901</v>
       </c>
-      <c r="L99" s="49">
+      <c r="L121" s="18">
         <v>3358.1079999999902</v>
       </c>
-      <c r="M99" s="49">
+      <c r="M121" s="18">
         <v>4162.0109999999804</v>
       </c>
-      <c r="N99" s="32">
+      <c r="N121" s="32">
         <v>1275.1389999999899</v>
       </c>
-      <c r="O99" s="49">
+      <c r="O121" s="18">
         <v>2395.3109999999901</v>
       </c>
-      <c r="P99" s="49">
+      <c r="P121" s="18">
         <v>3719.8510000000001</v>
       </c>
-      <c r="Q99" s="49">
+      <c r="Q121" s="18">
         <v>5027.1850000000104</v>
       </c>
-      <c r="R99" s="33">
+      <c r="R121" s="33">
         <v>6131.6579999999603</v>
       </c>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="37" t="s">
+    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B122" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C100" s="25" t="s">
+      <c r="C122" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="19">
+      <c r="D122" s="19">
         <v>238.7</v>
       </c>
-      <c r="E100" s="20">
+      <c r="E122" s="20">
         <v>361.00599999999798</v>
       </c>
-      <c r="F100" s="20">
+      <c r="F122" s="20">
         <v>767.90599999999995</v>
       </c>
-      <c r="G100" s="20">
+      <c r="G122" s="20">
         <v>906.928</v>
       </c>
-      <c r="H100" s="21">
+      <c r="H122" s="21">
         <v>1159.67299999999</v>
       </c>
-      <c r="I100" s="19">
+      <c r="I122" s="19">
         <v>361.00599999999798</v>
       </c>
-      <c r="J100" s="20">
+      <c r="J122" s="20">
         <v>906.928</v>
       </c>
-      <c r="K100" s="20">
+      <c r="K122" s="20">
         <v>1358.48099999999</v>
       </c>
-      <c r="L100" s="20">
+      <c r="L122" s="20">
         <v>1916.2439999999999</v>
       </c>
-      <c r="M100" s="21">
+      <c r="M122" s="21">
         <v>2344.0509999999999</v>
       </c>
-      <c r="N100" s="19">
+      <c r="N122" s="19">
         <v>767.90599999999995</v>
       </c>
-      <c r="O100" s="20">
+      <c r="O122" s="20">
         <v>1358.48099999999</v>
       </c>
-      <c r="P100" s="20">
+      <c r="P122" s="20">
         <v>2078.826</v>
       </c>
-      <c r="Q100" s="20">
+      <c r="Q122" s="20">
         <v>2798.5299999999902</v>
       </c>
-      <c r="R100" s="21">
+      <c r="R122" s="21">
         <v>3348.3039999999901</v>
       </c>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B101" s="38"/>
-      <c r="C101" s="23" t="s">
+    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B123" s="39"/>
+      <c r="C123" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D101" s="26">
+      <c r="D123" s="26">
         <v>2003.104</v>
       </c>
-      <c r="E101" s="27">
+      <c r="E123" s="27">
         <v>3569.8029999999899</v>
       </c>
-      <c r="F101" s="27">
+      <c r="F123" s="27">
         <v>6374.0710000000099</v>
       </c>
-      <c r="G101" s="27">
+      <c r="G123" s="27">
         <v>7916.6109999999899</v>
       </c>
-      <c r="H101" s="27">
+      <c r="H123" s="27">
         <v>10034.406000000001</v>
       </c>
-      <c r="I101" s="26">
+      <c r="I123" s="26">
         <v>3569.8029999999899</v>
       </c>
-      <c r="J101" s="27">
+      <c r="J123" s="27">
         <v>7916.6109999999899</v>
       </c>
-      <c r="K101" s="27">
+      <c r="K123" s="27">
         <v>11981.695</v>
       </c>
-      <c r="L101" s="27">
+      <c r="L123" s="27">
         <v>16569.670999999998</v>
       </c>
-      <c r="M101" s="27">
+      <c r="M123" s="27">
         <v>20466.241999999998</v>
       </c>
-      <c r="N101" s="26">
+      <c r="N123" s="26">
         <v>6374.0710000000099</v>
       </c>
-      <c r="O101" s="27">
+      <c r="O123" s="27">
         <v>11981.695</v>
       </c>
-      <c r="P101" s="27">
+      <c r="P123" s="27">
         <v>18219.6500000001</v>
       </c>
-      <c r="Q101" s="27">
+      <c r="Q123" s="27">
         <v>24485.995000000101</v>
       </c>
-      <c r="R101" s="28">
+      <c r="R123" s="28">
         <v>30043.382000000001</v>
       </c>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="51"/>
-      <c r="C102" s="52"/>
-      <c r="D102" s="49"/>
-      <c r="E102" s="49"/>
-      <c r="F102" s="49"/>
-      <c r="G102" s="49"/>
-      <c r="H102" s="49"/>
-      <c r="I102" s="49"/>
-      <c r="J102" s="49"/>
-      <c r="K102" s="49"/>
-      <c r="L102" s="49"/>
-      <c r="M102" s="49"/>
-      <c r="N102" s="49"/>
-      <c r="O102" s="49"/>
-      <c r="P102" s="49"/>
-      <c r="Q102" s="49"/>
-      <c r="R102" s="49"/>
-    </row>
-    <row r="104" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B104" s="22" t="s">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B124" s="34"/>
+      <c r="C124" s="35"/>
+    </row>
+    <row r="126" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B126" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B105" s="22"/>
-    </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="42" t="s">
+    <row r="127" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B127" s="22"/>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B128" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="46"/>
-      <c r="D106" s="39">
+      <c r="C128" s="45"/>
+      <c r="D128" s="40">
         <v>0.25</v>
       </c>
-      <c r="E106" s="40"/>
-      <c r="F106" s="40"/>
-      <c r="G106" s="40"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="39">
+      <c r="E128" s="41"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="40">
         <v>0.5</v>
       </c>
-      <c r="J106" s="40"/>
-      <c r="K106" s="40"/>
-      <c r="L106" s="40"/>
-      <c r="M106" s="40"/>
-      <c r="N106" s="39">
+      <c r="J128" s="41"/>
+      <c r="K128" s="41"/>
+      <c r="L128" s="41"/>
+      <c r="M128" s="41"/>
+      <c r="N128" s="40">
         <v>0.75</v>
       </c>
-      <c r="O106" s="40"/>
-      <c r="P106" s="40"/>
-      <c r="Q106" s="40"/>
-      <c r="R106" s="41"/>
-    </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="42" t="s">
+      <c r="O128" s="41"/>
+      <c r="P128" s="41"/>
+      <c r="Q128" s="41"/>
+      <c r="R128" s="42"/>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B129" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C107" s="43"/>
-      <c r="D107" s="9">
+      <c r="C129" s="44"/>
+      <c r="D129" s="9">
         <v>40</v>
       </c>
-      <c r="E107" s="8">
+      <c r="E129" s="8">
         <v>80</v>
       </c>
-      <c r="F107" s="8">
+      <c r="F129" s="8">
         <v>120</v>
       </c>
-      <c r="G107" s="8">
+      <c r="G129" s="8">
         <v>160</v>
       </c>
-      <c r="H107" s="8">
+      <c r="H129" s="8">
         <v>200</v>
       </c>
-      <c r="I107" s="9">
+      <c r="I129" s="9">
         <v>40</v>
       </c>
-      <c r="J107" s="8">
+      <c r="J129" s="8">
         <v>80</v>
       </c>
-      <c r="K107" s="8">
+      <c r="K129" s="8">
         <v>120</v>
       </c>
-      <c r="L107" s="8">
+      <c r="L129" s="8">
         <v>160</v>
       </c>
-      <c r="M107" s="8">
+      <c r="M129" s="8">
         <v>200</v>
       </c>
-      <c r="N107" s="9">
+      <c r="N129" s="9">
         <v>40</v>
       </c>
-      <c r="O107" s="8">
+      <c r="O129" s="8">
         <v>80</v>
       </c>
-      <c r="P107" s="8">
+      <c r="P129" s="8">
         <v>120</v>
       </c>
-      <c r="Q107" s="8">
+      <c r="Q129" s="8">
         <v>160</v>
       </c>
-      <c r="R107" s="10">
+      <c r="R129" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="37" t="s">
+    <row r="130" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B130" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C108" s="25" t="s">
+      <c r="C130" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D108" s="19">
+      <c r="D130" s="19">
         <v>1708.60331865031</v>
       </c>
-      <c r="E108" s="20">
+      <c r="E130" s="20">
         <v>3663.1869348421401</v>
       </c>
-      <c r="F108" s="20">
+      <c r="F130" s="20">
         <v>5064.3013526516297</v>
       </c>
-      <c r="G108" s="20">
+      <c r="G130" s="20">
         <v>7006.2190031563496</v>
       </c>
-      <c r="H108" s="21">
+      <c r="H130" s="21">
         <v>8704.0175770270598</v>
       </c>
-      <c r="I108" s="19">
+      <c r="I130" s="19">
         <v>2867.6169973269498</v>
       </c>
-      <c r="J108" s="20">
+      <c r="J130" s="20">
         <v>5638.3190932224197</v>
       </c>
-      <c r="K108" s="20">
+      <c r="K130" s="20">
         <v>8215.3330516625192</v>
       </c>
-      <c r="L108" s="20">
+      <c r="L130" s="20">
         <v>10637.5211955863</v>
       </c>
-      <c r="M108" s="21">
+      <c r="M130" s="21">
         <v>13261.6639970166</v>
       </c>
-      <c r="N108" s="19">
+      <c r="N130" s="19">
         <v>2705.2813032415002</v>
       </c>
-      <c r="O108" s="20">
+      <c r="O130" s="20">
         <v>4836.7424936649104</v>
       </c>
-      <c r="P108" s="20">
+      <c r="P130" s="20">
         <v>6959.1904085897304</v>
       </c>
-      <c r="Q108" s="20">
+      <c r="Q130" s="20">
         <v>10045.2916794099</v>
       </c>
-      <c r="R108" s="21">
+      <c r="R130" s="21">
         <v>12319.6700245718</v>
       </c>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="38"/>
-      <c r="C109" s="25" t="s">
+    <row r="131" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B131" s="39"/>
+      <c r="C131" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="26">
+      <c r="D131" s="26">
         <v>5853.2676813496801</v>
       </c>
-      <c r="E109" s="27">
+      <c r="E131" s="27">
         <v>12716.8850651578</v>
       </c>
-      <c r="F109" s="27">
+      <c r="F131" s="27">
         <v>18728.288647348301</v>
       </c>
-      <c r="G109" s="27">
+      <c r="G131" s="27">
         <v>24903.4339968436</v>
       </c>
-      <c r="H109" s="27">
+      <c r="H131" s="27">
         <v>32024.5104229729</v>
       </c>
-      <c r="I109" s="26">
+      <c r="I131" s="26">
         <v>2349.8880026730499</v>
       </c>
-      <c r="J109" s="27">
+      <c r="J131" s="27">
         <v>5757.3469067776005</v>
       </c>
-      <c r="K109" s="27">
+      <c r="K131" s="27">
         <v>8164.73894833749</v>
       </c>
-      <c r="L109" s="27">
+      <c r="L131" s="27">
         <v>10998.9958044136</v>
       </c>
-      <c r="M109" s="27">
+      <c r="M131" s="27">
         <v>13380.3460029834</v>
       </c>
-      <c r="N109" s="26">
+      <c r="N131" s="26">
         <v>375.53169675849102</v>
       </c>
-      <c r="O109" s="27">
+      <c r="O131" s="27">
         <v>380.76250633508897</v>
       </c>
-      <c r="P109" s="27">
+      <c r="P131" s="27">
         <v>602.68059141027504</v>
       </c>
-      <c r="Q109" s="27">
+      <c r="Q131" s="27">
         <v>1350.3743205900601</v>
       </c>
-      <c r="R109" s="28">
+      <c r="R131" s="28">
         <v>1502.39397542811</v>
       </c>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="44" t="s">
+    <row r="132" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B132" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C110" s="45"/>
-      <c r="D110" s="29">
+      <c r="C132" s="47"/>
+      <c r="D132" s="29">
         <v>28.398384925975702</v>
       </c>
-      <c r="E110" s="30">
+      <c r="E132" s="30">
         <v>29.508748317631198</v>
       </c>
-      <c r="F110" s="30">
+      <c r="F132" s="30">
         <v>27.7523553162853</v>
       </c>
-      <c r="G110" s="30">
+      <c r="G132" s="30">
         <v>28.5632570659488</v>
       </c>
-      <c r="H110" s="31">
+      <c r="H132" s="31">
         <v>28.503364737550399</v>
       </c>
-      <c r="I110" s="29">
+      <c r="I132" s="29">
         <v>51.1372812920592</v>
       </c>
-      <c r="J110" s="30">
+      <c r="J132" s="30">
         <v>45.111036339165501</v>
       </c>
-      <c r="K110" s="30">
+      <c r="K132" s="30">
         <v>45.637056976222503</v>
       </c>
-      <c r="L110" s="30">
+      <c r="L132" s="30">
         <v>44.308546433378197</v>
       </c>
-      <c r="M110" s="31">
+      <c r="M132" s="31">
         <v>44.932705248990501</v>
       </c>
-      <c r="N110" s="29">
+      <c r="N132" s="29">
         <v>67.913862718707904</v>
       </c>
-      <c r="O110" s="30">
+      <c r="O132" s="30">
         <v>73.097801704800304</v>
       </c>
-      <c r="P110" s="30">
+      <c r="P132" s="30">
         <v>72.135486765365599</v>
       </c>
-      <c r="Q110" s="30">
+      <c r="Q132" s="30">
         <v>69.170031404217099</v>
       </c>
-      <c r="R110" s="31">
+      <c r="R132" s="31">
         <v>70.600269179004002</v>
       </c>
     </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="37" t="s">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B133" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C133" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D111" s="19">
+      <c r="D133" s="19">
         <v>1708.60331865031</v>
       </c>
-      <c r="E111" s="20">
+      <c r="E133" s="20">
         <v>3663.1869348421401</v>
       </c>
-      <c r="F111" s="20">
+      <c r="F133" s="20">
         <v>5064.3013526516297</v>
       </c>
-      <c r="G111" s="20">
+      <c r="G133" s="20">
         <v>7006.2190031563496</v>
       </c>
-      <c r="H111" s="21">
+      <c r="H133" s="21">
         <v>8704.0175770270598</v>
       </c>
-      <c r="I111" s="19">
+      <c r="I133" s="19">
         <v>2867.6169973269498</v>
       </c>
-      <c r="J111" s="20">
+      <c r="J133" s="20">
         <v>5638.3190932224197</v>
       </c>
-      <c r="K111" s="20">
+      <c r="K133" s="20">
         <v>8215.3330516625192</v>
       </c>
-      <c r="L111" s="20">
+      <c r="L133" s="20">
         <v>10637.5211955863</v>
       </c>
-      <c r="M111" s="21">
+      <c r="M133" s="21">
         <v>13261.6639970166</v>
       </c>
-      <c r="N111" s="19">
+      <c r="N133" s="19">
         <v>2705.2813032415002</v>
       </c>
-      <c r="O111" s="20">
+      <c r="O133" s="20">
         <v>4836.7424936649104</v>
       </c>
-      <c r="P111" s="20">
+      <c r="P133" s="20">
         <v>6959.1904085897304</v>
       </c>
-      <c r="Q111" s="20">
+      <c r="Q133" s="20">
         <v>10045.2916794099</v>
       </c>
-      <c r="R111" s="21">
+      <c r="R133" s="21">
         <v>12319.6700245718</v>
       </c>
     </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="50"/>
-      <c r="C112" s="25" t="s">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B134" s="38"/>
+      <c r="C134" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D112" s="26">
-        <v>0</v>
-      </c>
-      <c r="E112" s="27">
-        <v>0</v>
-      </c>
-      <c r="F112" s="27">
-        <v>0</v>
-      </c>
-      <c r="G112" s="27">
-        <v>0</v>
-      </c>
-      <c r="H112" s="27">
-        <v>0</v>
-      </c>
-      <c r="I112" s="26">
-        <v>0</v>
-      </c>
-      <c r="J112" s="27">
-        <v>0</v>
-      </c>
-      <c r="K112" s="27">
-        <v>0</v>
-      </c>
-      <c r="L112" s="27">
-        <v>0</v>
-      </c>
-      <c r="M112" s="27">
-        <v>0</v>
-      </c>
-      <c r="N112" s="26">
+      <c r="D134" s="26">
+        <v>0</v>
+      </c>
+      <c r="E134" s="27">
+        <v>0</v>
+      </c>
+      <c r="F134" s="27">
+        <v>0</v>
+      </c>
+      <c r="G134" s="27">
+        <v>0</v>
+      </c>
+      <c r="H134" s="27">
+        <v>0</v>
+      </c>
+      <c r="I134" s="26">
+        <v>0</v>
+      </c>
+      <c r="J134" s="27">
+        <v>0</v>
+      </c>
+      <c r="K134" s="27">
+        <v>0</v>
+      </c>
+      <c r="L134" s="27">
+        <v>0</v>
+      </c>
+      <c r="M134" s="27">
+        <v>0</v>
+      </c>
+      <c r="N134" s="26">
         <v>43.417289241538697</v>
       </c>
-      <c r="O112" s="27">
+      <c r="O134" s="27">
         <v>339.92439689335299</v>
       </c>
-      <c r="P112" s="27">
+      <c r="P134" s="27">
         <v>427.78766594927799</v>
       </c>
-      <c r="Q112" s="27">
+      <c r="Q134" s="27">
         <v>249.08185076508701</v>
       </c>
-      <c r="R112" s="28">
+      <c r="R134" s="28">
         <v>447.07390122965501</v>
       </c>
     </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="38"/>
-      <c r="C113" s="25" t="s">
+    <row r="135" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B135" s="39"/>
+      <c r="C135" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D113" s="32">
+      <c r="D135" s="32">
         <v>577.63399999999899</v>
       </c>
-      <c r="E113" s="49">
+      <c r="E135" s="18">
         <v>1002.621</v>
       </c>
-      <c r="F113" s="49">
+      <c r="F135" s="18">
         <v>1702.02699999999</v>
       </c>
-      <c r="G113" s="49">
+      <c r="G135" s="18">
         <v>2152.259</v>
       </c>
-      <c r="H113" s="49">
+      <c r="H135" s="18">
         <v>2728.9609999999898</v>
       </c>
-      <c r="I113" s="32">
+      <c r="I135" s="32">
         <v>1893.5229999999999</v>
       </c>
-      <c r="J113" s="49">
+      <c r="J135" s="18">
         <v>3605.38399999999</v>
       </c>
-      <c r="K113" s="49">
+      <c r="K135" s="18">
         <v>5595.6759999999904</v>
       </c>
-      <c r="L113" s="49">
+      <c r="L135" s="18">
         <v>7694.08900000002</v>
       </c>
-      <c r="M113" s="49">
+      <c r="M135" s="18">
         <v>9667.3959999999406</v>
       </c>
-      <c r="N113" s="32">
+      <c r="N135" s="32">
         <v>4417.1279999999897</v>
       </c>
-      <c r="O113" s="49">
+      <c r="O135" s="18">
         <v>9340.4629999999197</v>
       </c>
-      <c r="P113" s="49">
+      <c r="P135" s="18">
         <v>14366.959999999901</v>
       </c>
-      <c r="Q113" s="49">
+      <c r="Q135" s="18">
         <v>18707.232000000298</v>
       </c>
-      <c r="R113" s="33">
+      <c r="R135" s="33">
         <v>23544.308000000299</v>
       </c>
     </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="37" t="s">
+    <row r="136" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B136" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C114" s="25" t="s">
+      <c r="C136" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D114" s="19">
+      <c r="D136" s="19">
         <v>221.58168134968099</v>
       </c>
-      <c r="E114" s="20">
+      <c r="E136" s="20">
         <v>346.55506515785601</v>
       </c>
-      <c r="F114" s="20">
+      <c r="F136" s="20">
         <v>717.72764734836403</v>
       </c>
-      <c r="G114" s="20">
+      <c r="G136" s="20">
         <v>853.75299684364404</v>
       </c>
-      <c r="H114" s="21">
+      <c r="H136" s="21">
         <v>1076.98142297293</v>
       </c>
-      <c r="I114" s="19">
+      <c r="I136" s="19">
         <v>331.52780574401697</v>
       </c>
-      <c r="J114" s="20">
+      <c r="J136" s="20">
         <v>821.81500498358696</v>
       </c>
-      <c r="K114" s="20">
+      <c r="K136" s="20">
         <v>1253.87827064607</v>
       </c>
-      <c r="L114" s="20">
+      <c r="L136" s="20">
         <v>1774.71544797714</v>
       </c>
-      <c r="M114" s="21">
+      <c r="M136" s="21">
         <v>2173.00688895443</v>
       </c>
-      <c r="N114" s="19">
+      <c r="N136" s="19">
         <v>575.04215649236198</v>
       </c>
-      <c r="O114" s="20">
+      <c r="O136" s="20">
         <v>955.35582342892303</v>
       </c>
-      <c r="P114" s="20">
+      <c r="P136" s="20">
         <v>1490.78389946945</v>
       </c>
-      <c r="Q114" s="20">
+      <c r="Q136" s="20">
         <v>2081.2464592432998</v>
       </c>
-      <c r="R114" s="21">
+      <c r="R136" s="21">
         <v>2470.2381324373</v>
       </c>
     </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="38"/>
-      <c r="C115" s="23" t="s">
+    <row r="137" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B137" s="39"/>
+      <c r="C137" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D115" s="26">
+      <c r="D137" s="26">
         <v>1865.4093186503201</v>
       </c>
-      <c r="E115" s="27">
+      <c r="E137" s="27">
         <v>3335.85193484213</v>
       </c>
-      <c r="F115" s="27">
+      <c r="F137" s="27">
         <v>5997.3613526516501</v>
       </c>
-      <c r="G115" s="27">
+      <c r="G137" s="27">
         <v>7425.8800031563496</v>
       </c>
-      <c r="H115" s="27">
+      <c r="H137" s="27">
         <v>9381.6645770270698</v>
       </c>
-      <c r="I115" s="26">
+      <c r="I137" s="26">
         <v>2459.9771942559701</v>
       </c>
-      <c r="J115" s="27">
+      <c r="J137" s="27">
         <v>6004.6929950164104</v>
       </c>
-      <c r="K115" s="27">
+      <c r="K137" s="27">
         <v>8885.93272935391</v>
       </c>
-      <c r="L115" s="27">
+      <c r="L137" s="27">
         <v>12375.218552022799</v>
       </c>
-      <c r="M115" s="27">
+      <c r="M137" s="27">
         <v>15131.901111045599</v>
       </c>
-      <c r="N115" s="26">
+      <c r="N137" s="26">
         <v>3424.9458435076299</v>
       </c>
-      <c r="O115" s="27">
+      <c r="O137" s="27">
         <v>5439.66817657106</v>
       </c>
-      <c r="P115" s="27">
+      <c r="P137" s="27">
         <v>8160.5831005305199</v>
       </c>
-      <c r="Q115" s="27">
+      <c r="Q137" s="27">
         <v>11523.2315407566</v>
       </c>
-      <c r="R115" s="28">
+      <c r="R137" s="28">
         <v>13508.7978675627</v>
       </c>
     </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="51"/>
-      <c r="C116" s="52"/>
-      <c r="D116" s="49"/>
-      <c r="E116" s="49"/>
-      <c r="F116" s="49"/>
-      <c r="G116" s="49"/>
-      <c r="H116" s="49"/>
-      <c r="I116" s="49"/>
-      <c r="J116" s="49"/>
-      <c r="K116" s="49"/>
-      <c r="L116" s="49"/>
-      <c r="M116" s="49"/>
-      <c r="N116" s="49"/>
-      <c r="O116" s="49"/>
-      <c r="P116" s="49"/>
-      <c r="Q116" s="49"/>
-      <c r="R116" s="49"/>
-    </row>
-    <row r="118" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B118" s="22" t="s">
+    <row r="138" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B138" s="34"/>
+      <c r="C138" s="35"/>
+    </row>
+    <row r="140" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B140" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="119" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B119" s="22"/>
-    </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="42" t="s">
+    <row r="141" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B141" s="22"/>
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B142" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C120" s="46"/>
-      <c r="D120" s="39">
+      <c r="C142" s="45"/>
+      <c r="D142" s="40">
         <v>0.25</v>
       </c>
-      <c r="E120" s="40"/>
-      <c r="F120" s="40"/>
-      <c r="G120" s="40"/>
-      <c r="H120" s="40"/>
-      <c r="I120" s="39">
+      <c r="E142" s="41"/>
+      <c r="F142" s="41"/>
+      <c r="G142" s="41"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="40">
         <v>0.5</v>
       </c>
-      <c r="J120" s="40"/>
-      <c r="K120" s="40"/>
-      <c r="L120" s="40"/>
-      <c r="M120" s="40"/>
-      <c r="N120" s="39">
+      <c r="J142" s="41"/>
+      <c r="K142" s="41"/>
+      <c r="L142" s="41"/>
+      <c r="M142" s="41"/>
+      <c r="N142" s="40">
         <v>0.75</v>
       </c>
-      <c r="O120" s="40"/>
-      <c r="P120" s="40"/>
-      <c r="Q120" s="40"/>
-      <c r="R120" s="41"/>
-    </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="42" t="s">
+      <c r="O142" s="41"/>
+      <c r="P142" s="41"/>
+      <c r="Q142" s="41"/>
+      <c r="R142" s="42"/>
+    </row>
+    <row r="143" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B143" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="43"/>
-      <c r="D121" s="9">
+      <c r="C143" s="44"/>
+      <c r="D143" s="9">
         <v>40</v>
       </c>
-      <c r="E121" s="8">
+      <c r="E143" s="8">
         <v>80</v>
       </c>
-      <c r="F121" s="8">
+      <c r="F143" s="8">
         <v>120</v>
       </c>
-      <c r="G121" s="8">
+      <c r="G143" s="8">
         <v>160</v>
       </c>
-      <c r="H121" s="8">
+      <c r="H143" s="8">
         <v>200</v>
       </c>
-      <c r="I121" s="9">
+      <c r="I143" s="9">
         <v>40</v>
       </c>
-      <c r="J121" s="8">
+      <c r="J143" s="8">
         <v>80</v>
       </c>
-      <c r="K121" s="8">
+      <c r="K143" s="8">
         <v>120</v>
       </c>
-      <c r="L121" s="8">
+      <c r="L143" s="8">
         <v>160</v>
       </c>
-      <c r="M121" s="8">
+      <c r="M143" s="8">
         <v>200</v>
       </c>
-      <c r="N121" s="9">
+      <c r="N143" s="9">
         <v>40</v>
       </c>
-      <c r="O121" s="8">
+      <c r="O143" s="8">
         <v>80</v>
       </c>
-      <c r="P121" s="8">
+      <c r="P143" s="8">
         <v>120</v>
       </c>
-      <c r="Q121" s="8">
+      <c r="Q143" s="8">
         <v>160</v>
       </c>
-      <c r="R121" s="10">
+      <c r="R143" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="37" t="s">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B144" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C122" s="25" t="s">
+      <c r="C144" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D122" s="19">
+      <c r="D144" s="19">
         <v>26123.977999999901</v>
       </c>
-      <c r="E122" s="20">
+      <c r="E144" s="20">
         <v>55346.315000000002</v>
       </c>
-      <c r="F122" s="20">
+      <c r="F144" s="20">
         <v>79167.024999999907</v>
       </c>
-      <c r="G122" s="20">
+      <c r="G144" s="20">
         <v>108411.413999999</v>
       </c>
-      <c r="H122" s="21">
+      <c r="H144" s="21">
         <v>135348.016</v>
       </c>
-      <c r="I122" s="19">
+      <c r="I144" s="19">
         <v>23267.427</v>
       </c>
-      <c r="J122" s="20">
+      <c r="J144" s="20">
         <v>48128.292000000001</v>
       </c>
-      <c r="K122" s="20">
+      <c r="K144" s="20">
         <v>69687.577000000107</v>
       </c>
-      <c r="L122" s="20">
+      <c r="L144" s="20">
         <v>91464.140000000203</v>
       </c>
-      <c r="M122" s="21">
+      <c r="M144" s="21">
         <v>113002.269</v>
       </c>
-      <c r="N122" s="19">
+      <c r="N144" s="19">
         <v>14555.466</v>
       </c>
-      <c r="O122" s="20">
+      <c r="O144" s="20">
         <v>25883.148000000001</v>
       </c>
-      <c r="P122" s="20">
+      <c r="P144" s="20">
         <v>36857.523999999801</v>
       </c>
-      <c r="Q122" s="20">
+      <c r="Q144" s="20">
         <v>53538.754000000103</v>
       </c>
-      <c r="R122" s="21">
+      <c r="R144" s="21">
         <v>64892.758999999998</v>
       </c>
     </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="38"/>
-      <c r="C123" s="25" t="s">
+    <row r="145" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B145" s="39"/>
+      <c r="C145" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D123" s="26">
+      <c r="D145" s="26">
         <v>56292.697000000298</v>
       </c>
-      <c r="E123" s="27">
+      <c r="E145" s="27">
         <v>120644.829999999</v>
       </c>
-      <c r="F123" s="27">
+      <c r="F145" s="27">
         <v>176149.67800000001</v>
       </c>
-      <c r="G123" s="27">
+      <c r="G145" s="27">
         <v>235493.17</v>
       </c>
-      <c r="H123" s="27">
+      <c r="H145" s="27">
         <v>305430.26099999697</v>
       </c>
-      <c r="I123" s="26">
+      <c r="I145" s="26">
         <v>33108.194999999898</v>
       </c>
-      <c r="J123" s="27">
+      <c r="J145" s="27">
         <v>74053.605999999607</v>
       </c>
-      <c r="K123" s="27">
+      <c r="K145" s="27">
         <v>106303.567999999</v>
       </c>
-      <c r="L123" s="27">
+      <c r="L145" s="27">
         <v>140589.97599999799</v>
       </c>
-      <c r="M123" s="27">
+      <c r="M145" s="27">
         <v>173737.51099999901</v>
       </c>
-      <c r="N123" s="26">
+      <c r="N145" s="26">
         <v>18218.921999999999</v>
       </c>
-      <c r="O123" s="27">
+      <c r="O145" s="27">
         <v>30492.4739999999</v>
       </c>
-      <c r="P123" s="27">
+      <c r="P145" s="27">
         <v>45559.151000000398</v>
       </c>
-      <c r="Q123" s="27">
+      <c r="Q145" s="27">
         <v>68643.143999999593</v>
       </c>
-      <c r="R123" s="28">
+      <c r="R145" s="28">
         <v>83209.854999999807</v>
       </c>
     </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="36"/>
-      <c r="C124" s="24"/>
-      <c r="D124" s="26">
-        <f>SUM(D122:D123)</f>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B146" s="36"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="26">
+        <f>SUM(D144:D145)</f>
         <v>82416.675000000192</v>
       </c>
-      <c r="E124" s="26">
-        <f t="shared" ref="E124:R124" si="5">SUM(E122:E123)</f>
+      <c r="E146" s="26">
+        <f t="shared" ref="E146:R146" si="9">SUM(E144:E145)</f>
         <v>175991.144999999</v>
       </c>
-      <c r="F124" s="26">
-        <f t="shared" si="5"/>
+      <c r="F146" s="26">
+        <f t="shared" si="9"/>
         <v>255316.70299999992</v>
       </c>
-      <c r="G124" s="26">
-        <f t="shared" si="5"/>
+      <c r="G146" s="26">
+        <f t="shared" si="9"/>
         <v>343904.58399999898</v>
       </c>
-      <c r="H124" s="26">
-        <f t="shared" si="5"/>
+      <c r="H146" s="26">
+        <f t="shared" si="9"/>
         <v>440778.27699999698</v>
       </c>
-      <c r="I124" s="26">
-        <f t="shared" si="5"/>
+      <c r="I146" s="26">
+        <f t="shared" si="9"/>
         <v>56375.621999999901</v>
       </c>
-      <c r="J124" s="26">
-        <f t="shared" si="5"/>
+      <c r="J146" s="26">
+        <f t="shared" si="9"/>
         <v>122181.89799999961</v>
       </c>
-      <c r="K124" s="26">
-        <f t="shared" si="5"/>
+      <c r="K146" s="26">
+        <f t="shared" si="9"/>
         <v>175991.14499999909</v>
       </c>
-      <c r="L124" s="26">
-        <f t="shared" si="5"/>
+      <c r="L146" s="26">
+        <f t="shared" si="9"/>
         <v>232054.11599999818</v>
       </c>
-      <c r="M124" s="26">
-        <f t="shared" si="5"/>
+      <c r="M146" s="26">
+        <f t="shared" si="9"/>
         <v>286739.77999999898</v>
       </c>
-      <c r="N124" s="26">
-        <f t="shared" si="5"/>
+      <c r="N146" s="26">
+        <f t="shared" si="9"/>
         <v>32774.387999999999</v>
       </c>
-      <c r="O124" s="26">
-        <f t="shared" si="5"/>
+      <c r="O146" s="26">
+        <f t="shared" si="9"/>
         <v>56375.621999999901</v>
       </c>
-      <c r="P124" s="26">
-        <f t="shared" si="5"/>
+      <c r="P146" s="26">
+        <f t="shared" si="9"/>
         <v>82416.675000000192</v>
       </c>
-      <c r="Q124" s="26">
-        <f t="shared" si="5"/>
+      <c r="Q146" s="26">
+        <f t="shared" si="9"/>
         <v>122181.8979999997</v>
       </c>
-      <c r="R124" s="26">
-        <f t="shared" si="5"/>
+      <c r="R146" s="26">
+        <f t="shared" si="9"/>
         <v>148102.6139999998</v>
       </c>
     </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="44" t="s">
+    <row r="147" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B147" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C125" s="45"/>
-      <c r="D125" s="29">
+      <c r="C147" s="47"/>
+      <c r="D147" s="29">
         <v>37.495161106683298</v>
       </c>
-      <c r="E125" s="30">
+      <c r="E147" s="30">
         <v>38.597290219742597</v>
       </c>
-      <c r="F125" s="30">
+      <c r="F147" s="30">
         <v>37.3004668108846</v>
       </c>
-      <c r="G125" s="30">
+      <c r="G147" s="30">
         <v>37.9744961858135</v>
       </c>
-      <c r="H125" s="31">
+      <c r="H147" s="31">
         <v>37.916884891267202</v>
       </c>
-      <c r="I125" s="29">
+      <c r="I147" s="29">
         <v>38.597290219742597</v>
       </c>
-      <c r="J125" s="30">
+      <c r="J147" s="30">
         <v>37.9744961858135</v>
       </c>
-      <c r="K125" s="30">
+      <c r="K147" s="30">
         <v>37.9948005616911</v>
       </c>
-      <c r="L125" s="30">
+      <c r="L147" s="30">
         <v>37.668507343732202</v>
       </c>
-      <c r="M125" s="31">
+      <c r="M147" s="31">
         <v>37.773539792781499</v>
       </c>
-      <c r="N125" s="29">
+      <c r="N147" s="29">
         <v>37.3004668108846</v>
       </c>
-      <c r="O125" s="30">
+      <c r="O147" s="30">
         <v>37.9948005616911</v>
       </c>
-      <c r="P125" s="30">
+      <c r="P147" s="30">
         <v>37.847609649954997</v>
       </c>
-      <c r="Q125" s="30">
+      <c r="Q147" s="30">
         <v>37.841853580780999</v>
       </c>
-      <c r="R125" s="31">
+      <c r="R147" s="31">
         <v>37.940567004440297</v>
       </c>
     </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="37" t="s">
+    <row r="148" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B148" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C126" s="25" t="s">
+      <c r="C148" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D126" s="19">
+      <c r="D148" s="19">
         <v>26123.977999999901</v>
       </c>
-      <c r="E126" s="20">
+      <c r="E148" s="20">
         <v>55346.315000000002</v>
       </c>
-      <c r="F126" s="20">
+      <c r="F148" s="20">
         <v>79167.024999999907</v>
       </c>
-      <c r="G126" s="20">
+      <c r="G148" s="20">
         <v>108411.413999999</v>
       </c>
-      <c r="H126" s="21">
+      <c r="H148" s="21">
         <v>135348.016</v>
       </c>
-      <c r="I126" s="19">
+      <c r="I148" s="19">
         <v>23267.427</v>
       </c>
-      <c r="J126" s="20">
+      <c r="J148" s="20">
         <v>48128.292000000001</v>
       </c>
-      <c r="K126" s="20">
+      <c r="K148" s="20">
         <v>69687.577000000107</v>
       </c>
-      <c r="L126" s="20">
+      <c r="L148" s="20">
         <v>91464.140000000203</v>
       </c>
-      <c r="M126" s="21">
+      <c r="M148" s="21">
         <v>113002.269</v>
       </c>
-      <c r="N126" s="19">
+      <c r="N148" s="19">
         <v>14555.466</v>
       </c>
-      <c r="O126" s="20">
+      <c r="O148" s="20">
         <v>25883.148000000001</v>
       </c>
-      <c r="P126" s="20">
+      <c r="P148" s="20">
         <v>36857.523999999801</v>
       </c>
-      <c r="Q126" s="20">
+      <c r="Q148" s="20">
         <v>53538.754000000103</v>
       </c>
-      <c r="R126" s="21">
+      <c r="R148" s="21">
         <v>64892.758999999998</v>
       </c>
     </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="50"/>
-      <c r="C127" s="25" t="s">
+    <row r="149" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B149" s="38"/>
+      <c r="C149" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D127" s="26">
+      <c r="D149" s="26">
         <v>16398.6719999999</v>
       </c>
-      <c r="E127" s="27">
+      <c r="E149" s="27">
         <v>33072.267999999902</v>
       </c>
-      <c r="F127" s="27">
+      <c r="F149" s="27">
         <v>47429.379000000103</v>
       </c>
-      <c r="G127" s="27">
+      <c r="G149" s="27">
         <v>64222.389000000199</v>
       </c>
-      <c r="H127" s="27">
+      <c r="H149" s="27">
         <v>80558.0129999989</v>
       </c>
-      <c r="I127" s="26">
+      <c r="I149" s="26">
         <v>65151.155999999901</v>
       </c>
-      <c r="J127" s="27">
+      <c r="J149" s="27">
         <v>124505.51099999899</v>
       </c>
-      <c r="K127" s="27">
+      <c r="K149" s="27">
         <v>189702.80999999901</v>
       </c>
-      <c r="L127" s="27">
+      <c r="L149" s="27">
         <v>250159.80300000001</v>
       </c>
-      <c r="M127" s="27">
+      <c r="M149" s="27">
         <v>315182.012999998</v>
       </c>
-      <c r="N127" s="26">
+      <c r="N149" s="26">
         <v>112040.93799999999</v>
       </c>
-      <c r="O127" s="27">
+      <c r="O149" s="27">
         <v>233507.23899999901</v>
       </c>
-      <c r="P127" s="27">
+      <c r="P149" s="27">
         <v>349755.27900000103</v>
       </c>
-      <c r="Q127" s="27">
+      <c r="Q149" s="27">
         <v>460590.66800000001</v>
       </c>
-      <c r="R127" s="28">
+      <c r="R149" s="28">
         <v>582188.41700000002</v>
       </c>
     </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="38"/>
-      <c r="C128" s="25" t="s">
+    <row r="150" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B150" s="39"/>
+      <c r="C150" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D128" s="32">
+      <c r="D150" s="32">
         <v>8534.0769999999902</v>
       </c>
-      <c r="E128" s="18">
+      <c r="E150" s="18">
         <v>15023.047000000201</v>
       </c>
-      <c r="F128" s="18">
+      <c r="F150" s="18">
         <v>25498.076000001602</v>
       </c>
-      <c r="G128" s="18">
+      <c r="G150" s="18">
         <v>31785.759000001901</v>
       </c>
-      <c r="H128" s="18">
+      <c r="H150" s="18">
         <v>39645.643000001801</v>
       </c>
-      <c r="I128" s="32">
+      <c r="I150" s="32">
         <v>15023.047000000201</v>
       </c>
-      <c r="J128" s="18">
+      <c r="J150" s="18">
         <v>31785.759000001901</v>
       </c>
-      <c r="K128" s="18">
+      <c r="K150" s="18">
         <v>47868.672000000799</v>
       </c>
-      <c r="L128" s="18">
+      <c r="L150" s="18">
         <v>67023.046000000497</v>
       </c>
-      <c r="M128" s="18">
+      <c r="M150" s="18">
         <v>83264.587999997806</v>
       </c>
-      <c r="N128" s="32">
+      <c r="N150" s="32">
         <v>25498.076000001602</v>
       </c>
-      <c r="O128" s="18">
+      <c r="O150" s="18">
         <v>47868.672000000799</v>
       </c>
-      <c r="P128" s="18">
+      <c r="P150" s="18">
         <v>74049.793999997695</v>
       </c>
-      <c r="Q128" s="18">
+      <c r="Q150" s="18">
         <v>99770.900999995894</v>
       </c>
-      <c r="R128" s="33">
+      <c r="R150" s="33">
         <v>122088.448999985</v>
       </c>
     </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="37" t="s">
+    <row r="151" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B151" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C129" s="25" t="s">
+      <c r="C151" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D129" s="19">
+      <c r="D151" s="19">
         <v>2839.3099999999899</v>
       </c>
-      <c r="E129" s="20">
+      <c r="E151" s="20">
         <v>4209.1819999999998</v>
       </c>
-      <c r="F129" s="20">
+      <c r="F151" s="20">
         <v>9317.8990000001595</v>
       </c>
-      <c r="G129" s="20">
+      <c r="G151" s="20">
         <v>10801.9660000003</v>
       </c>
-      <c r="H129" s="21">
+      <c r="H151" s="21">
         <v>13422.6080000005</v>
       </c>
-      <c r="I129" s="19">
+      <c r="I151" s="19">
         <v>4209.1819999999998</v>
       </c>
-      <c r="J129" s="20">
+      <c r="J151" s="20">
         <v>10801.9660000003</v>
       </c>
-      <c r="K129" s="20">
+      <c r="K151" s="20">
         <v>15422.8810000007</v>
       </c>
-      <c r="L129" s="20">
+      <c r="L151" s="20">
         <v>21735.230000000902</v>
       </c>
-      <c r="M129" s="21">
+      <c r="M151" s="21">
         <v>26410.886000000701</v>
       </c>
-      <c r="N129" s="19">
+      <c r="N151" s="19">
         <v>9317.8990000001595</v>
       </c>
-      <c r="O129" s="20">
+      <c r="O151" s="20">
         <v>15422.8810000007</v>
       </c>
-      <c r="P129" s="20">
+      <c r="P151" s="20">
         <v>23458.593000000699</v>
       </c>
-      <c r="Q129" s="20">
+      <c r="Q151" s="20">
         <v>31488.346000001002</v>
       </c>
-      <c r="R129" s="21">
+      <c r="R151" s="21">
         <v>37533.597000000103</v>
       </c>
     </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B130" s="38"/>
-      <c r="C130" s="23" t="s">
+    <row r="152" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B152" s="39"/>
+      <c r="C152" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D130" s="26">
+      <c r="D152" s="26">
         <v>16790.917000000401</v>
       </c>
-      <c r="E130" s="27">
+      <c r="E152" s="27">
         <v>30669.1150000013</v>
       </c>
-      <c r="F130" s="27">
+      <c r="F152" s="27">
         <v>54472.179999999498</v>
       </c>
-      <c r="G130" s="27">
+      <c r="G152" s="27">
         <v>67721.874999998094</v>
       </c>
-      <c r="H130" s="27">
+      <c r="H152" s="27">
         <v>85976.110999994897</v>
       </c>
-      <c r="I130" s="26">
+      <c r="I152" s="26">
         <v>30669.1150000013</v>
       </c>
-      <c r="J130" s="27">
+      <c r="J152" s="27">
         <v>67721.874999998094</v>
       </c>
-      <c r="K130" s="27">
+      <c r="K152" s="27">
         <v>102420.32999999401</v>
       </c>
-      <c r="L130" s="27">
+      <c r="L152" s="27">
         <v>141649.05399999101</v>
       </c>
-      <c r="M130" s="27">
+      <c r="M152" s="27">
         <v>174952.00799998501</v>
       </c>
-      <c r="N130" s="26">
+      <c r="N152" s="26">
         <v>54472.179999999498</v>
       </c>
-      <c r="O130" s="27">
+      <c r="O152" s="27">
         <v>102420.32999999401</v>
       </c>
-      <c r="P130" s="27">
+      <c r="P152" s="27">
         <v>156268.79399998899</v>
       </c>
-      <c r="Q130" s="27">
+      <c r="Q152" s="27">
         <v>209573.27799997901</v>
       </c>
-      <c r="R130" s="28">
+      <c r="R152" s="28">
         <v>257711.95299998199</v>
       </c>
     </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="34"/>
-      <c r="C131" s="35" t="s">
+    <row r="153" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B153" s="34"/>
+      <c r="C153" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D131" s="18">
-        <f>SUM(D128:D130)</f>
+      <c r="D153" s="18">
+        <f>SUM(D150:D152)</f>
         <v>28164.304000000382</v>
       </c>
-      <c r="E131" s="18">
-        <f t="shared" ref="E131:R131" si="6">SUM(E128:E130)</f>
+      <c r="E153" s="18">
+        <f t="shared" ref="E153:R153" si="10">SUM(E150:E152)</f>
         <v>49901.344000001496</v>
       </c>
-      <c r="F131" s="18">
-        <f t="shared" si="6"/>
+      <c r="F153" s="18">
+        <f t="shared" si="10"/>
         <v>89288.15500000125</v>
       </c>
-      <c r="G131" s="18">
-        <f t="shared" si="6"/>
+      <c r="G153" s="18">
+        <f t="shared" si="10"/>
         <v>110309.6000000003</v>
       </c>
-      <c r="H131" s="18">
-        <f t="shared" si="6"/>
+      <c r="H153" s="18">
+        <f t="shared" si="10"/>
         <v>139044.3619999972</v>
       </c>
-      <c r="I131" s="18">
-        <f t="shared" si="6"/>
+      <c r="I153" s="18">
+        <f t="shared" si="10"/>
         <v>49901.344000001496</v>
       </c>
-      <c r="J131" s="18">
-        <f t="shared" si="6"/>
+      <c r="J153" s="18">
+        <f t="shared" si="10"/>
         <v>110309.6000000003</v>
       </c>
-      <c r="K131" s="18">
-        <f t="shared" si="6"/>
+      <c r="K153" s="18">
+        <f t="shared" si="10"/>
         <v>165711.88299999549</v>
       </c>
-      <c r="L131" s="18">
-        <f t="shared" si="6"/>
+      <c r="L153" s="18">
+        <f t="shared" si="10"/>
         <v>230407.32999999239</v>
       </c>
-      <c r="M131" s="18">
-        <f t="shared" si="6"/>
+      <c r="M153" s="18">
+        <f t="shared" si="10"/>
         <v>284627.48199998355</v>
       </c>
-      <c r="N131" s="18">
-        <f t="shared" si="6"/>
+      <c r="N153" s="18">
+        <f t="shared" si="10"/>
         <v>89288.15500000125</v>
       </c>
-      <c r="O131" s="18">
-        <f t="shared" si="6"/>
+      <c r="O153" s="18">
+        <f t="shared" si="10"/>
         <v>165711.88299999549</v>
       </c>
-      <c r="P131" s="18">
-        <f t="shared" si="6"/>
+      <c r="P153" s="18">
+        <f t="shared" si="10"/>
         <v>253777.18099998738</v>
       </c>
-      <c r="Q131" s="18">
-        <f t="shared" si="6"/>
+      <c r="Q153" s="18">
+        <f t="shared" si="10"/>
         <v>340832.52499997593</v>
       </c>
-      <c r="R131" s="18">
-        <f t="shared" si="6"/>
+      <c r="R153" s="18">
+        <f t="shared" si="10"/>
         <v>417333.99899996712</v>
       </c>
     </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C132" s="35" t="s">
+    <row r="154" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C154" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D132" s="18">
-        <f>SUM(D126:D129)</f>
+      <c r="D154" s="18">
+        <f>SUM(D148:D151)</f>
         <v>53896.036999999786</v>
       </c>
-      <c r="E132" s="18">
-        <f t="shared" ref="E132:R132" si="7">SUM(E126:E129)</f>
+      <c r="E154" s="18">
+        <f t="shared" ref="E154:R154" si="11">SUM(E148:E151)</f>
         <v>107650.81200000009</v>
       </c>
-      <c r="F132" s="18">
-        <f t="shared" si="7"/>
+      <c r="F154" s="18">
+        <f t="shared" si="11"/>
         <v>161412.37900000176</v>
       </c>
-      <c r="G132" s="18">
-        <f t="shared" si="7"/>
+      <c r="G154" s="18">
+        <f t="shared" si="11"/>
         <v>215221.52800000142</v>
       </c>
-      <c r="H132" s="18">
-        <f t="shared" si="7"/>
+      <c r="H154" s="18">
+        <f t="shared" si="11"/>
         <v>268974.28000000119</v>
       </c>
-      <c r="I132" s="18">
-        <f t="shared" si="7"/>
+      <c r="I154" s="18">
+        <f t="shared" si="11"/>
         <v>107650.81200000009</v>
       </c>
-      <c r="J132" s="18">
-        <f t="shared" si="7"/>
+      <c r="J154" s="18">
+        <f t="shared" si="11"/>
         <v>215221.52800000121</v>
       </c>
-      <c r="K132" s="18">
-        <f t="shared" si="7"/>
+      <c r="K154" s="18">
+        <f t="shared" si="11"/>
         <v>322681.94000000058</v>
       </c>
-      <c r="L132" s="18">
-        <f t="shared" si="7"/>
+      <c r="L154" s="18">
+        <f t="shared" si="11"/>
         <v>430382.21900000161</v>
       </c>
-      <c r="M132" s="18">
-        <f t="shared" si="7"/>
+      <c r="M154" s="18">
+        <f t="shared" si="11"/>
         <v>537859.75599999656</v>
       </c>
-      <c r="N132" s="18">
-        <f t="shared" si="7"/>
+      <c r="N154" s="18">
+        <f t="shared" si="11"/>
         <v>161412.37900000176</v>
       </c>
-      <c r="O132" s="18">
-        <f t="shared" si="7"/>
+      <c r="O154" s="18">
+        <f t="shared" si="11"/>
         <v>322681.94000000047</v>
       </c>
-      <c r="P132" s="18">
-        <f t="shared" si="7"/>
+      <c r="P154" s="18">
+        <f t="shared" si="11"/>
         <v>484121.18999999925</v>
       </c>
-      <c r="Q132" s="18">
-        <f t="shared" si="7"/>
+      <c r="Q154" s="18">
+        <f t="shared" si="11"/>
         <v>645388.66899999697</v>
       </c>
-      <c r="R132" s="18">
-        <f t="shared" si="7"/>
+      <c r="R154" s="18">
+        <f t="shared" si="11"/>
         <v>806703.22199998505</v>
       </c>
     </row>
-    <row r="133" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B133" s="22" t="s">
+    <row r="155" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B155" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="134" spans="2:18" ht="18" x14ac:dyDescent="0.2">
-      <c r="B134" s="22"/>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="42" t="s">
+    <row r="156" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B156" s="22"/>
+    </row>
+    <row r="157" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B157" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C135" s="46"/>
-      <c r="D135" s="39">
+      <c r="C157" s="45"/>
+      <c r="D157" s="40">
         <v>0.25</v>
       </c>
-      <c r="E135" s="40"/>
-      <c r="F135" s="40"/>
-      <c r="G135" s="40"/>
-      <c r="H135" s="40"/>
-      <c r="I135" s="39">
+      <c r="E157" s="41"/>
+      <c r="F157" s="41"/>
+      <c r="G157" s="41"/>
+      <c r="H157" s="41"/>
+      <c r="I157" s="40">
         <v>0.5</v>
       </c>
-      <c r="J135" s="40"/>
-      <c r="K135" s="40"/>
-      <c r="L135" s="40"/>
-      <c r="M135" s="40"/>
-      <c r="N135" s="39">
+      <c r="J157" s="41"/>
+      <c r="K157" s="41"/>
+      <c r="L157" s="41"/>
+      <c r="M157" s="41"/>
+      <c r="N157" s="40">
         <v>0.75</v>
       </c>
-      <c r="O135" s="40"/>
-      <c r="P135" s="40"/>
-      <c r="Q135" s="40"/>
-      <c r="R135" s="41"/>
-    </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="42" t="s">
+      <c r="O157" s="41"/>
+      <c r="P157" s="41"/>
+      <c r="Q157" s="41"/>
+      <c r="R157" s="42"/>
+    </row>
+    <row r="158" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B158" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="43"/>
-      <c r="D136" s="9">
+      <c r="C158" s="44"/>
+      <c r="D158" s="9">
         <v>40</v>
       </c>
-      <c r="E136" s="8">
+      <c r="E158" s="8">
         <v>80</v>
       </c>
-      <c r="F136" s="8">
+      <c r="F158" s="8">
         <v>120</v>
       </c>
-      <c r="G136" s="8">
+      <c r="G158" s="8">
         <v>160</v>
       </c>
-      <c r="H136" s="8">
+      <c r="H158" s="8">
         <v>200</v>
       </c>
-      <c r="I136" s="9">
+      <c r="I158" s="9">
         <v>40</v>
       </c>
-      <c r="J136" s="8">
+      <c r="J158" s="8">
         <v>80</v>
       </c>
-      <c r="K136" s="8">
+      <c r="K158" s="8">
         <v>120</v>
       </c>
-      <c r="L136" s="8">
+      <c r="L158" s="8">
         <v>160</v>
       </c>
-      <c r="M136" s="8">
+      <c r="M158" s="8">
         <v>200</v>
       </c>
-      <c r="N136" s="9">
+      <c r="N158" s="9">
         <v>40</v>
       </c>
-      <c r="O136" s="8">
+      <c r="O158" s="8">
         <v>80</v>
       </c>
-      <c r="P136" s="8">
+      <c r="P158" s="8">
         <v>120</v>
       </c>
-      <c r="Q136" s="8">
+      <c r="Q158" s="8">
         <v>160</v>
       </c>
-      <c r="R136" s="10">
+      <c r="R158" s="10">
         <v>200</v>
       </c>
     </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B137" s="37" t="s">
+    <row r="159" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B159" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C137" s="25" t="s">
+      <c r="C159" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D137" s="19">
+      <c r="D159" s="19">
         <v>39089.046438154801</v>
       </c>
-      <c r="E137" s="20">
+      <c r="E159" s="20">
         <v>82019.877758255199</v>
       </c>
-      <c r="F137" s="20">
+      <c r="F159" s="20">
         <v>116218.580895627</v>
       </c>
-      <c r="G137" s="20">
+      <c r="G159" s="20">
         <v>159138.987787872</v>
       </c>
-      <c r="H137" s="21">
+      <c r="H159" s="21">
         <v>199051.54997373</v>
       </c>
-      <c r="I137" s="19">
+      <c r="I159" s="19">
         <v>47331.372169554197</v>
       </c>
-      <c r="J137" s="20">
+      <c r="J159" s="20">
         <v>98920.318932192706</v>
       </c>
-      <c r="K137" s="20">
+      <c r="K159" s="20">
         <v>143436.541290161</v>
       </c>
-      <c r="L137" s="20">
+      <c r="L159" s="20">
         <v>187508.74651262799</v>
       </c>
-      <c r="M137" s="21">
+      <c r="M159" s="21">
         <v>232410.23169515099</v>
       </c>
-      <c r="N137" s="19">
+      <c r="N159" s="19">
         <v>31737.7857815758</v>
       </c>
-      <c r="O137" s="20">
+      <c r="O159" s="20">
         <v>55315.897663591</v>
       </c>
-      <c r="P137" s="20">
+      <c r="P159" s="20">
         <v>80681.930887105496</v>
       </c>
-      <c r="Q137" s="20">
+      <c r="Q159" s="20">
         <v>118347.293455394</v>
       </c>
-      <c r="R137" s="21">
+      <c r="R159" s="21">
         <v>143829.63556123499</v>
       </c>
     </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="38"/>
-      <c r="C138" s="25" t="s">
+    <row r="160" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B160" s="39"/>
+      <c r="C160" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D138" s="26">
+      <c r="D160" s="26">
         <v>43327.628561845399</v>
       </c>
-      <c r="E138" s="27">
+      <c r="E160" s="27">
         <v>93971.267241744106</v>
       </c>
-      <c r="F138" s="27">
+      <c r="F160" s="27">
         <v>139098.12210437201</v>
       </c>
-      <c r="G138" s="27">
+      <c r="G160" s="27">
         <v>184765.596212128</v>
       </c>
-      <c r="H138" s="27">
+      <c r="H160" s="27">
         <v>241726.72702626701</v>
       </c>
-      <c r="I138" s="26">
+      <c r="I160" s="26">
         <v>9044.2498304456894</v>
       </c>
-      <c r="J138" s="27">
+      <c r="J160" s="27">
         <v>23261.579067807001</v>
       </c>
-      <c r="K138" s="27">
+      <c r="K160" s="27">
         <v>32554.6037098382</v>
       </c>
-      <c r="L138" s="27">
+      <c r="L160" s="27">
         <v>44545.369487370503</v>
       </c>
-      <c r="M138" s="27">
+      <c r="M160" s="27">
         <v>54329.548304848198</v>
       </c>
-      <c r="N138" s="26">
+      <c r="N160" s="26">
         <v>1036.6022184242499</v>
       </c>
-      <c r="O138" s="27">
+      <c r="O160" s="27">
         <v>1059.7243364088899</v>
       </c>
-      <c r="P138" s="27">
+      <c r="P160" s="27">
         <v>1734.74411289472</v>
       </c>
-      <c r="Q138" s="27">
+      <c r="Q160" s="27">
         <v>3834.6045446057501</v>
       </c>
-      <c r="R138" s="28">
+      <c r="R160" s="28">
         <v>4272.9784387647796</v>
       </c>
     </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="36"/>
-      <c r="C139" s="24"/>
-      <c r="D139" s="26">
-        <f>SUM(D137:D138)</f>
+    <row r="161" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B161" s="36"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="26">
+        <f>SUM(D159:D160)</f>
         <v>82416.675000000192</v>
       </c>
-      <c r="E139" s="26">
-        <f t="shared" ref="E139:R139" si="8">SUM(E137:E138)</f>
+      <c r="E161" s="26">
+        <f t="shared" ref="E161:R161" si="12">SUM(E159:E160)</f>
         <v>175991.14499999932</v>
       </c>
-      <c r="F139" s="26">
-        <f t="shared" si="8"/>
+      <c r="F161" s="26">
+        <f t="shared" si="12"/>
         <v>255316.70299999902</v>
       </c>
-      <c r="G139" s="26">
-        <f t="shared" si="8"/>
+      <c r="G161" s="26">
+        <f t="shared" si="12"/>
         <v>343904.58400000003</v>
       </c>
-      <c r="H139" s="26">
-        <f t="shared" si="8"/>
+      <c r="H161" s="26">
+        <f t="shared" si="12"/>
         <v>440778.27699999698</v>
       </c>
-      <c r="I139" s="26">
-        <f t="shared" si="8"/>
+      <c r="I161" s="26">
+        <f t="shared" si="12"/>
         <v>56375.621999999887</v>
       </c>
-      <c r="J139" s="26">
-        <f t="shared" si="8"/>
+      <c r="J161" s="26">
+        <f t="shared" si="12"/>
         <v>122181.89799999971</v>
       </c>
-      <c r="K139" s="26">
-        <f t="shared" si="8"/>
+      <c r="K161" s="26">
+        <f t="shared" si="12"/>
         <v>175991.1449999992</v>
       </c>
-      <c r="L139" s="26">
-        <f t="shared" si="8"/>
+      <c r="L161" s="26">
+        <f t="shared" si="12"/>
         <v>232054.1159999985</v>
       </c>
-      <c r="M139" s="26">
-        <f t="shared" si="8"/>
+      <c r="M161" s="26">
+        <f t="shared" si="12"/>
         <v>286739.77999999921</v>
       </c>
-      <c r="N139" s="26">
-        <f t="shared" si="8"/>
+      <c r="N161" s="26">
+        <f t="shared" si="12"/>
         <v>32774.38800000005</v>
       </c>
-      <c r="O139" s="26">
-        <f t="shared" si="8"/>
+      <c r="O161" s="26">
+        <f t="shared" si="12"/>
         <v>56375.621999999887</v>
       </c>
-      <c r="P139" s="26">
-        <f t="shared" si="8"/>
+      <c r="P161" s="26">
+        <f t="shared" si="12"/>
         <v>82416.675000000221</v>
       </c>
-      <c r="Q139" s="26">
-        <f t="shared" si="8"/>
+      <c r="Q161" s="26">
+        <f t="shared" si="12"/>
         <v>122181.89799999975</v>
       </c>
-      <c r="R139" s="26">
-        <f t="shared" si="8"/>
+      <c r="R161" s="26">
+        <f t="shared" si="12"/>
         <v>148102.61399999977</v>
       </c>
     </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B140" s="44" t="s">
+    <row r="162" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B162" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C140" s="45"/>
-      <c r="D140" s="29">
+      <c r="C162" s="47"/>
+      <c r="D162" s="29">
         <v>48.231811453945099</v>
       </c>
-      <c r="E140" s="30">
+      <c r="E162" s="30">
         <v>49.0726403279061</v>
       </c>
-      <c r="F140" s="30">
+      <c r="F162" s="30">
         <v>47.183194808152102</v>
       </c>
-      <c r="G140" s="30">
+      <c r="G162" s="30">
         <v>48.134748946829099</v>
       </c>
-      <c r="H140" s="31">
+      <c r="H162" s="31">
         <v>47.697597631788597</v>
       </c>
-      <c r="I140" s="29">
+      <c r="I162" s="29">
         <v>80.861323010360906</v>
       </c>
-      <c r="J140" s="30">
+      <c r="J162" s="30">
         <v>76.719799612888494</v>
       </c>
-      <c r="K140" s="30">
+      <c r="K162" s="30">
         <v>77.592887775627105</v>
       </c>
-      <c r="L140" s="30">
+      <c r="L162" s="30">
         <v>76.814727314129499</v>
       </c>
-      <c r="M140" s="31">
+      <c r="M162" s="31">
         <v>77.205738358191894</v>
       </c>
-      <c r="N140" s="29">
+      <c r="N162" s="29">
         <v>88.366541424722001</v>
       </c>
-      <c r="O140" s="30">
+      <c r="O162" s="30">
         <v>90.8184371323389</v>
       </c>
-      <c r="P140" s="30">
+      <c r="P162" s="30">
         <v>90.724885194883996</v>
       </c>
-      <c r="Q140" s="30">
+      <c r="Q162" s="30">
         <v>89.958157804850202</v>
       </c>
-      <c r="R140" s="31">
+      <c r="R162" s="31">
         <v>90.570116512960595</v>
       </c>
     </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B141" s="37" t="s">
+    <row r="163" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B163" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C141" s="25" t="s">
+      <c r="C163" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D141" s="18">
+      <c r="D163" s="18">
         <v>39089.046438154801</v>
       </c>
-      <c r="E141" s="18">
+      <c r="E163" s="18">
         <v>82019.877758255199</v>
       </c>
-      <c r="F141" s="18">
+      <c r="F163" s="18">
         <v>116218.580895627</v>
       </c>
-      <c r="G141" s="18">
+      <c r="G163" s="18">
         <v>159138.987787872</v>
       </c>
-      <c r="H141" s="18">
+      <c r="H163" s="18">
         <v>199051.54997373</v>
       </c>
-      <c r="I141" s="18">
+      <c r="I163" s="18">
         <v>47331.372169554197</v>
       </c>
-      <c r="J141" s="18">
+      <c r="J163" s="18">
         <v>98920.318932192706</v>
       </c>
-      <c r="K141" s="18">
+      <c r="K163" s="18">
         <v>143436.541290161</v>
       </c>
-      <c r="L141" s="18">
+      <c r="L163" s="18">
         <v>187508.74651262799</v>
       </c>
-      <c r="M141" s="18">
+      <c r="M163" s="18">
         <v>232410.23169515099</v>
       </c>
-      <c r="N141" s="18">
+      <c r="N163" s="18">
         <v>31737.7857815758</v>
       </c>
-      <c r="O141" s="18">
+      <c r="O163" s="18">
         <v>55315.897663591</v>
       </c>
-      <c r="P141" s="18">
+      <c r="P163" s="18">
         <v>80681.930887105496</v>
       </c>
-      <c r="Q141" s="18">
+      <c r="Q163" s="18">
         <v>118347.293455394</v>
       </c>
-      <c r="R141" s="18">
+      <c r="R163" s="18">
         <v>143829.63556123499</v>
       </c>
     </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B142" s="50"/>
-      <c r="C142" s="25" t="s">
+    <row r="164" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B164" s="38"/>
+      <c r="C164" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="D142" s="19">
+      <c r="D164" s="19">
         <v>62.6266260465326</v>
       </c>
-      <c r="E142" s="20">
+      <c r="E164" s="20">
         <v>145.95272218341199</v>
       </c>
-      <c r="F142" s="20">
+      <c r="F164" s="20">
         <v>253.86312214038699</v>
       </c>
-      <c r="G142" s="20">
+      <c r="G164" s="20">
         <v>365.55366372404802</v>
       </c>
-      <c r="H142" s="21">
+      <c r="H164" s="21">
         <v>353.02941921400998</v>
       </c>
-      <c r="I142" s="19">
+      <c r="I164" s="19">
         <v>21484.015108340998</v>
       </c>
-      <c r="J142" s="20">
+      <c r="J164" s="20">
         <v>35410.964109768698</v>
       </c>
-      <c r="K142" s="20">
+      <c r="K164" s="20">
         <v>55839.192232946101</v>
       </c>
-      <c r="L142" s="20">
+      <c r="L164" s="20">
         <v>71190.607977963198</v>
       </c>
-      <c r="M142" s="21">
+      <c r="M164" s="21">
         <v>91655.986653072396</v>
       </c>
-      <c r="N142" s="19">
+      <c r="N164" s="19">
         <v>56051.191862880602</v>
       </c>
-      <c r="O142" s="20">
+      <c r="O164" s="20">
         <v>124618.650763413</v>
       </c>
-      <c r="P142" s="20">
+      <c r="P164" s="20">
         <v>183089.578469145</v>
       </c>
-      <c r="Q142" s="20">
+      <c r="Q164" s="20">
         <v>231445.718093773</v>
       </c>
-      <c r="R142" s="21">
+      <c r="R164" s="21">
         <v>297307.87253847002</v>
       </c>
     </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B143" s="38"/>
-      <c r="C143" s="25" t="s">
+    <row r="165" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B165" s="39"/>
+      <c r="C165" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D143" s="19">
+      <c r="D165" s="19">
         <v>12502.986000000101</v>
       </c>
-      <c r="E143" s="20">
+      <c r="E165" s="20">
         <v>22024.3470000009</v>
       </c>
-      <c r="F143" s="20">
+      <c r="F165" s="20">
         <v>37600.384000001803</v>
       </c>
-      <c r="G143" s="20">
+      <c r="G165" s="20">
         <v>47122.450000001103</v>
       </c>
-      <c r="H143" s="21">
+      <c r="H165" s="21">
         <v>58866.593000000299</v>
       </c>
-      <c r="I143" s="19">
+      <c r="I165" s="19">
         <v>36741.308000001503</v>
       </c>
-      <c r="J143" s="20">
+      <c r="J165" s="20">
         <v>75257.48</v>
       </c>
-      <c r="K143" s="20">
+      <c r="K165" s="20">
         <v>115572.87899998701</v>
       </c>
-      <c r="L143" s="20">
+      <c r="L165" s="20">
         <v>160735.24699998301</v>
       </c>
-      <c r="M143" s="21">
+      <c r="M165" s="21">
         <v>200645.39299997999</v>
       </c>
-      <c r="N143" s="19">
+      <c r="N165" s="19">
         <v>69749.693999998097</v>
       </c>
-      <c r="O143" s="20">
+      <c r="O165" s="20">
         <v>137061.15999998199</v>
       </c>
-      <c r="P143" s="20">
+      <c r="P165" s="20">
         <v>211954.87199998199</v>
       </c>
-      <c r="Q143" s="20">
+      <c r="Q165" s="20">
         <v>284421.51899999101</v>
       </c>
-      <c r="R143" s="21">
+      <c r="R165" s="21">
         <v>352587.18600000802</v>
       </c>
     </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B144" s="37" t="s">
+    <row r="166" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B166" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C144" s="25" t="s">
+      <c r="C166" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D144" s="19">
+      <c r="D166" s="19">
         <v>2241.3779357984899</v>
       </c>
-      <c r="E144" s="20">
+      <c r="E166" s="20">
         <v>3460.6345195614399</v>
       </c>
-      <c r="F144" s="20">
+      <c r="F166" s="20">
         <v>7339.5509822314998</v>
       </c>
-      <c r="G144" s="20">
+      <c r="G166" s="20">
         <v>8594.5365484032409</v>
       </c>
-      <c r="H144" s="21">
+      <c r="H166" s="21">
         <v>10703.107607055899</v>
       </c>
-      <c r="I144" s="19">
+      <c r="I166" s="19">
         <v>2013.8119190336699</v>
       </c>
-      <c r="J144" s="20">
+      <c r="J166" s="20">
         <v>5579.4778598323801</v>
       </c>
-      <c r="K144" s="20">
+      <c r="K166" s="20">
         <v>7771.1871545843296</v>
       </c>
-      <c r="L144" s="20">
+      <c r="L166" s="20">
         <v>10874.514865843999</v>
       </c>
-      <c r="M144" s="21">
+      <c r="M166" s="21">
         <v>13046.293765803801</v>
       </c>
-      <c r="N144" s="19">
+      <c r="N166" s="19">
         <v>3520.0906782329498</v>
       </c>
-      <c r="O144" s="20">
+      <c r="O166" s="20">
         <v>4945.7284306758802</v>
       </c>
-      <c r="P144" s="20">
+      <c r="P166" s="20">
         <v>7318.7465706147595</v>
       </c>
-      <c r="Q144" s="20">
+      <c r="Q166" s="20">
         <v>9816.5870779412908</v>
       </c>
-      <c r="R144" s="21">
+      <c r="R166" s="21">
         <v>11229.1503665984</v>
       </c>
     </row>
-    <row r="145" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B145" s="38"/>
-      <c r="C145" s="23" t="s">
+    <row r="167" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B167" s="39"/>
+      <c r="C167" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D145" s="26">
+      <c r="D167" s="26">
         <v>13419.940064201701</v>
       </c>
-      <c r="E145" s="27">
+      <c r="E167" s="27">
         <v>24416.362480439398</v>
       </c>
-      <c r="F145" s="27">
+      <c r="F167" s="27">
         <v>44348.220017769498</v>
       </c>
-      <c r="G145" s="27">
+      <c r="G167" s="27">
         <v>54592.613451596597</v>
       </c>
-      <c r="H145" s="27">
+      <c r="H167" s="27">
         <v>69474.661392940994</v>
       </c>
-      <c r="I145" s="26">
+      <c r="I167" s="26">
         <v>11146.2240809664</v>
       </c>
-      <c r="J145" s="27">
+      <c r="J167" s="27">
         <v>29472.642140168198</v>
       </c>
-      <c r="K145" s="27">
+      <c r="K167" s="27">
         <v>42367.8168454154</v>
       </c>
-      <c r="L145" s="27">
+      <c r="L167" s="27">
         <v>58797.568134155597</v>
       </c>
-      <c r="M145" s="27">
+      <c r="M167" s="27">
         <v>70935.795234193894</v>
       </c>
-      <c r="N145" s="26">
+      <c r="N167" s="26">
         <v>16018.370321767101</v>
       </c>
-      <c r="O145" s="27">
+      <c r="O167" s="27">
         <v>23704.994569323899</v>
       </c>
-      <c r="P145" s="27">
+      <c r="P167" s="27">
         <v>34503.5624293851</v>
       </c>
-      <c r="Q145" s="27">
+      <c r="Q167" s="27">
         <v>46594.418922058401</v>
       </c>
-      <c r="R145" s="28">
+      <c r="R167" s="28">
         <v>53517.662633401102</v>
       </c>
     </row>
-    <row r="146" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B146" s="34"/>
-      <c r="C146" s="35" t="s">
+    <row r="168" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B168" s="34"/>
+      <c r="C168" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D146" s="18">
-        <f>SUM(D143:D145)</f>
+      <c r="D168" s="18">
+        <f>SUM(D165:D167)</f>
         <v>28164.304000000291</v>
       </c>
-      <c r="E146" s="18">
-        <f t="shared" ref="E146:R146" si="9">SUM(E143:E145)</f>
+      <c r="E168" s="18">
+        <f t="shared" ref="E168:R168" si="13">SUM(E165:E167)</f>
         <v>49901.344000001744</v>
       </c>
-      <c r="F146" s="18">
-        <f t="shared" si="9"/>
+      <c r="F168" s="18">
+        <f t="shared" si="13"/>
         <v>89288.155000002793</v>
       </c>
-      <c r="G146" s="18">
-        <f t="shared" si="9"/>
+      <c r="G168" s="18">
+        <f t="shared" si="13"/>
         <v>110309.60000000094</v>
       </c>
-      <c r="H146" s="18">
-        <f t="shared" si="9"/>
+      <c r="H168" s="18">
+        <f t="shared" si="13"/>
         <v>139044.3619999972</v>
       </c>
-      <c r="I146" s="18">
-        <f t="shared" si="9"/>
+      <c r="I168" s="18">
+        <f t="shared" si="13"/>
         <v>49901.344000001576</v>
       </c>
-      <c r="J146" s="18">
-        <f t="shared" si="9"/>
+      <c r="J168" s="18">
+        <f t="shared" si="13"/>
         <v>110309.60000000057</v>
       </c>
-      <c r="K146" s="18">
-        <f t="shared" si="9"/>
+      <c r="K168" s="18">
+        <f t="shared" si="13"/>
         <v>165711.88299998673</v>
       </c>
-      <c r="L146" s="18">
-        <f t="shared" si="9"/>
+      <c r="L168" s="18">
+        <f t="shared" si="13"/>
         <v>230407.32999998258</v>
       </c>
-      <c r="M146" s="18">
-        <f t="shared" si="9"/>
+      <c r="M168" s="18">
+        <f t="shared" si="13"/>
         <v>284627.48199997767</v>
       </c>
-      <c r="N146" s="18">
-        <f t="shared" si="9"/>
+      <c r="N168" s="18">
+        <f t="shared" si="13"/>
         <v>89288.154999998151</v>
       </c>
-      <c r="O146" s="18">
-        <f t="shared" si="9"/>
+      <c r="O168" s="18">
+        <f t="shared" si="13"/>
         <v>165711.88299998175</v>
       </c>
-      <c r="P146" s="18">
-        <f t="shared" si="9"/>
+      <c r="P168" s="18">
+        <f t="shared" si="13"/>
         <v>253777.18099998182</v>
       </c>
-      <c r="Q146" s="18">
-        <f t="shared" si="9"/>
+      <c r="Q168" s="18">
+        <f t="shared" si="13"/>
         <v>340832.52499999071</v>
       </c>
-      <c r="R146" s="18">
-        <f t="shared" si="9"/>
+      <c r="R168" s="18">
+        <f t="shared" si="13"/>
         <v>417333.99900000752</v>
       </c>
     </row>
-    <row r="147" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C147" s="35" t="s">
+    <row r="169" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C169" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D147" s="18">
-        <f>SUM(D141:D144)</f>
+      <c r="D169" s="18">
+        <f>SUM(D163:D166)</f>
         <v>53896.036999999924</v>
       </c>
-      <c r="E147" s="18">
-        <f t="shared" ref="E147:R147" si="10">SUM(E141:E144)</f>
+      <c r="E169" s="18">
+        <f t="shared" ref="E169:R169" si="14">SUM(E163:E166)</f>
         <v>107650.81200000095</v>
       </c>
-      <c r="F147" s="18">
-        <f t="shared" si="10"/>
+      <c r="F169" s="18">
+        <f t="shared" si="14"/>
         <v>161412.37900000071</v>
       </c>
-      <c r="G147" s="18">
-        <f t="shared" si="10"/>
+      <c r="G169" s="18">
+        <f t="shared" si="14"/>
         <v>215221.52800000037</v>
       </c>
-      <c r="H147" s="18">
-        <f t="shared" si="10"/>
+      <c r="H169" s="18">
+        <f t="shared" si="14"/>
         <v>268974.2800000002</v>
       </c>
-      <c r="I147" s="18">
-        <f t="shared" si="10"/>
+      <c r="I169" s="18">
+        <f t="shared" si="14"/>
         <v>107570.50719693037</v>
       </c>
-      <c r="J147" s="18">
-        <f t="shared" si="10"/>
+      <c r="J169" s="18">
+        <f t="shared" si="14"/>
         <v>215168.24090179379</v>
       </c>
-      <c r="K147" s="18">
-        <f t="shared" si="10"/>
+      <c r="K169" s="18">
+        <f t="shared" si="14"/>
         <v>322619.79967767844</v>
       </c>
-      <c r="L147" s="18">
-        <f t="shared" si="10"/>
+      <c r="L169" s="18">
+        <f t="shared" si="14"/>
         <v>430309.11635641818</v>
       </c>
-      <c r="M147" s="18">
-        <f t="shared" si="10"/>
+      <c r="M169" s="18">
+        <f t="shared" si="14"/>
         <v>537757.90511400718</v>
       </c>
-      <c r="N147" s="18">
-        <f t="shared" si="10"/>
+      <c r="N169" s="18">
+        <f t="shared" si="14"/>
         <v>161058.76232268746</v>
       </c>
-      <c r="O147" s="18">
-        <f t="shared" si="10"/>
+      <c r="O169" s="18">
+        <f t="shared" si="14"/>
         <v>321941.43685766187</v>
       </c>
-      <c r="P147" s="18">
-        <f t="shared" si="10"/>
+      <c r="P169" s="18">
+        <f t="shared" si="14"/>
         <v>483045.12792684726</v>
       </c>
-      <c r="Q147" s="18">
-        <f t="shared" si="10"/>
+      <c r="Q169" s="18">
+        <f t="shared" si="14"/>
         <v>644031.11762709927</v>
       </c>
-      <c r="R147" s="18">
-        <f t="shared" si="10"/>
+      <c r="R169" s="18">
+        <f t="shared" si="14"/>
         <v>804953.84446631139</v>
       </c>
     </row>
-    <row r="148" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C148" s="35" t="s">
+    <row r="170" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C170" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D148" s="18">
-        <v>0</v>
-      </c>
-      <c r="E148" s="18">
-        <v>0</v>
-      </c>
-      <c r="F148" s="18">
-        <v>0</v>
-      </c>
-      <c r="G148" s="18">
-        <v>0</v>
-      </c>
-      <c r="H148" s="18">
-        <v>0</v>
-      </c>
-      <c r="I148" s="18">
+      <c r="D170" s="18">
+        <v>0</v>
+      </c>
+      <c r="E170" s="18">
+        <v>0</v>
+      </c>
+      <c r="F170" s="18">
+        <v>0</v>
+      </c>
+      <c r="G170" s="18">
+        <v>0</v>
+      </c>
+      <c r="H170" s="18">
+        <v>0</v>
+      </c>
+      <c r="I170" s="18">
         <v>80.304803070971005</v>
       </c>
-      <c r="J148" s="18">
+      <c r="J170" s="18">
         <v>53.2870982060087</v>
       </c>
-      <c r="K148" s="18">
+      <c r="K170" s="18">
         <v>62.1403223085928</v>
       </c>
-      <c r="L148" s="18">
+      <c r="L170" s="18">
         <v>73.102643563524097</v>
       </c>
-      <c r="M148" s="18">
+      <c r="M170" s="18">
         <v>101.85088597105</v>
       </c>
-      <c r="N148" s="18">
+      <c r="N170" s="18">
         <v>353.61667731095002</v>
       </c>
-      <c r="O148" s="18">
+      <c r="O170" s="18">
         <v>740.50314231772802</v>
       </c>
-      <c r="P148" s="18">
+      <c r="P170" s="18">
         <v>1076.0620731337499</v>
       </c>
-      <c r="Q148" s="18">
+      <c r="Q170" s="18">
         <v>1357.5513728926401</v>
       </c>
-      <c r="R148" s="18">
+      <c r="R170" s="18">
         <v>1749.3775336955</v>
       </c>
     </row>
-    <row r="149" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="C149" s="35" t="s">
+    <row r="171" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C171" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D149" s="18">
-        <f>SUM(D147:D148)</f>
+      <c r="D171" s="18">
+        <f>SUM(D169:D170)</f>
         <v>53896.036999999924</v>
       </c>
-      <c r="E149" s="18">
-        <f t="shared" ref="E149:R149" si="11">SUM(E147:E148)</f>
+      <c r="E171" s="18">
+        <f t="shared" ref="E171:R171" si="15">SUM(E169:E170)</f>
         <v>107650.81200000095</v>
       </c>
-      <c r="F149" s="18">
-        <f t="shared" si="11"/>
+      <c r="F171" s="18">
+        <f t="shared" si="15"/>
         <v>161412.37900000071</v>
       </c>
-      <c r="G149" s="18">
-        <f t="shared" si="11"/>
+      <c r="G171" s="18">
+        <f t="shared" si="15"/>
         <v>215221.52800000037</v>
       </c>
-      <c r="H149" s="18">
-        <f t="shared" si="11"/>
+      <c r="H171" s="18">
+        <f t="shared" si="15"/>
         <v>268974.2800000002</v>
       </c>
-      <c r="I149" s="18">
-        <f t="shared" si="11"/>
+      <c r="I171" s="18">
+        <f t="shared" si="15"/>
         <v>107650.81200000134</v>
       </c>
-      <c r="J149" s="18">
-        <f t="shared" si="11"/>
+      <c r="J171" s="18">
+        <f t="shared" si="15"/>
         <v>215221.52799999979</v>
       </c>
-      <c r="K149" s="18">
-        <f t="shared" si="11"/>
+      <c r="K171" s="18">
+        <f t="shared" si="15"/>
         <v>322681.93999998702</v>
       </c>
-      <c r="L149" s="18">
-        <f t="shared" si="11"/>
+      <c r="L171" s="18">
+        <f t="shared" si="15"/>
         <v>430382.21899998171</v>
       </c>
-      <c r="M149" s="18">
-        <f t="shared" si="11"/>
+      <c r="M171" s="18">
+        <f t="shared" si="15"/>
         <v>537859.75599997828</v>
       </c>
-      <c r="N149" s="18">
-        <f t="shared" si="11"/>
+      <c r="N171" s="18">
+        <f t="shared" si="15"/>
         <v>161412.37899999841</v>
       </c>
-      <c r="O149" s="18">
-        <f t="shared" si="11"/>
+      <c r="O171" s="18">
+        <f t="shared" si="15"/>
         <v>322681.93999997963</v>
       </c>
-      <c r="P149" s="18">
-        <f t="shared" si="11"/>
+      <c r="P171" s="18">
+        <f t="shared" si="15"/>
         <v>484121.18999998103</v>
       </c>
-      <c r="Q149" s="18">
-        <f t="shared" si="11"/>
+      <c r="Q171" s="18">
+        <f t="shared" si="15"/>
         <v>645388.66899999196</v>
       </c>
-      <c r="R149" s="18">
-        <f t="shared" si="11"/>
+      <c r="R171" s="18">
+        <f t="shared" si="15"/>
         <v>806703.22200000694</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="90">
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B126:B128"/>
-    <mergeCell ref="B141:B143"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B97:B99"/>
+  <mergeCells count="99">
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:H39"/>
+    <mergeCell ref="I39:M39"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="D157:H157"/>
+    <mergeCell ref="I157:M157"/>
+    <mergeCell ref="N157:R157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="N142:R142"/>
+    <mergeCell ref="D128:H128"/>
+    <mergeCell ref="I128:M128"/>
+    <mergeCell ref="N128:R128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="I142:M142"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="N114:R114"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="I114:M114"/>
+    <mergeCell ref="D100:H100"/>
+    <mergeCell ref="I100:M100"/>
+    <mergeCell ref="N100:R100"/>
+    <mergeCell ref="N86:R86"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="I73:M73"/>
+    <mergeCell ref="N73:R73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:H86"/>
+    <mergeCell ref="I86:M86"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="I59:M59"/>
+    <mergeCell ref="N59:R59"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="D21:H21"/>
     <mergeCell ref="I21:M21"/>
     <mergeCell ref="N21:R21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="I37:M37"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="N64:R64"/>
-    <mergeCell ref="D51:H51"/>
-    <mergeCell ref="I51:M51"/>
-    <mergeCell ref="N51:R51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="I64:M64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="N92:R92"/>
-    <mergeCell ref="D92:H92"/>
-    <mergeCell ref="I92:M92"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="I78:M78"/>
-    <mergeCell ref="N78:R78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:C90"/>
     <mergeCell ref="B94:B95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="N120:R120"/>
-    <mergeCell ref="D106:H106"/>
-    <mergeCell ref="I106:M106"/>
-    <mergeCell ref="N106:R106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:H120"/>
-    <mergeCell ref="I120:M120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="I135:M135"/>
-    <mergeCell ref="N135:R135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:B138"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B135:C135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7034,12 +7869,12 @@
       <selection activeCell="C19" sqref="C19:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
@@ -7066,7 +7901,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
@@ -7117,8 +7952,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C4" s="47" t="s">
+    <row r="4" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -7140,8 +7975,8 @@
       <c r="R4" s="2"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C5" s="48"/>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C5" s="49"/>
       <c r="D5" s="7" t="s">
         <v>3</v>
       </c>
@@ -7161,8 +7996,8 @@
       <c r="R5" s="5"/>
       <c r="S5" s="6"/>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C6" s="47" t="s">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="48" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -7214,8 +8049,8 @@
         <v>1.01059770490547</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C7" s="48"/>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="49"/>
       <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
@@ -7235,8 +8070,8 @@
       <c r="R7" s="5"/>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C8" s="47" t="s">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="48" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -7258,8 +8093,8 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C9" s="48"/>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="49"/>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
@@ -7279,12 +8114,12 @@
       <c r="R9" s="5"/>
       <c r="S9" s="6"/>
     </row>
-    <row r="13" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
@@ -7311,7 +8146,7 @@
       <c r="R15" s="13"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C16" s="11" t="s">
         <v>2</v>
       </c>
@@ -7362,8 +8197,8 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C17" s="47" t="s">
+    <row r="17" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C17" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -7385,8 +8220,8 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C18" s="48"/>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C18" s="49"/>
       <c r="D18" s="7" t="s">
         <v>3</v>
       </c>
@@ -7406,8 +8241,8 @@
       <c r="R18" s="5"/>
       <c r="S18" s="6"/>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C19" s="47" t="s">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C19" s="48" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -7459,8 +8294,8 @@
         <v>4802.4634537894499</v>
       </c>
     </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C20" s="48"/>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C20" s="49"/>
       <c r="D20" s="7" t="s">
         <v>3</v>
       </c>
@@ -7480,8 +8315,8 @@
       <c r="R20" s="5"/>
       <c r="S20" s="6"/>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C21" s="47" t="s">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C21" s="48" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -7503,8 +8338,8 @@
       <c r="R21" s="2"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
-      <c r="C22" s="48"/>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C22" s="49"/>
       <c r="D22" s="7" t="s">
         <v>3</v>
       </c>
@@ -7524,7 +8359,7 @@
       <c r="R22" s="5"/>
       <c r="S22" s="6"/>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C25" s="17" t="s">
         <v>8</v>
       </c>
@@ -7532,17 +8367,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:21" x14ac:dyDescent="0.25">
       <c r="C26" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:21" x14ac:dyDescent="0.25">
       <c r="L29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:21" x14ac:dyDescent="0.25">
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>

--- a/simulationResults_b.xlsx
+++ b/simulationResults_b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teach\Documents\GitHub\PESGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A55E8A-993D-4A57-9A7B-F2161F52A891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE052706-F06F-416A-B9B1-7CB33E44508D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="0" windowWidth="28785" windowHeight="15480" xr2:uid="{4AC95DCF-D2F4-5D47-8337-9C7ACEB33ABC}"/>
   </bookViews>
@@ -34,30 +34,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="44">
   <si>
     <t>PP-LEM</t>
   </si>
@@ -137,9 +115,6 @@
     <t>Distribution of energy within the P2P market in 2016</t>
   </si>
   <si>
-    <t>Distribution of energy within the P2P market in 2016, when users are equipped battery</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total from self gen. </t>
   </si>
   <si>
@@ -182,9 +157,6 @@
     <t>initial batt</t>
   </si>
   <si>
-    <t>burdan devam</t>
-  </si>
-  <si>
     <t>Distribution of energy within the P2P market on April 21st, 2016, when users are equipped battery - init value is Zero</t>
   </si>
   <si>
@@ -192,6 +164,9 @@
   </si>
   <si>
     <t>Distribution of energy within the P2P market in January, 2016, when users are equipped battery - init values from the last day of the year</t>
+  </si>
+  <si>
+    <t>Distribution of energy within the P2P market in 2016, when users are equipped battery - init values are zero (it doesn’t differantiate significantly when simulated for the whole year)</t>
   </si>
 </sst>
 </file>
@@ -423,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -481,18 +456,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -504,6 +468,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -511,10 +486,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -829,10 +800,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB670B8-3F85-C640-9936-58B3E7C61559}">
-  <dimension ref="B2:AJ220"/>
+  <dimension ref="B2:R223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="J214" sqref="J214"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -857,37 +828,37 @@
       <c r="B3" s="22"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="48"/>
-      <c r="D4" s="45">
+      <c r="D4" s="40">
         <v>0.25</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="45">
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="40">
         <v>0.5</v>
       </c>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="45">
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="40">
         <v>0.75</v>
       </c>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="47"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="42"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="42"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="9">
         <v>40</v>
       </c>
@@ -988,7 +959,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="25" t="s">
         <v>13</v>
       </c>
@@ -1103,10 +1074,10 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="44"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="29">
         <v>51.249999999999901</v>
       </c>
@@ -1207,9 +1178,9 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="26">
         <v>195.36699999999999</v>
@@ -1258,9 +1229,9 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="32">
         <v>28.1739999999999</v>
@@ -1362,7 +1333,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="23" t="s">
         <v>13</v>
       </c>
@@ -1415,7 +1386,7 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="34"/>
       <c r="C15" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="18">
         <f>SUM(D12:D14)</f>
@@ -1480,7 +1451,7 @@
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C16" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="18">
         <f>SUM(D10:D13)</f>
@@ -1554,44 +1525,44 @@
     </row>
     <row r="20" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="48"/>
-      <c r="D22" s="45">
+      <c r="D22" s="40">
         <v>0.25</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="45">
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="40">
         <v>0.5</v>
       </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="45">
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="40">
         <v>0.75</v>
       </c>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="47"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="42"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="42"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="9">
         <v>40</v>
       </c>
@@ -1692,7 +1663,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="25" t="s">
         <v>13</v>
       </c>
@@ -1807,10 +1778,10 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="44"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="29">
         <v>79.1666666666666</v>
       </c>
@@ -1911,9 +1882,9 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="39"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="26">
         <v>5.6930980751308997</v>
@@ -1962,9 +1933,9 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="32">
         <v>47.372999999999898</v>
@@ -2017,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="19">
         <v>0.40499999999999903</v>
@@ -2066,7 +2037,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="23" t="s">
         <v>13</v>
       </c>
@@ -2119,7 +2090,7 @@
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="34"/>
       <c r="C33" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="18">
         <f>SUM(D30:D32)</f>
@@ -2184,7 +2155,7 @@
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C34" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" s="18">
         <f>SUM(D28:D31)</f>
@@ -2249,7 +2220,7 @@
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C35" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D35" s="18">
         <v>91.788901924869094</v>
@@ -2299,7 +2270,7 @@
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C36" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="18">
         <f>SUM(D34:D35)</f>
@@ -2370,44 +2341,44 @@
     </row>
     <row r="39" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B39" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B40" s="22"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="48"/>
-      <c r="D41" s="45">
+      <c r="D41" s="40">
         <v>0.25</v>
       </c>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="45">
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="40">
         <v>0.5</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="45">
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="40">
         <v>0.75</v>
       </c>
-      <c r="O41" s="46"/>
-      <c r="P41" s="46"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="47"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="42"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="42"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="9">
         <v>40</v>
       </c>
@@ -2508,7 +2479,7 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="40"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="25" t="s">
         <v>13</v>
       </c>
@@ -2559,10 +2530,10 @@
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="44"/>
+      <c r="C45" s="46"/>
       <c r="D45" s="29">
         <v>95.4166666666666</v>
       </c>
@@ -2663,9 +2634,9 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D47" s="26">
         <v>24.692634216652799</v>
@@ -2714,9 +2685,9 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="40"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="32">
         <v>49.882999999999903</v>
@@ -2769,7 +2740,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" s="19">
         <v>0.36399999999999999</v>
@@ -2818,7 +2789,7 @@
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="40"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="23" t="s">
         <v>13</v>
       </c>
@@ -2871,7 +2842,7 @@
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="34"/>
       <c r="C51" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" s="18">
         <f>SUM(D48:D50)</f>
@@ -2937,7 +2908,7 @@
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="34"/>
       <c r="C52" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52" s="18">
         <f>SUM(D46:D49)</f>
@@ -3003,7 +2974,7 @@
     <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="34"/>
       <c r="C53" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D53" s="18">
         <v>95.070801146884193</v>
@@ -3054,7 +3025,7 @@
     <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="34"/>
       <c r="C54" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="18">
         <f>SUM(D52:D53)</f>
@@ -3120,7 +3091,7 @@
     <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" s="34"/>
       <c r="C55" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" s="18">
         <v>35.838435363537101</v>
@@ -3171,7 +3142,7 @@
     <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" s="34"/>
       <c r="C56" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" s="18">
         <f>D54-D55</f>
@@ -3242,44 +3213,44 @@
     </row>
     <row r="59" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B59" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B60" s="22"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="48"/>
-      <c r="D61" s="45">
+      <c r="D61" s="40">
         <v>0.25</v>
       </c>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-      <c r="I61" s="45">
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="40">
         <v>0.5</v>
       </c>
-      <c r="J61" s="46"/>
-      <c r="K61" s="46"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="45">
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="40">
         <v>0.75</v>
       </c>
-      <c r="O61" s="46"/>
-      <c r="P61" s="46"/>
-      <c r="Q61" s="46"/>
-      <c r="R61" s="47"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="42"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="42"/>
+      <c r="C62" s="44"/>
       <c r="D62" s="9">
         <v>40</v>
       </c>
@@ -3380,7 +3351,7 @@
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B64" s="40"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="25" t="s">
         <v>13</v>
       </c>
@@ -3495,10 +3466,10 @@
       </c>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="44"/>
+      <c r="C66" s="46"/>
       <c r="D66" s="29">
         <v>10</v>
       </c>
@@ -3599,9 +3570,9 @@
       </c>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B68" s="39"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D68" s="32">
         <v>0</v>
@@ -3650,9 +3621,9 @@
       </c>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B69" s="40"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" s="32">
         <v>2.214</v>
@@ -3754,7 +3725,7 @@
       </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B71" s="40"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="23" t="s">
         <v>13</v>
       </c>
@@ -3807,7 +3778,7 @@
     <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72" s="34"/>
       <c r="C72" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D72" s="18">
         <f>SUM(D69:D71)</f>
@@ -3873,7 +3844,7 @@
     <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="34"/>
       <c r="C73" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D73" s="18">
         <f>SUM(D67:D70)</f>
@@ -3949,37 +3920,37 @@
       <c r="B77" s="22"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B78" s="41" t="s">
+      <c r="B78" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="48"/>
-      <c r="D78" s="45">
+      <c r="D78" s="40">
         <v>0.25</v>
       </c>
-      <c r="E78" s="46"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="46"/>
-      <c r="H78" s="46"/>
-      <c r="I78" s="45">
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="40">
         <v>0.5</v>
       </c>
-      <c r="J78" s="46"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="46"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="45">
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="40">
         <v>0.75</v>
       </c>
-      <c r="O78" s="46"/>
-      <c r="P78" s="46"/>
-      <c r="Q78" s="46"/>
-      <c r="R78" s="47"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="42"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B79" s="41" t="s">
+      <c r="B79" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="42"/>
+      <c r="C79" s="44"/>
       <c r="D79" s="9">
         <v>40</v>
       </c>
@@ -4080,7 +4051,7 @@
       </c>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B81" s="40"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="25" t="s">
         <v>13</v>
       </c>
@@ -4195,10 +4166,10 @@
       </c>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B83" s="43" t="s">
+      <c r="B83" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C83" s="44"/>
+      <c r="C83" s="46"/>
       <c r="D83" s="29">
         <v>10</v>
       </c>
@@ -4299,9 +4270,9 @@
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B85" s="39"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D85" s="32">
         <v>0</v>
@@ -4350,9 +4321,9 @@
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B86" s="40"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="32">
         <v>2.214</v>
@@ -4454,7 +4425,7 @@
       </c>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B88" s="40"/>
+      <c r="B88" s="39"/>
       <c r="C88" s="23" t="s">
         <v>13</v>
       </c>
@@ -4507,7 +4478,7 @@
     <row r="89" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B89" s="34"/>
       <c r="C89" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D89" s="18">
         <f>SUM(D86:D88)</f>
@@ -4573,7 +4544,7 @@
     <row r="90" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B90" s="34"/>
       <c r="C90" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D90" s="18">
         <f>SUM(D84:D87)</f>
@@ -4639,7 +4610,7 @@
     <row r="91" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B91" s="34"/>
       <c r="C91" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D91" s="18">
         <v>0</v>
@@ -4690,7 +4661,7 @@
     <row r="92" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B92" s="34"/>
       <c r="C92" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D92" s="18">
         <f>SUM(D90:D91)</f>
@@ -4756,7 +4727,7 @@
     <row r="93" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B93" s="34"/>
       <c r="C93" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D93" s="18">
         <v>0</v>
@@ -4806,7 +4777,7 @@
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.25">
       <c r="C94" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D94" s="18">
         <f>D92-D93</f>
@@ -4881,37 +4852,37 @@
       <c r="B98" s="22"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B99" s="41" t="s">
+      <c r="B99" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="48"/>
-      <c r="D99" s="45">
+      <c r="D99" s="40">
         <v>0.25</v>
       </c>
-      <c r="E99" s="46"/>
-      <c r="F99" s="46"/>
-      <c r="G99" s="46"/>
-      <c r="H99" s="46"/>
-      <c r="I99" s="45">
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="40">
         <v>0.5</v>
       </c>
-      <c r="J99" s="46"/>
-      <c r="K99" s="46"/>
-      <c r="L99" s="46"/>
-      <c r="M99" s="46"/>
-      <c r="N99" s="45">
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="40">
         <v>0.75</v>
       </c>
-      <c r="O99" s="46"/>
-      <c r="P99" s="46"/>
-      <c r="Q99" s="46"/>
-      <c r="R99" s="47"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="42"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C100" s="42"/>
+      <c r="C100" s="44"/>
       <c r="D100" s="9">
         <v>40</v>
       </c>
@@ -5012,7 +4983,7 @@
       </c>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B102" s="40"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="25" t="s">
         <v>13</v>
       </c>
@@ -5127,10 +5098,10 @@
       </c>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B104" s="43" t="s">
+      <c r="B104" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C104" s="44"/>
+      <c r="C104" s="46"/>
       <c r="D104" s="29">
         <v>45.403225806451601</v>
       </c>
@@ -5231,9 +5202,9 @@
       </c>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B106" s="39"/>
+      <c r="B106" s="47"/>
       <c r="C106" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D106" s="26">
         <v>1996.89399999999</v>
@@ -5282,9 +5253,9 @@
       </c>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B107" s="40"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D107" s="32">
         <v>923.17700000000104</v>
@@ -5386,7 +5357,7 @@
       </c>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B109" s="40"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="23" t="s">
         <v>13</v>
       </c>
@@ -5439,7 +5410,7 @@
     <row r="110" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B110" s="34"/>
       <c r="C110" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D110" s="18">
         <f>SUM(D107:D109)</f>
@@ -5505,7 +5476,7 @@
     <row r="111" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B111" s="34"/>
       <c r="C111" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D111" s="18">
         <f>SUM(D105:D108)</f>
@@ -5581,37 +5552,37 @@
       <c r="B115" s="22"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B116" s="41" t="s">
+      <c r="B116" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C116" s="48"/>
-      <c r="D116" s="45">
+      <c r="D116" s="40">
         <v>0.25</v>
       </c>
-      <c r="E116" s="46"/>
-      <c r="F116" s="46"/>
-      <c r="G116" s="46"/>
-      <c r="H116" s="46"/>
-      <c r="I116" s="45">
+      <c r="E116" s="41"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="40">
         <v>0.5</v>
       </c>
-      <c r="J116" s="46"/>
-      <c r="K116" s="46"/>
-      <c r="L116" s="46"/>
-      <c r="M116" s="46"/>
-      <c r="N116" s="45">
+      <c r="J116" s="41"/>
+      <c r="K116" s="41"/>
+      <c r="L116" s="41"/>
+      <c r="M116" s="41"/>
+      <c r="N116" s="40">
         <v>0.75</v>
       </c>
-      <c r="O116" s="46"/>
-      <c r="P116" s="46"/>
-      <c r="Q116" s="46"/>
-      <c r="R116" s="47"/>
+      <c r="O116" s="41"/>
+      <c r="P116" s="41"/>
+      <c r="Q116" s="41"/>
+      <c r="R116" s="42"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B117" s="41" t="s">
+      <c r="B117" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="42"/>
+      <c r="C117" s="44"/>
       <c r="D117" s="9">
         <v>40</v>
       </c>
@@ -5712,7 +5683,7 @@
       </c>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B119" s="40"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="25" t="s">
         <v>13</v>
       </c>
@@ -5827,10 +5798,10 @@
       </c>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B121" s="43" t="s">
+      <c r="B121" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C121" s="44"/>
+      <c r="C121" s="46"/>
       <c r="D121" s="29">
         <v>60.2822580645161</v>
       </c>
@@ -5931,9 +5902,9 @@
       </c>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B123" s="39"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D123" s="26">
         <v>0</v>
@@ -5982,9 +5953,9 @@
       </c>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B124" s="40"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D124" s="32">
         <v>1380.2659999999901</v>
@@ -6086,7 +6057,7 @@
       </c>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B126" s="40"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="23" t="s">
         <v>13</v>
       </c>
@@ -6139,7 +6110,7 @@
     <row r="127" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B127" s="34"/>
       <c r="C127" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D127" s="18">
         <f>SUM(D124:D126)</f>
@@ -6205,7 +6176,7 @@
     <row r="128" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B128" s="34"/>
       <c r="C128" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D128" s="18">
         <f>SUM(D122:D125)</f>
@@ -6271,7 +6242,7 @@
     <row r="129" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B129" s="34"/>
       <c r="C129" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D129" s="18">
         <v>0</v>
@@ -6322,7 +6293,7 @@
     <row r="130" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B130" s="34"/>
       <c r="C130" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D130" s="18">
         <f>SUM(D128:D129)</f>
@@ -6388,7 +6359,7 @@
     <row r="131" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B131" s="34"/>
       <c r="C131" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D131" s="18">
         <v>0</v>
@@ -6439,7 +6410,7 @@
     <row r="132" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B132" s="34"/>
       <c r="C132" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D132" s="18">
         <f>D130-D131</f>
@@ -6503,9 +6474,7 @@
       </c>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B133" s="37" t="s">
-        <v>41</v>
-      </c>
+      <c r="B133" s="37"/>
     </row>
     <row r="134" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B134" s="22" t="s">
@@ -6516,37 +6485,37 @@
       <c r="B135" s="22"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B136" s="41" t="s">
+      <c r="B136" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C136" s="48"/>
-      <c r="D136" s="45">
+      <c r="D136" s="40">
         <v>0.25</v>
       </c>
-      <c r="E136" s="46"/>
-      <c r="F136" s="46"/>
-      <c r="G136" s="46"/>
-      <c r="H136" s="46"/>
-      <c r="I136" s="45">
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="40">
         <v>0.5</v>
       </c>
-      <c r="J136" s="46"/>
-      <c r="K136" s="46"/>
-      <c r="L136" s="46"/>
-      <c r="M136" s="46"/>
-      <c r="N136" s="45">
+      <c r="J136" s="41"/>
+      <c r="K136" s="41"/>
+      <c r="L136" s="41"/>
+      <c r="M136" s="41"/>
+      <c r="N136" s="40">
         <v>0.75</v>
       </c>
-      <c r="O136" s="46"/>
-      <c r="P136" s="46"/>
-      <c r="Q136" s="46"/>
-      <c r="R136" s="47"/>
+      <c r="O136" s="41"/>
+      <c r="P136" s="41"/>
+      <c r="Q136" s="41"/>
+      <c r="R136" s="42"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B137" s="41" t="s">
+      <c r="B137" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="42"/>
+      <c r="C137" s="44"/>
       <c r="D137" s="9">
         <v>40</v>
       </c>
@@ -6647,7 +6616,7 @@
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B139" s="40"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="25" t="s">
         <v>13</v>
       </c>
@@ -6762,10 +6731,10 @@
       </c>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B141" s="43" t="s">
+      <c r="B141" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C141" s="44"/>
+      <c r="C141" s="46"/>
       <c r="D141" s="29">
         <v>24.024226110363301</v>
       </c>
@@ -6866,9 +6835,9 @@
       </c>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B143" s="39"/>
+      <c r="B143" s="47"/>
       <c r="C143" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D143" s="26">
         <v>612.00800000000004</v>
@@ -6917,9 +6886,9 @@
       </c>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B144" s="40"/>
+      <c r="B144" s="39"/>
       <c r="C144" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D144" s="32">
         <v>422.82100000000003</v>
@@ -7021,7 +6990,7 @@
       </c>
     </row>
     <row r="146" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B146" s="40"/>
+      <c r="B146" s="39"/>
       <c r="C146" s="23" t="s">
         <v>13</v>
       </c>
@@ -7072,133 +7041,133 @@
       </c>
     </row>
     <row r="147" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B147" s="51"/>
+      <c r="B147" s="34"/>
       <c r="C147" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D147" s="52">
+        <v>31</v>
+      </c>
+      <c r="D147" s="18">
         <f>SUM(D144:D146)</f>
         <v>2665.672</v>
       </c>
-      <c r="E147" s="52">
+      <c r="E147" s="18">
         <f t="shared" ref="E147:R147" si="28">SUM(E144:E146)</f>
         <v>4687.5509999999886</v>
       </c>
-      <c r="F147" s="52">
+      <c r="F147" s="18">
         <f t="shared" si="28"/>
         <v>8421</v>
       </c>
-      <c r="G147" s="52">
+      <c r="G147" s="18">
         <f t="shared" si="28"/>
         <v>10436.90199999998</v>
       </c>
-      <c r="H147" s="52">
+      <c r="H147" s="18">
         <f t="shared" si="28"/>
         <v>13193.657999999981</v>
       </c>
-      <c r="I147" s="52">
+      <c r="I147" s="18">
         <f t="shared" si="28"/>
         <v>4687.5509999999886</v>
       </c>
-      <c r="J147" s="52">
+      <c r="J147" s="18">
         <f t="shared" si="28"/>
         <v>10436.90199999998</v>
       </c>
-      <c r="K147" s="52">
+      <c r="K147" s="18">
         <f t="shared" si="28"/>
         <v>15743.032999999981</v>
       </c>
-      <c r="L147" s="52">
+      <c r="L147" s="18">
         <f t="shared" si="28"/>
         <v>21854.081999999988</v>
       </c>
-      <c r="M147" s="52">
+      <c r="M147" s="18">
         <f t="shared" si="28"/>
         <v>26984.677999999982</v>
       </c>
-      <c r="N147" s="52">
+      <c r="N147" s="18">
         <f t="shared" si="28"/>
         <v>8421</v>
       </c>
-      <c r="O147" s="52">
+      <c r="O147" s="18">
         <f t="shared" si="28"/>
         <v>15743.032999999981</v>
       </c>
-      <c r="P147" s="52">
+      <c r="P147" s="18">
         <f t="shared" si="28"/>
         <v>24029.5640000001</v>
       </c>
-      <c r="Q147" s="52">
+      <c r="Q147" s="18">
         <f t="shared" si="28"/>
         <v>32327.395000000099</v>
       </c>
-      <c r="R147" s="52">
+      <c r="R147" s="18">
         <f t="shared" si="28"/>
         <v>39541.992999999951</v>
       </c>
     </row>
     <row r="148" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B148" s="51"/>
+      <c r="B148" s="34"/>
       <c r="C148" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D148" s="52">
+        <v>32</v>
+      </c>
+      <c r="D148" s="18">
         <f>SUM(D142:D145)</f>
         <v>2507.819</v>
       </c>
-      <c r="E148" s="52">
+      <c r="E148" s="18">
         <f t="shared" ref="E148:R148" si="29">SUM(E142:E145)</f>
         <v>5012.3629999999876</v>
       </c>
-      <c r="F148" s="52">
+      <c r="F148" s="18">
         <f t="shared" si="29"/>
         <v>7484.0559999999705</v>
       </c>
-      <c r="G148" s="52">
+      <c r="G148" s="18">
         <f t="shared" si="29"/>
         <v>10012.230999999991</v>
       </c>
-      <c r="H148" s="52">
+      <c r="H148" s="18">
         <f t="shared" si="29"/>
         <v>12509.959999999959</v>
       </c>
-      <c r="I148" s="52">
+      <c r="I148" s="18">
         <f t="shared" si="29"/>
         <v>5012.3629999999876</v>
       </c>
-      <c r="J148" s="52">
+      <c r="J148" s="18">
         <f t="shared" si="29"/>
         <v>10012.23099999998</v>
       </c>
-      <c r="K148" s="52">
+      <c r="K148" s="18">
         <f t="shared" si="29"/>
         <v>15002.74699999997</v>
       </c>
-      <c r="L148" s="52">
+      <c r="L148" s="18">
         <f t="shared" si="29"/>
         <v>20033.222999999976</v>
       </c>
-      <c r="M148" s="52">
+      <c r="M148" s="18">
         <f t="shared" si="29"/>
         <v>25000.215999999869</v>
       </c>
-      <c r="N148" s="52">
+      <c r="N148" s="18">
         <f t="shared" si="29"/>
         <v>7484.0559999999787</v>
       </c>
-      <c r="O148" s="52">
+      <c r="O148" s="18">
         <f t="shared" si="29"/>
         <v>15002.746999999961</v>
       </c>
-      <c r="P148" s="52">
+      <c r="P148" s="18">
         <f t="shared" si="29"/>
         <v>22526.531999999901</v>
       </c>
-      <c r="Q148" s="52">
+      <c r="Q148" s="18">
         <f t="shared" si="29"/>
         <v>30054.296999999999</v>
       </c>
-      <c r="R148" s="52">
+      <c r="R148" s="18">
         <f t="shared" si="29"/>
         <v>37514.615999999951</v>
       </c>
@@ -7209,44 +7178,44 @@
     </row>
     <row r="151" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B151" s="22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="152" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B152" s="22"/>
     </row>
     <row r="153" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B153" s="41" t="s">
+      <c r="B153" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C153" s="48"/>
-      <c r="D153" s="45">
+      <c r="D153" s="40">
         <v>0.25</v>
       </c>
-      <c r="E153" s="46"/>
-      <c r="F153" s="46"/>
-      <c r="G153" s="46"/>
-      <c r="H153" s="46"/>
-      <c r="I153" s="45">
+      <c r="E153" s="41"/>
+      <c r="F153" s="41"/>
+      <c r="G153" s="41"/>
+      <c r="H153" s="41"/>
+      <c r="I153" s="40">
         <v>0.5</v>
       </c>
-      <c r="J153" s="46"/>
-      <c r="K153" s="46"/>
-      <c r="L153" s="46"/>
-      <c r="M153" s="46"/>
-      <c r="N153" s="45">
+      <c r="J153" s="41"/>
+      <c r="K153" s="41"/>
+      <c r="L153" s="41"/>
+      <c r="M153" s="41"/>
+      <c r="N153" s="40">
         <v>0.75</v>
       </c>
-      <c r="O153" s="46"/>
-      <c r="P153" s="46"/>
-      <c r="Q153" s="46"/>
-      <c r="R153" s="47"/>
+      <c r="O153" s="41"/>
+      <c r="P153" s="41"/>
+      <c r="Q153" s="41"/>
+      <c r="R153" s="42"/>
     </row>
     <row r="154" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B154" s="41" t="s">
+      <c r="B154" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C154" s="42"/>
+      <c r="C154" s="44"/>
       <c r="D154" s="9">
         <v>40</v>
       </c>
@@ -7347,7 +7316,7 @@
       </c>
     </row>
     <row r="156" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B156" s="40"/>
+      <c r="B156" s="39"/>
       <c r="C156" s="25" t="s">
         <v>13</v>
       </c>
@@ -7462,10 +7431,10 @@
       </c>
     </row>
     <row r="158" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B158" s="43" t="s">
+      <c r="B158" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C158" s="44"/>
+      <c r="C158" s="46"/>
       <c r="D158" s="29">
         <v>28.360215053763401</v>
       </c>
@@ -7566,9 +7535,9 @@
       </c>
     </row>
     <row r="160" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B160" s="39"/>
+      <c r="B160" s="47"/>
       <c r="C160" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D160" s="26">
         <v>0</v>
@@ -7617,9 +7586,9 @@
       </c>
     </row>
     <row r="161" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B161" s="40"/>
+      <c r="B161" s="39"/>
       <c r="C161" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D161" s="32">
         <v>577.63399999999899</v>
@@ -7721,7 +7690,7 @@
       </c>
     </row>
     <row r="163" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B163" s="40"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="23" t="s">
         <v>13</v>
       </c>
@@ -7772,250 +7741,250 @@
       </c>
     </row>
     <row r="164" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B164" s="51"/>
+      <c r="B164" s="34"/>
       <c r="C164" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D164" s="52">
+        <v>31</v>
+      </c>
+      <c r="D164" s="18">
         <f>SUM(D161:D163)</f>
         <v>2665.672</v>
       </c>
-      <c r="E164" s="52">
+      <c r="E164" s="18">
         <f t="shared" ref="E164:R164" si="31">SUM(E161:E163)</f>
         <v>4687.5509999999867</v>
       </c>
-      <c r="F164" s="52">
+      <c r="F164" s="18">
         <f t="shared" si="31"/>
         <v>8421.0000000000036</v>
       </c>
-      <c r="G164" s="52">
+      <c r="G164" s="18">
         <f t="shared" si="31"/>
         <v>10436.901999999995</v>
       </c>
-      <c r="H164" s="52">
+      <c r="H164" s="18">
         <f t="shared" si="31"/>
         <v>13193.657999999979</v>
       </c>
-      <c r="I164" s="52">
+      <c r="I164" s="18">
         <f t="shared" si="31"/>
         <v>4687.5509999999977</v>
       </c>
-      <c r="J164" s="52">
+      <c r="J164" s="18">
         <f t="shared" si="31"/>
         <v>10436.901999999991</v>
       </c>
-      <c r="K164" s="52">
+      <c r="K164" s="18">
         <f t="shared" si="31"/>
         <v>15743.03299999997</v>
       </c>
-      <c r="L164" s="52">
+      <c r="L164" s="18">
         <f t="shared" si="31"/>
         <v>21854.08199999994</v>
       </c>
-      <c r="M164" s="52">
+      <c r="M164" s="18">
         <f t="shared" si="31"/>
         <v>26984.677999999913</v>
       </c>
-      <c r="N164" s="52">
+      <c r="N164" s="18">
         <f t="shared" si="31"/>
         <v>8420.9999999999964</v>
       </c>
-      <c r="O164" s="52">
+      <c r="O164" s="18">
         <f t="shared" si="31"/>
         <v>15743.032999999836</v>
       </c>
-      <c r="P164" s="52">
+      <c r="P164" s="18">
         <f t="shared" si="31"/>
         <v>24029.563999999853</v>
       </c>
-      <c r="Q164" s="52">
+      <c r="Q164" s="18">
         <f t="shared" si="31"/>
         <v>32327.395000000179</v>
       </c>
-      <c r="R164" s="52">
+      <c r="R164" s="18">
         <f t="shared" si="31"/>
         <v>39541.993000000322</v>
       </c>
     </row>
     <row r="165" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B165" s="51"/>
+      <c r="B165" s="34"/>
       <c r="C165" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D165" s="52">
+        <v>35</v>
+      </c>
+      <c r="D165" s="18">
         <f>SUM(D159:D162)</f>
         <v>2507.81899999999</v>
       </c>
-      <c r="E165" s="52">
+      <c r="E165" s="18">
         <f t="shared" ref="E165:R165" si="32">SUM(E159:E162)</f>
         <v>5012.3629999999957</v>
       </c>
-      <c r="F165" s="52">
+      <c r="F165" s="18">
         <f t="shared" si="32"/>
         <v>7484.0559999999841</v>
       </c>
-      <c r="G165" s="52">
+      <c r="G165" s="18">
         <f t="shared" si="32"/>
         <v>10012.230999999994</v>
       </c>
-      <c r="H165" s="52">
+      <c r="H165" s="18">
         <f t="shared" si="32"/>
         <v>12509.959999999981</v>
       </c>
-      <c r="I165" s="52">
+      <c r="I165" s="18">
         <f t="shared" si="32"/>
         <v>5012.3629999999885</v>
       </c>
-      <c r="J165" s="52">
+      <c r="J165" s="18">
         <f t="shared" si="32"/>
         <v>10012.230999999982</v>
       </c>
-      <c r="K165" s="52">
+      <c r="K165" s="18">
         <f t="shared" si="32"/>
         <v>15002.746999999981</v>
       </c>
-      <c r="L165" s="52">
+      <c r="L165" s="18">
         <f t="shared" si="32"/>
         <v>20033.22299999994</v>
       </c>
-      <c r="M165" s="52">
+      <c r="M165" s="18">
         <f t="shared" si="32"/>
         <v>25000.215999999909</v>
       </c>
-      <c r="N165" s="52">
+      <c r="N165" s="18">
         <f t="shared" si="32"/>
         <v>7391.293071664446</v>
       </c>
-      <c r="O165" s="52">
+      <c r="O165" s="18">
         <f t="shared" si="32"/>
         <v>14739.030571669333</v>
       </c>
-      <c r="P165" s="52">
+      <c r="P165" s="18">
         <f t="shared" si="32"/>
         <v>22178.859900874584</v>
       </c>
-      <c r="Q165" s="52">
+      <c r="Q165" s="18">
         <f t="shared" si="32"/>
         <v>29739.07861652588</v>
       </c>
-      <c r="R165" s="52">
+      <c r="R165" s="18">
         <f t="shared" si="32"/>
         <v>37048.85652454356</v>
       </c>
     </row>
     <row r="166" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B166" s="51"/>
+      <c r="B166" s="34"/>
       <c r="C166" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D166" s="52">
-        <v>0</v>
-      </c>
-      <c r="E166" s="52">
-        <v>0</v>
-      </c>
-      <c r="F166" s="52">
-        <v>0</v>
-      </c>
-      <c r="G166" s="52">
-        <v>0</v>
-      </c>
-      <c r="H166" s="52">
-        <v>0</v>
-      </c>
-      <c r="I166" s="52">
-        <v>0</v>
-      </c>
-      <c r="J166" s="52">
-        <v>0</v>
-      </c>
-      <c r="K166" s="52">
-        <v>0</v>
-      </c>
-      <c r="L166" s="52">
-        <v>0</v>
-      </c>
-      <c r="M166" s="52">
-        <v>0</v>
-      </c>
-      <c r="N166" s="52">
+        <v>36</v>
+      </c>
+      <c r="D166" s="18">
+        <v>0</v>
+      </c>
+      <c r="E166" s="18">
+        <v>0</v>
+      </c>
+      <c r="F166" s="18">
+        <v>0</v>
+      </c>
+      <c r="G166" s="18">
+        <v>0</v>
+      </c>
+      <c r="H166" s="18">
+        <v>0</v>
+      </c>
+      <c r="I166" s="18">
+        <v>0</v>
+      </c>
+      <c r="J166" s="18">
+        <v>0</v>
+      </c>
+      <c r="K166" s="18">
+        <v>0</v>
+      </c>
+      <c r="L166" s="18">
+        <v>0</v>
+      </c>
+      <c r="M166" s="18">
+        <v>0</v>
+      </c>
+      <c r="N166" s="18">
         <v>92.762928335543506</v>
       </c>
-      <c r="O166" s="52">
+      <c r="O166" s="18">
         <v>263.71642833054102</v>
       </c>
-      <c r="P166" s="52">
+      <c r="P166" s="18">
         <v>347.672099125297</v>
       </c>
-      <c r="Q166" s="52">
+      <c r="Q166" s="18">
         <v>315.21838347430503</v>
       </c>
-      <c r="R166" s="52">
+      <c r="R166" s="18">
         <v>465.75947545666702</v>
       </c>
     </row>
     <row r="167" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B167" s="51"/>
+      <c r="B167" s="34"/>
       <c r="C167" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D167" s="52">
+        <v>34</v>
+      </c>
+      <c r="D167" s="18">
         <f>SUM(D165:D166)</f>
         <v>2507.81899999999</v>
       </c>
-      <c r="E167" s="52">
+      <c r="E167" s="18">
         <f t="shared" ref="E167:R167" si="33">SUM(E165:E166)</f>
         <v>5012.3629999999957</v>
       </c>
-      <c r="F167" s="52">
+      <c r="F167" s="18">
         <f t="shared" si="33"/>
         <v>7484.0559999999841</v>
       </c>
-      <c r="G167" s="52">
+      <c r="G167" s="18">
         <f t="shared" si="33"/>
         <v>10012.230999999994</v>
       </c>
-      <c r="H167" s="52">
+      <c r="H167" s="18">
         <f t="shared" si="33"/>
         <v>12509.959999999981</v>
       </c>
-      <c r="I167" s="52">
+      <c r="I167" s="18">
         <f t="shared" si="33"/>
         <v>5012.3629999999885</v>
       </c>
-      <c r="J167" s="52">
+      <c r="J167" s="18">
         <f t="shared" si="33"/>
         <v>10012.230999999982</v>
       </c>
-      <c r="K167" s="52">
+      <c r="K167" s="18">
         <f t="shared" si="33"/>
         <v>15002.746999999981</v>
       </c>
-      <c r="L167" s="52">
+      <c r="L167" s="18">
         <f t="shared" si="33"/>
         <v>20033.22299999994</v>
       </c>
-      <c r="M167" s="52">
+      <c r="M167" s="18">
         <f t="shared" si="33"/>
         <v>25000.215999999909</v>
       </c>
-      <c r="N167" s="52">
+      <c r="N167" s="18">
         <f t="shared" si="33"/>
         <v>7484.0559999999896</v>
       </c>
-      <c r="O167" s="52">
+      <c r="O167" s="18">
         <f t="shared" si="33"/>
         <v>15002.746999999874</v>
       </c>
-      <c r="P167" s="52">
+      <c r="P167" s="18">
         <f t="shared" si="33"/>
         <v>22526.531999999883</v>
       </c>
-      <c r="Q167" s="52">
+      <c r="Q167" s="18">
         <f t="shared" si="33"/>
         <v>30054.297000000184</v>
       </c>
-      <c r="R167" s="52">
+      <c r="R167" s="18">
         <f t="shared" si="33"/>
         <v>37514.616000000227</v>
       </c>
@@ -8026,44 +7995,44 @@
     </row>
     <row r="169" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B169" s="22" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="170" spans="2:18" ht="18" x14ac:dyDescent="0.25">
       <c r="B170" s="22"/>
     </row>
     <row r="171" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B171" s="41" t="s">
+      <c r="B171" s="43" t="s">
         <v>4</v>
       </c>
       <c r="C171" s="48"/>
-      <c r="D171" s="45">
+      <c r="D171" s="40">
         <v>0.25</v>
       </c>
-      <c r="E171" s="46"/>
-      <c r="F171" s="46"/>
-      <c r="G171" s="46"/>
-      <c r="H171" s="46"/>
-      <c r="I171" s="45">
+      <c r="E171" s="41"/>
+      <c r="F171" s="41"/>
+      <c r="G171" s="41"/>
+      <c r="H171" s="41"/>
+      <c r="I171" s="40">
         <v>0.5</v>
       </c>
-      <c r="J171" s="46"/>
-      <c r="K171" s="46"/>
-      <c r="L171" s="46"/>
-      <c r="M171" s="46"/>
-      <c r="N171" s="45">
+      <c r="J171" s="41"/>
+      <c r="K171" s="41"/>
+      <c r="L171" s="41"/>
+      <c r="M171" s="41"/>
+      <c r="N171" s="40">
         <v>0.75</v>
       </c>
-      <c r="O171" s="46"/>
-      <c r="P171" s="46"/>
-      <c r="Q171" s="46"/>
-      <c r="R171" s="47"/>
+      <c r="O171" s="41"/>
+      <c r="P171" s="41"/>
+      <c r="Q171" s="41"/>
+      <c r="R171" s="42"/>
     </row>
     <row r="172" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B172" s="41" t="s">
+      <c r="B172" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C172" s="42"/>
+      <c r="C172" s="44"/>
       <c r="D172" s="9">
         <v>40</v>
       </c>
@@ -8164,7 +8133,7 @@
       </c>
     </row>
     <row r="174" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B174" s="40"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="25" t="s">
         <v>13</v>
       </c>
@@ -8279,10 +8248,10 @@
       </c>
     </row>
     <row r="176" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B176" s="43" t="s">
+      <c r="B176" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C176" s="44"/>
+      <c r="C176" s="46"/>
       <c r="D176" s="29">
         <v>28.360215053763401</v>
       </c>
@@ -8329,7 +8298,7 @@
         <v>70.579749103942603</v>
       </c>
     </row>
-    <row r="177" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B177" s="38" t="s">
         <v>19</v>
       </c>
@@ -8382,10 +8351,10 @@
         <v>12326.682024571801</v>
       </c>
     </row>
-    <row r="178" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B178" s="39"/>
+    <row r="178" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B178" s="47"/>
       <c r="C178" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D178" s="26">
         <v>0</v>
@@ -8433,10 +8402,10 @@
         <v>447.07390122965501</v>
       </c>
     </row>
-    <row r="179" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B179" s="40"/>
+    <row r="179" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B179" s="39"/>
       <c r="C179" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D179" s="32">
         <v>577.63399999999899</v>
@@ -8484,7 +8453,7 @@
         <v>23554.240000000202</v>
       </c>
     </row>
-    <row r="180" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B180" s="38" t="s">
         <v>15</v>
       </c>
@@ -8537,8 +8506,8 @@
         <v>2470.2381324373</v>
       </c>
     </row>
-    <row r="181" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B181" s="40"/>
+    <row r="181" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B181" s="39"/>
       <c r="C181" s="23" t="s">
         <v>13</v>
       </c>
@@ -8588,2043 +8557,1895 @@
         <v>13517.514867562701</v>
       </c>
     </row>
-    <row r="182" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B182" s="51"/>
+    <row r="182" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B182" s="34"/>
       <c r="C182" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D182" s="52">
+        <v>31</v>
+      </c>
+      <c r="D182" s="18">
         <f>SUM(D179:D181)</f>
         <v>2665.672</v>
       </c>
-      <c r="E182" s="52">
+      <c r="E182" s="18">
         <f t="shared" ref="E182:R182" si="35">SUM(E179:E181)</f>
         <v>4687.5509999999867</v>
       </c>
-      <c r="F182" s="52">
+      <c r="F182" s="18">
         <f t="shared" si="35"/>
         <v>8421.0000000000036</v>
       </c>
-      <c r="G182" s="52">
+      <c r="G182" s="18">
         <f t="shared" si="35"/>
         <v>10436.901999999995</v>
       </c>
-      <c r="H182" s="52">
+      <c r="H182" s="18">
         <f t="shared" si="35"/>
         <v>13193.657999999979</v>
       </c>
-      <c r="I182" s="52">
+      <c r="I182" s="18">
         <f t="shared" si="35"/>
         <v>4687.5509999999867</v>
       </c>
-      <c r="J182" s="52">
+      <c r="J182" s="18">
         <f t="shared" si="35"/>
         <v>10436.901999999987</v>
       </c>
-      <c r="K182" s="52">
+      <c r="K182" s="18">
         <f t="shared" si="35"/>
         <v>15743.032999999979</v>
       </c>
-      <c r="L182" s="52">
+      <c r="L182" s="18">
         <f t="shared" si="35"/>
         <v>21854.081999999958</v>
       </c>
-      <c r="M182" s="52">
+      <c r="M182" s="18">
         <f t="shared" si="35"/>
         <v>26984.677999999971</v>
       </c>
-      <c r="N182" s="52">
+      <c r="N182" s="18">
         <f t="shared" si="35"/>
         <v>8420.9999999999818</v>
       </c>
-      <c r="O182" s="52">
+      <c r="O182" s="18">
         <f t="shared" si="35"/>
         <v>15743.032999999901</v>
       </c>
-      <c r="P182" s="52">
+      <c r="P182" s="18">
         <f t="shared" si="35"/>
         <v>24029.563999999871</v>
       </c>
-      <c r="Q182" s="52">
+      <c r="Q182" s="18">
         <f t="shared" si="35"/>
         <v>32327.395000000201</v>
       </c>
-      <c r="R182" s="52">
+      <c r="R182" s="18">
         <f t="shared" si="35"/>
         <v>39541.993000000199</v>
       </c>
     </row>
-    <row r="183" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B183" s="51"/>
+    <row r="183" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B183" s="34"/>
       <c r="C183" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D183" s="52">
+        <v>35</v>
+      </c>
+      <c r="D183" s="18">
         <f>SUM(D177:D180)</f>
         <v>2507.81899999999</v>
       </c>
-      <c r="E183" s="52">
+      <c r="E183" s="18">
         <f t="shared" ref="E183:R183" si="36">SUM(E177:E180)</f>
         <v>5012.3629999999957</v>
       </c>
-      <c r="F183" s="52">
+      <c r="F183" s="18">
         <f t="shared" si="36"/>
         <v>7484.0559999999841</v>
       </c>
-      <c r="G183" s="52">
+      <c r="G183" s="18">
         <f t="shared" si="36"/>
         <v>10012.230999999994</v>
       </c>
-      <c r="H183" s="52">
+      <c r="H183" s="18">
         <f t="shared" si="36"/>
         <v>12509.959999999981</v>
       </c>
-      <c r="I183" s="52">
+      <c r="I183" s="18">
         <f t="shared" si="36"/>
         <v>5092.6678030709672</v>
       </c>
-      <c r="J183" s="52">
+      <c r="J183" s="18">
         <f t="shared" si="36"/>
         <v>10065.518098205997</v>
       </c>
-      <c r="K183" s="52">
+      <c r="K183" s="18">
         <f t="shared" si="36"/>
         <v>15064.887322308579</v>
       </c>
-      <c r="L183" s="52">
+      <c r="L183" s="18">
         <f t="shared" si="36"/>
         <v>20106.325643563461</v>
       </c>
-      <c r="M183" s="52">
+      <c r="M183" s="18">
         <f t="shared" si="36"/>
         <v>25102.066885970973</v>
       </c>
-      <c r="N183" s="52">
+      <c r="N183" s="18">
         <f t="shared" si="36"/>
         <v>7744.9097489753904</v>
       </c>
-      <c r="O183" s="52">
+      <c r="O183" s="18">
         <f t="shared" si="36"/>
         <v>15479.533713987104</v>
       </c>
-      <c r="P183" s="52">
+      <c r="P183" s="18">
         <f t="shared" si="36"/>
         <v>23254.921974008357</v>
       </c>
-      <c r="Q183" s="52">
+      <c r="Q183" s="18">
         <f t="shared" si="36"/>
         <v>31096.629989418587</v>
       </c>
-      <c r="R183" s="52">
+      <c r="R183" s="18">
         <f t="shared" si="36"/>
         <v>38798.234058238959</v>
       </c>
     </row>
-    <row r="184" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B184" s="51"/>
+    <row r="184" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B184" s="34"/>
       <c r="C184" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D184" s="52">
-        <v>0</v>
-      </c>
-      <c r="E184" s="52">
-        <v>0</v>
-      </c>
-      <c r="F184" s="52">
-        <v>0</v>
-      </c>
-      <c r="G184" s="52">
-        <v>0</v>
-      </c>
-      <c r="H184" s="52">
-        <v>0</v>
-      </c>
-      <c r="I184" s="52">
-        <v>0</v>
-      </c>
-      <c r="J184" s="52">
-        <v>0</v>
-      </c>
-      <c r="K184" s="52">
-        <v>0</v>
-      </c>
-      <c r="L184" s="52">
-        <v>0</v>
-      </c>
-      <c r="M184" s="52">
-        <v>0</v>
-      </c>
-      <c r="N184" s="52">
+        <v>36</v>
+      </c>
+      <c r="D184" s="18">
+        <v>0</v>
+      </c>
+      <c r="E184" s="18">
+        <v>0</v>
+      </c>
+      <c r="F184" s="18">
+        <v>0</v>
+      </c>
+      <c r="G184" s="18">
+        <v>0</v>
+      </c>
+      <c r="H184" s="18">
+        <v>0</v>
+      </c>
+      <c r="I184" s="18">
+        <v>0</v>
+      </c>
+      <c r="J184" s="18">
+        <v>0</v>
+      </c>
+      <c r="K184" s="18">
+        <v>0</v>
+      </c>
+      <c r="L184" s="18">
+        <v>0</v>
+      </c>
+      <c r="M184" s="18">
+        <v>0</v>
+      </c>
+      <c r="N184" s="18">
         <v>92.762928335543506</v>
       </c>
-      <c r="O184" s="52">
+      <c r="O184" s="18">
         <v>263.71642833054102</v>
       </c>
-      <c r="P184" s="52">
+      <c r="P184" s="18">
         <v>347.672099125297</v>
       </c>
-      <c r="Q184" s="52">
+      <c r="Q184" s="18">
         <v>315.21838347430503</v>
       </c>
-      <c r="R184" s="52">
+      <c r="R184" s="18">
         <v>465.75947545666702</v>
       </c>
     </row>
-    <row r="185" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B185" s="51"/>
+    <row r="185" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B185" s="34"/>
       <c r="C185" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D185" s="52">
+        <v>38</v>
+      </c>
+      <c r="D185" s="18">
         <f>SUM(D183:D184)</f>
         <v>2507.81899999999</v>
       </c>
-      <c r="E185" s="52">
+      <c r="E185" s="18">
         <f t="shared" ref="E185:R185" si="37">SUM(E183:E184)</f>
         <v>5012.3629999999957</v>
       </c>
-      <c r="F185" s="52">
+      <c r="F185" s="18">
         <f t="shared" si="37"/>
         <v>7484.0559999999841</v>
       </c>
-      <c r="G185" s="52">
+      <c r="G185" s="18">
         <f t="shared" si="37"/>
         <v>10012.230999999994</v>
       </c>
-      <c r="H185" s="52">
+      <c r="H185" s="18">
         <f t="shared" si="37"/>
         <v>12509.959999999981</v>
       </c>
-      <c r="I185" s="52">
+      <c r="I185" s="18">
         <f t="shared" si="37"/>
         <v>5092.6678030709672</v>
       </c>
-      <c r="J185" s="52">
+      <c r="J185" s="18">
         <f t="shared" si="37"/>
         <v>10065.518098205997</v>
       </c>
-      <c r="K185" s="52">
+      <c r="K185" s="18">
         <f t="shared" si="37"/>
         <v>15064.887322308579</v>
       </c>
-      <c r="L185" s="52">
+      <c r="L185" s="18">
         <f t="shared" si="37"/>
         <v>20106.325643563461</v>
       </c>
-      <c r="M185" s="52">
+      <c r="M185" s="18">
         <f t="shared" si="37"/>
         <v>25102.066885970973</v>
       </c>
-      <c r="N185" s="52">
+      <c r="N185" s="18">
         <f t="shared" si="37"/>
         <v>7837.672677310934</v>
       </c>
-      <c r="O185" s="52">
+      <c r="O185" s="18">
         <f t="shared" si="37"/>
         <v>15743.250142317645</v>
       </c>
-      <c r="P185" s="52">
+      <c r="P185" s="18">
         <f t="shared" si="37"/>
         <v>23602.594073133656</v>
       </c>
-      <c r="Q185" s="52">
+      <c r="Q185" s="18">
         <f t="shared" si="37"/>
         <v>31411.848372892891</v>
       </c>
-      <c r="R185" s="52">
+      <c r="R185" s="18">
         <f t="shared" si="37"/>
         <v>39263.993533695626</v>
       </c>
     </row>
-    <row r="186" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B186" s="51"/>
+    <row r="186" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B186" s="34"/>
       <c r="C186" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D186" s="52">
-        <v>0</v>
-      </c>
-      <c r="E186" s="52">
-        <v>0</v>
-      </c>
-      <c r="F186" s="52">
-        <v>0</v>
-      </c>
-      <c r="G186" s="52">
-        <v>0</v>
-      </c>
-      <c r="H186" s="52">
-        <v>0</v>
-      </c>
-      <c r="I186" s="52">
+        <v>39</v>
+      </c>
+      <c r="D186" s="18">
+        <v>0</v>
+      </c>
+      <c r="E186" s="18">
+        <v>0</v>
+      </c>
+      <c r="F186" s="18">
+        <v>0</v>
+      </c>
+      <c r="G186" s="18">
+        <v>0</v>
+      </c>
+      <c r="H186" s="18">
+        <v>0</v>
+      </c>
+      <c r="I186" s="18">
         <v>80.304803070971005</v>
       </c>
-      <c r="J186" s="52">
+      <c r="J186" s="18">
         <v>53.2870982060087</v>
       </c>
-      <c r="K186" s="52">
+      <c r="K186" s="18">
         <v>62.1403223085928</v>
       </c>
-      <c r="L186" s="52">
+      <c r="L186" s="18">
         <v>73.102643563524097</v>
       </c>
-      <c r="M186" s="52">
+      <c r="M186" s="18">
         <v>101.85088597105</v>
       </c>
-      <c r="N186" s="52">
+      <c r="N186" s="18">
         <v>353.61667731095002</v>
       </c>
-      <c r="O186" s="52">
+      <c r="O186" s="18">
         <v>740.50314231772802</v>
       </c>
-      <c r="P186" s="52">
+      <c r="P186" s="18">
         <v>1076.0620731337499</v>
       </c>
-      <c r="Q186" s="52">
+      <c r="Q186" s="18">
         <v>1357.5513728926401</v>
       </c>
-      <c r="R186" s="52">
+      <c r="R186" s="18">
         <v>1749.3775336955</v>
       </c>
     </row>
-    <row r="187" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B187" s="51"/>
+    <row r="187" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B187" s="34"/>
       <c r="C187" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D187" s="52">
+        <v>34</v>
+      </c>
+      <c r="D187" s="18">
         <f>D185-D186</f>
         <v>2507.81899999999</v>
       </c>
-      <c r="E187" s="52">
+      <c r="E187" s="18">
         <f t="shared" ref="E187:R187" si="38">E185-E186</f>
         <v>5012.3629999999957</v>
       </c>
-      <c r="F187" s="52">
+      <c r="F187" s="18">
         <f t="shared" si="38"/>
         <v>7484.0559999999841</v>
       </c>
-      <c r="G187" s="52">
+      <c r="G187" s="18">
         <f t="shared" si="38"/>
         <v>10012.230999999994</v>
       </c>
-      <c r="H187" s="52">
+      <c r="H187" s="18">
         <f t="shared" si="38"/>
         <v>12509.959999999981</v>
       </c>
-      <c r="I187" s="52">
+      <c r="I187" s="18">
         <f t="shared" si="38"/>
         <v>5012.3629999999966</v>
       </c>
-      <c r="J187" s="52">
+      <c r="J187" s="18">
         <f t="shared" si="38"/>
         <v>10012.230999999989</v>
       </c>
-      <c r="K187" s="52">
+      <c r="K187" s="18">
         <f t="shared" si="38"/>
         <v>15002.746999999987</v>
       </c>
-      <c r="L187" s="52">
+      <c r="L187" s="18">
         <f t="shared" si="38"/>
         <v>20033.222999999936</v>
       </c>
-      <c r="M187" s="52">
+      <c r="M187" s="18">
         <f t="shared" si="38"/>
         <v>25000.215999999924</v>
       </c>
-      <c r="N187" s="52">
+      <c r="N187" s="18">
         <f t="shared" si="38"/>
         <v>7484.0559999999841</v>
       </c>
-      <c r="O187" s="52">
+      <c r="O187" s="18">
         <f t="shared" si="38"/>
         <v>15002.746999999918</v>
       </c>
-      <c r="P187" s="52">
+      <c r="P187" s="18">
         <f t="shared" si="38"/>
         <v>22526.531999999905</v>
       </c>
-      <c r="Q187" s="52">
+      <c r="Q187" s="18">
         <f t="shared" si="38"/>
         <v>30054.29700000025</v>
       </c>
-      <c r="R187" s="52">
+      <c r="R187" s="18">
         <f t="shared" si="38"/>
         <v>37514.616000000125</v>
       </c>
     </row>
-    <row r="189" spans="2:36" ht="18" x14ac:dyDescent="0.25">
-      <c r="B189" s="22" t="s">
+    <row r="190" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B190" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="190" spans="2:36" ht="18" x14ac:dyDescent="0.25">
-      <c r="B190" s="22"/>
-    </row>
-    <row r="191" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B191" s="41" t="s">
+    <row r="191" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B191" s="22"/>
+    </row>
+    <row r="192" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B192" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C191" s="48"/>
-      <c r="D191" s="45">
+      <c r="C192" s="48"/>
+      <c r="D192" s="40">
         <v>0.25</v>
       </c>
-      <c r="E191" s="46"/>
-      <c r="F191" s="46"/>
-      <c r="G191" s="46"/>
-      <c r="H191" s="46"/>
-      <c r="I191" s="45">
+      <c r="E192" s="41"/>
+      <c r="F192" s="41"/>
+      <c r="G192" s="41"/>
+      <c r="H192" s="41"/>
+      <c r="I192" s="40">
         <v>0.5</v>
       </c>
-      <c r="J191" s="46"/>
-      <c r="K191" s="46"/>
-      <c r="L191" s="46"/>
-      <c r="M191" s="46"/>
-      <c r="N191" s="45">
+      <c r="J192" s="41"/>
+      <c r="K192" s="41"/>
+      <c r="L192" s="41"/>
+      <c r="M192" s="41"/>
+      <c r="N192" s="40">
         <v>0.75</v>
       </c>
-      <c r="O191" s="46"/>
-      <c r="P191" s="46"/>
-      <c r="Q191" s="46"/>
-      <c r="R191" s="47"/>
-      <c r="T191" s="18">
-        <v>39089.046438154801</v>
-      </c>
-      <c r="V191" s="18" cm="1">
-        <f t="array" ref="V191:AJ191">TRANSPOSE(T191:T205)</f>
-        <v>39089.046438154801</v>
-      </c>
-      <c r="W191" s="18">
-        <v>82019.877758255199</v>
-      </c>
-      <c r="X191" s="18">
-        <v>116218.580895627</v>
-      </c>
-      <c r="Y191" s="18">
-        <v>159138.987787872</v>
-      </c>
-      <c r="Z191" s="18">
-        <v>199051.54997373</v>
-      </c>
-      <c r="AA191" s="18">
-        <v>47333.995169554197</v>
-      </c>
-      <c r="AB191" s="18">
-        <v>98926.584932192694</v>
-      </c>
-      <c r="AC191" s="18">
-        <v>143445.815290161</v>
-      </c>
-      <c r="AD191" s="18">
-        <v>187520.878512628</v>
-      </c>
-      <c r="AE191" s="18">
-        <v>232425.50969515101</v>
-      </c>
-      <c r="AF191" s="18">
-        <v>31739.099781575798</v>
-      </c>
-      <c r="AG191" s="18">
-        <v>55318.520663591</v>
-      </c>
-      <c r="AH191" s="18">
-        <v>80685.706887105494</v>
-      </c>
-      <c r="AI191" s="18">
-        <v>118353.559455394</v>
-      </c>
-      <c r="AJ191" s="18">
-        <v>143837.329561235</v>
-      </c>
-    </row>
-    <row r="192" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B192" s="41" t="s">
+      <c r="O192" s="41"/>
+      <c r="P192" s="41"/>
+      <c r="Q192" s="41"/>
+      <c r="R192" s="42"/>
+    </row>
+    <row r="193" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B193" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C192" s="42"/>
-      <c r="D192" s="9">
+      <c r="C193" s="44"/>
+      <c r="D193" s="9">
         <v>40</v>
       </c>
-      <c r="E192" s="8">
+      <c r="E193" s="8">
         <v>80</v>
       </c>
-      <c r="F192" s="8">
+      <c r="F193" s="8">
         <v>120</v>
       </c>
-      <c r="G192" s="8">
+      <c r="G193" s="8">
         <v>160</v>
       </c>
-      <c r="H192" s="8">
+      <c r="H193" s="8">
         <v>200</v>
       </c>
-      <c r="I192" s="9">
+      <c r="I193" s="9">
         <v>40</v>
       </c>
-      <c r="J192" s="8">
+      <c r="J193" s="8">
         <v>80</v>
       </c>
-      <c r="K192" s="8">
+      <c r="K193" s="8">
         <v>120</v>
       </c>
-      <c r="L192" s="8">
+      <c r="L193" s="8">
         <v>160</v>
       </c>
-      <c r="M192" s="8">
+      <c r="M193" s="8">
         <v>200</v>
       </c>
-      <c r="N192" s="9">
+      <c r="N193" s="9">
         <v>40</v>
       </c>
-      <c r="O192" s="8">
+      <c r="O193" s="8">
         <v>80</v>
       </c>
-      <c r="P192" s="8">
+      <c r="P193" s="8">
         <v>120</v>
       </c>
-      <c r="Q192" s="8">
+      <c r="Q193" s="8">
         <v>160</v>
       </c>
-      <c r="R192" s="10">
+      <c r="R193" s="10">
         <v>200</v>
       </c>
-      <c r="T192" s="18">
-        <v>82019.877758255199</v>
-      </c>
-    </row>
-    <row r="193" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B193" s="38" t="s">
+    </row>
+    <row r="194" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B194" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C193" s="25" t="s">
+      <c r="C194" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D193" s="19">
+      <c r="D194" s="19">
         <v>26123.977999999901</v>
       </c>
-      <c r="E193" s="20">
+      <c r="E194" s="20">
         <v>55346.315000000002</v>
       </c>
-      <c r="F193" s="20">
+      <c r="F194" s="20">
         <v>79167.024999999907</v>
       </c>
-      <c r="G193" s="20">
+      <c r="G194" s="20">
         <v>108411.413999999</v>
       </c>
-      <c r="H193" s="21">
+      <c r="H194" s="21">
         <v>135348.016</v>
       </c>
-      <c r="I193" s="19">
+      <c r="I194" s="19">
         <v>23267.427</v>
       </c>
-      <c r="J193" s="20">
+      <c r="J194" s="20">
         <v>48128.292000000001</v>
       </c>
-      <c r="K193" s="20">
+      <c r="K194" s="20">
         <v>69687.577000000107</v>
       </c>
-      <c r="L193" s="20">
+      <c r="L194" s="20">
         <v>91464.140000000203</v>
       </c>
-      <c r="M193" s="21">
+      <c r="M194" s="21">
         <v>113002.269</v>
       </c>
-      <c r="N193" s="19">
+      <c r="N194" s="19">
         <v>14555.466</v>
       </c>
-      <c r="O193" s="20">
+      <c r="O194" s="20">
         <v>25883.148000000001</v>
       </c>
-      <c r="P193" s="20">
+      <c r="P194" s="20">
         <v>36857.523999999801</v>
       </c>
-      <c r="Q193" s="20">
+      <c r="Q194" s="20">
         <v>53538.754000000103</v>
       </c>
-      <c r="R193" s="21">
+      <c r="R194" s="21">
         <v>64892.758999999998</v>
       </c>
-      <c r="T193" s="18">
-        <v>116218.580895627</v>
-      </c>
-    </row>
-    <row r="194" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B194" s="40"/>
-      <c r="C194" s="25" t="s">
+    </row>
+    <row r="195" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B195" s="39"/>
+      <c r="C195" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D194" s="26">
-        <v>56292.697000000298</v>
-      </c>
-      <c r="E194" s="27">
-        <v>120644.829999999</v>
-      </c>
-      <c r="F194" s="27">
-        <v>176149.67800000001</v>
-      </c>
-      <c r="G194" s="27">
-        <v>235493.17</v>
-      </c>
-      <c r="H194" s="27">
-        <v>305430.26099999697</v>
-      </c>
-      <c r="I194" s="26">
-        <v>33108.194999999898</v>
-      </c>
-      <c r="J194" s="27">
-        <v>74053.605999999607</v>
-      </c>
-      <c r="K194" s="27">
-        <v>106303.567999999</v>
-      </c>
-      <c r="L194" s="27">
-        <v>140589.97599999799</v>
-      </c>
-      <c r="M194" s="27">
-        <v>173737.51099999901</v>
-      </c>
-      <c r="N194" s="26">
-        <v>18218.921999999999</v>
-      </c>
-      <c r="O194" s="27">
-        <v>30492.4739999999</v>
-      </c>
-      <c r="P194" s="27">
-        <v>45559.151000000398</v>
-      </c>
-      <c r="Q194" s="27">
-        <v>68643.143999999593</v>
-      </c>
-      <c r="R194" s="28">
-        <v>83209.854999999807</v>
-      </c>
-      <c r="T194" s="18">
-        <v>159138.987787872</v>
-      </c>
-    </row>
-    <row r="195" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B195" s="36"/>
-      <c r="C195" s="24"/>
       <c r="D195" s="26">
-        <f>SUM(D193:D194)</f>
-        <v>82416.675000000192</v>
-      </c>
-      <c r="E195" s="26">
-        <f t="shared" ref="E195:R195" si="39">SUM(E193:E194)</f>
-        <v>175991.144999999</v>
-      </c>
-      <c r="F195" s="26">
+        <v>56296.473000000296</v>
+      </c>
+      <c r="E195" s="27">
+        <v>120654.103999999</v>
+      </c>
+      <c r="F195" s="27">
+        <v>176162.95</v>
+      </c>
+      <c r="G195" s="27">
+        <v>235511.42499999999</v>
+      </c>
+      <c r="H195" s="27">
+        <v>305454.154999997</v>
+      </c>
+      <c r="I195" s="26">
+        <v>33110.817999999897</v>
+      </c>
+      <c r="J195" s="27">
+        <v>74059.871999999596</v>
+      </c>
+      <c r="K195" s="27">
+        <v>106312.841999999</v>
+      </c>
+      <c r="L195" s="27">
+        <v>140602.107999998</v>
+      </c>
+      <c r="M195" s="27">
+        <v>173752.788999999</v>
+      </c>
+      <c r="N195" s="26">
+        <v>18220.236000000001</v>
+      </c>
+      <c r="O195" s="27">
+        <v>30495.0969999999</v>
+      </c>
+      <c r="P195" s="27">
+        <v>45562.927000000403</v>
+      </c>
+      <c r="Q195" s="27">
+        <v>68649.409999999596</v>
+      </c>
+      <c r="R195" s="28">
+        <v>83217.548999999795</v>
+      </c>
+    </row>
+    <row r="196" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B196" s="36"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="26">
+        <f>SUM(D194:D195)</f>
+        <v>82420.451000000205</v>
+      </c>
+      <c r="E196" s="26">
+        <f t="shared" ref="E196:R196" si="39">SUM(E194:E195)</f>
+        <v>176000.418999999</v>
+      </c>
+      <c r="F196" s="26">
         <f t="shared" si="39"/>
-        <v>255316.70299999992</v>
-      </c>
-      <c r="G195" s="26">
+        <v>255329.97499999992</v>
+      </c>
+      <c r="G196" s="26">
         <f t="shared" si="39"/>
-        <v>343904.58399999898</v>
-      </c>
-      <c r="H195" s="26">
+        <v>343922.83899999899</v>
+      </c>
+      <c r="H196" s="26">
         <f t="shared" si="39"/>
-        <v>440778.27699999698</v>
-      </c>
-      <c r="I195" s="26">
+        <v>440802.170999997</v>
+      </c>
+      <c r="I196" s="26">
         <f t="shared" si="39"/>
-        <v>56375.621999999901</v>
-      </c>
-      <c r="J195" s="26">
+        <v>56378.244999999893</v>
+      </c>
+      <c r="J196" s="26">
         <f t="shared" si="39"/>
-        <v>122181.89799999961</v>
-      </c>
-      <c r="K195" s="26">
+        <v>122188.1639999996</v>
+      </c>
+      <c r="K196" s="26">
         <f t="shared" si="39"/>
-        <v>175991.14499999909</v>
-      </c>
-      <c r="L195" s="26">
+        <v>176000.41899999912</v>
+      </c>
+      <c r="L196" s="26">
         <f t="shared" si="39"/>
-        <v>232054.11599999818</v>
-      </c>
-      <c r="M195" s="26">
+        <v>232066.24799999822</v>
+      </c>
+      <c r="M196" s="26">
         <f t="shared" si="39"/>
-        <v>286739.77999999898</v>
-      </c>
-      <c r="N195" s="26">
+        <v>286755.05799999903</v>
+      </c>
+      <c r="N196" s="26">
         <f t="shared" si="39"/>
-        <v>32774.387999999999</v>
-      </c>
-      <c r="O195" s="26">
+        <v>32775.702000000005</v>
+      </c>
+      <c r="O196" s="26">
         <f t="shared" si="39"/>
-        <v>56375.621999999901</v>
-      </c>
-      <c r="P195" s="26">
+        <v>56378.244999999901</v>
+      </c>
+      <c r="P196" s="26">
         <f t="shared" si="39"/>
-        <v>82416.675000000192</v>
-      </c>
-      <c r="Q195" s="26">
+        <v>82420.451000000205</v>
+      </c>
+      <c r="Q196" s="26">
         <f t="shared" si="39"/>
-        <v>122181.8979999997</v>
-      </c>
-      <c r="R195" s="26">
+        <v>122188.1639999997</v>
+      </c>
+      <c r="R196" s="26">
         <f t="shared" si="39"/>
-        <v>148102.6139999998</v>
-      </c>
-      <c r="T195" s="18">
-        <v>199051.54997373</v>
-      </c>
-    </row>
-    <row r="196" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B196" s="43" t="s">
+        <v>148110.30799999979</v>
+      </c>
+    </row>
+    <row r="197" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B197" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C196" s="44"/>
-      <c r="D196" s="29">
-        <v>37.495161106683298</v>
-      </c>
-      <c r="E196" s="30">
-        <v>38.597290219742597</v>
-      </c>
-      <c r="F196" s="30">
-        <v>37.3004668108846</v>
-      </c>
-      <c r="G196" s="30">
-        <v>37.9744961858135</v>
-      </c>
-      <c r="H196" s="31">
-        <v>37.916884891267202</v>
-      </c>
-      <c r="I196" s="29">
-        <v>38.597290219742597</v>
-      </c>
-      <c r="J196" s="30">
-        <v>37.9744961858135</v>
-      </c>
-      <c r="K196" s="30">
-        <v>37.9948005616911</v>
-      </c>
-      <c r="L196" s="30">
-        <v>37.668507343732202</v>
-      </c>
-      <c r="M196" s="31">
-        <v>37.773539792781499</v>
-      </c>
-      <c r="N196" s="29">
-        <v>37.3004668108846</v>
-      </c>
-      <c r="O196" s="30">
-        <v>37.9948005616911</v>
-      </c>
-      <c r="P196" s="30">
-        <v>37.847609649954997</v>
-      </c>
-      <c r="Q196" s="30">
-        <v>37.841853580780999</v>
-      </c>
-      <c r="R196" s="31">
-        <v>37.940567004440297</v>
-      </c>
-      <c r="T196" s="18">
-        <v>47333.995169554197</v>
-      </c>
-    </row>
-    <row r="197" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B197" s="38" t="s">
+      <c r="C197" s="46"/>
+      <c r="D197" s="29">
+        <v>37.490892531876099</v>
+      </c>
+      <c r="E197" s="30">
+        <v>38.592896174863299</v>
+      </c>
+      <c r="F197" s="30">
+        <v>37.2962204007286</v>
+      </c>
+      <c r="G197" s="30">
+        <v>37.970173041894299</v>
+      </c>
+      <c r="H197" s="31">
+        <v>37.912568306010897</v>
+      </c>
+      <c r="I197" s="29">
+        <v>38.592896174863299</v>
+      </c>
+      <c r="J197" s="30">
+        <v>37.970173041894299</v>
+      </c>
+      <c r="K197" s="30">
+        <v>37.990475106253797</v>
+      </c>
+      <c r="L197" s="30">
+        <v>37.664219034608301</v>
+      </c>
+      <c r="M197" s="31">
+        <v>37.769239526411603</v>
+      </c>
+      <c r="N197" s="29">
+        <v>37.2962204007286</v>
+      </c>
+      <c r="O197" s="30">
+        <v>37.990475106253797</v>
+      </c>
+      <c r="P197" s="30">
+        <v>37.8433009512244</v>
+      </c>
+      <c r="Q197" s="30">
+        <v>37.837545537340603</v>
+      </c>
+      <c r="R197" s="31">
+        <v>37.936247723132901</v>
+      </c>
+    </row>
+    <row r="198" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B198" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C197" s="25" t="s">
+      <c r="C198" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D197" s="19">
+      <c r="D198" s="19">
         <v>26123.977999999901</v>
       </c>
-      <c r="E197" s="20">
+      <c r="E198" s="20">
         <v>55346.315000000002</v>
       </c>
-      <c r="F197" s="20">
+      <c r="F198" s="20">
         <v>79167.024999999907</v>
       </c>
-      <c r="G197" s="20">
+      <c r="G198" s="20">
         <v>108411.413999999</v>
       </c>
-      <c r="H197" s="21">
+      <c r="H198" s="21">
         <v>135348.016</v>
       </c>
-      <c r="I197" s="19">
+      <c r="I198" s="19">
         <v>23267.427</v>
       </c>
-      <c r="J197" s="20">
+      <c r="J198" s="20">
         <v>48128.292000000001</v>
       </c>
-      <c r="K197" s="20">
+      <c r="K198" s="20">
         <v>69687.577000000107</v>
       </c>
-      <c r="L197" s="20">
+      <c r="L198" s="20">
         <v>91464.140000000203</v>
       </c>
-      <c r="M197" s="21">
+      <c r="M198" s="21">
         <v>113002.269</v>
       </c>
-      <c r="N197" s="19">
+      <c r="N198" s="19">
         <v>14555.466</v>
       </c>
-      <c r="O197" s="20">
+      <c r="O198" s="20">
         <v>25883.148000000001</v>
       </c>
-      <c r="P197" s="20">
+      <c r="P198" s="20">
         <v>36857.523999999801</v>
       </c>
-      <c r="Q197" s="20">
+      <c r="Q198" s="20">
         <v>53538.754000000103</v>
       </c>
-      <c r="R197" s="21">
+      <c r="R198" s="21">
         <v>64892.758999999998</v>
       </c>
-      <c r="T197" s="18">
-        <v>98926.584932192694</v>
-      </c>
-    </row>
-    <row r="198" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B198" s="39"/>
-      <c r="C198" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D198" s="26">
+    </row>
+    <row r="199" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B199" s="47"/>
+      <c r="C199" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D199" s="26">
         <v>16398.6719999999</v>
       </c>
-      <c r="E198" s="27">
+      <c r="E199" s="27">
         <v>33072.267999999902</v>
       </c>
-      <c r="F198" s="27">
+      <c r="F199" s="27">
         <v>47429.379000000103</v>
       </c>
-      <c r="G198" s="27">
+      <c r="G199" s="27">
         <v>64222.389000000199</v>
       </c>
-      <c r="H198" s="27">
+      <c r="H199" s="27">
         <v>80558.0129999989</v>
       </c>
-      <c r="I198" s="26">
+      <c r="I199" s="26">
         <v>65151.155999999901</v>
       </c>
-      <c r="J198" s="27">
+      <c r="J199" s="27">
         <v>124505.51099999899</v>
       </c>
-      <c r="K198" s="27">
+      <c r="K199" s="27">
         <v>189702.80999999901</v>
       </c>
-      <c r="L198" s="27">
+      <c r="L199" s="27">
         <v>250159.80300000001</v>
       </c>
-      <c r="M198" s="27">
+      <c r="M199" s="27">
         <v>315182.012999998</v>
       </c>
-      <c r="N198" s="26">
+      <c r="N199" s="26">
         <v>112040.93799999999</v>
       </c>
-      <c r="O198" s="27">
+      <c r="O199" s="27">
         <v>233507.23899999901</v>
       </c>
-      <c r="P198" s="27">
+      <c r="P199" s="27">
         <v>349755.27900000103</v>
       </c>
-      <c r="Q198" s="27">
+      <c r="Q199" s="27">
         <v>460590.66800000001</v>
       </c>
-      <c r="R198" s="28">
+      <c r="R199" s="28">
         <v>582188.41700000002</v>
       </c>
-      <c r="T198" s="18">
-        <v>143445.815290161</v>
-      </c>
-    </row>
-    <row r="199" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B199" s="40"/>
-      <c r="C199" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D199" s="32">
+    </row>
+    <row r="200" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B200" s="39"/>
+      <c r="C200" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D200" s="32">
         <v>8534.0769999999902</v>
       </c>
-      <c r="E199" s="18">
+      <c r="E200" s="18">
         <v>15023.047000000201</v>
       </c>
-      <c r="F199" s="18">
+      <c r="F200" s="18">
         <v>25498.076000001602</v>
       </c>
-      <c r="G199" s="18">
+      <c r="G200" s="18">
         <v>31785.759000001901</v>
       </c>
-      <c r="H199" s="18">
+      <c r="H200" s="18">
         <v>39645.643000001801</v>
       </c>
-      <c r="I199" s="32">
+      <c r="I200" s="32">
         <v>15023.047000000201</v>
       </c>
-      <c r="J199" s="18">
+      <c r="J200" s="18">
         <v>31785.759000001901</v>
       </c>
-      <c r="K199" s="18">
+      <c r="K200" s="18">
         <v>47868.672000000799</v>
       </c>
-      <c r="L199" s="18">
+      <c r="L200" s="18">
         <v>67023.046000000497</v>
       </c>
-      <c r="M199" s="18">
+      <c r="M200" s="18">
         <v>83264.587999997806</v>
       </c>
-      <c r="N199" s="32">
+      <c r="N200" s="32">
         <v>25498.076000001602</v>
       </c>
-      <c r="O199" s="18">
+      <c r="O200" s="18">
         <v>47868.672000000799</v>
       </c>
-      <c r="P199" s="18">
+      <c r="P200" s="18">
         <v>74049.793999997695</v>
       </c>
-      <c r="Q199" s="18">
+      <c r="Q200" s="18">
         <v>99770.900999995894</v>
       </c>
-      <c r="R199" s="33">
+      <c r="R200" s="33">
         <v>122088.448999985</v>
       </c>
-      <c r="T199" s="18">
-        <v>187520.878512628</v>
-      </c>
-    </row>
-    <row r="200" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B200" s="38" t="s">
+    </row>
+    <row r="201" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B201" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C200" s="25" t="s">
+      <c r="C201" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D200" s="19">
+      <c r="D201" s="19">
         <v>2839.3099999999899</v>
       </c>
-      <c r="E200" s="20">
+      <c r="E201" s="20">
         <v>4209.1819999999998</v>
       </c>
-      <c r="F200" s="20">
+      <c r="F201" s="20">
         <v>9317.8990000001595</v>
       </c>
-      <c r="G200" s="20">
+      <c r="G201" s="20">
         <v>10801.9660000003</v>
       </c>
-      <c r="H200" s="21">
+      <c r="H201" s="21">
         <v>13422.6080000005</v>
       </c>
-      <c r="I200" s="19">
+      <c r="I201" s="19">
         <v>4209.1819999999998</v>
       </c>
-      <c r="J200" s="20">
+      <c r="J201" s="20">
         <v>10801.9660000003</v>
       </c>
-      <c r="K200" s="20">
+      <c r="K201" s="20">
         <v>15422.8810000007</v>
       </c>
-      <c r="L200" s="20">
+      <c r="L201" s="20">
         <v>21735.230000000902</v>
       </c>
-      <c r="M200" s="21">
+      <c r="M201" s="21">
         <v>26410.886000000701</v>
       </c>
-      <c r="N200" s="19">
+      <c r="N201" s="19">
         <v>9317.8990000001595</v>
       </c>
-      <c r="O200" s="20">
+      <c r="O201" s="20">
         <v>15422.8810000007</v>
       </c>
-      <c r="P200" s="20">
+      <c r="P201" s="20">
         <v>23458.593000000699</v>
       </c>
-      <c r="Q200" s="20">
+      <c r="Q201" s="20">
         <v>31488.346000001002</v>
       </c>
-      <c r="R200" s="21">
+      <c r="R201" s="21">
         <v>37533.597000000103</v>
       </c>
-      <c r="T200" s="18">
-        <v>232425.50969515101</v>
-      </c>
-    </row>
-    <row r="201" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B201" s="40"/>
-      <c r="C201" s="23" t="s">
+    </row>
+    <row r="202" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B202" s="39"/>
+      <c r="C202" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D201" s="26">
-        <v>16790.917000000401</v>
-      </c>
-      <c r="E201" s="27">
-        <v>30669.1150000013</v>
-      </c>
-      <c r="F201" s="27">
-        <v>54472.179999999498</v>
-      </c>
-      <c r="G201" s="27">
-        <v>67721.874999998094</v>
-      </c>
-      <c r="H201" s="27">
-        <v>85976.110999994897</v>
-      </c>
-      <c r="I201" s="26">
-        <v>30669.1150000013</v>
-      </c>
-      <c r="J201" s="27">
-        <v>67721.874999998094</v>
-      </c>
-      <c r="K201" s="27">
-        <v>102420.32999999401</v>
-      </c>
-      <c r="L201" s="27">
-        <v>141649.05399999101</v>
-      </c>
-      <c r="M201" s="27">
-        <v>174952.00799998501</v>
-      </c>
-      <c r="N201" s="26">
-        <v>54472.179999999498</v>
-      </c>
-      <c r="O201" s="27">
-        <v>102420.32999999401</v>
-      </c>
-      <c r="P201" s="27">
-        <v>156268.79399998899</v>
-      </c>
-      <c r="Q201" s="27">
-        <v>209573.27799997901</v>
-      </c>
-      <c r="R201" s="28">
-        <v>257711.95299998199</v>
-      </c>
-      <c r="T201" s="18">
-        <v>31739.099781575798</v>
-      </c>
-    </row>
-    <row r="202" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B202" s="34"/>
-      <c r="C202" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D202" s="18">
-        <f>SUM(D199:D201)</f>
-        <v>28164.304000000382</v>
-      </c>
-      <c r="E202" s="18">
-        <f t="shared" ref="E202:R202" si="40">SUM(E199:E201)</f>
-        <v>49901.344000001496</v>
-      </c>
-      <c r="F202" s="18">
-        <f t="shared" si="40"/>
-        <v>89288.15500000125</v>
-      </c>
-      <c r="G202" s="18">
-        <f t="shared" si="40"/>
-        <v>110309.6000000003</v>
-      </c>
-      <c r="H202" s="18">
-        <f t="shared" si="40"/>
-        <v>139044.3619999972</v>
-      </c>
-      <c r="I202" s="18">
-        <f t="shared" si="40"/>
-        <v>49901.344000001496</v>
-      </c>
-      <c r="J202" s="18">
-        <f t="shared" si="40"/>
-        <v>110309.6000000003</v>
-      </c>
-      <c r="K202" s="18">
-        <f t="shared" si="40"/>
-        <v>165711.88299999549</v>
-      </c>
-      <c r="L202" s="18">
-        <f t="shared" si="40"/>
-        <v>230407.32999999239</v>
-      </c>
-      <c r="M202" s="18">
-        <f t="shared" si="40"/>
-        <v>284627.48199998355</v>
-      </c>
-      <c r="N202" s="18">
-        <f t="shared" si="40"/>
-        <v>89288.15500000125</v>
-      </c>
-      <c r="O202" s="18">
-        <f t="shared" si="40"/>
-        <v>165711.88299999549</v>
-      </c>
-      <c r="P202" s="18">
-        <f t="shared" si="40"/>
-        <v>253777.18099998738</v>
-      </c>
-      <c r="Q202" s="18">
-        <f t="shared" si="40"/>
-        <v>340832.52499997593</v>
-      </c>
-      <c r="R202" s="18">
-        <f t="shared" si="40"/>
-        <v>417333.99899996712</v>
-      </c>
-      <c r="T202" s="18">
-        <v>55318.520663591</v>
-      </c>
-    </row>
-    <row r="203" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="D202" s="26">
+        <v>16792.9820000004</v>
+      </c>
+      <c r="E202" s="27">
+        <v>30673.140000001302</v>
+      </c>
+      <c r="F202" s="27">
+        <v>54479.106999999502</v>
+      </c>
+      <c r="G202" s="27">
+        <v>67729.903999998001</v>
+      </c>
+      <c r="H202" s="27">
+        <v>85985.149999994799</v>
+      </c>
+      <c r="I202" s="26">
+        <v>30673.140000001302</v>
+      </c>
+      <c r="J202" s="27">
+        <v>67729.903999998001</v>
+      </c>
+      <c r="K202" s="27">
+        <v>102431.10699999399</v>
+      </c>
+      <c r="L202" s="27">
+        <v>141663.78999999099</v>
+      </c>
+      <c r="M202" s="27">
+        <v>174969.47799998501</v>
+      </c>
+      <c r="N202" s="26">
+        <v>54479.106999999502</v>
+      </c>
+      <c r="O202" s="27">
+        <v>102431.10699999399</v>
+      </c>
+      <c r="P202" s="27">
+        <v>156284.82199998901</v>
+      </c>
+      <c r="Q202" s="27">
+        <v>209593.245999979</v>
+      </c>
+      <c r="R202" s="28">
+        <v>257734.99999998201</v>
+      </c>
+    </row>
+    <row r="203" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B203" s="34"/>
       <c r="C203" s="35" t="s">
         <v>29</v>
       </c>
       <c r="D203" s="18">
-        <f>SUM(D197:D200)</f>
+        <f>SUM(D200:D202)</f>
+        <v>28166.369000000381</v>
+      </c>
+      <c r="E203" s="18">
+        <f t="shared" ref="E203:R203" si="40">SUM(E200:E202)</f>
+        <v>49905.369000001505</v>
+      </c>
+      <c r="F203" s="18">
+        <f t="shared" si="40"/>
+        <v>89295.082000001261</v>
+      </c>
+      <c r="G203" s="18">
+        <f t="shared" si="40"/>
+        <v>110317.6290000002</v>
+      </c>
+      <c r="H203" s="18">
+        <f t="shared" si="40"/>
+        <v>139053.4009999971</v>
+      </c>
+      <c r="I203" s="18">
+        <f t="shared" si="40"/>
+        <v>49905.369000001505</v>
+      </c>
+      <c r="J203" s="18">
+        <f t="shared" si="40"/>
+        <v>110317.6290000002</v>
+      </c>
+      <c r="K203" s="18">
+        <f t="shared" si="40"/>
+        <v>165722.65999999549</v>
+      </c>
+      <c r="L203" s="18">
+        <f t="shared" si="40"/>
+        <v>230422.06599999237</v>
+      </c>
+      <c r="M203" s="18">
+        <f t="shared" si="40"/>
+        <v>284644.95199998352</v>
+      </c>
+      <c r="N203" s="18">
+        <f t="shared" si="40"/>
+        <v>89295.082000001261</v>
+      </c>
+      <c r="O203" s="18">
+        <f t="shared" si="40"/>
+        <v>165722.65999999549</v>
+      </c>
+      <c r="P203" s="18">
+        <f t="shared" si="40"/>
+        <v>253793.2089999874</v>
+      </c>
+      <c r="Q203" s="18">
+        <f t="shared" si="40"/>
+        <v>340852.49299997592</v>
+      </c>
+      <c r="R203" s="18">
+        <f t="shared" si="40"/>
+        <v>417357.04599996714</v>
+      </c>
+    </row>
+    <row r="204" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C204" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" s="18">
+        <f>SUM(D198:D201)</f>
         <v>53896.036999999786</v>
       </c>
-      <c r="E203" s="18">
-        <f t="shared" ref="E203:R203" si="41">SUM(E197:E200)</f>
+      <c r="E204" s="18">
+        <f t="shared" ref="E204:R204" si="41">SUM(E198:E201)</f>
         <v>107650.81200000009</v>
       </c>
-      <c r="F203" s="18">
+      <c r="F204" s="18">
         <f t="shared" si="41"/>
         <v>161412.37900000176</v>
       </c>
-      <c r="G203" s="18">
+      <c r="G204" s="18">
         <f t="shared" si="41"/>
         <v>215221.52800000142</v>
       </c>
-      <c r="H203" s="18">
+      <c r="H204" s="18">
         <f t="shared" si="41"/>
         <v>268974.28000000119</v>
       </c>
-      <c r="I203" s="18">
+      <c r="I204" s="18">
         <f t="shared" si="41"/>
         <v>107650.81200000009</v>
       </c>
-      <c r="J203" s="18">
+      <c r="J204" s="18">
         <f t="shared" si="41"/>
         <v>215221.52800000121</v>
       </c>
-      <c r="K203" s="18">
+      <c r="K204" s="18">
         <f t="shared" si="41"/>
         <v>322681.94000000058</v>
       </c>
-      <c r="L203" s="18">
+      <c r="L204" s="18">
         <f t="shared" si="41"/>
         <v>430382.21900000161</v>
       </c>
-      <c r="M203" s="18">
+      <c r="M204" s="18">
         <f t="shared" si="41"/>
         <v>537859.75599999656</v>
       </c>
-      <c r="N203" s="18">
+      <c r="N204" s="18">
         <f t="shared" si="41"/>
         <v>161412.37900000176</v>
       </c>
-      <c r="O203" s="18">
+      <c r="O204" s="18">
         <f t="shared" si="41"/>
         <v>322681.94000000047</v>
       </c>
-      <c r="P203" s="18">
+      <c r="P204" s="18">
         <f t="shared" si="41"/>
         <v>484121.18999999925</v>
       </c>
-      <c r="Q203" s="18">
+      <c r="Q204" s="18">
         <f t="shared" si="41"/>
         <v>645388.66899999697</v>
       </c>
-      <c r="R203" s="18">
+      <c r="R204" s="18">
         <f t="shared" si="41"/>
         <v>806703.22199998505</v>
       </c>
-      <c r="T203" s="18">
+    </row>
+    <row r="205" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C205" s="35"/>
+    </row>
+    <row r="206" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C206" s="35"/>
+    </row>
+    <row r="207" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B207" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="208" spans="2:18" ht="18" x14ac:dyDescent="0.25">
+      <c r="B208" s="22"/>
+    </row>
+    <row r="209" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B209" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C209" s="48"/>
+      <c r="D209" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E209" s="41"/>
+      <c r="F209" s="41"/>
+      <c r="G209" s="41"/>
+      <c r="H209" s="41"/>
+      <c r="I209" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="J209" s="41"/>
+      <c r="K209" s="41"/>
+      <c r="L209" s="41"/>
+      <c r="M209" s="41"/>
+      <c r="N209" s="40">
+        <v>0.75</v>
+      </c>
+      <c r="O209" s="41"/>
+      <c r="P209" s="41"/>
+      <c r="Q209" s="41"/>
+      <c r="R209" s="42"/>
+    </row>
+    <row r="210" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B210" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C210" s="44"/>
+      <c r="D210" s="9">
+        <v>40</v>
+      </c>
+      <c r="E210" s="8">
+        <v>80</v>
+      </c>
+      <c r="F210" s="8">
+        <v>120</v>
+      </c>
+      <c r="G210" s="8">
+        <v>160</v>
+      </c>
+      <c r="H210" s="8">
+        <v>200</v>
+      </c>
+      <c r="I210" s="9">
+        <v>40</v>
+      </c>
+      <c r="J210" s="8">
+        <v>80</v>
+      </c>
+      <c r="K210" s="8">
+        <v>120</v>
+      </c>
+      <c r="L210" s="8">
+        <v>160</v>
+      </c>
+      <c r="M210" s="8">
+        <v>200</v>
+      </c>
+      <c r="N210" s="9">
+        <v>40</v>
+      </c>
+      <c r="O210" s="8">
+        <v>80</v>
+      </c>
+      <c r="P210" s="8">
+        <v>120</v>
+      </c>
+      <c r="Q210" s="8">
+        <v>160</v>
+      </c>
+      <c r="R210" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="211" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B211" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D211" s="19">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="E211" s="20">
+        <v>82019.877758255199</v>
+      </c>
+      <c r="F211" s="20">
+        <v>116218.580895627</v>
+      </c>
+      <c r="G211" s="20">
+        <v>159138.987787872</v>
+      </c>
+      <c r="H211" s="21">
+        <v>199051.54997373</v>
+      </c>
+      <c r="I211" s="19">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="J211" s="20">
+        <v>98926.584932192694</v>
+      </c>
+      <c r="K211" s="20">
+        <v>143445.815290161</v>
+      </c>
+      <c r="L211" s="20">
+        <v>187520.878512628</v>
+      </c>
+      <c r="M211" s="21">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="N211" s="19">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="O211" s="20">
+        <v>55318.520663591</v>
+      </c>
+      <c r="P211" s="20">
         <v>80685.706887105494</v>
       </c>
-    </row>
-    <row r="204" spans="2:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B204" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="T204" s="18">
+      <c r="Q211" s="20">
         <v>118353.559455394</v>
       </c>
-    </row>
-    <row r="205" spans="2:20" ht="18" x14ac:dyDescent="0.25">
-      <c r="B205" s="22"/>
-      <c r="T205" s="18">
+      <c r="R211" s="21">
         <v>143837.329561235</v>
       </c>
     </row>
-    <row r="206" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B206" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="C206" s="48"/>
-      <c r="D206" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="E206" s="46"/>
-      <c r="F206" s="46"/>
-      <c r="G206" s="46"/>
-      <c r="H206" s="46"/>
-      <c r="I206" s="45">
-        <v>0.5</v>
-      </c>
-      <c r="J206" s="46"/>
-      <c r="K206" s="46"/>
-      <c r="L206" s="46"/>
-      <c r="M206" s="46"/>
-      <c r="N206" s="45">
-        <v>0.75</v>
-      </c>
-      <c r="O206" s="46"/>
-      <c r="P206" s="46"/>
-      <c r="Q206" s="46"/>
-      <c r="R206" s="47"/>
-    </row>
-    <row r="207" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B207" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="C207" s="42"/>
-      <c r="D207" s="9">
-        <v>40</v>
-      </c>
-      <c r="E207" s="8">
-        <v>80</v>
-      </c>
-      <c r="F207" s="8">
-        <v>120</v>
-      </c>
-      <c r="G207" s="8">
-        <v>160</v>
-      </c>
-      <c r="H207" s="8">
-        <v>200</v>
-      </c>
-      <c r="I207" s="9">
-        <v>40</v>
-      </c>
-      <c r="J207" s="8">
-        <v>80</v>
-      </c>
-      <c r="K207" s="8">
-        <v>120</v>
-      </c>
-      <c r="L207" s="8">
-        <v>160</v>
-      </c>
-      <c r="M207" s="8">
-        <v>200</v>
-      </c>
-      <c r="N207" s="9">
-        <v>40</v>
-      </c>
-      <c r="O207" s="8">
-        <v>80</v>
-      </c>
-      <c r="P207" s="8">
-        <v>120</v>
-      </c>
-      <c r="Q207" s="8">
-        <v>160</v>
-      </c>
-      <c r="R207" s="10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="208" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B208" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C208" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D208" s="19">
-        <v>39089.046438154801</v>
-      </c>
-      <c r="E208" s="20">
-        <v>82019.877758255199</v>
-      </c>
-      <c r="F208" s="20">
-        <v>116218.580895627</v>
-      </c>
-      <c r="G208" s="20">
-        <v>159138.987787872</v>
-      </c>
-      <c r="H208" s="21">
-        <v>199051.54997373</v>
-      </c>
-      <c r="I208" s="19">
-        <v>47333.995169554197</v>
-      </c>
-      <c r="J208" s="20">
-        <v>98926.584932192694</v>
-      </c>
-      <c r="K208" s="20">
-        <v>143445.815290161</v>
-      </c>
-      <c r="L208" s="20">
-        <v>187520.878512628</v>
-      </c>
-      <c r="M208" s="21">
-        <v>232425.50969515101</v>
-      </c>
-      <c r="N208" s="19">
-        <v>31739.099781575798</v>
-      </c>
-      <c r="O208" s="20">
-        <v>55318.520663591</v>
-      </c>
-      <c r="P208" s="20">
-        <v>80685.706887105494</v>
-      </c>
-      <c r="Q208" s="20">
-        <v>118353.559455394</v>
-      </c>
-      <c r="R208" s="21">
-        <v>143837.329561235</v>
-      </c>
-    </row>
-    <row r="209" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B209" s="40"/>
-      <c r="C209" s="25" t="s">
+    <row r="212" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B212" s="39"/>
+      <c r="C212" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D209" s="26">
-        <v>43327.628561845399</v>
-      </c>
-      <c r="E209" s="27">
-        <v>93971.267241744106</v>
-      </c>
-      <c r="F209" s="27">
-        <v>139098.12210437201</v>
-      </c>
-      <c r="G209" s="27">
-        <v>184765.596212128</v>
-      </c>
-      <c r="H209" s="27">
-        <v>241726.72702626701</v>
-      </c>
-      <c r="I209" s="26">
+      <c r="D212" s="26">
+        <v>43331.404561845397</v>
+      </c>
+      <c r="E212" s="27">
+        <v>93980.541241744097</v>
+      </c>
+      <c r="F212" s="27">
+        <v>139111.39410437201</v>
+      </c>
+      <c r="G212" s="27">
+        <v>184783.85121212801</v>
+      </c>
+      <c r="H212" s="27">
+        <v>241750.62102626701</v>
+      </c>
+      <c r="I212" s="26">
         <v>9044.2498304456894</v>
       </c>
-      <c r="J209" s="27">
+      <c r="J212" s="27">
         <v>23261.579067807001</v>
       </c>
-      <c r="K209" s="27">
+      <c r="K212" s="27">
         <v>32554.6037098382</v>
       </c>
-      <c r="L209" s="27">
+      <c r="L212" s="27">
         <v>44545.369487370503</v>
       </c>
-      <c r="M209" s="27">
+      <c r="M212" s="27">
         <v>54329.548304848198</v>
       </c>
-      <c r="N209" s="26">
+      <c r="N212" s="26">
         <v>1036.6022184242499</v>
       </c>
-      <c r="O209" s="27">
+      <c r="O212" s="27">
         <v>1059.7243364088899</v>
       </c>
-      <c r="P209" s="27">
+      <c r="P212" s="27">
         <v>1734.74411289472</v>
       </c>
-      <c r="Q209" s="27">
+      <c r="Q212" s="27">
         <v>3834.6045446057501</v>
       </c>
-      <c r="R209" s="28">
+      <c r="R212" s="28">
         <v>4272.9784387647796</v>
       </c>
     </row>
-    <row r="210" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B210" s="36"/>
-      <c r="C210" s="24"/>
-      <c r="D210" s="26">
-        <f>SUM(D208:D209)</f>
-        <v>82416.675000000192</v>
-      </c>
-      <c r="E210" s="26">
-        <f t="shared" ref="E210:R210" si="42">SUM(E208:E209)</f>
-        <v>175991.14499999932</v>
-      </c>
-      <c r="F210" s="26">
+    <row r="213" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B213" s="36"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="26">
+        <f>SUM(D211:D212)</f>
+        <v>82420.451000000205</v>
+      </c>
+      <c r="E213" s="26">
+        <f t="shared" ref="E213:R213" si="42">SUM(E211:E212)</f>
+        <v>176000.4189999993</v>
+      </c>
+      <c r="F213" s="26">
         <f t="shared" si="42"/>
-        <v>255316.70299999902</v>
-      </c>
-      <c r="G210" s="26">
+        <v>255329.97499999902</v>
+      </c>
+      <c r="G213" s="26">
         <f t="shared" si="42"/>
-        <v>343904.58400000003</v>
-      </c>
-      <c r="H210" s="26">
+        <v>343922.83900000004</v>
+      </c>
+      <c r="H213" s="26">
         <f t="shared" si="42"/>
-        <v>440778.27699999698</v>
-      </c>
-      <c r="I210" s="26">
+        <v>440802.170999997</v>
+      </c>
+      <c r="I213" s="26">
         <f t="shared" si="42"/>
         <v>56378.244999999886</v>
       </c>
-      <c r="J210" s="26">
+      <c r="J213" s="26">
         <f t="shared" si="42"/>
         <v>122188.1639999997</v>
       </c>
-      <c r="K210" s="26">
+      <c r="K213" s="26">
         <f t="shared" si="42"/>
         <v>176000.41899999921</v>
       </c>
-      <c r="L210" s="26">
+      <c r="L213" s="26">
         <f t="shared" si="42"/>
         <v>232066.24799999851</v>
       </c>
-      <c r="M210" s="26">
+      <c r="M213" s="26">
         <f t="shared" si="42"/>
         <v>286755.0579999992</v>
       </c>
-      <c r="N210" s="26">
+      <c r="N213" s="26">
         <f t="shared" si="42"/>
         <v>32775.702000000048</v>
       </c>
-      <c r="O210" s="26">
+      <c r="O213" s="26">
         <f t="shared" si="42"/>
         <v>56378.244999999893</v>
       </c>
-      <c r="P210" s="26">
+      <c r="P213" s="26">
         <f t="shared" si="42"/>
         <v>82420.451000000219</v>
       </c>
-      <c r="Q210" s="26">
+      <c r="Q213" s="26">
         <f t="shared" si="42"/>
         <v>122188.16399999976</v>
       </c>
-      <c r="R210" s="26">
+      <c r="R213" s="26">
         <f t="shared" si="42"/>
         <v>148110.30799999979</v>
       </c>
     </row>
-    <row r="211" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B211" s="43" t="s">
+    <row r="214" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B214" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C211" s="44"/>
-      <c r="D211" s="29">
-        <v>48.231811453945099</v>
-      </c>
-      <c r="E211" s="30">
-        <v>49.0726403279061</v>
-      </c>
-      <c r="F211" s="30">
-        <v>47.183194808152102</v>
-      </c>
-      <c r="G211" s="30">
-        <v>48.134748946829099</v>
-      </c>
-      <c r="H211" s="31">
-        <v>47.697597631788597</v>
-      </c>
-      <c r="I211" s="29">
-        <v>80.861323010360906</v>
-      </c>
-      <c r="J211" s="30">
-        <v>76.719799612888494</v>
-      </c>
-      <c r="K211" s="30">
-        <v>77.592887775627105</v>
-      </c>
-      <c r="L211" s="30">
-        <v>76.814727314129499</v>
-      </c>
-      <c r="M211" s="31">
-        <v>77.205738358191894</v>
-      </c>
-      <c r="N211" s="29">
-        <v>88.366541424722001</v>
-      </c>
-      <c r="O211" s="30">
-        <v>90.8184371323389</v>
-      </c>
-      <c r="P211" s="30">
-        <v>90.724885194883996</v>
-      </c>
-      <c r="Q211" s="30">
-        <v>89.958157804850202</v>
-      </c>
-      <c r="R211" s="31">
-        <v>90.570116512960595</v>
-      </c>
-    </row>
-    <row r="212" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B212" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C212" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D212" s="18">
-        <v>39089.046438154801</v>
-      </c>
-      <c r="E212" s="18">
-        <v>82019.877758255199</v>
-      </c>
-      <c r="F212" s="18">
-        <v>116218.580895627</v>
-      </c>
-      <c r="G212" s="18">
-        <v>159138.987787872</v>
-      </c>
-      <c r="H212" s="18">
-        <v>199051.54997373</v>
-      </c>
-      <c r="I212" s="18">
-        <v>47331.372169554197</v>
-      </c>
-      <c r="J212" s="18">
-        <v>98920.318932192706</v>
-      </c>
-      <c r="K212" s="18">
-        <v>143436.541290161</v>
-      </c>
-      <c r="L212" s="18">
-        <v>187508.74651262799</v>
-      </c>
-      <c r="M212" s="18">
-        <v>232410.23169515099</v>
-      </c>
-      <c r="N212" s="18">
-        <v>31737.7857815758</v>
-      </c>
-      <c r="O212" s="18">
-        <v>55315.897663591</v>
-      </c>
-      <c r="P212" s="18">
-        <v>80681.930887105496</v>
-      </c>
-      <c r="Q212" s="18">
-        <v>118347.293455394</v>
-      </c>
-      <c r="R212" s="18">
-        <v>143829.63556123499</v>
-      </c>
-    </row>
-    <row r="213" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B213" s="39"/>
-      <c r="C213" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D213" s="19">
-        <v>62.6266260465326</v>
-      </c>
-      <c r="E213" s="20">
-        <v>145.95272218341199</v>
-      </c>
-      <c r="F213" s="20">
-        <v>253.86312214038699</v>
-      </c>
-      <c r="G213" s="20">
-        <v>365.55366372404802</v>
-      </c>
-      <c r="H213" s="21">
-        <v>353.02941921400998</v>
-      </c>
-      <c r="I213" s="19">
-        <v>21484.015108340998</v>
-      </c>
-      <c r="J213" s="20">
-        <v>35410.964109768698</v>
-      </c>
-      <c r="K213" s="20">
-        <v>55839.192232946101</v>
-      </c>
-      <c r="L213" s="20">
-        <v>71190.607977963198</v>
-      </c>
-      <c r="M213" s="21">
-        <v>91655.986653072396</v>
-      </c>
-      <c r="N213" s="19">
-        <v>56051.191862880602</v>
-      </c>
-      <c r="O213" s="20">
-        <v>124618.650763413</v>
-      </c>
-      <c r="P213" s="20">
-        <v>183089.578469145</v>
-      </c>
-      <c r="Q213" s="20">
-        <v>231445.718093773</v>
-      </c>
-      <c r="R213" s="21">
-        <v>297307.87253847002</v>
-      </c>
-    </row>
-    <row r="214" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B214" s="40"/>
-      <c r="C214" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D214" s="19">
-        <v>12502.986000000101</v>
-      </c>
-      <c r="E214" s="20">
-        <v>22024.3470000009</v>
-      </c>
-      <c r="F214" s="20">
-        <v>37600.384000001803</v>
-      </c>
-      <c r="G214" s="20">
-        <v>47122.450000001103</v>
-      </c>
-      <c r="H214" s="21">
-        <v>58866.593000000299</v>
-      </c>
-      <c r="I214" s="19">
-        <v>36741.308000001503</v>
-      </c>
-      <c r="J214" s="20">
-        <v>75257.48</v>
-      </c>
-      <c r="K214" s="20">
-        <v>115572.87899998701</v>
-      </c>
-      <c r="L214" s="20">
-        <v>160735.24699998301</v>
-      </c>
-      <c r="M214" s="21">
-        <v>200645.39299997999</v>
-      </c>
-      <c r="N214" s="19">
-        <v>69749.693999998097</v>
-      </c>
-      <c r="O214" s="20">
-        <v>137061.15999998199</v>
-      </c>
-      <c r="P214" s="20">
-        <v>211954.87199998199</v>
-      </c>
-      <c r="Q214" s="20">
-        <v>284421.51899999101</v>
-      </c>
-      <c r="R214" s="21">
-        <v>352587.18600000802</v>
+      <c r="C214" s="46"/>
+      <c r="D214" s="29">
+        <v>48.226320582877896</v>
+      </c>
+      <c r="E214" s="30">
+        <v>49.067053734061901</v>
+      </c>
+      <c r="F214" s="30">
+        <v>47.177823315118303</v>
+      </c>
+      <c r="G214" s="30">
+        <v>48.129269125683003</v>
+      </c>
+      <c r="H214" s="31">
+        <v>47.6921675774134</v>
+      </c>
+      <c r="I214" s="29">
+        <v>80.862932604735803</v>
+      </c>
+      <c r="J214" s="30">
+        <v>76.719319216757697</v>
+      </c>
+      <c r="K214" s="30">
+        <v>77.591833636915595</v>
+      </c>
+      <c r="L214" s="30">
+        <v>76.813524590163894</v>
+      </c>
+      <c r="M214" s="31">
+        <v>77.205145719489906</v>
+      </c>
+      <c r="N214" s="29">
+        <v>88.366727383120804</v>
+      </c>
+      <c r="O214" s="30">
+        <v>90.818533697632006</v>
+      </c>
+      <c r="P214" s="30">
+        <v>90.725055656749603</v>
+      </c>
+      <c r="Q214" s="30">
+        <v>89.9584471766848</v>
+      </c>
+      <c r="R214" s="31">
+        <v>90.570582877959893</v>
       </c>
     </row>
     <row r="215" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B215" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C215" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D215" s="18">
+        <v>39089.046438154801</v>
+      </c>
+      <c r="E215" s="18">
+        <v>82019.877758255199</v>
+      </c>
+      <c r="F215" s="18">
+        <v>116218.580895627</v>
+      </c>
+      <c r="G215" s="18">
+        <v>159138.987787872</v>
+      </c>
+      <c r="H215" s="18">
+        <v>199051.54997373</v>
+      </c>
+      <c r="I215" s="18">
+        <v>47333.995169554197</v>
+      </c>
+      <c r="J215" s="18">
+        <v>98926.584932192694</v>
+      </c>
+      <c r="K215" s="18">
+        <v>143445.815290161</v>
+      </c>
+      <c r="L215" s="18">
+        <v>187520.878512628</v>
+      </c>
+      <c r="M215" s="18">
+        <v>232425.50969515101</v>
+      </c>
+      <c r="N215" s="18">
+        <v>31739.099781575798</v>
+      </c>
+      <c r="O215" s="18">
+        <v>55318.520663591</v>
+      </c>
+      <c r="P215" s="18">
+        <v>80685.706887105494</v>
+      </c>
+      <c r="Q215" s="18">
+        <v>118353.559455394</v>
+      </c>
+      <c r="R215" s="18">
+        <v>143837.329561235</v>
+      </c>
+    </row>
+    <row r="216" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B216" s="47"/>
+      <c r="C216" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D216" s="19">
+        <v>62.6266260465326</v>
+      </c>
+      <c r="E216" s="20">
+        <v>145.95272218341199</v>
+      </c>
+      <c r="F216" s="20">
+        <v>253.86312214038699</v>
+      </c>
+      <c r="G216" s="20">
+        <v>365.55366372404802</v>
+      </c>
+      <c r="H216" s="21">
+        <v>353.02941921400998</v>
+      </c>
+      <c r="I216" s="19">
+        <v>21484.015108340998</v>
+      </c>
+      <c r="J216" s="20">
+        <v>35410.964109768698</v>
+      </c>
+      <c r="K216" s="20">
+        <v>55839.192232946101</v>
+      </c>
+      <c r="L216" s="20">
+        <v>71190.607977963198</v>
+      </c>
+      <c r="M216" s="21">
+        <v>91655.986653072396</v>
+      </c>
+      <c r="N216" s="19">
+        <v>56051.191862880602</v>
+      </c>
+      <c r="O216" s="20">
+        <v>124618.650763413</v>
+      </c>
+      <c r="P216" s="20">
+        <v>183089.578469145</v>
+      </c>
+      <c r="Q216" s="20">
+        <v>231445.718093773</v>
+      </c>
+      <c r="R216" s="21">
+        <v>297307.87253847002</v>
+      </c>
+    </row>
+    <row r="217" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B217" s="39"/>
+      <c r="C217" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D217" s="19">
+        <v>12502.986000000101</v>
+      </c>
+      <c r="E217" s="20">
+        <v>22024.3470000009</v>
+      </c>
+      <c r="F217" s="20">
+        <v>37600.384000001803</v>
+      </c>
+      <c r="G217" s="20">
+        <v>47122.450000001103</v>
+      </c>
+      <c r="H217" s="21">
+        <v>58866.593000000299</v>
+      </c>
+      <c r="I217" s="19">
+        <v>36744.546000001501</v>
+      </c>
+      <c r="J217" s="20">
+        <v>75261.816999999995</v>
+      </c>
+      <c r="K217" s="20">
+        <v>115578.017999987</v>
+      </c>
+      <c r="L217" s="20">
+        <v>160742.17299998301</v>
+      </c>
+      <c r="M217" s="21">
+        <v>200654.74799998</v>
+      </c>
+      <c r="N217" s="19">
+        <v>69754.251999998101</v>
+      </c>
+      <c r="O217" s="20">
+        <v>137069.411999982</v>
+      </c>
+      <c r="P217" s="20">
+        <v>211967.487999982</v>
+      </c>
+      <c r="Q217" s="20">
+        <v>284437.64699999098</v>
+      </c>
+      <c r="R217" s="21">
+        <v>352606.74000000802</v>
+      </c>
+    </row>
+    <row r="218" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B218" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C215" s="25" t="s">
+      <c r="C218" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D215" s="19">
+      <c r="D218" s="19">
         <v>2241.3779357984899</v>
       </c>
-      <c r="E215" s="20">
+      <c r="E218" s="20">
         <v>3460.6345195614399</v>
       </c>
-      <c r="F215" s="20">
+      <c r="F218" s="20">
         <v>7339.5509822314998</v>
       </c>
-      <c r="G215" s="20">
+      <c r="G218" s="20">
         <v>8594.5365484032409</v>
       </c>
-      <c r="H215" s="21">
+      <c r="H218" s="21">
         <v>10703.107607055899</v>
       </c>
-      <c r="I215" s="19">
+      <c r="I218" s="19">
         <v>2013.8119190336699</v>
       </c>
-      <c r="J215" s="20">
+      <c r="J218" s="20">
         <v>5579.4778598323801</v>
       </c>
-      <c r="K215" s="20">
-        <v>7771.1871545843296</v>
-      </c>
-      <c r="L215" s="20">
-        <v>10874.514865843999</v>
-      </c>
-      <c r="M215" s="21">
-        <v>13046.293765803801</v>
-      </c>
-      <c r="N215" s="19">
+      <c r="K218" s="20">
+        <v>7772.0188933449599</v>
+      </c>
+      <c r="L218" s="20">
+        <v>10875.388361207801</v>
+      </c>
+      <c r="M218" s="21">
+        <v>13047.2442578883</v>
+      </c>
+      <c r="N218" s="19">
         <v>3520.0906782329498</v>
       </c>
-      <c r="O215" s="20">
+      <c r="O218" s="20">
         <v>4945.7284306758802</v>
       </c>
-      <c r="P215" s="20">
+      <c r="P218" s="20">
         <v>7318.7465706147595</v>
       </c>
-      <c r="Q215" s="20">
-        <v>9816.5870779412908</v>
-      </c>
-      <c r="R215" s="21">
+      <c r="Q218" s="20">
+        <v>9816.8252104458206</v>
+      </c>
+      <c r="R218" s="21">
         <v>11229.1503665984</v>
       </c>
     </row>
-    <row r="216" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B216" s="40"/>
-      <c r="C216" s="23" t="s">
+    <row r="219" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B219" s="39"/>
+      <c r="C219" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D216" s="26">
-        <v>13419.940064201701</v>
-      </c>
-      <c r="E216" s="27">
-        <v>24416.362480439398</v>
-      </c>
-      <c r="F216" s="27">
-        <v>44348.220017769498</v>
-      </c>
-      <c r="G216" s="27">
-        <v>54592.613451596597</v>
-      </c>
-      <c r="H216" s="27">
-        <v>69474.661392940994</v>
-      </c>
-      <c r="I216" s="26">
-        <v>11146.2240809664</v>
-      </c>
-      <c r="J216" s="27">
-        <v>29472.642140168198</v>
-      </c>
-      <c r="K216" s="27">
-        <v>42367.8168454154</v>
-      </c>
-      <c r="L216" s="27">
-        <v>58797.568134155597</v>
-      </c>
-      <c r="M216" s="27">
-        <v>70935.795234193894</v>
-      </c>
-      <c r="N216" s="26">
-        <v>16018.370321767101</v>
-      </c>
-      <c r="O216" s="27">
-        <v>23704.994569323899</v>
-      </c>
-      <c r="P216" s="27">
-        <v>34503.5624293851</v>
-      </c>
-      <c r="Q216" s="27">
-        <v>46594.418922058401</v>
-      </c>
-      <c r="R216" s="28">
-        <v>53517.662633401102</v>
-      </c>
-    </row>
-    <row r="217" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B217" s="34"/>
-      <c r="C217" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D217" s="18">
-        <f>SUM(D214:D216)</f>
-        <v>28164.304000000291</v>
-      </c>
-      <c r="E217" s="18">
-        <f t="shared" ref="E217:R217" si="43">SUM(E214:E216)</f>
-        <v>49901.344000001744</v>
-      </c>
-      <c r="F217" s="18">
+      <c r="D219" s="26">
+        <v>13422.005064201699</v>
+      </c>
+      <c r="E219" s="27">
+        <v>24420.3874804394</v>
+      </c>
+      <c r="F219" s="27">
+        <v>44355.147017769501</v>
+      </c>
+      <c r="G219" s="27">
+        <v>54600.642451596599</v>
+      </c>
+      <c r="H219" s="27">
+        <v>69483.700392940998</v>
+      </c>
+      <c r="I219" s="26">
+        <v>11147.0110809664</v>
+      </c>
+      <c r="J219" s="27">
+        <v>29476.334140168201</v>
+      </c>
+      <c r="K219" s="27">
+        <v>42372.623106654697</v>
+      </c>
+      <c r="L219" s="27">
+        <v>58804.504638791797</v>
+      </c>
+      <c r="M219" s="27">
+        <v>70942.959742109495</v>
+      </c>
+      <c r="N219" s="26">
+        <v>16020.7393217671</v>
+      </c>
+      <c r="O219" s="27">
+        <v>23707.5195693239</v>
+      </c>
+      <c r="P219" s="27">
+        <v>34506.974429385104</v>
+      </c>
+      <c r="Q219" s="27">
+        <v>46598.020789553899</v>
+      </c>
+      <c r="R219" s="28">
+        <v>53521.155633401097</v>
+      </c>
+    </row>
+    <row r="220" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B220" s="34"/>
+      <c r="C220" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D220" s="18">
+        <f>SUM(D217:D219)</f>
+        <v>28166.36900000029</v>
+      </c>
+      <c r="E220" s="18">
+        <f t="shared" ref="E220:R220" si="43">SUM(E217:E219)</f>
+        <v>49905.369000001738</v>
+      </c>
+      <c r="F220" s="18">
         <f t="shared" si="43"/>
-        <v>89288.155000002793</v>
-      </c>
-      <c r="G217" s="18">
+        <v>89295.082000002803</v>
+      </c>
+      <c r="G220" s="18">
         <f t="shared" si="43"/>
-        <v>110309.60000000094</v>
-      </c>
-      <c r="H217" s="18">
+        <v>110317.62900000095</v>
+      </c>
+      <c r="H220" s="18">
         <f t="shared" si="43"/>
-        <v>139044.3619999972</v>
-      </c>
-      <c r="I217" s="18">
+        <v>139053.40099999722</v>
+      </c>
+      <c r="I220" s="18">
         <f t="shared" si="43"/>
-        <v>49901.344000001576</v>
-      </c>
-      <c r="J217" s="18">
+        <v>49905.369000001578</v>
+      </c>
+      <c r="J220" s="18">
         <f t="shared" si="43"/>
-        <v>110309.60000000057</v>
-      </c>
-      <c r="K217" s="18">
+        <v>110317.62900000057</v>
+      </c>
+      <c r="K220" s="18">
         <f t="shared" si="43"/>
-        <v>165711.88299998673</v>
-      </c>
-      <c r="L217" s="18">
+        <v>165722.65999998664</v>
+      </c>
+      <c r="L220" s="18">
         <f t="shared" si="43"/>
-        <v>230407.32999998258</v>
-      </c>
-      <c r="M217" s="18">
+        <v>230422.06599998259</v>
+      </c>
+      <c r="M220" s="18">
         <f t="shared" si="43"/>
-        <v>284627.48199997767</v>
-      </c>
-      <c r="N217" s="18">
+        <v>284644.95199997781</v>
+      </c>
+      <c r="N220" s="18">
         <f t="shared" si="43"/>
-        <v>89288.154999998151</v>
-      </c>
-      <c r="O217" s="18">
+        <v>89295.081999998161</v>
+      </c>
+      <c r="O220" s="18">
         <f t="shared" si="43"/>
-        <v>165711.88299998175</v>
-      </c>
-      <c r="P217" s="18">
+        <v>165722.65999998176</v>
+      </c>
+      <c r="P220" s="18">
         <f t="shared" si="43"/>
-        <v>253777.18099998182</v>
-      </c>
-      <c r="Q217" s="18">
+        <v>253793.20899998184</v>
+      </c>
+      <c r="Q220" s="18">
         <f t="shared" si="43"/>
-        <v>340832.52499999071</v>
-      </c>
-      <c r="R217" s="18">
+        <v>340852.49299999065</v>
+      </c>
+      <c r="R220" s="18">
         <f t="shared" si="43"/>
-        <v>417333.99900000752</v>
-      </c>
-    </row>
-    <row r="218" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C218" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D218" s="18">
-        <f>SUM(D212:D215)</f>
+        <v>417357.04600000754</v>
+      </c>
+    </row>
+    <row r="221" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C221" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D221" s="18">
+        <f>SUM(D215:D218)</f>
         <v>53896.036999999924</v>
       </c>
-      <c r="E218" s="18">
-        <f t="shared" ref="E218:R218" si="44">SUM(E212:E215)</f>
+      <c r="E221" s="18">
+        <f t="shared" ref="E221:R221" si="44">SUM(E215:E218)</f>
         <v>107650.81200000095</v>
       </c>
-      <c r="F218" s="18">
+      <c r="F221" s="18">
         <f t="shared" si="44"/>
         <v>161412.37900000071</v>
       </c>
-      <c r="G218" s="18">
+      <c r="G221" s="18">
         <f t="shared" si="44"/>
         <v>215221.52800000037</v>
       </c>
-      <c r="H218" s="18">
+      <c r="H221" s="18">
         <f t="shared" si="44"/>
         <v>268974.2800000002</v>
       </c>
-      <c r="I218" s="18">
+      <c r="I221" s="18">
         <f t="shared" si="44"/>
-        <v>107570.50719693037</v>
-      </c>
-      <c r="J218" s="18">
+        <v>107576.36819693037</v>
+      </c>
+      <c r="J221" s="18">
         <f t="shared" si="44"/>
-        <v>215168.24090179379</v>
-      </c>
-      <c r="K218" s="18">
+        <v>215178.84390179373</v>
+      </c>
+      <c r="K221" s="18">
         <f t="shared" si="44"/>
-        <v>322619.79967767844</v>
-      </c>
-      <c r="L218" s="18">
+        <v>322635.04441643908</v>
+      </c>
+      <c r="L221" s="18">
         <f t="shared" si="44"/>
-        <v>430309.11635641818</v>
-      </c>
-      <c r="M218" s="18">
+        <v>430329.047851782</v>
+      </c>
+      <c r="M221" s="18">
         <f t="shared" si="44"/>
-        <v>537757.90511400718</v>
-      </c>
-      <c r="N218" s="18">
+        <v>537783.48860609171</v>
+      </c>
+      <c r="N221" s="18">
         <f t="shared" si="44"/>
-        <v>161058.76232268746</v>
-      </c>
-      <c r="O218" s="18">
+        <v>161064.63432268746</v>
+      </c>
+      <c r="O221" s="18">
         <f t="shared" si="44"/>
-        <v>321941.43685766187</v>
-      </c>
-      <c r="P218" s="18">
+        <v>321952.31185766187</v>
+      </c>
+      <c r="P221" s="18">
         <f t="shared" si="44"/>
-        <v>483045.12792684726</v>
-      </c>
-      <c r="Q218" s="18">
+        <v>483061.51992684719</v>
+      </c>
+      <c r="Q221" s="18">
         <f t="shared" si="44"/>
-        <v>644031.11762709927</v>
-      </c>
-      <c r="R218" s="18">
+        <v>644053.74975960376</v>
+      </c>
+      <c r="R221" s="18">
         <f t="shared" si="44"/>
-        <v>804953.84446631139</v>
-      </c>
-    </row>
-    <row r="219" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C219" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="D219" s="18">
-        <v>0</v>
-      </c>
-      <c r="E219" s="18">
-        <v>0</v>
-      </c>
-      <c r="F219" s="18">
-        <v>0</v>
-      </c>
-      <c r="G219" s="18">
-        <v>0</v>
-      </c>
-      <c r="H219" s="18">
-        <v>0</v>
-      </c>
-      <c r="I219" s="18">
-        <v>80.304803070971005</v>
-      </c>
-      <c r="J219" s="18">
-        <v>53.2870982060087</v>
-      </c>
-      <c r="K219" s="18">
-        <v>62.1403223085928</v>
-      </c>
-      <c r="L219" s="18">
-        <v>73.102643563524097</v>
-      </c>
-      <c r="M219" s="18">
-        <v>101.85088597105</v>
-      </c>
-      <c r="N219" s="18">
-        <v>353.61667731095002</v>
-      </c>
-      <c r="O219" s="18">
-        <v>740.50314231772802</v>
-      </c>
-      <c r="P219" s="18">
-        <v>1076.0620731337499</v>
-      </c>
-      <c r="Q219" s="18">
-        <v>1357.5513728926401</v>
-      </c>
-      <c r="R219" s="18">
-        <v>1749.3775336955</v>
-      </c>
-    </row>
-    <row r="220" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C220" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="D220" s="18">
-        <f>SUM(D218:D219)</f>
+        <v>804981.09246631141</v>
+      </c>
+    </row>
+    <row r="222" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C222" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D222" s="18">
+        <v>0</v>
+      </c>
+      <c r="E222" s="18">
+        <v>0</v>
+      </c>
+      <c r="F222" s="18">
+        <v>0</v>
+      </c>
+      <c r="G222" s="18">
+        <v>0</v>
+      </c>
+      <c r="H222" s="18">
+        <v>0</v>
+      </c>
+      <c r="I222" s="18">
+        <v>74.443803070971001</v>
+      </c>
+      <c r="J222" s="18">
+        <v>42.684098206008699</v>
+      </c>
+      <c r="K222" s="18">
+        <v>46.895583547958999</v>
+      </c>
+      <c r="L222" s="18">
+        <v>53.171148199699502</v>
+      </c>
+      <c r="M222" s="18">
+        <v>76.267393886573899</v>
+      </c>
+      <c r="N222" s="18">
+        <v>347.74467731095001</v>
+      </c>
+      <c r="O222" s="18">
+        <v>729.62814231772802</v>
+      </c>
+      <c r="P222" s="18">
+        <v>1059.6700731337501</v>
+      </c>
+      <c r="Q222" s="18">
+        <v>1334.91924038811</v>
+      </c>
+      <c r="R222" s="18">
+        <v>1722.1295336955</v>
+      </c>
+    </row>
+    <row r="223" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C223" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D223" s="18">
+        <f>SUM(D221:D222)</f>
         <v>53896.036999999924</v>
       </c>
-      <c r="E220" s="18">
-        <f t="shared" ref="E220:R220" si="45">SUM(E218:E219)</f>
+      <c r="E223" s="18">
+        <f t="shared" ref="E223:R223" si="45">SUM(E221:E222)</f>
         <v>107650.81200000095</v>
       </c>
-      <c r="F220" s="18">
+      <c r="F223" s="18">
         <f t="shared" si="45"/>
         <v>161412.37900000071</v>
       </c>
-      <c r="G220" s="18">
+      <c r="G223" s="18">
         <f t="shared" si="45"/>
         <v>215221.52800000037</v>
       </c>
-      <c r="H220" s="18">
+      <c r="H223" s="18">
         <f t="shared" si="45"/>
         <v>268974.2800000002</v>
       </c>
-      <c r="I220" s="18">
+      <c r="I223" s="18">
         <f t="shared" si="45"/>
         <v>107650.81200000134</v>
       </c>
-      <c r="J220" s="18">
+      <c r="J223" s="18">
         <f t="shared" si="45"/>
-        <v>215221.52799999979</v>
-      </c>
-      <c r="K220" s="18">
+        <v>215221.52799999973</v>
+      </c>
+      <c r="K223" s="18">
         <f t="shared" si="45"/>
         <v>322681.93999998702</v>
       </c>
-      <c r="L220" s="18">
+      <c r="L223" s="18">
         <f t="shared" si="45"/>
         <v>430382.21899998171</v>
       </c>
-      <c r="M220" s="18">
+      <c r="M223" s="18">
         <f t="shared" si="45"/>
         <v>537859.75599997828</v>
       </c>
-      <c r="N220" s="18">
+      <c r="N223" s="18">
         <f t="shared" si="45"/>
         <v>161412.37899999841</v>
       </c>
-      <c r="O220" s="18">
+      <c r="O223" s="18">
         <f t="shared" si="45"/>
         <v>322681.93999997963</v>
       </c>
-      <c r="P220" s="18">
+      <c r="P223" s="18">
         <f t="shared" si="45"/>
-        <v>484121.18999998103</v>
-      </c>
-      <c r="Q220" s="18">
+        <v>484121.18999998097</v>
+      </c>
+      <c r="Q223" s="18">
         <f t="shared" si="45"/>
-        <v>645388.66899999196</v>
-      </c>
-      <c r="R220" s="18">
+        <v>645388.66899999185</v>
+      </c>
+      <c r="R223" s="18">
         <f t="shared" si="45"/>
         <v>806703.22200000694</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="108">
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:H41"/>
-    <mergeCell ref="I41:M41"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="D206:H206"/>
-    <mergeCell ref="I206:M206"/>
-    <mergeCell ref="N206:R206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:B194"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="N191:R191"/>
-    <mergeCell ref="D153:H153"/>
-    <mergeCell ref="I153:M153"/>
-    <mergeCell ref="N153:R153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="D191:H191"/>
-    <mergeCell ref="I191:M191"/>
-    <mergeCell ref="D171:H171"/>
-    <mergeCell ref="I171:M171"/>
-    <mergeCell ref="N171:R171"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:B179"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="N136:R136"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="I136:M136"/>
-    <mergeCell ref="D116:H116"/>
-    <mergeCell ref="I116:M116"/>
-    <mergeCell ref="N116:R116"/>
-    <mergeCell ref="N99:R99"/>
-    <mergeCell ref="D78:H78"/>
-    <mergeCell ref="I78:M78"/>
-    <mergeCell ref="N78:R78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="D99:H99"/>
-    <mergeCell ref="I99:M99"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B108:B109"/>
     <mergeCell ref="N4:R4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B61:C61"/>
@@ -10645,21 +10466,84 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="D99:H99"/>
+    <mergeCell ref="I99:M99"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:M4"/>
     <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="I136:M136"/>
+    <mergeCell ref="D116:H116"/>
+    <mergeCell ref="I116:M116"/>
+    <mergeCell ref="N116:R116"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="D78:H78"/>
+    <mergeCell ref="I78:M78"/>
+    <mergeCell ref="N78:R78"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="N192:R192"/>
+    <mergeCell ref="D153:H153"/>
+    <mergeCell ref="I153:M153"/>
+    <mergeCell ref="N153:R153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="D192:H192"/>
+    <mergeCell ref="I192:M192"/>
+    <mergeCell ref="D171:H171"/>
+    <mergeCell ref="I171:M171"/>
+    <mergeCell ref="N171:R171"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:B179"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="N136:R136"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="B159:B161"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B145:B146"/>
     <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B218:B219"/>
+    <mergeCell ref="D209:H209"/>
+    <mergeCell ref="I209:M209"/>
+    <mergeCell ref="N209:R209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="I41:M41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
